--- a/src/main/resources/complaince_rules_banner1.xlsx
+++ b/src/main/resources/complaince_rules_banner1.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\WorkSpace\IAB Project\boot-drools-decision\src\main\resources\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F9828ECA-3B76-4507-98FC-2614B7A959C3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E1469A38-B4EA-410A-ACFE-1990621DCCE4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1153" uniqueCount="403">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1153" uniqueCount="407">
   <si>
     <t>RuleSet</t>
   </si>
@@ -77,24 +77,12 @@
     <t>adSessionId==$1</t>
   </si>
   <si>
-    <t>impressionType!=$1</t>
-  </si>
-  <si>
-    <t>impressionType==$1</t>
-  </si>
-  <si>
     <t>mediaType!=$1</t>
   </si>
   <si>
     <t>mediaType==$1</t>
   </si>
   <si>
-    <t>creativeType!=$1</t>
-  </si>
-  <si>
-    <t>creativeType==$1</t>
-  </si>
-  <si>
     <t>type=="$param"</t>
   </si>
   <si>
@@ -494,9 +482,6 @@
     <t>os==$1</t>
   </si>
   <si>
-    <t>ImpressionType==$1</t>
-  </si>
-  <si>
     <t>omidImplementer</t>
   </si>
   <si>
@@ -906,9 +891,6 @@
   </si>
   <si>
     <t>System.out.println("ImpressionType Action:"+$param); loadedResult.setImpressionType($param);</t>
-  </si>
-  <si>
-    <t>System.out.println("MediaType Action:"+$param); loadedResult.setMediaType($param);</t>
   </si>
   <si>
     <t>System.out.println("CreativeType Action:"+$param); loadedResult.setCreativeType($param);</t>
@@ -1371,6 +1353,36 @@
   </si>
   <si>
     <t xml:space="preserve">PercentageInView&lt;=$1  </t>
+  </si>
+  <si>
+    <t>mediaType in ($param)</t>
+  </si>
+  <si>
+    <t>"display","video"</t>
+  </si>
+  <si>
+    <t>mediaType not in ($param)</t>
+  </si>
+  <si>
+    <t>System.out.println("MediaType Action:"+ $param); loadedResult.setMediaType($param);</t>
+  </si>
+  <si>
+    <t>"loaded","beginToRender","onePixel","viewable","audible","other","unspecified","definedByJavaScript"</t>
+  </si>
+  <si>
+    <t>impressionType in ($param)</t>
+  </si>
+  <si>
+    <t>impressionType not in ($param)</t>
+  </si>
+  <si>
+    <t>creativeType in ($param)</t>
+  </si>
+  <si>
+    <t>creativeType not in ($param)</t>
+  </si>
+  <si>
+    <t>"htmlDisplay","nativeDisplay"</t>
   </si>
 </sst>
 </file>
@@ -2161,8 +2173,8 @@
   <sheetPr codeName="Sheet1"/>
   <dimension ref="A1:BW993"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A82" workbookViewId="0">
-      <selection activeCell="D88" sqref="D88"/>
+    <sheetView tabSelected="1" topLeftCell="AB151" workbookViewId="0">
+      <selection activeCell="AO160" sqref="AO160"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="10" x14ac:dyDescent="0.35"/>
@@ -2218,7 +2230,7 @@
         <v>2</v>
       </c>
       <c r="B2" s="48" t="s">
-        <v>223</v>
+        <v>218</v>
       </c>
       <c r="C2" s="49"/>
       <c r="D2" s="5"/>
@@ -2258,7 +2270,7 @@
         <v>5</v>
       </c>
       <c r="B4" s="44" t="s">
-        <v>224</v>
+        <v>219</v>
       </c>
       <c r="C4" s="45"/>
       <c r="D4" s="3"/>
@@ -2362,37 +2374,37 @@
         <v>12</v>
       </c>
       <c r="D8" s="3" t="s">
-        <v>13</v>
+        <v>402</v>
       </c>
       <c r="E8" s="3" t="s">
-        <v>14</v>
+        <v>403</v>
       </c>
       <c r="F8" s="3" t="s">
+        <v>397</v>
+      </c>
+      <c r="G8" s="3" t="s">
+        <v>399</v>
+      </c>
+      <c r="H8" s="3" t="s">
+        <v>404</v>
+      </c>
+      <c r="I8" s="3" t="s">
+        <v>405</v>
+      </c>
+      <c r="J8" s="3" t="s">
         <v>15</v>
       </c>
-      <c r="G8" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="H8" s="3" t="s">
-        <v>17</v>
-      </c>
-      <c r="I8" s="3" t="s">
-        <v>18</v>
-      </c>
-      <c r="J8" s="3" t="s">
-        <v>19</v>
-      </c>
       <c r="K8" s="3" t="s">
-        <v>288</v>
+        <v>283</v>
       </c>
       <c r="L8" s="3" t="s">
-        <v>289</v>
+        <v>284</v>
       </c>
       <c r="M8" s="3" t="s">
-        <v>290</v>
+        <v>400</v>
       </c>
       <c r="N8" s="3" t="s">
-        <v>291</v>
+        <v>285</v>
       </c>
     </row>
     <row r="9" spans="1:14" ht="20.5" thickBot="1" x14ac:dyDescent="0.4">
@@ -2400,51 +2412,51 @@
         <v>7</v>
       </c>
       <c r="B9" s="7" t="s">
+        <v>16</v>
+      </c>
+      <c r="C9" s="7" t="s">
+        <v>16</v>
+      </c>
+      <c r="D9" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="E9" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="F9" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="G9" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="H9" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="I9" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="J9" s="7" t="s">
         <v>20</v>
       </c>
-      <c r="C9" s="7" t="s">
-        <v>20</v>
-      </c>
-      <c r="D9" s="7" t="s">
+      <c r="K9" s="7" t="s">
         <v>21</v>
       </c>
-      <c r="E9" s="7" t="s">
+      <c r="L9" s="7" t="s">
         <v>21</v>
       </c>
-      <c r="F9" s="7" t="s">
-        <v>22</v>
-      </c>
-      <c r="G9" s="7" t="s">
-        <v>22</v>
-      </c>
-      <c r="H9" s="7" t="s">
-        <v>23</v>
-      </c>
-      <c r="I9" s="7" t="s">
-        <v>23</v>
-      </c>
-      <c r="J9" s="7" t="s">
-        <v>24</v>
-      </c>
-      <c r="K9" s="7" t="s">
-        <v>25</v>
-      </c>
-      <c r="L9" s="7" t="s">
-        <v>25</v>
-      </c>
       <c r="M9" s="7" t="s">
-        <v>25</v>
+        <v>21</v>
       </c>
       <c r="N9" s="7" t="s">
-        <v>25</v>
+        <v>21</v>
       </c>
     </row>
     <row r="10" spans="1:14" ht="10.5" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A10" s="23" t="s">
-        <v>26</v>
+        <v>22</v>
       </c>
       <c r="B10" s="3" t="s">
-        <v>27</v>
+        <v>23</v>
       </c>
       <c r="C10" s="3"/>
       <c r="D10" s="3"/>
@@ -2454,10 +2466,10 @@
       <c r="H10" s="3"/>
       <c r="I10" s="3"/>
       <c r="J10" s="3" t="s">
-        <v>28</v>
+        <v>24</v>
       </c>
       <c r="K10" s="3" t="s">
-        <v>95</v>
+        <v>91</v>
       </c>
       <c r="L10" s="3"/>
       <c r="M10" s="3"/>
@@ -2465,11 +2477,11 @@
     </row>
     <row r="11" spans="1:14" ht="20.5" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A11" s="23" t="s">
-        <v>29</v>
+        <v>25</v>
       </c>
       <c r="B11" s="3"/>
       <c r="C11" s="3" t="s">
-        <v>27</v>
+        <v>23</v>
       </c>
       <c r="D11" s="3"/>
       <c r="E11" s="3"/>
@@ -2478,23 +2490,23 @@
       <c r="H11" s="3"/>
       <c r="I11" s="3"/>
       <c r="J11" s="3" t="s">
-        <v>28</v>
+        <v>24</v>
       </c>
       <c r="K11" s="3" t="s">
-        <v>365</v>
+        <v>359</v>
       </c>
       <c r="L11" s="3"/>
       <c r="M11" s="3"/>
       <c r="N11" s="3"/>
     </row>
-    <row r="12" spans="1:14" ht="10.5" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="12" spans="1:14" ht="70.5" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A12" s="23" t="s">
-        <v>30</v>
+        <v>26</v>
       </c>
       <c r="B12" s="3"/>
       <c r="C12" s="3"/>
       <c r="D12" s="3" t="s">
-        <v>27</v>
+        <v>401</v>
       </c>
       <c r="E12" s="3"/>
       <c r="F12" s="3"/>
@@ -2502,66 +2514,66 @@
       <c r="H12" s="3"/>
       <c r="I12" s="3"/>
       <c r="J12" s="3" t="s">
-        <v>28</v>
+        <v>24</v>
       </c>
       <c r="K12" s="3"/>
       <c r="L12" s="3" t="s">
-        <v>95</v>
+        <v>91</v>
       </c>
       <c r="M12" s="3"/>
       <c r="N12" s="3"/>
     </row>
-    <row r="13" spans="1:14" ht="20.5" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="13" spans="1:14" ht="70.5" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A13" s="23" t="s">
-        <v>31</v>
+        <v>27</v>
       </c>
       <c r="B13" s="3"/>
       <c r="C13" s="3"/>
       <c r="D13" s="3"/>
       <c r="E13" s="3" t="s">
-        <v>27</v>
+        <v>401</v>
       </c>
       <c r="F13" s="3"/>
       <c r="G13" s="3"/>
       <c r="H13" s="3"/>
       <c r="I13" s="3"/>
       <c r="J13" s="3" t="s">
-        <v>28</v>
+        <v>24</v>
       </c>
       <c r="K13" s="3"/>
       <c r="L13" s="3" t="s">
-        <v>365</v>
+        <v>359</v>
       </c>
       <c r="M13" s="3"/>
       <c r="N13" s="3"/>
     </row>
-    <row r="14" spans="1:14" ht="10.5" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="14" spans="1:14" ht="20.5" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A14" s="23" t="s">
-        <v>32</v>
+        <v>28</v>
       </c>
       <c r="B14" s="3"/>
       <c r="C14" s="3"/>
       <c r="D14" s="3"/>
       <c r="E14" s="3"/>
       <c r="F14" s="3" t="s">
-        <v>27</v>
+        <v>398</v>
       </c>
       <c r="G14" s="3"/>
       <c r="H14" s="3"/>
       <c r="I14" s="3"/>
       <c r="J14" s="3" t="s">
-        <v>28</v>
+        <v>24</v>
       </c>
       <c r="K14" s="3"/>
       <c r="L14" s="3"/>
       <c r="M14" s="3" t="s">
-        <v>95</v>
+        <v>91</v>
       </c>
       <c r="N14" s="3"/>
     </row>
     <row r="15" spans="1:14" ht="20.5" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A15" s="23" t="s">
-        <v>33</v>
+        <v>29</v>
       </c>
       <c r="B15" s="3"/>
       <c r="C15" s="3"/>
@@ -2569,23 +2581,23 @@
       <c r="E15" s="3"/>
       <c r="F15" s="3"/>
       <c r="G15" s="3" t="s">
-        <v>27</v>
+        <v>398</v>
       </c>
       <c r="H15" s="3"/>
       <c r="I15" s="3"/>
       <c r="J15" s="3" t="s">
-        <v>28</v>
+        <v>24</v>
       </c>
       <c r="K15" s="3"/>
       <c r="L15" s="3"/>
       <c r="M15" s="3" t="s">
-        <v>365</v>
+        <v>359</v>
       </c>
       <c r="N15" s="3"/>
     </row>
-    <row r="16" spans="1:14" ht="10.5" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="16" spans="1:14" ht="30.5" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A16" s="23" t="s">
-        <v>34</v>
+        <v>30</v>
       </c>
       <c r="B16" s="3"/>
       <c r="C16" s="3"/>
@@ -2594,22 +2606,22 @@
       <c r="F16" s="3"/>
       <c r="G16" s="3"/>
       <c r="H16" s="3" t="s">
-        <v>27</v>
+        <v>406</v>
       </c>
       <c r="I16" s="3"/>
       <c r="J16" s="3" t="s">
-        <v>28</v>
+        <v>24</v>
       </c>
       <c r="K16" s="3"/>
       <c r="L16" s="3"/>
       <c r="M16" s="3"/>
       <c r="N16" s="3" t="s">
-        <v>95</v>
-      </c>
-    </row>
-    <row r="17" spans="1:74" ht="20.5" thickBot="1" x14ac:dyDescent="0.4">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="17" spans="1:74" ht="30.5" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A17" s="23" t="s">
-        <v>35</v>
+        <v>31</v>
       </c>
       <c r="B17" s="3"/>
       <c r="C17" s="3"/>
@@ -2619,16 +2631,16 @@
       <c r="G17" s="3"/>
       <c r="H17" s="3"/>
       <c r="I17" s="3" t="s">
-        <v>27</v>
+        <v>406</v>
       </c>
       <c r="J17" s="3" t="s">
-        <v>28</v>
+        <v>24</v>
       </c>
       <c r="K17" s="3"/>
       <c r="L17" s="3"/>
       <c r="M17" s="3"/>
       <c r="N17" s="3" t="s">
-        <v>365</v>
+        <v>359</v>
       </c>
     </row>
     <row r="18" spans="1:74" ht="10.5" thickBot="1" x14ac:dyDescent="0.4">
@@ -2649,7 +2661,7 @@
     </row>
     <row r="19" spans="1:74" s="9" customFormat="1" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A19" s="24" t="s">
-        <v>366</v>
+        <v>360</v>
       </c>
       <c r="B19" s="8"/>
       <c r="C19" s="8"/>
@@ -2694,7 +2706,7 @@
     <row r="21" spans="1:74" ht="20" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A21" s="23"/>
       <c r="B21" s="50" t="s">
-        <v>36</v>
+        <v>32</v>
       </c>
       <c r="C21" s="51"/>
       <c r="D21" s="52"/>
@@ -2718,10 +2730,10 @@
         <v>12</v>
       </c>
       <c r="D22" s="3" t="s">
-        <v>19</v>
+        <v>15</v>
       </c>
       <c r="E22" s="3" t="s">
-        <v>312</v>
+        <v>306</v>
       </c>
       <c r="F22" s="3"/>
       <c r="G22" s="3"/>
@@ -2738,16 +2750,16 @@
         <v>7</v>
       </c>
       <c r="B23" s="7" t="s">
+        <v>16</v>
+      </c>
+      <c r="C23" s="7" t="s">
+        <v>16</v>
+      </c>
+      <c r="D23" s="7" t="s">
         <v>20</v>
       </c>
-      <c r="C23" s="7" t="s">
-        <v>20</v>
-      </c>
-      <c r="D23" s="7" t="s">
-        <v>24</v>
-      </c>
       <c r="E23" s="7" t="s">
-        <v>25</v>
+        <v>21</v>
       </c>
       <c r="F23" s="3"/>
       <c r="G23" s="3"/>
@@ -2761,17 +2773,17 @@
     </row>
     <row r="24" spans="1:74" ht="10.5" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A24" s="23" t="s">
-        <v>37</v>
+        <v>33</v>
       </c>
       <c r="B24" s="3" t="s">
-        <v>27</v>
+        <v>23</v>
       </c>
       <c r="C24" s="3"/>
       <c r="D24" s="3" t="s">
-        <v>38</v>
+        <v>34</v>
       </c>
       <c r="E24" s="3" t="s">
-        <v>95</v>
+        <v>91</v>
       </c>
       <c r="F24" s="3"/>
       <c r="G24" s="3"/>
@@ -2785,17 +2797,17 @@
     </row>
     <row r="25" spans="1:74" ht="10.5" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A25" s="23" t="s">
-        <v>39</v>
+        <v>35</v>
       </c>
       <c r="B25" s="3"/>
       <c r="C25" s="3" t="s">
-        <v>27</v>
+        <v>23</v>
       </c>
       <c r="D25" s="3" t="s">
-        <v>38</v>
+        <v>34</v>
       </c>
       <c r="E25" s="3" t="s">
-        <v>365</v>
+        <v>359</v>
       </c>
       <c r="F25" s="3"/>
       <c r="G25" s="3"/>
@@ -2825,7 +2837,7 @@
     </row>
     <row r="27" spans="1:74" s="9" customFormat="1" ht="11" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A27" s="25" t="s">
-        <v>324</v>
+        <v>318</v>
       </c>
       <c r="B27" s="10"/>
       <c r="C27" s="10"/>
@@ -3123,7 +3135,7 @@
     <row r="29" spans="1:74" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A29" s="27"/>
       <c r="B29" s="53" t="s">
-        <v>40</v>
+        <v>36</v>
       </c>
       <c r="C29" s="54"/>
       <c r="D29" s="54"/>
@@ -3201,223 +3213,223 @@
     <row r="30" spans="1:74" ht="110.5" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A30" s="27"/>
       <c r="B30" s="14" t="s">
+        <v>37</v>
+      </c>
+      <c r="C30" s="14" t="s">
+        <v>38</v>
+      </c>
+      <c r="D30" s="14" t="s">
+        <v>39</v>
+      </c>
+      <c r="E30" s="14" t="s">
+        <v>39</v>
+      </c>
+      <c r="F30" s="14" t="s">
+        <v>40</v>
+      </c>
+      <c r="G30" s="14" t="s">
         <v>41</v>
       </c>
-      <c r="C30" s="14" t="s">
+      <c r="H30" s="14" t="s">
+        <v>13</v>
+      </c>
+      <c r="I30" s="14" t="s">
+        <v>14</v>
+      </c>
+      <c r="J30" s="14" t="s">
+        <v>227</v>
+      </c>
+      <c r="K30" s="14" t="s">
+        <v>228</v>
+      </c>
+      <c r="L30" s="14" t="s">
+        <v>307</v>
+      </c>
+      <c r="M30" s="14" t="s">
+        <v>308</v>
+      </c>
+      <c r="N30" s="14" t="s">
         <v>42</v>
       </c>
-      <c r="D30" s="14" t="s">
+      <c r="O30" s="14" t="s">
         <v>43</v>
       </c>
-      <c r="E30" s="14" t="s">
-        <v>43</v>
-      </c>
-      <c r="F30" s="14" t="s">
+      <c r="P30" s="14" t="s">
         <v>44</v>
       </c>
-      <c r="G30" s="14" t="s">
+      <c r="Q30" s="14" t="s">
         <v>45</v>
       </c>
-      <c r="H30" s="14" t="s">
+      <c r="R30" s="14" t="s">
+        <v>46</v>
+      </c>
+      <c r="S30" s="14" t="s">
+        <v>47</v>
+      </c>
+      <c r="T30" s="14" t="s">
+        <v>48</v>
+      </c>
+      <c r="U30" s="14" t="s">
+        <v>49</v>
+      </c>
+      <c r="V30" s="14" t="s">
+        <v>50</v>
+      </c>
+      <c r="W30" s="14" t="s">
+        <v>51</v>
+      </c>
+      <c r="X30" s="14" t="s">
+        <v>52</v>
+      </c>
+      <c r="Y30" s="14" t="s">
+        <v>53</v>
+      </c>
+      <c r="Z30" s="14" t="s">
+        <v>54</v>
+      </c>
+      <c r="AA30" s="14" t="s">
+        <v>54</v>
+      </c>
+      <c r="AB30" s="14" t="s">
+        <v>55</v>
+      </c>
+      <c r="AC30" s="14" t="s">
+        <v>56</v>
+      </c>
+      <c r="AD30" s="14" t="s">
+        <v>57</v>
+      </c>
+      <c r="AE30" s="14" t="s">
+        <v>58</v>
+      </c>
+      <c r="AF30" s="14" t="s">
+        <v>59</v>
+      </c>
+      <c r="AG30" s="14" t="s">
+        <v>60</v>
+      </c>
+      <c r="AH30" s="14" t="s">
+        <v>61</v>
+      </c>
+      <c r="AI30" s="14" t="s">
+        <v>62</v>
+      </c>
+      <c r="AJ30" s="14" t="s">
+        <v>63</v>
+      </c>
+      <c r="AK30" s="14" t="s">
+        <v>282</v>
+      </c>
+      <c r="AL30" s="14" t="s">
+        <v>138</v>
+      </c>
+      <c r="AM30" s="14" t="s">
+        <v>139</v>
+      </c>
+      <c r="AN30" s="14" t="s">
+        <v>140</v>
+      </c>
+      <c r="AO30" s="14" t="s">
+        <v>141</v>
+      </c>
+      <c r="AP30" s="14" t="s">
+        <v>142</v>
+      </c>
+      <c r="AQ30" s="14" t="s">
+        <v>143</v>
+      </c>
+      <c r="AR30" s="14" t="s">
+        <v>144</v>
+      </c>
+      <c r="AS30" s="14" t="s">
+        <v>145</v>
+      </c>
+      <c r="AT30" s="14" t="s">
+        <v>146</v>
+      </c>
+      <c r="AU30" s="14" t="s">
+        <v>147</v>
+      </c>
+      <c r="AV30" s="14" t="s">
+        <v>402</v>
+      </c>
+      <c r="AW30" s="14" t="s">
+        <v>403</v>
+      </c>
+      <c r="AX30" s="14" t="s">
         <v>15</v>
       </c>
-      <c r="I30" s="14" t="s">
-        <v>16</v>
-      </c>
-      <c r="J30" s="14" t="s">
-        <v>232</v>
-      </c>
-      <c r="K30" s="14" t="s">
-        <v>233</v>
-      </c>
-      <c r="L30" s="14" t="s">
-        <v>313</v>
-      </c>
-      <c r="M30" s="14" t="s">
-        <v>314</v>
-      </c>
-      <c r="N30" s="14" t="s">
-        <v>46</v>
-      </c>
-      <c r="O30" s="14" t="s">
-        <v>47</v>
-      </c>
-      <c r="P30" s="14" t="s">
-        <v>48</v>
-      </c>
-      <c r="Q30" s="14" t="s">
-        <v>49</v>
-      </c>
-      <c r="R30" s="14" t="s">
-        <v>50</v>
-      </c>
-      <c r="S30" s="14" t="s">
-        <v>51</v>
-      </c>
-      <c r="T30" s="14" t="s">
-        <v>52</v>
-      </c>
-      <c r="U30" s="14" t="s">
-        <v>53</v>
-      </c>
-      <c r="V30" s="14" t="s">
-        <v>54</v>
-      </c>
-      <c r="W30" s="14" t="s">
-        <v>55</v>
-      </c>
-      <c r="X30" s="14" t="s">
-        <v>56</v>
-      </c>
-      <c r="Y30" s="14" t="s">
-        <v>57</v>
-      </c>
-      <c r="Z30" s="14" t="s">
-        <v>58</v>
-      </c>
-      <c r="AA30" s="14" t="s">
-        <v>58</v>
-      </c>
-      <c r="AB30" s="14" t="s">
-        <v>59</v>
-      </c>
-      <c r="AC30" s="14" t="s">
-        <v>60</v>
-      </c>
-      <c r="AD30" s="14" t="s">
-        <v>61</v>
-      </c>
-      <c r="AE30" s="14" t="s">
-        <v>62</v>
-      </c>
-      <c r="AF30" s="14" t="s">
-        <v>63</v>
-      </c>
-      <c r="AG30" s="14" t="s">
-        <v>64</v>
-      </c>
-      <c r="AH30" s="14" t="s">
-        <v>65</v>
-      </c>
-      <c r="AI30" s="14" t="s">
-        <v>66</v>
-      </c>
-      <c r="AJ30" s="14" t="s">
-        <v>67</v>
-      </c>
-      <c r="AK30" s="14" t="s">
-        <v>287</v>
-      </c>
-      <c r="AL30" s="14" t="s">
-        <v>142</v>
-      </c>
-      <c r="AM30" s="14" t="s">
-        <v>143</v>
-      </c>
-      <c r="AN30" s="14" t="s">
-        <v>144</v>
-      </c>
-      <c r="AO30" s="14" t="s">
-        <v>145</v>
-      </c>
-      <c r="AP30" s="14" t="s">
-        <v>146</v>
-      </c>
-      <c r="AQ30" s="14" t="s">
-        <v>147</v>
-      </c>
-      <c r="AR30" s="14" t="s">
-        <v>148</v>
-      </c>
-      <c r="AS30" s="14" t="s">
-        <v>149</v>
-      </c>
-      <c r="AT30" s="14" t="s">
-        <v>150</v>
-      </c>
-      <c r="AU30" s="14" t="s">
-        <v>151</v>
-      </c>
-      <c r="AV30" s="14" t="s">
-        <v>13</v>
-      </c>
-      <c r="AW30" s="14" t="s">
-        <v>152</v>
-      </c>
-      <c r="AX30" s="14" t="s">
-        <v>19</v>
-      </c>
       <c r="AY30" s="14" t="s">
+        <v>320</v>
+      </c>
+      <c r="AZ30" s="14" t="s">
+        <v>321</v>
+      </c>
+      <c r="BA30" s="14" t="s">
+        <v>322</v>
+      </c>
+      <c r="BB30" s="16" t="s">
+        <v>323</v>
+      </c>
+      <c r="BC30" s="16" t="s">
+        <v>324</v>
+      </c>
+      <c r="BD30" s="16" t="s">
+        <v>325</v>
+      </c>
+      <c r="BE30" s="16" t="s">
         <v>326</v>
       </c>
-      <c r="AZ30" s="14" t="s">
+      <c r="BF30" s="16" t="s">
         <v>327</v>
       </c>
-      <c r="BA30" s="14" t="s">
+      <c r="BG30" s="16" t="s">
         <v>328</v>
       </c>
-      <c r="BB30" s="16" t="s">
+      <c r="BH30" s="16" t="s">
         <v>329</v>
       </c>
-      <c r="BC30" s="16" t="s">
+      <c r="BI30" s="16" t="s">
         <v>330</v>
       </c>
-      <c r="BD30" s="16" t="s">
+      <c r="BJ30" s="16" t="s">
         <v>331</v>
       </c>
-      <c r="BE30" s="16" t="s">
+      <c r="BK30" s="16" t="s">
         <v>332</v>
       </c>
-      <c r="BF30" s="16" t="s">
+      <c r="BL30" s="16" t="s">
         <v>333</v>
       </c>
-      <c r="BG30" s="16" t="s">
+      <c r="BM30" s="16" t="s">
         <v>334</v>
       </c>
-      <c r="BH30" s="16" t="s">
+      <c r="BN30" s="16" t="s">
         <v>335</v>
       </c>
-      <c r="BI30" s="16" t="s">
+      <c r="BO30" s="16" t="s">
         <v>336</v>
       </c>
-      <c r="BJ30" s="16" t="s">
+      <c r="BP30" s="16" t="s">
         <v>337</v>
       </c>
-      <c r="BK30" s="16" t="s">
+      <c r="BQ30" s="16" t="s">
         <v>338</v>
       </c>
-      <c r="BL30" s="16" t="s">
+      <c r="BR30" s="16" t="s">
         <v>339</v>
       </c>
-      <c r="BM30" s="16" t="s">
+      <c r="BS30" s="16" t="s">
         <v>340</v>
       </c>
-      <c r="BN30" s="16" t="s">
+      <c r="BT30" s="16" t="s">
         <v>341</v>
       </c>
-      <c r="BO30" s="16" t="s">
+      <c r="BU30" s="16" t="s">
         <v>342</v>
       </c>
-      <c r="BP30" s="16" t="s">
+      <c r="BV30" s="16" t="s">
         <v>343</v>
-      </c>
-      <c r="BQ30" s="16" t="s">
-        <v>344</v>
-      </c>
-      <c r="BR30" s="16" t="s">
-        <v>345</v>
-      </c>
-      <c r="BS30" s="16" t="s">
-        <v>346</v>
-      </c>
-      <c r="BT30" s="16" t="s">
-        <v>347</v>
-      </c>
-      <c r="BU30" s="16" t="s">
-        <v>348</v>
-      </c>
-      <c r="BV30" s="16" t="s">
-        <v>349</v>
       </c>
     </row>
     <row r="31" spans="1:74" ht="20.5" thickBot="1" x14ac:dyDescent="0.4">
@@ -3425,228 +3437,228 @@
         <v>7</v>
       </c>
       <c r="B31" s="17" t="s">
+        <v>64</v>
+      </c>
+      <c r="C31" s="17" t="s">
+        <v>64</v>
+      </c>
+      <c r="D31" s="17" t="s">
+        <v>65</v>
+      </c>
+      <c r="E31" s="17" t="s">
+        <v>65</v>
+      </c>
+      <c r="F31" s="17" t="s">
+        <v>66</v>
+      </c>
+      <c r="G31" s="17" t="s">
+        <v>66</v>
+      </c>
+      <c r="H31" s="17" t="s">
+        <v>67</v>
+      </c>
+      <c r="I31" s="17" t="s">
+        <v>67</v>
+      </c>
+      <c r="J31" s="17" t="s">
+        <v>19</v>
+      </c>
+      <c r="K31" s="17" t="s">
+        <v>19</v>
+      </c>
+      <c r="L31" s="17" t="s">
         <v>68</v>
       </c>
-      <c r="C31" s="17" t="s">
-        <v>68</v>
-      </c>
-      <c r="D31" s="17" t="s">
+      <c r="M31" s="17" t="s">
         <v>69</v>
       </c>
-      <c r="E31" s="17" t="s">
-        <v>69</v>
-      </c>
-      <c r="F31" s="17" t="s">
+      <c r="N31" s="17" t="s">
         <v>70</v>
       </c>
-      <c r="G31" s="17" t="s">
+      <c r="O31" s="17" t="s">
         <v>70</v>
       </c>
-      <c r="H31" s="17" t="s">
+      <c r="P31" s="17" t="s">
         <v>71</v>
       </c>
-      <c r="I31" s="17" t="s">
+      <c r="Q31" s="17" t="s">
         <v>71</v>
       </c>
-      <c r="J31" s="17" t="s">
-        <v>23</v>
-      </c>
-      <c r="K31" s="17" t="s">
-        <v>23</v>
-      </c>
-      <c r="L31" s="17" t="s">
+      <c r="R31" s="17" t="s">
         <v>72</v>
       </c>
-      <c r="M31" s="17" t="s">
+      <c r="S31" s="17" t="s">
+        <v>72</v>
+      </c>
+      <c r="T31" s="17" t="s">
         <v>73</v>
       </c>
-      <c r="N31" s="17" t="s">
+      <c r="U31" s="17" t="s">
+        <v>73</v>
+      </c>
+      <c r="V31" s="17" t="s">
         <v>74</v>
       </c>
-      <c r="O31" s="17" t="s">
+      <c r="W31" s="17" t="s">
         <v>74</v>
       </c>
-      <c r="P31" s="17" t="s">
+      <c r="X31" s="17" t="s">
         <v>75</v>
       </c>
-      <c r="Q31" s="17" t="s">
+      <c r="Y31" s="17" t="s">
         <v>75</v>
       </c>
-      <c r="R31" s="17" t="s">
+      <c r="Z31" s="17" t="s">
         <v>76</v>
       </c>
-      <c r="S31" s="17" t="s">
+      <c r="AA31" s="17" t="s">
         <v>76</v>
       </c>
-      <c r="T31" s="17" t="s">
+      <c r="AB31" s="17" t="s">
         <v>77</v>
       </c>
-      <c r="U31" s="17" t="s">
+      <c r="AC31" s="17" t="s">
         <v>77</v>
       </c>
-      <c r="V31" s="17" t="s">
+      <c r="AD31" s="17" t="s">
         <v>78</v>
       </c>
-      <c r="W31" s="17" t="s">
+      <c r="AE31" s="17" t="s">
         <v>78</v>
       </c>
-      <c r="X31" s="17" t="s">
+      <c r="AF31" s="17" t="s">
         <v>79</v>
       </c>
-      <c r="Y31" s="17" t="s">
+      <c r="AG31" s="17" t="s">
         <v>79</v>
       </c>
-      <c r="Z31" s="17" t="s">
+      <c r="AH31" s="17" t="s">
         <v>80</v>
       </c>
-      <c r="AA31" s="17" t="s">
+      <c r="AI31" s="17" t="s">
         <v>80</v>
       </c>
-      <c r="AB31" s="17" t="s">
+      <c r="AJ31" s="17" t="s">
         <v>81</v>
       </c>
-      <c r="AC31" s="17" t="s">
+      <c r="AK31" s="17" t="s">
         <v>81</v>
       </c>
-      <c r="AD31" s="17" t="s">
+      <c r="AL31" s="17" t="s">
+        <v>148</v>
+      </c>
+      <c r="AM31" s="17" t="s">
+        <v>148</v>
+      </c>
+      <c r="AN31" s="17" t="s">
+        <v>149</v>
+      </c>
+      <c r="AO31" s="17" t="s">
+        <v>149</v>
+      </c>
+      <c r="AP31" s="17" t="s">
+        <v>150</v>
+      </c>
+      <c r="AQ31" s="17" t="s">
+        <v>150</v>
+      </c>
+      <c r="AR31" s="17" t="s">
+        <v>151</v>
+      </c>
+      <c r="AS31" s="17" t="s">
+        <v>151</v>
+      </c>
+      <c r="AT31" s="17" t="s">
+        <v>152</v>
+      </c>
+      <c r="AU31" s="17" t="s">
+        <v>152</v>
+      </c>
+      <c r="AV31" s="17" t="s">
+        <v>17</v>
+      </c>
+      <c r="AW31" s="17" t="s">
+        <v>17</v>
+      </c>
+      <c r="AX31" s="17" t="s">
         <v>82</v>
       </c>
-      <c r="AE31" s="17" t="s">
-        <v>82</v>
-      </c>
-      <c r="AF31" s="17" t="s">
-        <v>83</v>
-      </c>
-      <c r="AG31" s="17" t="s">
-        <v>83</v>
-      </c>
-      <c r="AH31" s="17" t="s">
-        <v>84</v>
-      </c>
-      <c r="AI31" s="17" t="s">
-        <v>84</v>
-      </c>
-      <c r="AJ31" s="17" t="s">
-        <v>85</v>
-      </c>
-      <c r="AK31" s="17" t="s">
-        <v>85</v>
-      </c>
-      <c r="AL31" s="17" t="s">
-        <v>153</v>
-      </c>
-      <c r="AM31" s="17" t="s">
-        <v>153</v>
-      </c>
-      <c r="AN31" s="17" t="s">
-        <v>154</v>
-      </c>
-      <c r="AO31" s="17" t="s">
-        <v>154</v>
-      </c>
-      <c r="AP31" s="17" t="s">
-        <v>155</v>
-      </c>
-      <c r="AQ31" s="17" t="s">
-        <v>155</v>
-      </c>
-      <c r="AR31" s="17" t="s">
-        <v>156</v>
-      </c>
-      <c r="AS31" s="17" t="s">
-        <v>156</v>
-      </c>
-      <c r="AT31" s="17" t="s">
-        <v>157</v>
-      </c>
-      <c r="AU31" s="17" t="s">
-        <v>157</v>
-      </c>
-      <c r="AV31" s="17" t="s">
+      <c r="AY31" s="17" t="s">
         <v>21</v>
       </c>
-      <c r="AW31" s="17" t="s">
+      <c r="AZ31" s="17" t="s">
         <v>21</v>
       </c>
-      <c r="AX31" s="17" t="s">
-        <v>86</v>
-      </c>
-      <c r="AY31" s="17" t="s">
-        <v>25</v>
-      </c>
-      <c r="AZ31" s="17" t="s">
-        <v>25</v>
-      </c>
       <c r="BA31" s="17" t="s">
-        <v>25</v>
+        <v>21</v>
       </c>
       <c r="BB31" s="17" t="s">
-        <v>25</v>
+        <v>21</v>
       </c>
       <c r="BC31" s="17" t="s">
-        <v>25</v>
+        <v>21</v>
       </c>
       <c r="BD31" s="17" t="s">
-        <v>25</v>
+        <v>21</v>
       </c>
       <c r="BE31" s="17" t="s">
-        <v>25</v>
+        <v>21</v>
       </c>
       <c r="BF31" s="17" t="s">
-        <v>25</v>
+        <v>21</v>
       </c>
       <c r="BG31" s="17" t="s">
-        <v>25</v>
+        <v>21</v>
       </c>
       <c r="BH31" s="17" t="s">
-        <v>25</v>
+        <v>21</v>
       </c>
       <c r="BI31" s="17" t="s">
-        <v>25</v>
+        <v>21</v>
       </c>
       <c r="BJ31" s="17" t="s">
-        <v>25</v>
+        <v>21</v>
       </c>
       <c r="BK31" s="17" t="s">
-        <v>25</v>
+        <v>21</v>
       </c>
       <c r="BL31" s="17" t="s">
-        <v>25</v>
+        <v>21</v>
       </c>
       <c r="BM31" s="17" t="s">
-        <v>25</v>
+        <v>21</v>
       </c>
       <c r="BN31" s="17" t="s">
-        <v>25</v>
+        <v>21</v>
       </c>
       <c r="BO31" s="17" t="s">
-        <v>25</v>
+        <v>21</v>
       </c>
       <c r="BP31" s="17" t="s">
-        <v>25</v>
+        <v>21</v>
       </c>
       <c r="BQ31" s="17" t="s">
-        <v>25</v>
+        <v>21</v>
       </c>
       <c r="BR31" s="17" t="s">
-        <v>25</v>
+        <v>21</v>
       </c>
       <c r="BS31" s="17" t="s">
-        <v>25</v>
+        <v>21</v>
       </c>
       <c r="BT31" s="17" t="s">
-        <v>25</v>
+        <v>21</v>
       </c>
       <c r="BU31" s="17" t="s">
-        <v>25</v>
+        <v>21</v>
       </c>
       <c r="BV31" s="17" t="s">
-        <v>25</v>
+        <v>21</v>
       </c>
     </row>
     <row r="32" spans="1:74" ht="10.5" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A32" s="27" t="s">
-        <v>87</v>
+        <v>83</v>
       </c>
       <c r="B32" s="14">
         <v>10</v>
@@ -3699,10 +3711,10 @@
       <c r="AV32" s="14"/>
       <c r="AW32" s="14"/>
       <c r="AX32" s="14" t="s">
-        <v>88</v>
+        <v>84</v>
       </c>
       <c r="AY32" s="14" t="s">
-        <v>95</v>
+        <v>91</v>
       </c>
       <c r="AZ32" s="14"/>
       <c r="BA32" s="14"/>
@@ -3725,7 +3737,7 @@
     </row>
     <row r="33" spans="1:69" ht="20.5" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A33" s="27" t="s">
-        <v>89</v>
+        <v>85</v>
       </c>
       <c r="B33" s="14"/>
       <c r="C33" s="14">
@@ -3778,10 +3790,10 @@
       <c r="AV33" s="14"/>
       <c r="AW33" s="14"/>
       <c r="AX33" s="14" t="s">
-        <v>88</v>
+        <v>84</v>
       </c>
       <c r="AY33" s="14" t="s">
-        <v>365</v>
+        <v>359</v>
       </c>
       <c r="AZ33" s="14"/>
       <c r="BA33" s="14"/>
@@ -3804,12 +3816,12 @@
     </row>
     <row r="34" spans="1:69" ht="10.5" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A34" s="27" t="s">
-        <v>90</v>
+        <v>86</v>
       </c>
       <c r="B34" s="14"/>
       <c r="C34" s="14"/>
       <c r="D34" s="14" t="s">
-        <v>91</v>
+        <v>87</v>
       </c>
       <c r="E34" s="15"/>
       <c r="F34" s="14"/>
@@ -3857,11 +3869,11 @@
       <c r="AV34" s="14"/>
       <c r="AW34" s="14"/>
       <c r="AX34" s="14" t="s">
-        <v>88</v>
+        <v>84</v>
       </c>
       <c r="AY34" s="14"/>
       <c r="AZ34" s="14" t="s">
-        <v>95</v>
+        <v>91</v>
       </c>
       <c r="BA34" s="14"/>
       <c r="BB34" s="15"/>
@@ -3883,13 +3895,13 @@
     </row>
     <row r="35" spans="1:69" ht="20.5" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A35" s="27" t="s">
-        <v>92</v>
+        <v>88</v>
       </c>
       <c r="B35" s="14"/>
       <c r="C35" s="14"/>
       <c r="D35" s="15"/>
       <c r="E35" s="15" t="s">
-        <v>93</v>
+        <v>89</v>
       </c>
       <c r="F35" s="14"/>
       <c r="G35" s="14"/>
@@ -3936,11 +3948,11 @@
       <c r="AV35" s="14"/>
       <c r="AW35" s="14"/>
       <c r="AX35" s="14" t="s">
-        <v>88</v>
+        <v>84</v>
       </c>
       <c r="AY35" s="14"/>
       <c r="AZ35" s="14" t="s">
-        <v>365</v>
+        <v>359</v>
       </c>
       <c r="BA35" s="14"/>
       <c r="BB35" s="15"/>
@@ -3962,14 +3974,14 @@
     </row>
     <row r="36" spans="1:69" ht="10.5" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A36" s="27" t="s">
-        <v>94</v>
+        <v>90</v>
       </c>
       <c r="B36" s="14"/>
       <c r="C36" s="14"/>
       <c r="D36" s="15"/>
       <c r="E36" s="15"/>
       <c r="F36" s="14" t="s">
-        <v>27</v>
+        <v>23</v>
       </c>
       <c r="G36" s="14"/>
       <c r="H36" s="14"/>
@@ -4015,12 +4027,12 @@
       <c r="AV36" s="14"/>
       <c r="AW36" s="14"/>
       <c r="AX36" s="14" t="s">
-        <v>88</v>
+        <v>84</v>
       </c>
       <c r="AY36" s="14"/>
       <c r="AZ36" s="14"/>
       <c r="BA36" s="14" t="s">
-        <v>95</v>
+        <v>91</v>
       </c>
       <c r="BB36" s="15"/>
       <c r="BC36" s="15"/>
@@ -4041,7 +4053,7 @@
     </row>
     <row r="37" spans="1:69" ht="20.5" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A37" s="27" t="s">
-        <v>96</v>
+        <v>92</v>
       </c>
       <c r="B37" s="14"/>
       <c r="C37" s="14"/>
@@ -4049,7 +4061,7 @@
       <c r="E37" s="14"/>
       <c r="F37" s="14"/>
       <c r="G37" s="14" t="s">
-        <v>27</v>
+        <v>23</v>
       </c>
       <c r="H37" s="14"/>
       <c r="I37" s="14"/>
@@ -4094,12 +4106,12 @@
       <c r="AV37" s="14"/>
       <c r="AW37" s="14"/>
       <c r="AX37" s="14" t="s">
-        <v>88</v>
+        <v>84</v>
       </c>
       <c r="AY37" s="14"/>
       <c r="AZ37" s="14"/>
       <c r="BA37" s="14" t="s">
-        <v>365</v>
+        <v>359</v>
       </c>
       <c r="BB37" s="15"/>
       <c r="BC37" s="15"/>
@@ -4120,7 +4132,7 @@
     </row>
     <row r="38" spans="1:69" ht="10.5" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A38" s="29" t="s">
-        <v>97</v>
+        <v>93</v>
       </c>
       <c r="B38" s="14"/>
       <c r="C38" s="15"/>
@@ -4129,7 +4141,7 @@
       <c r="F38" s="15"/>
       <c r="G38" s="15"/>
       <c r="H38" s="15" t="s">
-        <v>27</v>
+        <v>23</v>
       </c>
       <c r="I38" s="15"/>
       <c r="J38" s="15"/>
@@ -4173,13 +4185,13 @@
       <c r="AV38" s="15"/>
       <c r="AW38" s="15"/>
       <c r="AX38" s="14" t="s">
-        <v>88</v>
+        <v>84</v>
       </c>
       <c r="AY38" s="15"/>
       <c r="AZ38" s="15"/>
       <c r="BA38" s="15"/>
       <c r="BB38" s="15" t="s">
-        <v>95</v>
+        <v>91</v>
       </c>
       <c r="BC38" s="15"/>
       <c r="BD38" s="15"/>
@@ -4199,7 +4211,7 @@
     </row>
     <row r="39" spans="1:69" ht="10.5" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A39" s="29" t="s">
-        <v>98</v>
+        <v>94</v>
       </c>
       <c r="B39" s="15"/>
       <c r="C39" s="15"/>
@@ -4209,7 +4221,7 @@
       <c r="G39" s="15"/>
       <c r="H39" s="15"/>
       <c r="I39" s="15" t="s">
-        <v>27</v>
+        <v>23</v>
       </c>
       <c r="J39" s="15"/>
       <c r="K39" s="15"/>
@@ -4252,13 +4264,13 @@
       <c r="AV39" s="15"/>
       <c r="AW39" s="15"/>
       <c r="AX39" s="14" t="s">
-        <v>88</v>
+        <v>84</v>
       </c>
       <c r="AY39" s="15"/>
       <c r="AZ39" s="15"/>
       <c r="BA39" s="15"/>
       <c r="BB39" s="15" t="s">
-        <v>365</v>
+        <v>359</v>
       </c>
       <c r="BC39" s="15"/>
       <c r="BD39" s="15"/>
@@ -4278,7 +4290,7 @@
     </row>
     <row r="40" spans="1:69" ht="10.5" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A40" s="29" t="s">
-        <v>99</v>
+        <v>95</v>
       </c>
       <c r="B40" s="15"/>
       <c r="C40" s="15"/>
@@ -4289,7 +4301,7 @@
       <c r="H40" s="15"/>
       <c r="I40" s="15"/>
       <c r="J40" s="15" t="s">
-        <v>27</v>
+        <v>23</v>
       </c>
       <c r="K40" s="15"/>
       <c r="L40" s="15"/>
@@ -4331,14 +4343,14 @@
       <c r="AV40" s="15"/>
       <c r="AW40" s="15"/>
       <c r="AX40" s="14" t="s">
-        <v>88</v>
+        <v>84</v>
       </c>
       <c r="AY40" s="15"/>
       <c r="AZ40" s="15"/>
       <c r="BA40" s="15"/>
       <c r="BB40" s="15"/>
       <c r="BC40" s="15" t="s">
-        <v>95</v>
+        <v>91</v>
       </c>
       <c r="BD40" s="15"/>
       <c r="BE40" s="15"/>
@@ -4357,7 +4369,7 @@
     </row>
     <row r="41" spans="1:69" ht="10.5" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A41" s="29" t="s">
-        <v>100</v>
+        <v>96</v>
       </c>
       <c r="B41" s="15"/>
       <c r="C41" s="15"/>
@@ -4369,7 +4381,7 @@
       <c r="I41" s="15"/>
       <c r="J41" s="15"/>
       <c r="K41" s="15" t="s">
-        <v>27</v>
+        <v>23</v>
       </c>
       <c r="L41" s="15"/>
       <c r="M41" s="15"/>
@@ -4410,14 +4422,14 @@
       <c r="AV41" s="15"/>
       <c r="AW41" s="15"/>
       <c r="AX41" s="14" t="s">
-        <v>88</v>
+        <v>84</v>
       </c>
       <c r="AY41" s="15"/>
       <c r="AZ41" s="15"/>
       <c r="BA41" s="15"/>
       <c r="BB41" s="15"/>
       <c r="BC41" s="15" t="s">
-        <v>365</v>
+        <v>359</v>
       </c>
       <c r="BD41" s="15"/>
       <c r="BE41" s="15"/>
@@ -4436,7 +4448,7 @@
     </row>
     <row r="42" spans="1:69" ht="10.5" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A42" s="29" t="s">
-        <v>101</v>
+        <v>97</v>
       </c>
       <c r="B42" s="15"/>
       <c r="C42" s="15"/>
@@ -4449,7 +4461,7 @@
       <c r="J42" s="15"/>
       <c r="K42" s="15"/>
       <c r="L42" s="15" t="s">
-        <v>27</v>
+        <v>23</v>
       </c>
       <c r="M42" s="15"/>
       <c r="N42" s="15"/>
@@ -4489,7 +4501,7 @@
       <c r="AV42" s="15"/>
       <c r="AW42" s="15"/>
       <c r="AX42" s="14" t="s">
-        <v>88</v>
+        <v>84</v>
       </c>
       <c r="AY42" s="15"/>
       <c r="AZ42" s="15"/>
@@ -4497,7 +4509,7 @@
       <c r="BB42" s="15"/>
       <c r="BC42" s="15"/>
       <c r="BD42" s="16" t="s">
-        <v>95</v>
+        <v>91</v>
       </c>
       <c r="BE42" s="15"/>
       <c r="BF42" s="15"/>
@@ -4515,7 +4527,7 @@
     </row>
     <row r="43" spans="1:69" ht="20.5" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A43" s="29" t="s">
-        <v>102</v>
+        <v>98</v>
       </c>
       <c r="B43" s="15"/>
       <c r="C43" s="15"/>
@@ -4529,7 +4541,7 @@
       <c r="K43" s="15"/>
       <c r="L43" s="15"/>
       <c r="M43" s="15" t="s">
-        <v>27</v>
+        <v>23</v>
       </c>
       <c r="N43" s="15"/>
       <c r="O43" s="15"/>
@@ -4568,7 +4580,7 @@
       <c r="AV43" s="15"/>
       <c r="AW43" s="15"/>
       <c r="AX43" s="14" t="s">
-        <v>88</v>
+        <v>84</v>
       </c>
       <c r="AY43" s="15"/>
       <c r="AZ43" s="15"/>
@@ -4576,7 +4588,7 @@
       <c r="BB43" s="15"/>
       <c r="BC43" s="15"/>
       <c r="BD43" s="16" t="s">
-        <v>365</v>
+        <v>359</v>
       </c>
       <c r="BE43" s="15"/>
       <c r="BF43" s="15"/>
@@ -4594,7 +4606,7 @@
     </row>
     <row r="44" spans="1:69" ht="10.5" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A44" s="29" t="s">
-        <v>103</v>
+        <v>99</v>
       </c>
       <c r="B44" s="15"/>
       <c r="C44" s="15"/>
@@ -4609,7 +4621,7 @@
       <c r="L44" s="15"/>
       <c r="M44" s="15"/>
       <c r="N44" s="15" t="s">
-        <v>27</v>
+        <v>23</v>
       </c>
       <c r="O44" s="15"/>
       <c r="P44" s="15"/>
@@ -4647,7 +4659,7 @@
       <c r="AV44" s="15"/>
       <c r="AW44" s="15"/>
       <c r="AX44" s="14" t="s">
-        <v>88</v>
+        <v>84</v>
       </c>
       <c r="AY44" s="15"/>
       <c r="AZ44" s="15"/>
@@ -4656,7 +4668,7 @@
       <c r="BC44" s="15"/>
       <c r="BD44" s="15"/>
       <c r="BE44" s="15" t="s">
-        <v>95</v>
+        <v>91</v>
       </c>
       <c r="BF44" s="15"/>
       <c r="BG44" s="15"/>
@@ -4673,7 +4685,7 @@
     </row>
     <row r="45" spans="1:69" ht="10.5" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A45" s="29" t="s">
-        <v>104</v>
+        <v>100</v>
       </c>
       <c r="B45" s="15"/>
       <c r="C45" s="15"/>
@@ -4689,7 +4701,7 @@
       <c r="M45" s="15"/>
       <c r="N45" s="15"/>
       <c r="O45" s="15" t="s">
-        <v>27</v>
+        <v>23</v>
       </c>
       <c r="P45" s="15"/>
       <c r="Q45" s="15"/>
@@ -4726,7 +4738,7 @@
       <c r="AV45" s="15"/>
       <c r="AW45" s="15"/>
       <c r="AX45" s="14" t="s">
-        <v>88</v>
+        <v>84</v>
       </c>
       <c r="AY45" s="15"/>
       <c r="AZ45" s="15"/>
@@ -4735,7 +4747,7 @@
       <c r="BC45" s="15"/>
       <c r="BD45" s="15"/>
       <c r="BE45" s="15" t="s">
-        <v>365</v>
+        <v>359</v>
       </c>
       <c r="BF45" s="15"/>
       <c r="BG45" s="15"/>
@@ -4752,7 +4764,7 @@
     </row>
     <row r="46" spans="1:69" ht="10.5" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A46" s="29" t="s">
-        <v>105</v>
+        <v>101</v>
       </c>
       <c r="B46" s="15"/>
       <c r="C46" s="15"/>
@@ -4769,7 +4781,7 @@
       <c r="N46" s="15"/>
       <c r="O46" s="15"/>
       <c r="P46" s="15" t="s">
-        <v>93</v>
+        <v>89</v>
       </c>
       <c r="Q46" s="15"/>
       <c r="R46" s="15"/>
@@ -4805,7 +4817,7 @@
       <c r="AV46" s="15"/>
       <c r="AW46" s="15"/>
       <c r="AX46" s="14" t="s">
-        <v>88</v>
+        <v>84</v>
       </c>
       <c r="AY46" s="15"/>
       <c r="AZ46" s="15"/>
@@ -4815,7 +4827,7 @@
       <c r="BD46" s="15"/>
       <c r="BE46" s="15"/>
       <c r="BF46" s="15" t="s">
-        <v>95</v>
+        <v>91</v>
       </c>
       <c r="BG46" s="15"/>
       <c r="BH46" s="15"/>
@@ -4831,7 +4843,7 @@
     </row>
     <row r="47" spans="1:69" ht="10.5" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A47" s="29" t="s">
-        <v>106</v>
+        <v>102</v>
       </c>
       <c r="B47" s="15"/>
       <c r="C47" s="15"/>
@@ -4849,7 +4861,7 @@
       <c r="O47" s="15"/>
       <c r="P47" s="15"/>
       <c r="Q47" s="15" t="s">
-        <v>93</v>
+        <v>89</v>
       </c>
       <c r="R47" s="15"/>
       <c r="S47" s="15"/>
@@ -4884,7 +4896,7 @@
       <c r="AV47" s="15"/>
       <c r="AW47" s="15"/>
       <c r="AX47" s="14" t="s">
-        <v>88</v>
+        <v>84</v>
       </c>
       <c r="AY47" s="15"/>
       <c r="AZ47" s="15"/>
@@ -4894,7 +4906,7 @@
       <c r="BD47" s="15"/>
       <c r="BE47" s="15"/>
       <c r="BF47" s="15" t="s">
-        <v>365</v>
+        <v>359</v>
       </c>
       <c r="BG47" s="15"/>
       <c r="BH47" s="15"/>
@@ -4910,7 +4922,7 @@
     </row>
     <row r="48" spans="1:69" ht="10.5" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A48" s="29" t="s">
-        <v>107</v>
+        <v>103</v>
       </c>
       <c r="B48" s="15"/>
       <c r="C48" s="15"/>
@@ -4929,7 +4941,7 @@
       <c r="P48" s="15"/>
       <c r="Q48" s="15"/>
       <c r="R48" s="15" t="s">
-        <v>108</v>
+        <v>104</v>
       </c>
       <c r="S48" s="15"/>
       <c r="T48" s="15"/>
@@ -4963,7 +4975,7 @@
       <c r="AV48" s="15"/>
       <c r="AW48" s="15"/>
       <c r="AX48" s="14" t="s">
-        <v>88</v>
+        <v>84</v>
       </c>
       <c r="AY48" s="15"/>
       <c r="AZ48" s="15"/>
@@ -4974,7 +4986,7 @@
       <c r="BE48" s="15"/>
       <c r="BF48" s="15"/>
       <c r="BG48" s="15" t="s">
-        <v>95</v>
+        <v>91</v>
       </c>
       <c r="BH48" s="15"/>
       <c r="BI48" s="15"/>
@@ -4989,7 +5001,7 @@
     </row>
     <row r="49" spans="1:69" ht="10.5" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A49" s="29" t="s">
-        <v>109</v>
+        <v>105</v>
       </c>
       <c r="B49" s="15"/>
       <c r="C49" s="15"/>
@@ -5009,7 +5021,7 @@
       <c r="Q49" s="15"/>
       <c r="R49" s="15"/>
       <c r="S49" s="15" t="s">
-        <v>108</v>
+        <v>104</v>
       </c>
       <c r="T49" s="15"/>
       <c r="U49" s="15"/>
@@ -5042,7 +5054,7 @@
       <c r="AV49" s="15"/>
       <c r="AW49" s="15"/>
       <c r="AX49" s="14" t="s">
-        <v>88</v>
+        <v>84</v>
       </c>
       <c r="AY49" s="15"/>
       <c r="AZ49" s="15"/>
@@ -5053,7 +5065,7 @@
       <c r="BE49" s="15"/>
       <c r="BF49" s="15"/>
       <c r="BG49" s="15" t="s">
-        <v>365</v>
+        <v>359</v>
       </c>
       <c r="BH49" s="15"/>
       <c r="BI49" s="15"/>
@@ -5068,7 +5080,7 @@
     </row>
     <row r="50" spans="1:69" ht="10.5" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A50" s="29" t="s">
-        <v>110</v>
+        <v>106</v>
       </c>
       <c r="B50" s="15"/>
       <c r="C50" s="15"/>
@@ -5089,7 +5101,7 @@
       <c r="R50" s="15"/>
       <c r="S50" s="15"/>
       <c r="T50" s="15" t="s">
-        <v>93</v>
+        <v>89</v>
       </c>
       <c r="U50" s="15"/>
       <c r="V50" s="15"/>
@@ -5121,7 +5133,7 @@
       <c r="AV50" s="15"/>
       <c r="AW50" s="15"/>
       <c r="AX50" s="14" t="s">
-        <v>88</v>
+        <v>84</v>
       </c>
       <c r="AY50" s="15"/>
       <c r="AZ50" s="15"/>
@@ -5133,7 +5145,7 @@
       <c r="BF50" s="15"/>
       <c r="BG50" s="15"/>
       <c r="BH50" s="15" t="s">
-        <v>95</v>
+        <v>91</v>
       </c>
       <c r="BI50" s="15"/>
       <c r="BJ50" s="15"/>
@@ -5147,7 +5159,7 @@
     </row>
     <row r="51" spans="1:69" ht="10.5" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A51" s="29" t="s">
-        <v>111</v>
+        <v>107</v>
       </c>
       <c r="B51" s="15"/>
       <c r="C51" s="15"/>
@@ -5169,7 +5181,7 @@
       <c r="S51" s="15"/>
       <c r="T51" s="15"/>
       <c r="U51" s="15" t="s">
-        <v>93</v>
+        <v>89</v>
       </c>
       <c r="V51" s="15"/>
       <c r="W51" s="15"/>
@@ -5200,7 +5212,7 @@
       <c r="AV51" s="15"/>
       <c r="AW51" s="15"/>
       <c r="AX51" s="14" t="s">
-        <v>88</v>
+        <v>84</v>
       </c>
       <c r="AY51" s="15"/>
       <c r="AZ51" s="15"/>
@@ -5212,7 +5224,7 @@
       <c r="BF51" s="15"/>
       <c r="BG51" s="15"/>
       <c r="BH51" s="15" t="s">
-        <v>365</v>
+        <v>359</v>
       </c>
       <c r="BI51" s="15"/>
       <c r="BJ51" s="15"/>
@@ -5226,7 +5238,7 @@
     </row>
     <row r="52" spans="1:69" ht="10.5" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A52" s="29" t="s">
-        <v>112</v>
+        <v>108</v>
       </c>
       <c r="B52" s="15"/>
       <c r="C52" s="15"/>
@@ -5249,7 +5261,7 @@
       <c r="T52" s="15"/>
       <c r="U52" s="15"/>
       <c r="V52" s="15" t="s">
-        <v>113</v>
+        <v>109</v>
       </c>
       <c r="W52" s="15"/>
       <c r="X52" s="15"/>
@@ -5279,7 +5291,7 @@
       <c r="AV52" s="15"/>
       <c r="AW52" s="15"/>
       <c r="AX52" s="14" t="s">
-        <v>88</v>
+        <v>84</v>
       </c>
       <c r="AY52" s="15"/>
       <c r="AZ52" s="15"/>
@@ -5292,7 +5304,7 @@
       <c r="BG52" s="15"/>
       <c r="BH52" s="15"/>
       <c r="BI52" s="15" t="s">
-        <v>95</v>
+        <v>91</v>
       </c>
       <c r="BJ52" s="15"/>
       <c r="BK52" s="15"/>
@@ -5305,7 +5317,7 @@
     </row>
     <row r="53" spans="1:69" ht="20.5" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A53" s="29" t="s">
-        <v>114</v>
+        <v>110</v>
       </c>
       <c r="B53" s="15"/>
       <c r="C53" s="15"/>
@@ -5329,7 +5341,7 @@
       <c r="U53" s="15"/>
       <c r="V53" s="15"/>
       <c r="W53" s="15" t="s">
-        <v>113</v>
+        <v>109</v>
       </c>
       <c r="X53" s="15"/>
       <c r="Y53" s="15"/>
@@ -5358,7 +5370,7 @@
       <c r="AV53" s="15"/>
       <c r="AW53" s="15"/>
       <c r="AX53" s="14" t="s">
-        <v>88</v>
+        <v>84</v>
       </c>
       <c r="AY53" s="15"/>
       <c r="AZ53" s="15"/>
@@ -5371,7 +5383,7 @@
       <c r="BG53" s="15"/>
       <c r="BH53" s="15"/>
       <c r="BI53" s="16" t="s">
-        <v>365</v>
+        <v>359</v>
       </c>
       <c r="BJ53" s="15"/>
       <c r="BK53" s="15"/>
@@ -5384,7 +5396,7 @@
     </row>
     <row r="54" spans="1:69" ht="10.5" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A54" s="29" t="s">
-        <v>115</v>
+        <v>111</v>
       </c>
       <c r="B54" s="15"/>
       <c r="C54" s="15"/>
@@ -5409,7 +5421,7 @@
       <c r="V54" s="15"/>
       <c r="W54" s="15"/>
       <c r="X54" s="15" t="s">
-        <v>113</v>
+        <v>109</v>
       </c>
       <c r="Y54" s="15"/>
       <c r="Z54" s="15"/>
@@ -5437,7 +5449,7 @@
       <c r="AV54" s="15"/>
       <c r="AW54" s="15"/>
       <c r="AX54" s="14" t="s">
-        <v>88</v>
+        <v>84</v>
       </c>
       <c r="AY54" s="15"/>
       <c r="AZ54" s="15"/>
@@ -5451,7 +5463,7 @@
       <c r="BH54" s="15"/>
       <c r="BI54" s="15"/>
       <c r="BJ54" s="15" t="s">
-        <v>95</v>
+        <v>91</v>
       </c>
       <c r="BK54" s="15"/>
       <c r="BL54" s="15"/>
@@ -5463,7 +5475,7 @@
     </row>
     <row r="55" spans="1:69" ht="10.5" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A55" s="29" t="s">
-        <v>116</v>
+        <v>112</v>
       </c>
       <c r="B55" s="15"/>
       <c r="C55" s="15"/>
@@ -5489,7 +5501,7 @@
       <c r="W55" s="15"/>
       <c r="X55" s="15"/>
       <c r="Y55" s="15" t="s">
-        <v>113</v>
+        <v>109</v>
       </c>
       <c r="Z55" s="15"/>
       <c r="AA55" s="15"/>
@@ -5516,7 +5528,7 @@
       <c r="AV55" s="15"/>
       <c r="AW55" s="15"/>
       <c r="AX55" s="14" t="s">
-        <v>88</v>
+        <v>84</v>
       </c>
       <c r="AY55" s="15"/>
       <c r="AZ55" s="15"/>
@@ -5530,7 +5542,7 @@
       <c r="BH55" s="15"/>
       <c r="BI55" s="15"/>
       <c r="BJ55" s="15" t="s">
-        <v>365</v>
+        <v>359</v>
       </c>
       <c r="BK55" s="15"/>
       <c r="BL55" s="15"/>
@@ -5542,7 +5554,7 @@
     </row>
     <row r="56" spans="1:69" ht="10.5" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A56" s="29" t="s">
-        <v>117</v>
+        <v>113</v>
       </c>
       <c r="B56" s="15"/>
       <c r="C56" s="15"/>
@@ -5596,7 +5608,7 @@
       <c r="AV56" s="15"/>
       <c r="AW56" s="15"/>
       <c r="AX56" s="14" t="s">
-        <v>88</v>
+        <v>84</v>
       </c>
       <c r="AY56" s="15"/>
       <c r="AZ56" s="15"/>
@@ -5611,7 +5623,7 @@
       <c r="BI56" s="15"/>
       <c r="BJ56" s="15"/>
       <c r="BK56" s="16" t="s">
-        <v>95</v>
+        <v>91</v>
       </c>
       <c r="BL56" s="15"/>
       <c r="BM56" s="15"/>
@@ -5622,7 +5634,7 @@
     </row>
     <row r="57" spans="1:69" ht="20.5" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A57" s="29" t="s">
-        <v>118</v>
+        <v>114</v>
       </c>
       <c r="B57" s="15"/>
       <c r="C57" s="15"/>
@@ -5676,7 +5688,7 @@
       <c r="AV57" s="15"/>
       <c r="AW57" s="15"/>
       <c r="AX57" s="14" t="s">
-        <v>88</v>
+        <v>84</v>
       </c>
       <c r="AY57" s="15"/>
       <c r="AZ57" s="15"/>
@@ -5691,7 +5703,7 @@
       <c r="BI57" s="15"/>
       <c r="BJ57" s="15"/>
       <c r="BK57" s="16" t="s">
-        <v>365</v>
+        <v>359</v>
       </c>
       <c r="BL57" s="15"/>
       <c r="BM57" s="15"/>
@@ -5702,7 +5714,7 @@
     </row>
     <row r="58" spans="1:69" ht="10.5" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A58" s="29" t="s">
-        <v>119</v>
+        <v>115</v>
       </c>
       <c r="B58" s="15"/>
       <c r="C58" s="15"/>
@@ -5731,7 +5743,7 @@
       <c r="Z58" s="15"/>
       <c r="AA58" s="15"/>
       <c r="AB58" s="15" t="s">
-        <v>120</v>
+        <v>116</v>
       </c>
       <c r="AC58" s="15"/>
       <c r="AD58" s="15"/>
@@ -5755,7 +5767,7 @@
       <c r="AV58" s="15"/>
       <c r="AW58" s="15"/>
       <c r="AX58" s="14" t="s">
-        <v>88</v>
+        <v>84</v>
       </c>
       <c r="AY58" s="15"/>
       <c r="AZ58" s="15"/>
@@ -5771,7 +5783,7 @@
       <c r="BJ58" s="15"/>
       <c r="BK58" s="15"/>
       <c r="BL58" s="16" t="s">
-        <v>95</v>
+        <v>91</v>
       </c>
       <c r="BM58" s="15"/>
       <c r="BN58" s="15"/>
@@ -5781,7 +5793,7 @@
     </row>
     <row r="59" spans="1:69" ht="20.5" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A59" s="29" t="s">
-        <v>121</v>
+        <v>117</v>
       </c>
       <c r="B59" s="15"/>
       <c r="C59" s="15"/>
@@ -5811,7 +5823,7 @@
       <c r="AA59" s="15"/>
       <c r="AB59" s="15"/>
       <c r="AC59" s="15" t="s">
-        <v>120</v>
+        <v>116</v>
       </c>
       <c r="AD59" s="15"/>
       <c r="AE59" s="15"/>
@@ -5834,7 +5846,7 @@
       <c r="AV59" s="15"/>
       <c r="AW59" s="15"/>
       <c r="AX59" s="14" t="s">
-        <v>88</v>
+        <v>84</v>
       </c>
       <c r="AY59" s="15"/>
       <c r="AZ59" s="15"/>
@@ -5850,7 +5862,7 @@
       <c r="BJ59" s="15"/>
       <c r="BK59" s="15"/>
       <c r="BL59" s="16" t="s">
-        <v>365</v>
+        <v>359</v>
       </c>
       <c r="BM59" s="15"/>
       <c r="BN59" s="15"/>
@@ -5860,7 +5872,7 @@
     </row>
     <row r="60" spans="1:69" ht="10.5" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A60" s="29" t="s">
-        <v>122</v>
+        <v>118</v>
       </c>
       <c r="B60" s="15"/>
       <c r="C60" s="15"/>
@@ -5891,7 +5903,7 @@
       <c r="AB60" s="15"/>
       <c r="AC60" s="15"/>
       <c r="AD60" s="15" t="s">
-        <v>120</v>
+        <v>116</v>
       </c>
       <c r="AE60" s="15"/>
       <c r="AF60" s="15"/>
@@ -5913,7 +5925,7 @@
       <c r="AV60" s="15"/>
       <c r="AW60" s="15"/>
       <c r="AX60" s="14" t="s">
-        <v>88</v>
+        <v>84</v>
       </c>
       <c r="AY60" s="15"/>
       <c r="AZ60" s="15"/>
@@ -5930,7 +5942,7 @@
       <c r="BK60" s="15"/>
       <c r="BL60" s="15"/>
       <c r="BM60" s="15" t="s">
-        <v>95</v>
+        <v>91</v>
       </c>
       <c r="BN60" s="15"/>
       <c r="BO60" s="15"/>
@@ -5939,7 +5951,7 @@
     </row>
     <row r="61" spans="1:69" ht="20.5" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A61" s="29" t="s">
-        <v>123</v>
+        <v>119</v>
       </c>
       <c r="B61" s="15"/>
       <c r="C61" s="15"/>
@@ -5971,7 +5983,7 @@
       <c r="AC61" s="15"/>
       <c r="AD61" s="15"/>
       <c r="AE61" s="15" t="s">
-        <v>120</v>
+        <v>116</v>
       </c>
       <c r="AF61" s="15"/>
       <c r="AG61" s="15"/>
@@ -5992,7 +6004,7 @@
       <c r="AV61" s="15"/>
       <c r="AW61" s="15"/>
       <c r="AX61" s="14" t="s">
-        <v>88</v>
+        <v>84</v>
       </c>
       <c r="AY61" s="15"/>
       <c r="AZ61" s="15"/>
@@ -6009,7 +6021,7 @@
       <c r="BK61" s="15"/>
       <c r="BL61" s="15"/>
       <c r="BM61" s="16" t="s">
-        <v>365</v>
+        <v>359</v>
       </c>
       <c r="BN61" s="15"/>
       <c r="BO61" s="15"/>
@@ -6018,7 +6030,7 @@
     </row>
     <row r="62" spans="1:69" ht="10.5" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A62" s="29" t="s">
-        <v>124</v>
+        <v>120</v>
       </c>
       <c r="B62" s="15"/>
       <c r="C62" s="15"/>
@@ -6051,7 +6063,7 @@
       <c r="AD62" s="15"/>
       <c r="AE62" s="15"/>
       <c r="AF62" s="15" t="s">
-        <v>27</v>
+        <v>23</v>
       </c>
       <c r="AG62" s="15"/>
       <c r="AH62" s="15"/>
@@ -6071,7 +6083,7 @@
       <c r="AV62" s="15"/>
       <c r="AW62" s="15"/>
       <c r="AX62" s="14" t="s">
-        <v>88</v>
+        <v>84</v>
       </c>
       <c r="AY62" s="15"/>
       <c r="AZ62" s="15"/>
@@ -6089,7 +6101,7 @@
       <c r="BL62" s="15"/>
       <c r="BM62" s="15"/>
       <c r="BN62" s="16" t="s">
-        <v>95</v>
+        <v>91</v>
       </c>
       <c r="BO62" s="15"/>
       <c r="BP62" s="15"/>
@@ -6097,7 +6109,7 @@
     </row>
     <row r="63" spans="1:69" ht="20.5" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A63" s="29" t="s">
-        <v>125</v>
+        <v>121</v>
       </c>
       <c r="B63" s="15"/>
       <c r="C63" s="15"/>
@@ -6131,7 +6143,7 @@
       <c r="AE63" s="15"/>
       <c r="AF63" s="15"/>
       <c r="AG63" s="15" t="s">
-        <v>27</v>
+        <v>23</v>
       </c>
       <c r="AH63" s="15"/>
       <c r="AI63" s="15"/>
@@ -6150,7 +6162,7 @@
       <c r="AV63" s="15"/>
       <c r="AW63" s="15"/>
       <c r="AX63" s="14" t="s">
-        <v>88</v>
+        <v>84</v>
       </c>
       <c r="AY63" s="15"/>
       <c r="AZ63" s="15"/>
@@ -6168,7 +6180,7 @@
       <c r="BL63" s="15"/>
       <c r="BM63" s="15"/>
       <c r="BN63" s="16" t="s">
-        <v>365</v>
+        <v>359</v>
       </c>
       <c r="BO63" s="15"/>
       <c r="BP63" s="15"/>
@@ -6176,7 +6188,7 @@
     </row>
     <row r="64" spans="1:69" ht="10.5" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A64" s="29" t="s">
-        <v>126</v>
+        <v>122</v>
       </c>
       <c r="B64" s="15"/>
       <c r="C64" s="15"/>
@@ -6211,7 +6223,7 @@
       <c r="AF64" s="15"/>
       <c r="AG64" s="15"/>
       <c r="AH64" s="15" t="s">
-        <v>27</v>
+        <v>23</v>
       </c>
       <c r="AI64" s="15"/>
       <c r="AJ64" s="15"/>
@@ -6229,7 +6241,7 @@
       <c r="AV64" s="15"/>
       <c r="AW64" s="15"/>
       <c r="AX64" s="14" t="s">
-        <v>88</v>
+        <v>84</v>
       </c>
       <c r="AY64" s="15"/>
       <c r="AZ64" s="15"/>
@@ -6248,14 +6260,14 @@
       <c r="BM64" s="15"/>
       <c r="BN64" s="15"/>
       <c r="BO64" s="15" t="s">
-        <v>95</v>
+        <v>91</v>
       </c>
       <c r="BP64" s="15"/>
       <c r="BQ64" s="15"/>
     </row>
     <row r="65" spans="1:75" ht="10.5" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A65" s="29" t="s">
-        <v>127</v>
+        <v>123</v>
       </c>
       <c r="B65" s="15"/>
       <c r="C65" s="15"/>
@@ -6291,7 +6303,7 @@
       <c r="AG65" s="15"/>
       <c r="AH65" s="15"/>
       <c r="AI65" s="15" t="s">
-        <v>27</v>
+        <v>23</v>
       </c>
       <c r="AJ65" s="15"/>
       <c r="AK65" s="15"/>
@@ -6308,7 +6320,7 @@
       <c r="AV65" s="15"/>
       <c r="AW65" s="15"/>
       <c r="AX65" s="14" t="s">
-        <v>88</v>
+        <v>84</v>
       </c>
       <c r="AY65" s="15"/>
       <c r="AZ65" s="15"/>
@@ -6327,14 +6339,14 @@
       <c r="BM65" s="15"/>
       <c r="BN65" s="15"/>
       <c r="BO65" s="15" t="s">
-        <v>365</v>
+        <v>359</v>
       </c>
       <c r="BP65" s="15"/>
       <c r="BQ65" s="15"/>
     </row>
     <row r="66" spans="1:75" ht="10.5" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A66" s="29" t="s">
-        <v>128</v>
+        <v>124</v>
       </c>
       <c r="B66" s="15"/>
       <c r="C66" s="15"/>
@@ -6371,7 +6383,7 @@
       <c r="AH66" s="15"/>
       <c r="AI66" s="15"/>
       <c r="AJ66" s="15" t="s">
-        <v>27</v>
+        <v>23</v>
       </c>
       <c r="AK66" s="15"/>
       <c r="AL66" s="15"/>
@@ -6387,7 +6399,7 @@
       <c r="AV66" s="15"/>
       <c r="AW66" s="15"/>
       <c r="AX66" s="14" t="s">
-        <v>88</v>
+        <v>84</v>
       </c>
       <c r="AY66" s="15"/>
       <c r="AZ66" s="15"/>
@@ -6407,13 +6419,13 @@
       <c r="BN66" s="15"/>
       <c r="BO66" s="15"/>
       <c r="BP66" s="15" t="s">
-        <v>95</v>
+        <v>91</v>
       </c>
       <c r="BQ66" s="15"/>
     </row>
     <row r="67" spans="1:75" ht="10.5" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A67" s="29" t="s">
-        <v>129</v>
+        <v>125</v>
       </c>
       <c r="B67" s="15"/>
       <c r="C67" s="15"/>
@@ -6451,7 +6463,7 @@
       <c r="AI67" s="15"/>
       <c r="AJ67" s="15"/>
       <c r="AK67" s="15" t="s">
-        <v>27</v>
+        <v>23</v>
       </c>
       <c r="AL67" s="15"/>
       <c r="AM67" s="15"/>
@@ -6466,7 +6478,7 @@
       <c r="AV67" s="15"/>
       <c r="AW67" s="15"/>
       <c r="AX67" s="14" t="s">
-        <v>88</v>
+        <v>84</v>
       </c>
       <c r="AY67" s="15"/>
       <c r="AZ67" s="15"/>
@@ -6486,13 +6498,13 @@
       <c r="BN67" s="15"/>
       <c r="BO67" s="15"/>
       <c r="BP67" s="15" t="s">
-        <v>365</v>
+        <v>359</v>
       </c>
       <c r="BQ67" s="15"/>
     </row>
     <row r="68" spans="1:75" ht="10.5" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A68" s="29" t="s">
-        <v>130</v>
+        <v>126</v>
       </c>
       <c r="B68" s="15"/>
       <c r="C68" s="15"/>
@@ -6531,7 +6543,7 @@
       <c r="AJ68" s="15"/>
       <c r="AK68" s="15"/>
       <c r="AL68" s="15" t="s">
-        <v>27</v>
+        <v>23</v>
       </c>
       <c r="AM68" s="15"/>
       <c r="AN68" s="15"/>
@@ -6545,7 +6557,7 @@
       <c r="AV68" s="15"/>
       <c r="AW68" s="15"/>
       <c r="AX68" s="14" t="s">
-        <v>88</v>
+        <v>84</v>
       </c>
       <c r="AY68" s="15"/>
       <c r="AZ68" s="15"/>
@@ -6566,7 +6578,7 @@
       <c r="BO68" s="15"/>
       <c r="BP68" s="15"/>
       <c r="BQ68" s="15" t="s">
-        <v>95</v>
+        <v>91</v>
       </c>
       <c r="BR68" s="15"/>
       <c r="BS68" s="15"/>
@@ -6577,7 +6589,7 @@
     </row>
     <row r="69" spans="1:75" ht="10.5" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A69" s="29" t="s">
-        <v>131</v>
+        <v>127</v>
       </c>
       <c r="B69" s="15"/>
       <c r="C69" s="15"/>
@@ -6617,7 +6629,7 @@
       <c r="AK69" s="15"/>
       <c r="AL69" s="15"/>
       <c r="AM69" s="15" t="s">
-        <v>27</v>
+        <v>23</v>
       </c>
       <c r="AN69" s="15"/>
       <c r="AO69" s="15"/>
@@ -6630,7 +6642,7 @@
       <c r="AV69" s="15"/>
       <c r="AW69" s="15"/>
       <c r="AX69" s="14" t="s">
-        <v>88</v>
+        <v>84</v>
       </c>
       <c r="AY69" s="15"/>
       <c r="AZ69" s="15"/>
@@ -6651,7 +6663,7 @@
       <c r="BO69" s="15"/>
       <c r="BP69" s="15"/>
       <c r="BQ69" s="15" t="s">
-        <v>365</v>
+        <v>359</v>
       </c>
       <c r="BR69" s="15"/>
       <c r="BS69" s="15"/>
@@ -6662,7 +6674,7 @@
     </row>
     <row r="70" spans="1:75" ht="10.5" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A70" s="29" t="s">
-        <v>132</v>
+        <v>128</v>
       </c>
       <c r="B70" s="15"/>
       <c r="C70" s="15"/>
@@ -6703,7 +6715,7 @@
       <c r="AL70" s="15"/>
       <c r="AM70" s="15"/>
       <c r="AN70" s="15" t="s">
-        <v>27</v>
+        <v>23</v>
       </c>
       <c r="AO70" s="15"/>
       <c r="AP70" s="15"/>
@@ -6715,7 +6727,7 @@
       <c r="AV70" s="15"/>
       <c r="AW70" s="15"/>
       <c r="AX70" s="14" t="s">
-        <v>88</v>
+        <v>84</v>
       </c>
       <c r="AY70" s="15"/>
       <c r="AZ70" s="15"/>
@@ -6737,7 +6749,7 @@
       <c r="BP70" s="15"/>
       <c r="BQ70" s="15"/>
       <c r="BR70" s="15" t="s">
-        <v>95</v>
+        <v>91</v>
       </c>
       <c r="BS70" s="15"/>
       <c r="BT70" s="15"/>
@@ -6747,7 +6759,7 @@
     </row>
     <row r="71" spans="1:75" ht="10.5" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A71" s="29" t="s">
-        <v>133</v>
+        <v>129</v>
       </c>
       <c r="B71" s="15"/>
       <c r="C71" s="15"/>
@@ -6789,7 +6801,7 @@
       <c r="AM71" s="15"/>
       <c r="AN71" s="15"/>
       <c r="AO71" s="15" t="s">
-        <v>27</v>
+        <v>23</v>
       </c>
       <c r="AP71" s="15"/>
       <c r="AQ71" s="15"/>
@@ -6800,7 +6812,7 @@
       <c r="AV71" s="15"/>
       <c r="AW71" s="15"/>
       <c r="AX71" s="14" t="s">
-        <v>88</v>
+        <v>84</v>
       </c>
       <c r="AY71" s="15"/>
       <c r="AZ71" s="15"/>
@@ -6822,7 +6834,7 @@
       <c r="BP71" s="15"/>
       <c r="BQ71" s="15"/>
       <c r="BR71" s="15" t="s">
-        <v>365</v>
+        <v>359</v>
       </c>
       <c r="BS71" s="15"/>
       <c r="BT71" s="15"/>
@@ -6832,7 +6844,7 @@
     </row>
     <row r="72" spans="1:75" ht="10.5" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A72" s="29" t="s">
-        <v>134</v>
+        <v>130</v>
       </c>
       <c r="B72" s="15"/>
       <c r="C72" s="15"/>
@@ -6875,7 +6887,7 @@
       <c r="AN72" s="15"/>
       <c r="AO72" s="15"/>
       <c r="AP72" s="15" t="s">
-        <v>27</v>
+        <v>23</v>
       </c>
       <c r="AQ72" s="15"/>
       <c r="AR72" s="15"/>
@@ -6885,7 +6897,7 @@
       <c r="AV72" s="15"/>
       <c r="AW72" s="15"/>
       <c r="AX72" s="14" t="s">
-        <v>88</v>
+        <v>84</v>
       </c>
       <c r="AY72" s="15"/>
       <c r="AZ72" s="15"/>
@@ -6908,7 +6920,7 @@
       <c r="BQ72" s="15"/>
       <c r="BR72" s="15"/>
       <c r="BS72" s="15" t="s">
-        <v>95</v>
+        <v>91</v>
       </c>
       <c r="BT72" s="15"/>
       <c r="BU72" s="15"/>
@@ -6917,7 +6929,7 @@
     </row>
     <row r="73" spans="1:75" ht="10.5" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A73" s="29" t="s">
-        <v>135</v>
+        <v>131</v>
       </c>
       <c r="B73" s="15"/>
       <c r="C73" s="15"/>
@@ -6961,7 +6973,7 @@
       <c r="AO73" s="15"/>
       <c r="AP73" s="15"/>
       <c r="AQ73" s="15" t="s">
-        <v>27</v>
+        <v>23</v>
       </c>
       <c r="AR73" s="15"/>
       <c r="AS73" s="15"/>
@@ -6970,7 +6982,7 @@
       <c r="AV73" s="15"/>
       <c r="AW73" s="15"/>
       <c r="AX73" s="14" t="s">
-        <v>88</v>
+        <v>84</v>
       </c>
       <c r="AY73" s="15"/>
       <c r="AZ73" s="15"/>
@@ -6993,7 +7005,7 @@
       <c r="BQ73" s="15"/>
       <c r="BR73" s="15"/>
       <c r="BS73" s="15" t="s">
-        <v>365</v>
+        <v>359</v>
       </c>
       <c r="BT73" s="15"/>
       <c r="BU73" s="15"/>
@@ -7002,7 +7014,7 @@
     </row>
     <row r="74" spans="1:75" ht="10.5" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A74" s="29" t="s">
-        <v>136</v>
+        <v>132</v>
       </c>
       <c r="B74" s="15"/>
       <c r="C74" s="15"/>
@@ -7047,7 +7059,7 @@
       <c r="AP74" s="15"/>
       <c r="AQ74" s="15"/>
       <c r="AR74" s="15" t="s">
-        <v>27</v>
+        <v>23</v>
       </c>
       <c r="AS74" s="15"/>
       <c r="AT74" s="15"/>
@@ -7055,7 +7067,7 @@
       <c r="AV74" s="15"/>
       <c r="AW74" s="15"/>
       <c r="AX74" s="14" t="s">
-        <v>88</v>
+        <v>84</v>
       </c>
       <c r="AY74" s="15"/>
       <c r="AZ74" s="15"/>
@@ -7079,7 +7091,7 @@
       <c r="BR74" s="15"/>
       <c r="BS74" s="15"/>
       <c r="BT74" s="15" t="s">
-        <v>95</v>
+        <v>91</v>
       </c>
       <c r="BU74" s="15"/>
       <c r="BV74" s="15"/>
@@ -7087,7 +7099,7 @@
     </row>
     <row r="75" spans="1:75" ht="10.5" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A75" s="29" t="s">
-        <v>137</v>
+        <v>133</v>
       </c>
       <c r="B75" s="15"/>
       <c r="C75" s="15"/>
@@ -7133,14 +7145,14 @@
       <c r="AQ75" s="15"/>
       <c r="AR75" s="15"/>
       <c r="AS75" s="15" t="s">
-        <v>27</v>
+        <v>23</v>
       </c>
       <c r="AT75" s="15"/>
       <c r="AU75" s="15"/>
       <c r="AV75" s="15"/>
       <c r="AW75" s="15"/>
       <c r="AX75" s="14" t="s">
-        <v>88</v>
+        <v>84</v>
       </c>
       <c r="AY75" s="15"/>
       <c r="AZ75" s="15"/>
@@ -7164,7 +7176,7 @@
       <c r="BR75" s="15"/>
       <c r="BS75" s="15"/>
       <c r="BT75" s="15" t="s">
-        <v>365</v>
+        <v>359</v>
       </c>
       <c r="BU75" s="15"/>
       <c r="BV75" s="15"/>
@@ -7172,7 +7184,7 @@
     </row>
     <row r="76" spans="1:75" ht="10.5" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A76" s="29" t="s">
-        <v>138</v>
+        <v>134</v>
       </c>
       <c r="B76" s="15"/>
       <c r="C76" s="15"/>
@@ -7219,13 +7231,13 @@
       <c r="AR76" s="15"/>
       <c r="AS76" s="15"/>
       <c r="AT76" s="15" t="s">
-        <v>27</v>
+        <v>23</v>
       </c>
       <c r="AU76" s="15"/>
       <c r="AV76" s="15"/>
       <c r="AW76" s="15"/>
       <c r="AX76" s="14" t="s">
-        <v>88</v>
+        <v>84</v>
       </c>
       <c r="AY76" s="15"/>
       <c r="AZ76" s="15"/>
@@ -7250,14 +7262,14 @@
       <c r="BS76" s="15"/>
       <c r="BT76" s="15"/>
       <c r="BU76" s="15" t="s">
-        <v>95</v>
+        <v>91</v>
       </c>
       <c r="BV76" s="15"/>
       <c r="BW76" s="15"/>
     </row>
     <row r="77" spans="1:75" ht="10.5" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A77" s="29" t="s">
-        <v>139</v>
+        <v>135</v>
       </c>
       <c r="B77" s="15"/>
       <c r="C77" s="15"/>
@@ -7305,12 +7317,12 @@
       <c r="AS77" s="15"/>
       <c r="AT77" s="15"/>
       <c r="AU77" s="15" t="s">
-        <v>27</v>
+        <v>23</v>
       </c>
       <c r="AV77" s="15"/>
       <c r="AW77" s="15"/>
       <c r="AX77" s="14" t="s">
-        <v>88</v>
+        <v>84</v>
       </c>
       <c r="AY77" s="15"/>
       <c r="AZ77" s="15"/>
@@ -7335,14 +7347,14 @@
       <c r="BS77" s="15"/>
       <c r="BT77" s="15"/>
       <c r="BU77" s="15" t="s">
-        <v>365</v>
+        <v>359</v>
       </c>
       <c r="BV77" s="15"/>
       <c r="BW77" s="15"/>
     </row>
-    <row r="78" spans="1:75" ht="10.5" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="78" spans="1:75" ht="90.5" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A78" s="29" t="s">
-        <v>140</v>
+        <v>136</v>
       </c>
       <c r="B78" s="15"/>
       <c r="C78" s="15"/>
@@ -7390,12 +7402,12 @@
       <c r="AS78" s="15"/>
       <c r="AT78" s="15"/>
       <c r="AU78" s="15"/>
-      <c r="AV78" s="15" t="s">
-        <v>27</v>
+      <c r="AV78" s="16" t="s">
+        <v>401</v>
       </c>
       <c r="AW78" s="15"/>
       <c r="AX78" s="14" t="s">
-        <v>88</v>
+        <v>84</v>
       </c>
       <c r="AY78" s="15"/>
       <c r="AZ78" s="15"/>
@@ -7421,13 +7433,13 @@
       <c r="BT78" s="15"/>
       <c r="BU78" s="15"/>
       <c r="BV78" s="15" t="s">
-        <v>95</v>
+        <v>91</v>
       </c>
       <c r="BW78" s="15"/>
     </row>
-    <row r="79" spans="1:75" ht="10.5" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="79" spans="1:75" ht="90.5" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A79" s="29" t="s">
-        <v>141</v>
+        <v>137</v>
       </c>
       <c r="B79" s="15"/>
       <c r="C79" s="15"/>
@@ -7476,11 +7488,11 @@
       <c r="AT79" s="15"/>
       <c r="AU79" s="15"/>
       <c r="AV79" s="15"/>
-      <c r="AW79" s="15" t="s">
-        <v>27</v>
+      <c r="AW79" s="16" t="s">
+        <v>401</v>
       </c>
       <c r="AX79" s="14" t="s">
-        <v>88</v>
+        <v>84</v>
       </c>
       <c r="AY79" s="15"/>
       <c r="AZ79" s="15"/>
@@ -7506,7 +7518,7 @@
       <c r="BT79" s="15"/>
       <c r="BU79" s="15"/>
       <c r="BV79" s="15" t="s">
-        <v>365</v>
+        <v>359</v>
       </c>
       <c r="BW79" s="15"/>
     </row>
@@ -7589,7 +7601,7 @@
     </row>
     <row r="81" spans="1:75" s="9" customFormat="1" ht="11" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A81" s="34" t="s">
-        <v>323</v>
+        <v>317</v>
       </c>
       <c r="B81" s="35"/>
       <c r="C81" s="35"/>
@@ -7848,7 +7860,7 @@
     <row r="83" spans="1:75" ht="10.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A83" s="31"/>
       <c r="B83" s="43" t="s">
-        <v>158</v>
+        <v>153</v>
       </c>
       <c r="C83" s="43"/>
       <c r="D83" s="43"/>
@@ -7927,154 +7939,154 @@
     <row r="84" spans="1:75" ht="130.5" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A84" s="31"/>
       <c r="B84" s="32" t="s">
+        <v>154</v>
+      </c>
+      <c r="C84" s="32" t="s">
+        <v>155</v>
+      </c>
+      <c r="D84" s="32" t="s">
+        <v>393</v>
+      </c>
+      <c r="E84" s="32" t="s">
+        <v>156</v>
+      </c>
+      <c r="F84" s="32" t="s">
+        <v>304</v>
+      </c>
+      <c r="G84" s="32" t="s">
+        <v>305</v>
+      </c>
+      <c r="H84" s="32" t="s">
+        <v>157</v>
+      </c>
+      <c r="I84" s="32" t="s">
+        <v>158</v>
+      </c>
+      <c r="J84" s="32" t="s">
         <v>159</v>
       </c>
-      <c r="C84" s="32" t="s">
+      <c r="K84" s="32" t="s">
         <v>160</v>
       </c>
-      <c r="D84" s="32" t="s">
-        <v>399</v>
-      </c>
-      <c r="E84" s="32" t="s">
+      <c r="L84" s="32" t="s">
         <v>161</v>
       </c>
-      <c r="F84" s="32" t="s">
+      <c r="M84" s="32" t="s">
+        <v>162</v>
+      </c>
+      <c r="N84" s="32" t="s">
+        <v>163</v>
+      </c>
+      <c r="O84" s="32" t="s">
+        <v>164</v>
+      </c>
+      <c r="P84" s="32" t="s">
+        <v>165</v>
+      </c>
+      <c r="Q84" s="32" t="s">
+        <v>166</v>
+      </c>
+      <c r="R84" s="32" t="s">
+        <v>167</v>
+      </c>
+      <c r="S84" s="32" t="s">
+        <v>168</v>
+      </c>
+      <c r="T84" s="32" t="s">
+        <v>169</v>
+      </c>
+      <c r="U84" s="32" t="s">
+        <v>170</v>
+      </c>
+      <c r="V84" s="32" t="s">
+        <v>309</v>
+      </c>
+      <c r="W84" s="32" t="s">
         <v>310</v>
       </c>
-      <c r="G84" s="32" t="s">
-        <v>311</v>
-      </c>
-      <c r="H84" s="32" t="s">
-        <v>162</v>
-      </c>
-      <c r="I84" s="32" t="s">
-        <v>163</v>
-      </c>
-      <c r="J84" s="32" t="s">
-        <v>164</v>
-      </c>
-      <c r="K84" s="32" t="s">
-        <v>165</v>
-      </c>
-      <c r="L84" s="32" t="s">
-        <v>166</v>
-      </c>
-      <c r="M84" s="32" t="s">
-        <v>167</v>
-      </c>
-      <c r="N84" s="32" t="s">
-        <v>168</v>
-      </c>
-      <c r="O84" s="32" t="s">
-        <v>169</v>
-      </c>
-      <c r="P84" s="32" t="s">
-        <v>170</v>
-      </c>
-      <c r="Q84" s="32" t="s">
+      <c r="X84" s="32" t="s">
         <v>171</v>
       </c>
-      <c r="R84" s="32" t="s">
+      <c r="Y84" s="32" t="s">
         <v>172</v>
       </c>
-      <c r="S84" s="32" t="s">
+      <c r="Z84" s="38" t="s">
         <v>173</v>
       </c>
-      <c r="T84" s="32" t="s">
+      <c r="AA84" s="38" t="s">
         <v>174</v>
       </c>
-      <c r="U84" s="32" t="s">
+      <c r="AB84" s="32" t="s">
         <v>175</v>
       </c>
-      <c r="V84" s="32" t="s">
-        <v>315</v>
-      </c>
-      <c r="W84" s="32" t="s">
-        <v>316</v>
-      </c>
-      <c r="X84" s="32" t="s">
+      <c r="AC84" s="32" t="s">
         <v>176</v>
       </c>
-      <c r="Y84" s="32" t="s">
+      <c r="AD84" s="32" t="s">
         <v>177</v>
       </c>
-      <c r="Z84" s="38" t="s">
+      <c r="AE84" s="32" t="s">
         <v>178</v>
       </c>
-      <c r="AA84" s="38" t="s">
-        <v>179</v>
-      </c>
-      <c r="AB84" s="32" t="s">
-        <v>180</v>
-      </c>
-      <c r="AC84" s="32" t="s">
-        <v>181</v>
-      </c>
-      <c r="AD84" s="32" t="s">
-        <v>182</v>
-      </c>
-      <c r="AE84" s="32" t="s">
-        <v>183</v>
-      </c>
       <c r="AF84" s="14" t="s">
-        <v>402</v>
+        <v>396</v>
       </c>
       <c r="AG84" s="14" t="s">
-        <v>371</v>
+        <v>365</v>
       </c>
       <c r="AH84" s="32" t="s">
-        <v>19</v>
+        <v>15</v>
       </c>
       <c r="AI84" s="32" t="s">
+        <v>344</v>
+      </c>
+      <c r="AJ84" s="32" t="s">
+        <v>345</v>
+      </c>
+      <c r="AK84" s="32" t="s">
+        <v>346</v>
+      </c>
+      <c r="AL84" s="32" t="s">
+        <v>347</v>
+      </c>
+      <c r="AM84" s="32" t="s">
+        <v>348</v>
+      </c>
+      <c r="AN84" s="32" t="s">
+        <v>349</v>
+      </c>
+      <c r="AO84" s="32" t="s">
         <v>350</v>
       </c>
-      <c r="AJ84" s="32" t="s">
+      <c r="AP84" s="32" t="s">
         <v>351</v>
       </c>
-      <c r="AK84" s="32" t="s">
+      <c r="AQ84" s="32" t="s">
         <v>352</v>
       </c>
-      <c r="AL84" s="32" t="s">
+      <c r="AR84" s="32" t="s">
         <v>353</v>
       </c>
-      <c r="AM84" s="32" t="s">
+      <c r="AS84" s="32" t="s">
         <v>354</v>
       </c>
-      <c r="AN84" s="32" t="s">
+      <c r="AT84" s="32" t="s">
         <v>355</v>
       </c>
-      <c r="AO84" s="32" t="s">
+      <c r="AU84" s="32" t="s">
         <v>356</v>
       </c>
-      <c r="AP84" s="32" t="s">
+      <c r="AV84" s="32" t="s">
         <v>357</v>
       </c>
-      <c r="AQ84" s="32" t="s">
+      <c r="AW84" s="32" t="s">
         <v>358</v>
       </c>
-      <c r="AR84" s="32" t="s">
-        <v>359</v>
-      </c>
-      <c r="AS84" s="32" t="s">
-        <v>360</v>
-      </c>
-      <c r="AT84" s="32" t="s">
-        <v>361</v>
-      </c>
-      <c r="AU84" s="32" t="s">
-        <v>362</v>
-      </c>
-      <c r="AV84" s="32" t="s">
-        <v>363</v>
-      </c>
-      <c r="AW84" s="32" t="s">
-        <v>364</v>
-      </c>
       <c r="AX84" s="14" t="s">
-        <v>351</v>
+        <v>345</v>
       </c>
       <c r="AY84" s="14" t="s">
-        <v>351</v>
+        <v>345</v>
       </c>
       <c r="AZ84" s="33"/>
       <c r="BA84" s="33"/>
@@ -8106,154 +8118,154 @@
         <v>7</v>
       </c>
       <c r="B85" s="40" t="s">
+        <v>16</v>
+      </c>
+      <c r="C85" s="40" t="s">
+        <v>16</v>
+      </c>
+      <c r="D85" s="40" t="s">
+        <v>376</v>
+      </c>
+      <c r="E85" s="40" t="s">
+        <v>179</v>
+      </c>
+      <c r="F85" s="40" t="s">
+        <v>180</v>
+      </c>
+      <c r="G85" s="40" t="s">
+        <v>180</v>
+      </c>
+      <c r="H85" s="40" t="s">
+        <v>181</v>
+      </c>
+      <c r="I85" s="40" t="s">
+        <v>181</v>
+      </c>
+      <c r="J85" s="40" t="s">
+        <v>182</v>
+      </c>
+      <c r="K85" s="40" t="s">
+        <v>182</v>
+      </c>
+      <c r="L85" s="40" t="s">
+        <v>183</v>
+      </c>
+      <c r="M85" s="40" t="s">
+        <v>183</v>
+      </c>
+      <c r="N85" s="40" t="s">
+        <v>184</v>
+      </c>
+      <c r="O85" s="40" t="s">
+        <v>184</v>
+      </c>
+      <c r="P85" s="40" t="s">
+        <v>185</v>
+      </c>
+      <c r="Q85" s="40" t="s">
+        <v>185</v>
+      </c>
+      <c r="R85" s="40" t="s">
+        <v>186</v>
+      </c>
+      <c r="S85" s="40" t="s">
+        <v>186</v>
+      </c>
+      <c r="T85" s="40" t="s">
+        <v>187</v>
+      </c>
+      <c r="U85" s="40" t="s">
+        <v>187</v>
+      </c>
+      <c r="V85" s="40" t="s">
+        <v>188</v>
+      </c>
+      <c r="W85" s="40" t="s">
+        <v>188</v>
+      </c>
+      <c r="X85" s="40" t="s">
+        <v>189</v>
+      </c>
+      <c r="Y85" s="40" t="s">
+        <v>189</v>
+      </c>
+      <c r="Z85" s="41" t="s">
+        <v>190</v>
+      </c>
+      <c r="AA85" s="41" t="s">
+        <v>190</v>
+      </c>
+      <c r="AB85" s="40" t="s">
+        <v>191</v>
+      </c>
+      <c r="AC85" s="40" t="s">
+        <v>191</v>
+      </c>
+      <c r="AD85" s="40" t="s">
+        <v>192</v>
+      </c>
+      <c r="AE85" s="40" t="s">
+        <v>192</v>
+      </c>
+      <c r="AF85" s="17" t="s">
+        <v>376</v>
+      </c>
+      <c r="AG85" s="17" t="s">
+        <v>376</v>
+      </c>
+      <c r="AH85" s="40" t="s">
         <v>20</v>
       </c>
-      <c r="C85" s="40" t="s">
-        <v>20</v>
-      </c>
-      <c r="D85" s="40" t="s">
-        <v>382</v>
-      </c>
-      <c r="E85" s="40" t="s">
-        <v>184</v>
-      </c>
-      <c r="F85" s="40" t="s">
-        <v>185</v>
-      </c>
-      <c r="G85" s="40" t="s">
-        <v>185</v>
-      </c>
-      <c r="H85" s="40" t="s">
-        <v>186</v>
-      </c>
-      <c r="I85" s="40" t="s">
-        <v>186</v>
-      </c>
-      <c r="J85" s="40" t="s">
-        <v>187</v>
-      </c>
-      <c r="K85" s="40" t="s">
-        <v>187</v>
-      </c>
-      <c r="L85" s="40" t="s">
-        <v>188</v>
-      </c>
-      <c r="M85" s="40" t="s">
-        <v>188</v>
-      </c>
-      <c r="N85" s="40" t="s">
-        <v>189</v>
-      </c>
-      <c r="O85" s="40" t="s">
-        <v>189</v>
-      </c>
-      <c r="P85" s="40" t="s">
-        <v>190</v>
-      </c>
-      <c r="Q85" s="40" t="s">
-        <v>190</v>
-      </c>
-      <c r="R85" s="40" t="s">
-        <v>191</v>
-      </c>
-      <c r="S85" s="40" t="s">
-        <v>191</v>
-      </c>
-      <c r="T85" s="40" t="s">
-        <v>192</v>
-      </c>
-      <c r="U85" s="40" t="s">
-        <v>192</v>
-      </c>
-      <c r="V85" s="40" t="s">
-        <v>193</v>
-      </c>
-      <c r="W85" s="40" t="s">
-        <v>193</v>
-      </c>
-      <c r="X85" s="40" t="s">
-        <v>194</v>
-      </c>
-      <c r="Y85" s="40" t="s">
-        <v>194</v>
-      </c>
-      <c r="Z85" s="41" t="s">
-        <v>195</v>
-      </c>
-      <c r="AA85" s="41" t="s">
-        <v>195</v>
-      </c>
-      <c r="AB85" s="40" t="s">
-        <v>196</v>
-      </c>
-      <c r="AC85" s="40" t="s">
-        <v>196</v>
-      </c>
-      <c r="AD85" s="40" t="s">
-        <v>197</v>
-      </c>
-      <c r="AE85" s="40" t="s">
-        <v>197</v>
-      </c>
-      <c r="AF85" s="17" t="s">
-        <v>382</v>
-      </c>
-      <c r="AG85" s="17" t="s">
-        <v>382</v>
-      </c>
-      <c r="AH85" s="40" t="s">
-        <v>24</v>
-      </c>
       <c r="AI85" s="40" t="s">
-        <v>25</v>
+        <v>21</v>
       </c>
       <c r="AJ85" s="40" t="s">
-        <v>25</v>
+        <v>21</v>
       </c>
       <c r="AK85" s="40" t="s">
-        <v>25</v>
+        <v>21</v>
       </c>
       <c r="AL85" s="40" t="s">
-        <v>25</v>
+        <v>21</v>
       </c>
       <c r="AM85" s="40" t="s">
-        <v>25</v>
+        <v>21</v>
       </c>
       <c r="AN85" s="40" t="s">
-        <v>25</v>
+        <v>21</v>
       </c>
       <c r="AO85" s="40" t="s">
-        <v>25</v>
+        <v>21</v>
       </c>
       <c r="AP85" s="40" t="s">
-        <v>25</v>
+        <v>21</v>
       </c>
       <c r="AQ85" s="40" t="s">
-        <v>25</v>
+        <v>21</v>
       </c>
       <c r="AR85" s="40" t="s">
-        <v>25</v>
+        <v>21</v>
       </c>
       <c r="AS85" s="40" t="s">
-        <v>25</v>
+        <v>21</v>
       </c>
       <c r="AT85" s="40" t="s">
-        <v>25</v>
+        <v>21</v>
       </c>
       <c r="AU85" s="40" t="s">
-        <v>25</v>
+        <v>21</v>
       </c>
       <c r="AV85" s="40" t="s">
-        <v>25</v>
+        <v>21</v>
       </c>
       <c r="AW85" s="40" t="s">
-        <v>25</v>
+        <v>21</v>
       </c>
       <c r="AX85" s="40" t="s">
-        <v>25</v>
+        <v>21</v>
       </c>
       <c r="AY85" s="40" t="s">
-        <v>25</v>
+        <v>21</v>
       </c>
       <c r="AZ85" s="33"/>
       <c r="BA85" s="33"/>
@@ -8282,10 +8294,10 @@
     </row>
     <row r="86" spans="1:75" ht="20.5" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A86" s="31" t="s">
-        <v>198</v>
+        <v>193</v>
       </c>
       <c r="B86" s="32" t="s">
-        <v>27</v>
+        <v>23</v>
       </c>
       <c r="C86" s="32"/>
       <c r="D86" s="32"/>
@@ -8319,10 +8331,10 @@
       <c r="AF86" s="32"/>
       <c r="AG86" s="32"/>
       <c r="AH86" s="32" t="s">
-        <v>199</v>
+        <v>194</v>
       </c>
       <c r="AI86" s="32" t="s">
-        <v>95</v>
+        <v>91</v>
       </c>
       <c r="AJ86" s="32"/>
       <c r="AK86" s="32"/>
@@ -8367,11 +8379,11 @@
     </row>
     <row r="87" spans="1:75" ht="20.5" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A87" s="31" t="s">
-        <v>200</v>
+        <v>195</v>
       </c>
       <c r="B87" s="32"/>
       <c r="C87" s="32" t="s">
-        <v>27</v>
+        <v>23</v>
       </c>
       <c r="D87" s="32"/>
       <c r="E87" s="32"/>
@@ -8404,10 +8416,10 @@
       <c r="AF87" s="32"/>
       <c r="AG87" s="32"/>
       <c r="AH87" s="32" t="s">
-        <v>199</v>
+        <v>194</v>
       </c>
       <c r="AI87" s="32" t="s">
-        <v>365</v>
+        <v>359</v>
       </c>
       <c r="AJ87" s="32"/>
       <c r="AK87" s="32"/>
@@ -8452,12 +8464,12 @@
     </row>
     <row r="88" spans="1:75" ht="30.5" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A88" s="31" t="s">
-        <v>201</v>
+        <v>196</v>
       </c>
       <c r="B88" s="32"/>
       <c r="C88" s="32"/>
       <c r="D88" s="14" t="s">
-        <v>400</v>
+        <v>394</v>
       </c>
       <c r="E88" s="32"/>
       <c r="F88" s="32"/>
@@ -8489,11 +8501,11 @@
       <c r="AF88" s="32"/>
       <c r="AG88" s="32"/>
       <c r="AH88" s="32" t="s">
-        <v>199</v>
+        <v>194</v>
       </c>
       <c r="AI88" s="32"/>
       <c r="AJ88" s="32" t="s">
-        <v>384</v>
+        <v>378</v>
       </c>
       <c r="AK88" s="32"/>
       <c r="AL88" s="32"/>
@@ -8537,13 +8549,13 @@
     </row>
     <row r="89" spans="1:75" ht="20.5" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A89" s="42" t="s">
-        <v>202</v>
+        <v>197</v>
       </c>
       <c r="B89" s="32"/>
       <c r="C89" s="32"/>
       <c r="D89" s="32"/>
       <c r="E89" s="32" t="s">
-        <v>27</v>
+        <v>23</v>
       </c>
       <c r="F89" s="32"/>
       <c r="G89" s="32"/>
@@ -8574,11 +8586,11 @@
       <c r="AF89" s="32"/>
       <c r="AG89" s="32"/>
       <c r="AH89" s="32" t="s">
-        <v>199</v>
+        <v>194</v>
       </c>
       <c r="AI89" s="32"/>
       <c r="AJ89" s="32" t="s">
-        <v>365</v>
+        <v>359</v>
       </c>
       <c r="AK89" s="32"/>
       <c r="AL89" s="32"/>
@@ -8622,14 +8634,14 @@
     </row>
     <row r="90" spans="1:75" ht="20.5" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A90" s="31" t="s">
-        <v>203</v>
+        <v>198</v>
       </c>
       <c r="B90" s="32"/>
       <c r="C90" s="32"/>
       <c r="D90" s="32"/>
       <c r="E90" s="32"/>
       <c r="F90" s="32" t="s">
-        <v>27</v>
+        <v>23</v>
       </c>
       <c r="G90" s="32"/>
       <c r="H90" s="32"/>
@@ -8659,12 +8671,12 @@
       <c r="AF90" s="32"/>
       <c r="AG90" s="32"/>
       <c r="AH90" s="32" t="s">
-        <v>199</v>
+        <v>194</v>
       </c>
       <c r="AI90" s="32"/>
       <c r="AJ90" s="32"/>
       <c r="AK90" s="32" t="s">
-        <v>95</v>
+        <v>91</v>
       </c>
       <c r="AL90" s="32"/>
       <c r="AM90" s="32"/>
@@ -8707,7 +8719,7 @@
     </row>
     <row r="91" spans="1:75" ht="20.5" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A91" s="31" t="s">
-        <v>204</v>
+        <v>199</v>
       </c>
       <c r="B91" s="32"/>
       <c r="C91" s="32"/>
@@ -8715,7 +8727,7 @@
       <c r="E91" s="32"/>
       <c r="F91" s="32"/>
       <c r="G91" s="32" t="s">
-        <v>27</v>
+        <v>23</v>
       </c>
       <c r="H91" s="32"/>
       <c r="I91" s="32"/>
@@ -8744,12 +8756,12 @@
       <c r="AF91" s="32"/>
       <c r="AG91" s="32"/>
       <c r="AH91" s="32" t="s">
-        <v>199</v>
+        <v>194</v>
       </c>
       <c r="AI91" s="32"/>
       <c r="AJ91" s="32"/>
       <c r="AK91" s="32" t="s">
-        <v>365</v>
+        <v>359</v>
       </c>
       <c r="AL91" s="32"/>
       <c r="AM91" s="32"/>
@@ -8792,7 +8804,7 @@
     </row>
     <row r="92" spans="1:75" ht="20.5" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A92" s="31" t="s">
-        <v>205</v>
+        <v>200</v>
       </c>
       <c r="B92" s="32"/>
       <c r="C92" s="32"/>
@@ -8801,7 +8813,7 @@
       <c r="F92" s="32"/>
       <c r="G92" s="32"/>
       <c r="H92" s="32" t="s">
-        <v>27</v>
+        <v>23</v>
       </c>
       <c r="I92" s="32"/>
       <c r="J92" s="32"/>
@@ -8829,13 +8841,13 @@
       <c r="AF92" s="32"/>
       <c r="AG92" s="32"/>
       <c r="AH92" s="32" t="s">
-        <v>199</v>
+        <v>194</v>
       </c>
       <c r="AI92" s="32"/>
       <c r="AJ92" s="32"/>
       <c r="AK92" s="32"/>
       <c r="AL92" s="32" t="s">
-        <v>95</v>
+        <v>91</v>
       </c>
       <c r="AM92" s="32"/>
       <c r="AN92" s="32"/>
@@ -8877,7 +8889,7 @@
     </row>
     <row r="93" spans="1:75" ht="20.5" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A93" s="31" t="s">
-        <v>206</v>
+        <v>201</v>
       </c>
       <c r="B93" s="32"/>
       <c r="C93" s="32"/>
@@ -8887,7 +8899,7 @@
       <c r="G93" s="32"/>
       <c r="H93" s="32"/>
       <c r="I93" s="32" t="s">
-        <v>27</v>
+        <v>23</v>
       </c>
       <c r="J93" s="32"/>
       <c r="K93" s="32"/>
@@ -8914,13 +8926,13 @@
       <c r="AF93" s="32"/>
       <c r="AG93" s="32"/>
       <c r="AH93" s="32" t="s">
-        <v>199</v>
+        <v>194</v>
       </c>
       <c r="AI93" s="32"/>
       <c r="AJ93" s="32"/>
       <c r="AK93" s="32"/>
       <c r="AL93" s="32" t="s">
-        <v>365</v>
+        <v>359</v>
       </c>
       <c r="AM93" s="32"/>
       <c r="AN93" s="32"/>
@@ -8962,7 +8974,7 @@
     </row>
     <row r="94" spans="1:75" ht="20.5" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A94" s="42" t="s">
-        <v>317</v>
+        <v>311</v>
       </c>
       <c r="B94" s="32"/>
       <c r="C94" s="32"/>
@@ -8973,7 +8985,7 @@
       <c r="H94" s="32"/>
       <c r="I94" s="32"/>
       <c r="J94" s="32" t="s">
-        <v>27</v>
+        <v>23</v>
       </c>
       <c r="K94" s="32"/>
       <c r="L94" s="32"/>
@@ -8999,14 +9011,14 @@
       <c r="AF94" s="32"/>
       <c r="AG94" s="32"/>
       <c r="AH94" s="32" t="s">
-        <v>199</v>
+        <v>194</v>
       </c>
       <c r="AI94" s="32"/>
       <c r="AJ94" s="32"/>
       <c r="AK94" s="32"/>
       <c r="AL94" s="32"/>
       <c r="AM94" s="32" t="s">
-        <v>95</v>
+        <v>91</v>
       </c>
       <c r="AN94" s="32"/>
       <c r="AO94" s="32"/>
@@ -9047,7 +9059,7 @@
     </row>
     <row r="95" spans="1:75" ht="20.5" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A95" s="42" t="s">
-        <v>318</v>
+        <v>312</v>
       </c>
       <c r="B95" s="32"/>
       <c r="C95" s="32"/>
@@ -9059,7 +9071,7 @@
       <c r="I95" s="32"/>
       <c r="J95" s="32"/>
       <c r="K95" s="32" t="s">
-        <v>27</v>
+        <v>23</v>
       </c>
       <c r="L95" s="32"/>
       <c r="M95" s="32"/>
@@ -9084,14 +9096,14 @@
       <c r="AF95" s="32"/>
       <c r="AG95" s="32"/>
       <c r="AH95" s="32" t="s">
-        <v>199</v>
+        <v>194</v>
       </c>
       <c r="AI95" s="32"/>
       <c r="AJ95" s="32"/>
       <c r="AK95" s="32"/>
       <c r="AL95" s="32"/>
       <c r="AM95" s="32" t="s">
-        <v>365</v>
+        <v>359</v>
       </c>
       <c r="AN95" s="32"/>
       <c r="AO95" s="32"/>
@@ -9132,7 +9144,7 @@
     </row>
     <row r="96" spans="1:75" ht="20.5" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A96" s="42" t="s">
-        <v>207</v>
+        <v>202</v>
       </c>
       <c r="B96" s="32"/>
       <c r="C96" s="32"/>
@@ -9145,7 +9157,7 @@
       <c r="J96" s="32"/>
       <c r="K96" s="32"/>
       <c r="L96" s="32" t="s">
-        <v>27</v>
+        <v>23</v>
       </c>
       <c r="M96" s="32"/>
       <c r="N96" s="32"/>
@@ -9169,7 +9181,7 @@
       <c r="AF96" s="32"/>
       <c r="AG96" s="32"/>
       <c r="AH96" s="32" t="s">
-        <v>199</v>
+        <v>194</v>
       </c>
       <c r="AI96" s="32"/>
       <c r="AJ96" s="32"/>
@@ -9177,7 +9189,7 @@
       <c r="AL96" s="32"/>
       <c r="AM96" s="32"/>
       <c r="AN96" s="32" t="s">
-        <v>95</v>
+        <v>91</v>
       </c>
       <c r="AO96" s="32"/>
       <c r="AP96" s="32"/>
@@ -9217,7 +9229,7 @@
     </row>
     <row r="97" spans="1:75" ht="20.5" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A97" s="42" t="s">
-        <v>208</v>
+        <v>203</v>
       </c>
       <c r="B97" s="32"/>
       <c r="C97" s="32"/>
@@ -9231,7 +9243,7 @@
       <c r="K97" s="32"/>
       <c r="L97" s="32"/>
       <c r="M97" s="32" t="s">
-        <v>27</v>
+        <v>23</v>
       </c>
       <c r="N97" s="32"/>
       <c r="O97" s="32"/>
@@ -9254,7 +9266,7 @@
       <c r="AF97" s="32"/>
       <c r="AG97" s="32"/>
       <c r="AH97" s="32" t="s">
-        <v>199</v>
+        <v>194</v>
       </c>
       <c r="AI97" s="32"/>
       <c r="AJ97" s="32"/>
@@ -9262,7 +9274,7 @@
       <c r="AL97" s="32"/>
       <c r="AM97" s="32"/>
       <c r="AN97" s="32" t="s">
-        <v>365</v>
+        <v>359</v>
       </c>
       <c r="AO97" s="32"/>
       <c r="AP97" s="32"/>
@@ -9302,7 +9314,7 @@
     </row>
     <row r="98" spans="1:75" ht="20.5" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A98" s="31" t="s">
-        <v>319</v>
+        <v>313</v>
       </c>
       <c r="B98" s="32"/>
       <c r="C98" s="32"/>
@@ -9317,7 +9329,7 @@
       <c r="L98" s="32"/>
       <c r="M98" s="32"/>
       <c r="N98" s="32" t="s">
-        <v>27</v>
+        <v>23</v>
       </c>
       <c r="O98" s="32"/>
       <c r="P98" s="32"/>
@@ -9339,7 +9351,7 @@
       <c r="AF98" s="32"/>
       <c r="AG98" s="32"/>
       <c r="AH98" s="32" t="s">
-        <v>199</v>
+        <v>194</v>
       </c>
       <c r="AI98" s="32"/>
       <c r="AJ98" s="32"/>
@@ -9348,7 +9360,7 @@
       <c r="AM98" s="32"/>
       <c r="AN98" s="32"/>
       <c r="AO98" s="32" t="s">
-        <v>95</v>
+        <v>91</v>
       </c>
       <c r="AP98" s="32"/>
       <c r="AQ98" s="32"/>
@@ -9387,7 +9399,7 @@
     </row>
     <row r="99" spans="1:75" ht="20.5" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A99" s="42" t="s">
-        <v>320</v>
+        <v>314</v>
       </c>
       <c r="B99" s="32"/>
       <c r="C99" s="32"/>
@@ -9403,7 +9415,7 @@
       <c r="M99" s="32"/>
       <c r="N99" s="32"/>
       <c r="O99" s="32" t="s">
-        <v>27</v>
+        <v>23</v>
       </c>
       <c r="P99" s="32"/>
       <c r="Q99" s="32"/>
@@ -9424,7 +9436,7 @@
       <c r="AF99" s="32"/>
       <c r="AG99" s="32"/>
       <c r="AH99" s="32" t="s">
-        <v>199</v>
+        <v>194</v>
       </c>
       <c r="AI99" s="32"/>
       <c r="AJ99" s="32"/>
@@ -9433,7 +9445,7 @@
       <c r="AM99" s="32"/>
       <c r="AN99" s="32"/>
       <c r="AO99" s="32" t="s">
-        <v>365</v>
+        <v>359</v>
       </c>
       <c r="AP99" s="32"/>
       <c r="AQ99" s="32"/>
@@ -9472,7 +9484,7 @@
     </row>
     <row r="100" spans="1:75" ht="20.5" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A100" s="31" t="s">
-        <v>321</v>
+        <v>315</v>
       </c>
       <c r="B100" s="32"/>
       <c r="C100" s="32"/>
@@ -9489,7 +9501,7 @@
       <c r="N100" s="32"/>
       <c r="O100" s="32"/>
       <c r="P100" s="32" t="s">
-        <v>27</v>
+        <v>23</v>
       </c>
       <c r="Q100" s="32"/>
       <c r="R100" s="32"/>
@@ -9509,7 +9521,7 @@
       <c r="AF100" s="32"/>
       <c r="AG100" s="32"/>
       <c r="AH100" s="32" t="s">
-        <v>199</v>
+        <v>194</v>
       </c>
       <c r="AI100" s="32"/>
       <c r="AJ100" s="32"/>
@@ -9519,7 +9531,7 @@
       <c r="AN100" s="32"/>
       <c r="AO100" s="32"/>
       <c r="AP100" s="32" t="s">
-        <v>95</v>
+        <v>91</v>
       </c>
       <c r="AQ100" s="32"/>
       <c r="AR100" s="32"/>
@@ -9557,7 +9569,7 @@
     </row>
     <row r="101" spans="1:75" ht="20.5" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A101" s="31" t="s">
-        <v>322</v>
+        <v>316</v>
       </c>
       <c r="B101" s="32"/>
       <c r="C101" s="32"/>
@@ -9575,7 +9587,7 @@
       <c r="O101" s="32"/>
       <c r="P101" s="32"/>
       <c r="Q101" s="32" t="s">
-        <v>27</v>
+        <v>23</v>
       </c>
       <c r="R101" s="32"/>
       <c r="S101" s="32"/>
@@ -9594,7 +9606,7 @@
       <c r="AF101" s="32"/>
       <c r="AG101" s="32"/>
       <c r="AH101" s="32" t="s">
-        <v>199</v>
+        <v>194</v>
       </c>
       <c r="AI101" s="32"/>
       <c r="AJ101" s="32"/>
@@ -9604,7 +9616,7 @@
       <c r="AN101" s="32"/>
       <c r="AO101" s="32"/>
       <c r="AP101" s="32" t="s">
-        <v>365</v>
+        <v>359</v>
       </c>
       <c r="AQ101" s="32"/>
       <c r="AR101" s="32"/>
@@ -9642,7 +9654,7 @@
     </row>
     <row r="102" spans="1:75" ht="20.5" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A102" s="31" t="s">
-        <v>209</v>
+        <v>204</v>
       </c>
       <c r="B102" s="32"/>
       <c r="C102" s="32"/>
@@ -9661,7 +9673,7 @@
       <c r="P102" s="32"/>
       <c r="Q102" s="32"/>
       <c r="R102" s="32" t="s">
-        <v>27</v>
+        <v>23</v>
       </c>
       <c r="S102" s="32"/>
       <c r="T102" s="32"/>
@@ -9679,7 +9691,7 @@
       <c r="AF102" s="32"/>
       <c r="AG102" s="32"/>
       <c r="AH102" s="32" t="s">
-        <v>199</v>
+        <v>194</v>
       </c>
       <c r="AI102" s="32"/>
       <c r="AJ102" s="32"/>
@@ -9690,7 +9702,7 @@
       <c r="AO102" s="32"/>
       <c r="AP102" s="32"/>
       <c r="AQ102" s="32" t="s">
-        <v>95</v>
+        <v>91</v>
       </c>
       <c r="AR102" s="32"/>
       <c r="AS102" s="32"/>
@@ -9727,7 +9739,7 @@
     </row>
     <row r="103" spans="1:75" ht="20.5" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A103" s="31" t="s">
-        <v>210</v>
+        <v>205</v>
       </c>
       <c r="B103" s="32"/>
       <c r="C103" s="32"/>
@@ -9747,7 +9759,7 @@
       <c r="Q103" s="32"/>
       <c r="R103" s="32"/>
       <c r="S103" s="32" t="s">
-        <v>27</v>
+        <v>23</v>
       </c>
       <c r="T103" s="32"/>
       <c r="U103" s="32"/>
@@ -9764,7 +9776,7 @@
       <c r="AF103" s="32"/>
       <c r="AG103" s="32"/>
       <c r="AH103" s="32" t="s">
-        <v>199</v>
+        <v>194</v>
       </c>
       <c r="AI103" s="32"/>
       <c r="AJ103" s="32"/>
@@ -9775,7 +9787,7 @@
       <c r="AO103" s="32"/>
       <c r="AP103" s="32"/>
       <c r="AQ103" s="32" t="s">
-        <v>365</v>
+        <v>359</v>
       </c>
       <c r="AR103" s="32"/>
       <c r="AS103" s="32"/>
@@ -9812,7 +9824,7 @@
     </row>
     <row r="104" spans="1:75" ht="20.5" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A104" s="31" t="s">
-        <v>211</v>
+        <v>206</v>
       </c>
       <c r="B104" s="32"/>
       <c r="C104" s="32"/>
@@ -9833,7 +9845,7 @@
       <c r="R104" s="32"/>
       <c r="S104" s="32"/>
       <c r="T104" s="32" t="s">
-        <v>27</v>
+        <v>23</v>
       </c>
       <c r="U104" s="32"/>
       <c r="V104" s="32"/>
@@ -9849,7 +9861,7 @@
       <c r="AF104" s="32"/>
       <c r="AG104" s="32"/>
       <c r="AH104" s="32" t="s">
-        <v>199</v>
+        <v>194</v>
       </c>
       <c r="AI104" s="32"/>
       <c r="AJ104" s="32"/>
@@ -9861,7 +9873,7 @@
       <c r="AP104" s="32"/>
       <c r="AQ104" s="32"/>
       <c r="AR104" s="32" t="s">
-        <v>95</v>
+        <v>91</v>
       </c>
       <c r="AS104" s="32"/>
       <c r="AT104" s="32"/>
@@ -9897,7 +9909,7 @@
     </row>
     <row r="105" spans="1:75" ht="20.5" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A105" s="31" t="s">
-        <v>212</v>
+        <v>207</v>
       </c>
       <c r="B105" s="32"/>
       <c r="C105" s="32"/>
@@ -9919,7 +9931,7 @@
       <c r="S105" s="32"/>
       <c r="T105" s="32"/>
       <c r="U105" s="32" t="s">
-        <v>27</v>
+        <v>23</v>
       </c>
       <c r="V105" s="32"/>
       <c r="W105" s="32"/>
@@ -9934,7 +9946,7 @@
       <c r="AF105" s="32"/>
       <c r="AG105" s="32"/>
       <c r="AH105" s="32" t="s">
-        <v>199</v>
+        <v>194</v>
       </c>
       <c r="AI105" s="32"/>
       <c r="AJ105" s="32"/>
@@ -9946,7 +9958,7 @@
       <c r="AP105" s="32"/>
       <c r="AQ105" s="32"/>
       <c r="AR105" s="32" t="s">
-        <v>365</v>
+        <v>359</v>
       </c>
       <c r="AS105" s="32"/>
       <c r="AT105" s="32"/>
@@ -9982,7 +9994,7 @@
     </row>
     <row r="106" spans="1:75" ht="20.5" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A106" s="31" t="s">
-        <v>213</v>
+        <v>208</v>
       </c>
       <c r="B106" s="32"/>
       <c r="C106" s="32"/>
@@ -10005,7 +10017,7 @@
       <c r="T106" s="32"/>
       <c r="U106" s="32"/>
       <c r="V106" s="32" t="s">
-        <v>27</v>
+        <v>23</v>
       </c>
       <c r="W106" s="32"/>
       <c r="X106" s="32"/>
@@ -10019,7 +10031,7 @@
       <c r="AF106" s="32"/>
       <c r="AG106" s="32"/>
       <c r="AH106" s="32" t="s">
-        <v>199</v>
+        <v>194</v>
       </c>
       <c r="AI106" s="32"/>
       <c r="AJ106" s="32"/>
@@ -10032,7 +10044,7 @@
       <c r="AQ106" s="32"/>
       <c r="AR106" s="32"/>
       <c r="AS106" s="32" t="s">
-        <v>95</v>
+        <v>91</v>
       </c>
       <c r="AT106" s="32"/>
       <c r="AU106" s="32"/>
@@ -10067,7 +10079,7 @@
     </row>
     <row r="107" spans="1:75" ht="20.5" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A107" s="31" t="s">
-        <v>214</v>
+        <v>209</v>
       </c>
       <c r="B107" s="32"/>
       <c r="C107" s="32"/>
@@ -10091,7 +10103,7 @@
       <c r="U107" s="32"/>
       <c r="V107" s="32"/>
       <c r="W107" s="32" t="s">
-        <v>27</v>
+        <v>23</v>
       </c>
       <c r="X107" s="32"/>
       <c r="Y107" s="32"/>
@@ -10104,7 +10116,7 @@
       <c r="AF107" s="32"/>
       <c r="AG107" s="32"/>
       <c r="AH107" s="32" t="s">
-        <v>199</v>
+        <v>194</v>
       </c>
       <c r="AI107" s="32"/>
       <c r="AJ107" s="32"/>
@@ -10117,7 +10129,7 @@
       <c r="AQ107" s="32"/>
       <c r="AR107" s="32"/>
       <c r="AS107" s="32" t="s">
-        <v>365</v>
+        <v>359</v>
       </c>
       <c r="AT107" s="32"/>
       <c r="AU107" s="32"/>
@@ -10152,7 +10164,7 @@
     </row>
     <row r="108" spans="1:75" ht="20.5" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A108" s="31" t="s">
-        <v>215</v>
+        <v>210</v>
       </c>
       <c r="B108" s="32"/>
       <c r="C108" s="32"/>
@@ -10177,7 +10189,7 @@
       <c r="V108" s="32"/>
       <c r="W108" s="32"/>
       <c r="X108" s="32" t="s">
-        <v>27</v>
+        <v>23</v>
       </c>
       <c r="Y108" s="32"/>
       <c r="Z108" s="32"/>
@@ -10189,7 +10201,7 @@
       <c r="AF108" s="32"/>
       <c r="AG108" s="32"/>
       <c r="AH108" s="32" t="s">
-        <v>199</v>
+        <v>194</v>
       </c>
       <c r="AI108" s="32"/>
       <c r="AJ108" s="32"/>
@@ -10203,7 +10215,7 @@
       <c r="AR108" s="32"/>
       <c r="AS108" s="32"/>
       <c r="AT108" s="32" t="s">
-        <v>95</v>
+        <v>91</v>
       </c>
       <c r="AU108" s="32"/>
       <c r="AV108" s="32"/>
@@ -10237,7 +10249,7 @@
     </row>
     <row r="109" spans="1:75" ht="20.5" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A109" s="42" t="s">
-        <v>216</v>
+        <v>211</v>
       </c>
       <c r="B109" s="32"/>
       <c r="C109" s="32"/>
@@ -10263,7 +10275,7 @@
       <c r="W109" s="32"/>
       <c r="X109" s="32"/>
       <c r="Y109" s="32" t="s">
-        <v>27</v>
+        <v>23</v>
       </c>
       <c r="Z109" s="32"/>
       <c r="AA109" s="32"/>
@@ -10274,7 +10286,7 @@
       <c r="AF109" s="32"/>
       <c r="AG109" s="32"/>
       <c r="AH109" s="32" t="s">
-        <v>199</v>
+        <v>194</v>
       </c>
       <c r="AI109" s="32"/>
       <c r="AJ109" s="32"/>
@@ -10288,7 +10300,7 @@
       <c r="AR109" s="32"/>
       <c r="AS109" s="32"/>
       <c r="AT109" s="32" t="s">
-        <v>365</v>
+        <v>359</v>
       </c>
       <c r="AU109" s="32"/>
       <c r="AV109" s="32"/>
@@ -10322,7 +10334,7 @@
     </row>
     <row r="110" spans="1:75" ht="20.5" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A110" s="31" t="s">
-        <v>217</v>
+        <v>212</v>
       </c>
       <c r="B110" s="32"/>
       <c r="C110" s="32"/>
@@ -10349,7 +10361,7 @@
       <c r="X110" s="32"/>
       <c r="Y110" s="32"/>
       <c r="Z110" s="32" t="s">
-        <v>27</v>
+        <v>23</v>
       </c>
       <c r="AA110" s="32"/>
       <c r="AB110" s="32"/>
@@ -10359,7 +10371,7 @@
       <c r="AF110" s="32"/>
       <c r="AG110" s="32"/>
       <c r="AH110" s="32" t="s">
-        <v>199</v>
+        <v>194</v>
       </c>
       <c r="AI110" s="32"/>
       <c r="AJ110" s="32"/>
@@ -10374,7 +10386,7 @@
       <c r="AS110" s="32"/>
       <c r="AT110" s="32"/>
       <c r="AU110" s="32" t="s">
-        <v>95</v>
+        <v>91</v>
       </c>
       <c r="AV110" s="32"/>
       <c r="AW110" s="32"/>
@@ -10407,7 +10419,7 @@
     </row>
     <row r="111" spans="1:75" ht="20.5" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A111" s="42" t="s">
-        <v>218</v>
+        <v>213</v>
       </c>
       <c r="B111" s="32"/>
       <c r="C111" s="32"/>
@@ -10435,7 +10447,7 @@
       <c r="Y111" s="32"/>
       <c r="Z111" s="32"/>
       <c r="AA111" s="32" t="s">
-        <v>27</v>
+        <v>23</v>
       </c>
       <c r="AB111" s="32"/>
       <c r="AC111" s="32"/>
@@ -10444,7 +10456,7 @@
       <c r="AF111" s="32"/>
       <c r="AG111" s="32"/>
       <c r="AH111" s="32" t="s">
-        <v>199</v>
+        <v>194</v>
       </c>
       <c r="AI111" s="32"/>
       <c r="AJ111" s="32"/>
@@ -10459,7 +10471,7 @@
       <c r="AS111" s="32"/>
       <c r="AT111" s="32"/>
       <c r="AU111" s="32" t="s">
-        <v>365</v>
+        <v>359</v>
       </c>
       <c r="AV111" s="32"/>
       <c r="AW111" s="32"/>
@@ -10492,7 +10504,7 @@
     </row>
     <row r="112" spans="1:75" ht="20.5" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A112" s="31" t="s">
-        <v>219</v>
+        <v>214</v>
       </c>
       <c r="B112" s="32"/>
       <c r="C112" s="32"/>
@@ -10521,7 +10533,7 @@
       <c r="Z112" s="32"/>
       <c r="AA112" s="32"/>
       <c r="AB112" s="32" t="s">
-        <v>27</v>
+        <v>23</v>
       </c>
       <c r="AC112" s="32"/>
       <c r="AD112" s="32"/>
@@ -10529,7 +10541,7 @@
       <c r="AF112" s="32"/>
       <c r="AG112" s="32"/>
       <c r="AH112" s="32" t="s">
-        <v>199</v>
+        <v>194</v>
       </c>
       <c r="AI112" s="32"/>
       <c r="AJ112" s="32"/>
@@ -10545,7 +10557,7 @@
       <c r="AT112" s="32"/>
       <c r="AU112" s="32"/>
       <c r="AV112" s="32" t="s">
-        <v>95</v>
+        <v>91</v>
       </c>
       <c r="AW112" s="32"/>
       <c r="AX112" s="33"/>
@@ -10577,7 +10589,7 @@
     </row>
     <row r="113" spans="1:75" ht="20.5" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A113" s="31" t="s">
-        <v>220</v>
+        <v>215</v>
       </c>
       <c r="B113" s="32"/>
       <c r="C113" s="32"/>
@@ -10607,14 +10619,14 @@
       <c r="AA113" s="32"/>
       <c r="AB113" s="32"/>
       <c r="AC113" s="32" t="s">
-        <v>27</v>
+        <v>23</v>
       </c>
       <c r="AD113" s="32"/>
       <c r="AE113" s="32"/>
       <c r="AF113" s="32"/>
       <c r="AG113" s="32"/>
       <c r="AH113" s="32" t="s">
-        <v>199</v>
+        <v>194</v>
       </c>
       <c r="AI113" s="32"/>
       <c r="AJ113" s="32"/>
@@ -10630,7 +10642,7 @@
       <c r="AT113" s="32"/>
       <c r="AU113" s="32"/>
       <c r="AV113" s="32" t="s">
-        <v>365</v>
+        <v>359</v>
       </c>
       <c r="AW113" s="32"/>
       <c r="AX113" s="33"/>
@@ -10662,7 +10674,7 @@
     </row>
     <row r="114" spans="1:75" ht="20.5" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A114" s="31" t="s">
-        <v>221</v>
+        <v>216</v>
       </c>
       <c r="B114" s="32"/>
       <c r="C114" s="32"/>
@@ -10693,13 +10705,13 @@
       <c r="AB114" s="32"/>
       <c r="AC114" s="32"/>
       <c r="AD114" s="32" t="s">
-        <v>27</v>
+        <v>23</v>
       </c>
       <c r="AE114" s="32"/>
       <c r="AF114" s="32"/>
       <c r="AG114" s="32"/>
       <c r="AH114" s="32" t="s">
-        <v>199</v>
+        <v>194</v>
       </c>
       <c r="AI114" s="32"/>
       <c r="AJ114" s="32"/>
@@ -10716,7 +10728,7 @@
       <c r="AU114" s="32"/>
       <c r="AV114" s="32"/>
       <c r="AW114" s="32" t="s">
-        <v>95</v>
+        <v>91</v>
       </c>
       <c r="AX114" s="33"/>
       <c r="AY114" s="33"/>
@@ -10747,7 +10759,7 @@
     </row>
     <row r="115" spans="1:75" ht="20.5" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A115" s="31" t="s">
-        <v>222</v>
+        <v>217</v>
       </c>
       <c r="B115" s="32"/>
       <c r="C115" s="32"/>
@@ -10779,12 +10791,12 @@
       <c r="AC115" s="32"/>
       <c r="AD115" s="32"/>
       <c r="AE115" s="32" t="s">
-        <v>27</v>
+        <v>23</v>
       </c>
       <c r="AF115" s="32"/>
       <c r="AG115" s="32"/>
       <c r="AH115" s="32" t="s">
-        <v>199</v>
+        <v>194</v>
       </c>
       <c r="AI115" s="32"/>
       <c r="AJ115" s="32"/>
@@ -10801,7 +10813,7 @@
       <c r="AU115" s="32"/>
       <c r="AV115" s="32"/>
       <c r="AW115" s="32" t="s">
-        <v>365</v>
+        <v>359</v>
       </c>
       <c r="AX115" s="33"/>
       <c r="AY115" s="33"/>
@@ -10832,7 +10844,7 @@
     </row>
     <row r="116" spans="1:75" ht="20.5" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A116" s="31" t="s">
-        <v>385</v>
+        <v>379</v>
       </c>
       <c r="B116" s="32"/>
       <c r="C116" s="32"/>
@@ -10865,11 +10877,11 @@
       <c r="AD116" s="33"/>
       <c r="AE116" s="33"/>
       <c r="AF116" s="15" t="s">
-        <v>401</v>
+        <v>395</v>
       </c>
       <c r="AG116" s="15"/>
       <c r="AH116" s="32" t="s">
-        <v>199</v>
+        <v>194</v>
       </c>
       <c r="AI116" s="33"/>
       <c r="AJ116" s="33"/>
@@ -10887,7 +10899,7 @@
       <c r="AV116" s="33"/>
       <c r="AW116" s="33"/>
       <c r="AX116" s="15" t="s">
-        <v>387</v>
+        <v>381</v>
       </c>
       <c r="AY116" s="33"/>
       <c r="AZ116" s="33"/>
@@ -10917,7 +10929,7 @@
     </row>
     <row r="117" spans="1:75" ht="20.5" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A117" s="31" t="s">
-        <v>396</v>
+        <v>390</v>
       </c>
       <c r="B117" s="32"/>
       <c r="C117" s="32"/>
@@ -10951,10 +10963,10 @@
       <c r="AE117" s="33"/>
       <c r="AF117" s="15"/>
       <c r="AG117" s="15" t="s">
-        <v>394</v>
+        <v>388</v>
       </c>
       <c r="AH117" s="32" t="s">
-        <v>199</v>
+        <v>194</v>
       </c>
       <c r="AI117" s="33"/>
       <c r="AJ117" s="33"/>
@@ -10973,7 +10985,7 @@
       <c r="AW117" s="33"/>
       <c r="AX117" s="15"/>
       <c r="AY117" s="15" t="s">
-        <v>397</v>
+        <v>391</v>
       </c>
       <c r="AZ117" s="33"/>
       <c r="BA117" s="33"/>
@@ -11233,7 +11245,7 @@
     </row>
     <row r="121" spans="1:75" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A121" s="34" t="s">
-        <v>325</v>
+        <v>319</v>
       </c>
       <c r="B121" s="35"/>
       <c r="C121" s="35"/>
@@ -11500,7 +11512,7 @@
     <row r="123" spans="1:75" ht="10.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A123" s="31"/>
       <c r="B123" s="43" t="s">
-        <v>225</v>
+        <v>220</v>
       </c>
       <c r="C123" s="43"/>
       <c r="D123" s="43"/>
@@ -11578,187 +11590,187 @@
         <v>12</v>
       </c>
       <c r="D124" s="32" t="s">
+        <v>13</v>
+      </c>
+      <c r="E124" s="32" t="s">
+        <v>14</v>
+      </c>
+      <c r="F124" s="32" t="s">
+        <v>221</v>
+      </c>
+      <c r="G124" s="32" t="s">
+        <v>222</v>
+      </c>
+      <c r="H124" s="32" t="s">
+        <v>223</v>
+      </c>
+      <c r="I124" s="32" t="s">
+        <v>224</v>
+      </c>
+      <c r="J124" s="32" t="s">
+        <v>225</v>
+      </c>
+      <c r="K124" s="32" t="s">
+        <v>226</v>
+      </c>
+      <c r="L124" s="32" t="s">
+        <v>165</v>
+      </c>
+      <c r="M124" s="32" t="s">
+        <v>166</v>
+      </c>
+      <c r="N124" s="32" t="s">
+        <v>227</v>
+      </c>
+      <c r="O124" s="32" t="s">
+        <v>228</v>
+      </c>
+      <c r="P124" s="32" t="s">
+        <v>229</v>
+      </c>
+      <c r="Q124" s="32" t="s">
+        <v>230</v>
+      </c>
+      <c r="R124" s="32" t="s">
+        <v>231</v>
+      </c>
+      <c r="S124" s="32" t="s">
+        <v>232</v>
+      </c>
+      <c r="T124" s="32" t="s">
+        <v>233</v>
+      </c>
+      <c r="U124" s="32" t="s">
+        <v>234</v>
+      </c>
+      <c r="V124" s="32" t="s">
+        <v>235</v>
+      </c>
+      <c r="W124" s="32" t="s">
+        <v>236</v>
+      </c>
+      <c r="X124" s="32" t="s">
+        <v>237</v>
+      </c>
+      <c r="Y124" s="32" t="s">
+        <v>238</v>
+      </c>
+      <c r="Z124" s="32" t="s">
+        <v>171</v>
+      </c>
+      <c r="AA124" s="32" t="s">
+        <v>172</v>
+      </c>
+      <c r="AB124" s="32" t="s">
+        <v>173</v>
+      </c>
+      <c r="AC124" s="32" t="s">
+        <v>174</v>
+      </c>
+      <c r="AD124" s="32" t="s">
+        <v>371</v>
+      </c>
+      <c r="AE124" s="32" t="s">
+        <v>372</v>
+      </c>
+      <c r="AF124" s="14" t="s">
+        <v>392</v>
+      </c>
+      <c r="AG124" s="32" t="s">
+        <v>373</v>
+      </c>
+      <c r="AH124" s="32" t="s">
+        <v>374</v>
+      </c>
+      <c r="AI124" s="32" t="s">
+        <v>382</v>
+      </c>
+      <c r="AJ124" s="32" t="s">
+        <v>365</v>
+      </c>
+      <c r="AK124" s="32" t="s">
+        <v>402</v>
+      </c>
+      <c r="AL124" s="32" t="s">
+        <v>403</v>
+      </c>
+      <c r="AM124" s="32" t="s">
+        <v>239</v>
+      </c>
+      <c r="AN124" s="32" t="s">
+        <v>240</v>
+      </c>
+      <c r="AO124" s="14" t="s">
+        <v>365</v>
+      </c>
+      <c r="AP124" s="32" t="s">
         <v>15</v>
       </c>
-      <c r="E124" s="32" t="s">
-        <v>16</v>
-      </c>
-      <c r="F124" s="32" t="s">
-        <v>226</v>
-      </c>
-      <c r="G124" s="32" t="s">
-        <v>227</v>
-      </c>
-      <c r="H124" s="32" t="s">
-        <v>228</v>
-      </c>
-      <c r="I124" s="32" t="s">
-        <v>229</v>
-      </c>
-      <c r="J124" s="32" t="s">
-        <v>230</v>
-      </c>
-      <c r="K124" s="32" t="s">
-        <v>231</v>
-      </c>
-      <c r="L124" s="32" t="s">
-        <v>170</v>
-      </c>
-      <c r="M124" s="32" t="s">
-        <v>171</v>
-      </c>
-      <c r="N124" s="32" t="s">
-        <v>232</v>
-      </c>
-      <c r="O124" s="32" t="s">
-        <v>233</v>
-      </c>
-      <c r="P124" s="32" t="s">
-        <v>234</v>
-      </c>
-      <c r="Q124" s="32" t="s">
-        <v>235</v>
-      </c>
-      <c r="R124" s="32" t="s">
-        <v>236</v>
-      </c>
-      <c r="S124" s="32" t="s">
-        <v>237</v>
-      </c>
-      <c r="T124" s="32" t="s">
-        <v>238</v>
-      </c>
-      <c r="U124" s="32" t="s">
-        <v>239</v>
-      </c>
-      <c r="V124" s="32" t="s">
-        <v>240</v>
-      </c>
-      <c r="W124" s="32" t="s">
-        <v>241</v>
-      </c>
-      <c r="X124" s="32" t="s">
-        <v>242</v>
-      </c>
-      <c r="Y124" s="32" t="s">
-        <v>243</v>
-      </c>
-      <c r="Z124" s="32" t="s">
-        <v>176</v>
-      </c>
-      <c r="AA124" s="32" t="s">
-        <v>177</v>
-      </c>
-      <c r="AB124" s="32" t="s">
-        <v>178</v>
-      </c>
-      <c r="AC124" s="32" t="s">
-        <v>179</v>
-      </c>
-      <c r="AD124" s="32" t="s">
-        <v>377</v>
-      </c>
-      <c r="AE124" s="32" t="s">
-        <v>378</v>
-      </c>
-      <c r="AF124" s="14" t="s">
-        <v>398</v>
-      </c>
-      <c r="AG124" s="32" t="s">
-        <v>379</v>
-      </c>
-      <c r="AH124" s="32" t="s">
-        <v>380</v>
-      </c>
-      <c r="AI124" s="32" t="s">
-        <v>388</v>
-      </c>
-      <c r="AJ124" s="32" t="s">
-        <v>371</v>
-      </c>
-      <c r="AK124" s="32" t="s">
-        <v>13</v>
-      </c>
-      <c r="AL124" s="32" t="s">
-        <v>14</v>
-      </c>
-      <c r="AM124" s="32" t="s">
-        <v>244</v>
-      </c>
-      <c r="AN124" s="32" t="s">
-        <v>245</v>
-      </c>
-      <c r="AO124" s="14" t="s">
-        <v>371</v>
-      </c>
-      <c r="AP124" s="32" t="s">
-        <v>19</v>
-      </c>
       <c r="AQ124" s="32" t="s">
-        <v>368</v>
+        <v>362</v>
       </c>
       <c r="AR124" s="32" t="s">
+        <v>286</v>
+      </c>
+      <c r="AS124" s="32" t="s">
+        <v>287</v>
+      </c>
+      <c r="AT124" s="32" t="s">
+        <v>288</v>
+      </c>
+      <c r="AU124" s="32" t="s">
+        <v>289</v>
+      </c>
+      <c r="AV124" s="32" t="s">
+        <v>290</v>
+      </c>
+      <c r="AW124" s="32" t="s">
+        <v>291</v>
+      </c>
+      <c r="AX124" s="32" t="s">
         <v>292</v>
       </c>
-      <c r="AS124" s="32" t="s">
+      <c r="AY124" s="32" t="s">
         <v>293</v>
       </c>
-      <c r="AT124" s="32" t="s">
+      <c r="AZ124" s="32" t="s">
         <v>294</v>
       </c>
-      <c r="AU124" s="32" t="s">
+      <c r="BA124" s="32" t="s">
         <v>295</v>
       </c>
-      <c r="AV124" s="32" t="s">
+      <c r="BB124" s="32" t="s">
         <v>296</v>
       </c>
-      <c r="AW124" s="32" t="s">
+      <c r="BC124" s="32" t="s">
         <v>297</v>
       </c>
-      <c r="AX124" s="32" t="s">
+      <c r="BD124" s="32" t="s">
         <v>298</v>
       </c>
-      <c r="AY124" s="32" t="s">
+      <c r="BE124" s="32" t="s">
         <v>299</v>
       </c>
-      <c r="AZ124" s="32" t="s">
+      <c r="BF124" s="32" t="s">
         <v>300</v>
       </c>
-      <c r="BA124" s="32" t="s">
+      <c r="BG124" s="32" t="s">
         <v>301</v>
       </c>
-      <c r="BB124" s="32" t="s">
+      <c r="BH124" s="32" t="s">
         <v>302</v>
       </c>
-      <c r="BC124" s="32" t="s">
+      <c r="BI124" s="32" t="s">
         <v>303</v>
       </c>
-      <c r="BD124" s="32" t="s">
-        <v>304</v>
-      </c>
-      <c r="BE124" s="32" t="s">
-        <v>305</v>
-      </c>
-      <c r="BF124" s="32" t="s">
-        <v>306</v>
-      </c>
-      <c r="BG124" s="32" t="s">
-        <v>307</v>
-      </c>
-      <c r="BH124" s="32" t="s">
-        <v>308</v>
-      </c>
-      <c r="BI124" s="32" t="s">
-        <v>309</v>
-      </c>
       <c r="BJ124" s="14" t="s">
-        <v>307</v>
+        <v>301</v>
       </c>
       <c r="BK124" s="14" t="s">
-        <v>307</v>
+        <v>301</v>
       </c>
       <c r="BL124" s="14" t="s">
-        <v>307</v>
+        <v>301</v>
       </c>
     </row>
     <row r="125" spans="1:75" ht="30.5" thickBot="1" x14ac:dyDescent="0.4">
@@ -11766,201 +11778,201 @@
         <v>7</v>
       </c>
       <c r="B125" s="40" t="s">
+        <v>16</v>
+      </c>
+      <c r="C125" s="40" t="s">
+        <v>16</v>
+      </c>
+      <c r="D125" s="40" t="s">
+        <v>18</v>
+      </c>
+      <c r="E125" s="40" t="s">
+        <v>18</v>
+      </c>
+      <c r="F125" s="40" t="s">
+        <v>241</v>
+      </c>
+      <c r="G125" s="40" t="s">
+        <v>241</v>
+      </c>
+      <c r="H125" s="40" t="s">
+        <v>242</v>
+      </c>
+      <c r="I125" s="40" t="s">
+        <v>183</v>
+      </c>
+      <c r="J125" s="40" t="s">
+        <v>184</v>
+      </c>
+      <c r="K125" s="40" t="s">
+        <v>243</v>
+      </c>
+      <c r="L125" s="40" t="s">
+        <v>185</v>
+      </c>
+      <c r="M125" s="40" t="s">
+        <v>185</v>
+      </c>
+      <c r="N125" s="40" t="s">
+        <v>244</v>
+      </c>
+      <c r="O125" s="40" t="s">
+        <v>244</v>
+      </c>
+      <c r="P125" s="40" t="s">
+        <v>186</v>
+      </c>
+      <c r="Q125" s="40" t="s">
+        <v>186</v>
+      </c>
+      <c r="R125" s="40" t="s">
+        <v>187</v>
+      </c>
+      <c r="S125" s="40" t="s">
+        <v>187</v>
+      </c>
+      <c r="T125" s="40" t="s">
+        <v>245</v>
+      </c>
+      <c r="U125" s="40" t="s">
+        <v>245</v>
+      </c>
+      <c r="V125" s="40" t="s">
+        <v>246</v>
+      </c>
+      <c r="W125" s="40" t="s">
+        <v>246</v>
+      </c>
+      <c r="X125" s="40" t="s">
+        <v>247</v>
+      </c>
+      <c r="Y125" s="40" t="s">
+        <v>247</v>
+      </c>
+      <c r="Z125" s="40" t="s">
+        <v>248</v>
+      </c>
+      <c r="AA125" s="40" t="s">
+        <v>248</v>
+      </c>
+      <c r="AB125" s="40" t="s">
+        <v>249</v>
+      </c>
+      <c r="AC125" s="40" t="s">
+        <v>249</v>
+      </c>
+      <c r="AD125" s="40" t="s">
+        <v>192</v>
+      </c>
+      <c r="AE125" s="40" t="s">
+        <v>192</v>
+      </c>
+      <c r="AF125" s="17" t="s">
+        <v>376</v>
+      </c>
+      <c r="AG125" s="40" t="s">
+        <v>191</v>
+      </c>
+      <c r="AH125" s="40" t="s">
+        <v>375</v>
+      </c>
+      <c r="AI125" s="40" t="s">
+        <v>179</v>
+      </c>
+      <c r="AJ125" s="40" t="s">
+        <v>179</v>
+      </c>
+      <c r="AK125" s="40" t="s">
+        <v>17</v>
+      </c>
+      <c r="AL125" s="40" t="s">
+        <v>17</v>
+      </c>
+      <c r="AM125" s="40" t="s">
+        <v>250</v>
+      </c>
+      <c r="AN125" s="40" t="s">
+        <v>250</v>
+      </c>
+      <c r="AO125" s="17" t="s">
+        <v>376</v>
+      </c>
+      <c r="AP125" s="40" t="s">
         <v>20</v>
       </c>
-      <c r="C125" s="40" t="s">
-        <v>20</v>
-      </c>
-      <c r="D125" s="40" t="s">
-        <v>22</v>
-      </c>
-      <c r="E125" s="40" t="s">
-        <v>22</v>
-      </c>
-      <c r="F125" s="40" t="s">
-        <v>246</v>
-      </c>
-      <c r="G125" s="40" t="s">
-        <v>246</v>
-      </c>
-      <c r="H125" s="40" t="s">
-        <v>247</v>
-      </c>
-      <c r="I125" s="40" t="s">
-        <v>188</v>
-      </c>
-      <c r="J125" s="40" t="s">
-        <v>189</v>
-      </c>
-      <c r="K125" s="40" t="s">
-        <v>248</v>
-      </c>
-      <c r="L125" s="40" t="s">
-        <v>190</v>
-      </c>
-      <c r="M125" s="40" t="s">
-        <v>190</v>
-      </c>
-      <c r="N125" s="40" t="s">
-        <v>249</v>
-      </c>
-      <c r="O125" s="40" t="s">
-        <v>249</v>
-      </c>
-      <c r="P125" s="40" t="s">
-        <v>191</v>
-      </c>
-      <c r="Q125" s="40" t="s">
-        <v>191</v>
-      </c>
-      <c r="R125" s="40" t="s">
-        <v>192</v>
-      </c>
-      <c r="S125" s="40" t="s">
-        <v>192</v>
-      </c>
-      <c r="T125" s="40" t="s">
-        <v>250</v>
-      </c>
-      <c r="U125" s="40" t="s">
-        <v>250</v>
-      </c>
-      <c r="V125" s="40" t="s">
-        <v>251</v>
-      </c>
-      <c r="W125" s="40" t="s">
-        <v>251</v>
-      </c>
-      <c r="X125" s="40" t="s">
-        <v>252</v>
-      </c>
-      <c r="Y125" s="40" t="s">
-        <v>252</v>
-      </c>
-      <c r="Z125" s="40" t="s">
-        <v>253</v>
-      </c>
-      <c r="AA125" s="40" t="s">
-        <v>253</v>
-      </c>
-      <c r="AB125" s="40" t="s">
-        <v>254</v>
-      </c>
-      <c r="AC125" s="40" t="s">
-        <v>254</v>
-      </c>
-      <c r="AD125" s="40" t="s">
-        <v>197</v>
-      </c>
-      <c r="AE125" s="40" t="s">
-        <v>197</v>
-      </c>
-      <c r="AF125" s="17" t="s">
-        <v>382</v>
-      </c>
-      <c r="AG125" s="40" t="s">
-        <v>196</v>
-      </c>
-      <c r="AH125" s="40" t="s">
-        <v>381</v>
-      </c>
-      <c r="AI125" s="40" t="s">
-        <v>184</v>
-      </c>
-      <c r="AJ125" s="40" t="s">
-        <v>184</v>
-      </c>
-      <c r="AK125" s="40" t="s">
+      <c r="AQ125" s="40" t="s">
         <v>21</v>
       </c>
-      <c r="AL125" s="40" t="s">
+      <c r="AR125" s="40" t="s">
         <v>21</v>
       </c>
-      <c r="AM125" s="40" t="s">
-        <v>255</v>
-      </c>
-      <c r="AN125" s="40" t="s">
-        <v>255</v>
-      </c>
-      <c r="AO125" s="17" t="s">
-        <v>382</v>
-      </c>
-      <c r="AP125" s="40" t="s">
-        <v>24</v>
-      </c>
-      <c r="AQ125" s="40" t="s">
-        <v>25</v>
-      </c>
-      <c r="AR125" s="40" t="s">
-        <v>25</v>
-      </c>
       <c r="AS125" s="40" t="s">
-        <v>25</v>
+        <v>21</v>
       </c>
       <c r="AT125" s="40" t="s">
-        <v>25</v>
+        <v>21</v>
       </c>
       <c r="AU125" s="40" t="s">
-        <v>25</v>
+        <v>21</v>
       </c>
       <c r="AV125" s="40" t="s">
-        <v>25</v>
+        <v>21</v>
       </c>
       <c r="AW125" s="40" t="s">
-        <v>25</v>
+        <v>21</v>
       </c>
       <c r="AX125" s="40" t="s">
-        <v>25</v>
+        <v>21</v>
       </c>
       <c r="AY125" s="40" t="s">
-        <v>25</v>
+        <v>21</v>
       </c>
       <c r="AZ125" s="40" t="s">
-        <v>25</v>
+        <v>21</v>
       </c>
       <c r="BA125" s="40" t="s">
-        <v>25</v>
+        <v>21</v>
       </c>
       <c r="BB125" s="40" t="s">
-        <v>25</v>
+        <v>21</v>
       </c>
       <c r="BC125" s="40" t="s">
-        <v>25</v>
+        <v>21</v>
       </c>
       <c r="BD125" s="40" t="s">
-        <v>25</v>
+        <v>21</v>
       </c>
       <c r="BE125" s="40" t="s">
-        <v>25</v>
+        <v>21</v>
       </c>
       <c r="BF125" s="40" t="s">
-        <v>25</v>
+        <v>21</v>
       </c>
       <c r="BG125" s="40" t="s">
-        <v>25</v>
+        <v>21</v>
       </c>
       <c r="BH125" s="40" t="s">
-        <v>25</v>
+        <v>21</v>
       </c>
       <c r="BI125" s="40" t="s">
-        <v>25</v>
+        <v>21</v>
       </c>
       <c r="BJ125" s="40" t="s">
-        <v>25</v>
+        <v>21</v>
       </c>
       <c r="BK125" s="40" t="s">
-        <v>25</v>
+        <v>21</v>
       </c>
       <c r="BL125" s="40" t="s">
-        <v>25</v>
+        <v>21</v>
       </c>
     </row>
     <row r="126" spans="1:75" ht="10.5" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A126" s="31" t="s">
-        <v>369</v>
+        <v>363</v>
       </c>
       <c r="B126" s="32" t="s">
-        <v>27</v>
+        <v>23</v>
       </c>
       <c r="C126" s="32"/>
       <c r="D126" s="32"/>
@@ -12002,10 +12014,10 @@
       <c r="AN126" s="32"/>
       <c r="AO126" s="32"/>
       <c r="AP126" s="32" t="s">
-        <v>256</v>
+        <v>251</v>
       </c>
       <c r="AQ126" s="32" t="s">
-        <v>367</v>
+        <v>361</v>
       </c>
       <c r="AR126" s="32"/>
       <c r="AS126" s="32"/>
@@ -12031,11 +12043,11 @@
     </row>
     <row r="127" spans="1:75" ht="20.5" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A127" s="31" t="s">
-        <v>370</v>
+        <v>364</v>
       </c>
       <c r="B127" s="32"/>
       <c r="C127" s="32" t="s">
-        <v>27</v>
+        <v>23</v>
       </c>
       <c r="D127" s="32"/>
       <c r="E127" s="32"/>
@@ -12076,10 +12088,10 @@
       <c r="AN127" s="32"/>
       <c r="AO127" s="32"/>
       <c r="AP127" s="32" t="s">
-        <v>256</v>
+        <v>251</v>
       </c>
       <c r="AQ127" s="32" t="s">
-        <v>365</v>
+        <v>359</v>
       </c>
       <c r="AR127" s="32"/>
       <c r="AS127" s="32"/>
@@ -12105,12 +12117,12 @@
     </row>
     <row r="128" spans="1:75" ht="10.5" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A128" s="31" t="s">
-        <v>257</v>
+        <v>252</v>
       </c>
       <c r="B128" s="32"/>
       <c r="C128" s="32"/>
       <c r="D128" s="32" t="s">
-        <v>27</v>
+        <v>23</v>
       </c>
       <c r="E128" s="32"/>
       <c r="F128" s="32"/>
@@ -12150,11 +12162,11 @@
       <c r="AN128" s="32"/>
       <c r="AO128" s="32"/>
       <c r="AP128" s="32" t="s">
-        <v>256</v>
+        <v>251</v>
       </c>
       <c r="AQ128" s="32"/>
       <c r="AR128" s="32" t="s">
-        <v>95</v>
+        <v>91</v>
       </c>
       <c r="AS128" s="32"/>
       <c r="AT128" s="32"/>
@@ -12179,13 +12191,13 @@
     </row>
     <row r="129" spans="1:64" ht="20.5" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A129" s="31" t="s">
-        <v>258</v>
+        <v>253</v>
       </c>
       <c r="B129" s="32"/>
       <c r="C129" s="32"/>
       <c r="D129" s="32"/>
       <c r="E129" s="32" t="s">
-        <v>27</v>
+        <v>23</v>
       </c>
       <c r="F129" s="32"/>
       <c r="G129" s="32"/>
@@ -12224,11 +12236,11 @@
       <c r="AN129" s="32"/>
       <c r="AO129" s="32"/>
       <c r="AP129" s="32" t="s">
-        <v>256</v>
+        <v>251</v>
       </c>
       <c r="AQ129" s="32"/>
       <c r="AR129" s="32" t="s">
-        <v>365</v>
+        <v>359</v>
       </c>
       <c r="AS129" s="32"/>
       <c r="AT129" s="32"/>
@@ -12253,14 +12265,14 @@
     </row>
     <row r="130" spans="1:64" ht="20.5" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A130" s="31" t="s">
-        <v>259</v>
+        <v>254</v>
       </c>
       <c r="B130" s="32"/>
       <c r="C130" s="32"/>
       <c r="D130" s="32"/>
       <c r="E130" s="32"/>
       <c r="F130" s="32" t="s">
-        <v>27</v>
+        <v>23</v>
       </c>
       <c r="G130" s="32"/>
       <c r="H130" s="32"/>
@@ -12298,12 +12310,12 @@
       <c r="AN130" s="32"/>
       <c r="AO130" s="32"/>
       <c r="AP130" s="32" t="s">
-        <v>256</v>
+        <v>251</v>
       </c>
       <c r="AQ130" s="32"/>
       <c r="AR130" s="32"/>
       <c r="AS130" s="32" t="s">
-        <v>95</v>
+        <v>91</v>
       </c>
       <c r="AT130" s="32"/>
       <c r="AU130" s="32"/>
@@ -12327,7 +12339,7 @@
     </row>
     <row r="131" spans="1:64" ht="20.5" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A131" s="31" t="s">
-        <v>260</v>
+        <v>255</v>
       </c>
       <c r="B131" s="32"/>
       <c r="C131" s="32"/>
@@ -12335,7 +12347,7 @@
       <c r="E131" s="32"/>
       <c r="F131" s="32"/>
       <c r="G131" s="32" t="s">
-        <v>27</v>
+        <v>23</v>
       </c>
       <c r="H131" s="32"/>
       <c r="I131" s="32"/>
@@ -12372,12 +12384,12 @@
       <c r="AN131" s="32"/>
       <c r="AO131" s="32"/>
       <c r="AP131" s="32" t="s">
-        <v>256</v>
+        <v>251</v>
       </c>
       <c r="AQ131" s="32"/>
       <c r="AR131" s="32"/>
       <c r="AS131" s="32" t="s">
-        <v>365</v>
+        <v>359</v>
       </c>
       <c r="AT131" s="32"/>
       <c r="AU131" s="32"/>
@@ -12401,7 +12413,7 @@
     </row>
     <row r="132" spans="1:64" ht="20.5" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A132" s="31" t="s">
-        <v>261</v>
+        <v>256</v>
       </c>
       <c r="B132" s="32"/>
       <c r="C132" s="32"/>
@@ -12410,7 +12422,7 @@
       <c r="F132" s="32"/>
       <c r="G132" s="32"/>
       <c r="H132" s="32" t="s">
-        <v>27</v>
+        <v>23</v>
       </c>
       <c r="I132" s="32"/>
       <c r="J132" s="32"/>
@@ -12446,13 +12458,13 @@
       <c r="AN132" s="32"/>
       <c r="AO132" s="32"/>
       <c r="AP132" s="32" t="s">
-        <v>256</v>
+        <v>251</v>
       </c>
       <c r="AQ132" s="32"/>
       <c r="AR132" s="32"/>
       <c r="AS132" s="32"/>
       <c r="AT132" s="32" t="s">
-        <v>95</v>
+        <v>91</v>
       </c>
       <c r="AU132" s="32"/>
       <c r="AV132" s="32"/>
@@ -12475,7 +12487,7 @@
     </row>
     <row r="133" spans="1:64" ht="20.5" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A133" s="31" t="s">
-        <v>262</v>
+        <v>257</v>
       </c>
       <c r="B133" s="32"/>
       <c r="C133" s="32"/>
@@ -12485,7 +12497,7 @@
       <c r="G133" s="32"/>
       <c r="H133" s="32"/>
       <c r="I133" s="32" t="s">
-        <v>27</v>
+        <v>23</v>
       </c>
       <c r="J133" s="32"/>
       <c r="K133" s="32"/>
@@ -12520,13 +12532,13 @@
       <c r="AN133" s="32"/>
       <c r="AO133" s="32"/>
       <c r="AP133" s="32" t="s">
-        <v>256</v>
+        <v>251</v>
       </c>
       <c r="AQ133" s="32"/>
       <c r="AR133" s="32"/>
       <c r="AS133" s="32"/>
       <c r="AT133" s="32" t="s">
-        <v>365</v>
+        <v>359</v>
       </c>
       <c r="AU133" s="32"/>
       <c r="AV133" s="32"/>
@@ -12549,7 +12561,7 @@
     </row>
     <row r="134" spans="1:64" ht="20.5" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A134" s="31" t="s">
-        <v>263</v>
+        <v>258</v>
       </c>
       <c r="B134" s="32"/>
       <c r="C134" s="32"/>
@@ -12560,7 +12572,7 @@
       <c r="H134" s="32"/>
       <c r="I134" s="32"/>
       <c r="J134" s="32" t="s">
-        <v>27</v>
+        <v>23</v>
       </c>
       <c r="K134" s="32"/>
       <c r="L134" s="32"/>
@@ -12594,14 +12606,14 @@
       <c r="AN134" s="32"/>
       <c r="AO134" s="32"/>
       <c r="AP134" s="32" t="s">
-        <v>256</v>
+        <v>251</v>
       </c>
       <c r="AQ134" s="32"/>
       <c r="AR134" s="32"/>
       <c r="AS134" s="32"/>
       <c r="AT134" s="32"/>
       <c r="AU134" s="32" t="s">
-        <v>95</v>
+        <v>91</v>
       </c>
       <c r="AV134" s="32"/>
       <c r="AW134" s="32"/>
@@ -12623,7 +12635,7 @@
     </row>
     <row r="135" spans="1:64" ht="20.5" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A135" s="31" t="s">
-        <v>264</v>
+        <v>259</v>
       </c>
       <c r="B135" s="32"/>
       <c r="C135" s="32"/>
@@ -12635,7 +12647,7 @@
       <c r="I135" s="32"/>
       <c r="J135" s="32"/>
       <c r="K135" s="32" t="s">
-        <v>27</v>
+        <v>23</v>
       </c>
       <c r="L135" s="32"/>
       <c r="M135" s="32"/>
@@ -12668,14 +12680,14 @@
       <c r="AN135" s="32"/>
       <c r="AO135" s="32"/>
       <c r="AP135" s="32" t="s">
-        <v>256</v>
+        <v>251</v>
       </c>
       <c r="AQ135" s="32"/>
       <c r="AR135" s="32"/>
       <c r="AS135" s="32"/>
       <c r="AT135" s="32"/>
       <c r="AU135" s="32" t="s">
-        <v>365</v>
+        <v>359</v>
       </c>
       <c r="AV135" s="32"/>
       <c r="AW135" s="32"/>
@@ -12697,7 +12709,7 @@
     </row>
     <row r="136" spans="1:64" ht="10.5" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A136" s="31" t="s">
-        <v>265</v>
+        <v>260</v>
       </c>
       <c r="B136" s="32"/>
       <c r="C136" s="32"/>
@@ -12710,7 +12722,7 @@
       <c r="J136" s="32"/>
       <c r="K136" s="32"/>
       <c r="L136" s="32" t="s">
-        <v>27</v>
+        <v>23</v>
       </c>
       <c r="M136" s="32"/>
       <c r="N136" s="32"/>
@@ -12742,7 +12754,7 @@
       <c r="AN136" s="32"/>
       <c r="AO136" s="32"/>
       <c r="AP136" s="32" t="s">
-        <v>256</v>
+        <v>251</v>
       </c>
       <c r="AQ136" s="32"/>
       <c r="AR136" s="32"/>
@@ -12750,7 +12762,7 @@
       <c r="AT136" s="32"/>
       <c r="AU136" s="32"/>
       <c r="AV136" s="32" t="s">
-        <v>95</v>
+        <v>91</v>
       </c>
       <c r="AW136" s="32"/>
       <c r="AX136" s="32"/>
@@ -12771,7 +12783,7 @@
     </row>
     <row r="137" spans="1:64" ht="20.5" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A137" s="31" t="s">
-        <v>266</v>
+        <v>261</v>
       </c>
       <c r="B137" s="32"/>
       <c r="C137" s="32"/>
@@ -12785,7 +12797,7 @@
       <c r="K137" s="32"/>
       <c r="L137" s="32"/>
       <c r="M137" s="32" t="s">
-        <v>27</v>
+        <v>23</v>
       </c>
       <c r="N137" s="32"/>
       <c r="O137" s="32"/>
@@ -12816,7 +12828,7 @@
       <c r="AN137" s="32"/>
       <c r="AO137" s="32"/>
       <c r="AP137" s="32" t="s">
-        <v>256</v>
+        <v>251</v>
       </c>
       <c r="AQ137" s="32"/>
       <c r="AR137" s="32"/>
@@ -12824,7 +12836,7 @@
       <c r="AT137" s="32"/>
       <c r="AU137" s="32"/>
       <c r="AV137" s="32" t="s">
-        <v>365</v>
+        <v>359</v>
       </c>
       <c r="AW137" s="32"/>
       <c r="AX137" s="32"/>
@@ -12845,7 +12857,7 @@
     </row>
     <row r="138" spans="1:64" ht="10.5" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A138" s="31" t="s">
-        <v>267</v>
+        <v>262</v>
       </c>
       <c r="B138" s="32"/>
       <c r="C138" s="32"/>
@@ -12860,7 +12872,7 @@
       <c r="L138" s="32"/>
       <c r="M138" s="32"/>
       <c r="N138" s="32" t="s">
-        <v>27</v>
+        <v>23</v>
       </c>
       <c r="O138" s="32"/>
       <c r="P138" s="32"/>
@@ -12890,7 +12902,7 @@
       <c r="AN138" s="32"/>
       <c r="AO138" s="32"/>
       <c r="AP138" s="32" t="s">
-        <v>256</v>
+        <v>251</v>
       </c>
       <c r="AQ138" s="32"/>
       <c r="AR138" s="32"/>
@@ -12899,7 +12911,7 @@
       <c r="AU138" s="32"/>
       <c r="AV138" s="32"/>
       <c r="AW138" s="32" t="s">
-        <v>95</v>
+        <v>91</v>
       </c>
       <c r="AX138" s="32"/>
       <c r="AY138" s="32"/>
@@ -12919,7 +12931,7 @@
     </row>
     <row r="139" spans="1:64" ht="20.5" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A139" s="31" t="s">
-        <v>268</v>
+        <v>263</v>
       </c>
       <c r="B139" s="32"/>
       <c r="C139" s="32"/>
@@ -12935,7 +12947,7 @@
       <c r="M139" s="32"/>
       <c r="N139" s="32"/>
       <c r="O139" s="32" t="s">
-        <v>27</v>
+        <v>23</v>
       </c>
       <c r="P139" s="32"/>
       <c r="Q139" s="32"/>
@@ -12964,7 +12976,7 @@
       <c r="AN139" s="32"/>
       <c r="AO139" s="32"/>
       <c r="AP139" s="32" t="s">
-        <v>256</v>
+        <v>251</v>
       </c>
       <c r="AQ139" s="32"/>
       <c r="AR139" s="32"/>
@@ -12973,7 +12985,7 @@
       <c r="AU139" s="32"/>
       <c r="AV139" s="32"/>
       <c r="AW139" s="32" t="s">
-        <v>365</v>
+        <v>359</v>
       </c>
       <c r="AX139" s="32"/>
       <c r="AY139" s="32"/>
@@ -12993,7 +13005,7 @@
     </row>
     <row r="140" spans="1:64" ht="10.5" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A140" s="31" t="s">
-        <v>269</v>
+        <v>264</v>
       </c>
       <c r="B140" s="32"/>
       <c r="C140" s="32"/>
@@ -13010,7 +13022,7 @@
       <c r="N140" s="32"/>
       <c r="O140" s="32"/>
       <c r="P140" s="32" t="s">
-        <v>27</v>
+        <v>23</v>
       </c>
       <c r="Q140" s="32"/>
       <c r="R140" s="32"/>
@@ -13038,7 +13050,7 @@
       <c r="AN140" s="32"/>
       <c r="AO140" s="32"/>
       <c r="AP140" s="32" t="s">
-        <v>256</v>
+        <v>251</v>
       </c>
       <c r="AQ140" s="32"/>
       <c r="AR140" s="32"/>
@@ -13048,7 +13060,7 @@
       <c r="AV140" s="32"/>
       <c r="AW140" s="32"/>
       <c r="AX140" s="32" t="s">
-        <v>95</v>
+        <v>91</v>
       </c>
       <c r="AY140" s="32"/>
       <c r="AZ140" s="32"/>
@@ -13067,7 +13079,7 @@
     </row>
     <row r="141" spans="1:64" ht="20.5" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A141" s="31" t="s">
-        <v>270</v>
+        <v>265</v>
       </c>
       <c r="B141" s="32"/>
       <c r="C141" s="32"/>
@@ -13085,7 +13097,7 @@
       <c r="O141" s="32"/>
       <c r="P141" s="32"/>
       <c r="Q141" s="32" t="s">
-        <v>27</v>
+        <v>23</v>
       </c>
       <c r="R141" s="32"/>
       <c r="S141" s="32"/>
@@ -13112,7 +13124,7 @@
       <c r="AN141" s="32"/>
       <c r="AO141" s="32"/>
       <c r="AP141" s="32" t="s">
-        <v>256</v>
+        <v>251</v>
       </c>
       <c r="AQ141" s="32"/>
       <c r="AR141" s="32"/>
@@ -13122,7 +13134,7 @@
       <c r="AV141" s="32"/>
       <c r="AW141" s="32"/>
       <c r="AX141" s="32" t="s">
-        <v>365</v>
+        <v>359</v>
       </c>
       <c r="AY141" s="32"/>
       <c r="AZ141" s="32"/>
@@ -13141,7 +13153,7 @@
     </row>
     <row r="142" spans="1:64" ht="10.5" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A142" s="31" t="s">
-        <v>271</v>
+        <v>266</v>
       </c>
       <c r="B142" s="32"/>
       <c r="C142" s="32"/>
@@ -13160,7 +13172,7 @@
       <c r="P142" s="32"/>
       <c r="Q142" s="32"/>
       <c r="R142" s="32" t="s">
-        <v>27</v>
+        <v>23</v>
       </c>
       <c r="S142" s="32"/>
       <c r="T142" s="32"/>
@@ -13186,7 +13198,7 @@
       <c r="AN142" s="32"/>
       <c r="AO142" s="32"/>
       <c r="AP142" s="32" t="s">
-        <v>256</v>
+        <v>251</v>
       </c>
       <c r="AQ142" s="32"/>
       <c r="AR142" s="32"/>
@@ -13197,7 +13209,7 @@
       <c r="AW142" s="32"/>
       <c r="AX142" s="32"/>
       <c r="AY142" s="32" t="s">
-        <v>95</v>
+        <v>91</v>
       </c>
       <c r="AZ142" s="32"/>
       <c r="BA142" s="32"/>
@@ -13215,7 +13227,7 @@
     </row>
     <row r="143" spans="1:64" ht="20.5" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A143" s="31" t="s">
-        <v>272</v>
+        <v>267</v>
       </c>
       <c r="B143" s="32"/>
       <c r="C143" s="32"/>
@@ -13235,7 +13247,7 @@
       <c r="Q143" s="32"/>
       <c r="R143" s="32"/>
       <c r="S143" s="32" t="s">
-        <v>27</v>
+        <v>23</v>
       </c>
       <c r="T143" s="32"/>
       <c r="U143" s="32"/>
@@ -13260,7 +13272,7 @@
       <c r="AN143" s="32"/>
       <c r="AO143" s="32"/>
       <c r="AP143" s="32" t="s">
-        <v>256</v>
+        <v>251</v>
       </c>
       <c r="AQ143" s="32"/>
       <c r="AR143" s="32"/>
@@ -13271,7 +13283,7 @@
       <c r="AW143" s="32"/>
       <c r="AX143" s="32"/>
       <c r="AY143" s="32" t="s">
-        <v>365</v>
+        <v>359</v>
       </c>
       <c r="AZ143" s="32"/>
       <c r="BA143" s="32"/>
@@ -13289,7 +13301,7 @@
     </row>
     <row r="144" spans="1:64" ht="10.5" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A144" s="31" t="s">
-        <v>273</v>
+        <v>268</v>
       </c>
       <c r="B144" s="32"/>
       <c r="C144" s="32"/>
@@ -13310,7 +13322,7 @@
       <c r="R144" s="32"/>
       <c r="S144" s="32"/>
       <c r="T144" s="32" t="s">
-        <v>27</v>
+        <v>23</v>
       </c>
       <c r="U144" s="32"/>
       <c r="V144" s="32"/>
@@ -13334,7 +13346,7 @@
       <c r="AN144" s="32"/>
       <c r="AO144" s="32"/>
       <c r="AP144" s="32" t="s">
-        <v>256</v>
+        <v>251</v>
       </c>
       <c r="AQ144" s="32"/>
       <c r="AR144" s="32"/>
@@ -13346,7 +13358,7 @@
       <c r="AX144" s="32"/>
       <c r="AY144" s="32"/>
       <c r="AZ144" s="32" t="s">
-        <v>95</v>
+        <v>91</v>
       </c>
       <c r="BA144" s="32"/>
       <c r="BB144" s="32"/>
@@ -13363,7 +13375,7 @@
     </row>
     <row r="145" spans="1:64" ht="20.5" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A145" s="31" t="s">
-        <v>274</v>
+        <v>269</v>
       </c>
       <c r="B145" s="32"/>
       <c r="C145" s="32"/>
@@ -13385,7 +13397,7 @@
       <c r="S145" s="32"/>
       <c r="T145" s="32"/>
       <c r="U145" s="32" t="s">
-        <v>27</v>
+        <v>23</v>
       </c>
       <c r="V145" s="32"/>
       <c r="W145" s="32"/>
@@ -13408,7 +13420,7 @@
       <c r="AN145" s="32"/>
       <c r="AO145" s="32"/>
       <c r="AP145" s="32" t="s">
-        <v>256</v>
+        <v>251</v>
       </c>
       <c r="AQ145" s="32"/>
       <c r="AR145" s="32"/>
@@ -13420,7 +13432,7 @@
       <c r="AX145" s="32"/>
       <c r="AY145" s="32"/>
       <c r="AZ145" s="32" t="s">
-        <v>365</v>
+        <v>359</v>
       </c>
       <c r="BA145" s="32"/>
       <c r="BB145" s="32"/>
@@ -13437,7 +13449,7 @@
     </row>
     <row r="146" spans="1:64" ht="10.5" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A146" s="31" t="s">
-        <v>275</v>
+        <v>270</v>
       </c>
       <c r="B146" s="32"/>
       <c r="C146" s="32"/>
@@ -13460,7 +13472,7 @@
       <c r="T146" s="32"/>
       <c r="U146" s="32"/>
       <c r="V146" s="32" t="s">
-        <v>27</v>
+        <v>23</v>
       </c>
       <c r="W146" s="32"/>
       <c r="X146" s="32"/>
@@ -13482,7 +13494,7 @@
       <c r="AN146" s="32"/>
       <c r="AO146" s="32"/>
       <c r="AP146" s="32" t="s">
-        <v>256</v>
+        <v>251</v>
       </c>
       <c r="AQ146" s="32"/>
       <c r="AR146" s="32"/>
@@ -13495,7 +13507,7 @@
       <c r="AY146" s="32"/>
       <c r="AZ146" s="32"/>
       <c r="BA146" s="32" t="s">
-        <v>95</v>
+        <v>91</v>
       </c>
       <c r="BB146" s="32"/>
       <c r="BC146" s="32"/>
@@ -13511,7 +13523,7 @@
     </row>
     <row r="147" spans="1:64" ht="20.5" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A147" s="31" t="s">
-        <v>276</v>
+        <v>271</v>
       </c>
       <c r="B147" s="32"/>
       <c r="C147" s="32"/>
@@ -13535,7 +13547,7 @@
       <c r="U147" s="32"/>
       <c r="V147" s="32"/>
       <c r="W147" s="32" t="s">
-        <v>27</v>
+        <v>23</v>
       </c>
       <c r="X147" s="32"/>
       <c r="Y147" s="32"/>
@@ -13556,7 +13568,7 @@
       <c r="AN147" s="32"/>
       <c r="AO147" s="32"/>
       <c r="AP147" s="32" t="s">
-        <v>256</v>
+        <v>251</v>
       </c>
       <c r="AQ147" s="32"/>
       <c r="AR147" s="32"/>
@@ -13569,7 +13581,7 @@
       <c r="AY147" s="32"/>
       <c r="AZ147" s="32"/>
       <c r="BA147" s="32" t="s">
-        <v>365</v>
+        <v>359</v>
       </c>
       <c r="BB147" s="32"/>
       <c r="BC147" s="32"/>
@@ -13585,7 +13597,7 @@
     </row>
     <row r="148" spans="1:64" ht="10.5" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A148" s="31" t="s">
-        <v>277</v>
+        <v>272</v>
       </c>
       <c r="B148" s="32"/>
       <c r="C148" s="32"/>
@@ -13610,7 +13622,7 @@
       <c r="V148" s="32"/>
       <c r="W148" s="32"/>
       <c r="X148" s="32" t="s">
-        <v>27</v>
+        <v>23</v>
       </c>
       <c r="Y148" s="32"/>
       <c r="Z148" s="32"/>
@@ -13630,7 +13642,7 @@
       <c r="AN148" s="32"/>
       <c r="AO148" s="32"/>
       <c r="AP148" s="32" t="s">
-        <v>256</v>
+        <v>251</v>
       </c>
       <c r="AQ148" s="32"/>
       <c r="AR148" s="32"/>
@@ -13644,7 +13656,7 @@
       <c r="AZ148" s="32"/>
       <c r="BA148" s="32"/>
       <c r="BB148" s="32" t="s">
-        <v>95</v>
+        <v>91</v>
       </c>
       <c r="BC148" s="32"/>
       <c r="BD148" s="32"/>
@@ -13659,7 +13671,7 @@
     </row>
     <row r="149" spans="1:64" ht="10.5" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A149" s="31" t="s">
-        <v>278</v>
+        <v>273</v>
       </c>
       <c r="B149" s="32"/>
       <c r="C149" s="32"/>
@@ -13685,7 +13697,7 @@
       <c r="W149" s="32"/>
       <c r="X149" s="32"/>
       <c r="Y149" s="32" t="s">
-        <v>27</v>
+        <v>23</v>
       </c>
       <c r="Z149" s="32"/>
       <c r="AA149" s="32"/>
@@ -13704,7 +13716,7 @@
       <c r="AN149" s="32"/>
       <c r="AO149" s="32"/>
       <c r="AP149" s="32" t="s">
-        <v>256</v>
+        <v>251</v>
       </c>
       <c r="AQ149" s="32"/>
       <c r="AR149" s="32"/>
@@ -13718,7 +13730,7 @@
       <c r="AZ149" s="32"/>
       <c r="BA149" s="32"/>
       <c r="BB149" s="32" t="s">
-        <v>365</v>
+        <v>359</v>
       </c>
       <c r="BC149" s="32"/>
       <c r="BD149" s="32"/>
@@ -13733,7 +13745,7 @@
     </row>
     <row r="150" spans="1:64" ht="10.5" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A150" s="31" t="s">
-        <v>279</v>
+        <v>274</v>
       </c>
       <c r="B150" s="32"/>
       <c r="C150" s="32"/>
@@ -13760,7 +13772,7 @@
       <c r="X150" s="32"/>
       <c r="Y150" s="32"/>
       <c r="Z150" s="32" t="s">
-        <v>27</v>
+        <v>23</v>
       </c>
       <c r="AA150" s="32"/>
       <c r="AB150" s="32"/>
@@ -13778,7 +13790,7 @@
       <c r="AN150" s="32"/>
       <c r="AO150" s="32"/>
       <c r="AP150" s="32" t="s">
-        <v>256</v>
+        <v>251</v>
       </c>
       <c r="AQ150" s="32"/>
       <c r="AR150" s="32"/>
@@ -13793,7 +13805,7 @@
       <c r="BA150" s="32"/>
       <c r="BB150" s="32"/>
       <c r="BC150" s="32" t="s">
-        <v>95</v>
+        <v>91</v>
       </c>
       <c r="BD150" s="32"/>
       <c r="BE150" s="32"/>
@@ -13807,7 +13819,7 @@
     </row>
     <row r="151" spans="1:64" ht="20.5" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A151" s="31" t="s">
-        <v>280</v>
+        <v>275</v>
       </c>
       <c r="B151" s="32"/>
       <c r="C151" s="32"/>
@@ -13835,7 +13847,7 @@
       <c r="Y151" s="32"/>
       <c r="Z151" s="32"/>
       <c r="AA151" s="32" t="s">
-        <v>27</v>
+        <v>23</v>
       </c>
       <c r="AB151" s="32"/>
       <c r="AC151" s="32"/>
@@ -13852,7 +13864,7 @@
       <c r="AN151" s="32"/>
       <c r="AO151" s="32"/>
       <c r="AP151" s="32" t="s">
-        <v>256</v>
+        <v>251</v>
       </c>
       <c r="AQ151" s="32"/>
       <c r="AR151" s="32"/>
@@ -13867,7 +13879,7 @@
       <c r="BA151" s="32"/>
       <c r="BB151" s="32"/>
       <c r="BC151" s="32" t="s">
-        <v>365</v>
+        <v>359</v>
       </c>
       <c r="BD151" s="32"/>
       <c r="BE151" s="32"/>
@@ -13881,7 +13893,7 @@
     </row>
     <row r="152" spans="1:64" ht="10.5" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A152" s="31" t="s">
-        <v>281</v>
+        <v>276</v>
       </c>
       <c r="B152" s="32"/>
       <c r="C152" s="32"/>
@@ -13910,7 +13922,7 @@
       <c r="Z152" s="32"/>
       <c r="AA152" s="32"/>
       <c r="AB152" s="32" t="s">
-        <v>27</v>
+        <v>23</v>
       </c>
       <c r="AC152" s="32"/>
       <c r="AD152" s="32"/>
@@ -13926,7 +13938,7 @@
       <c r="AN152" s="32"/>
       <c r="AO152" s="32"/>
       <c r="AP152" s="32" t="s">
-        <v>256</v>
+        <v>251</v>
       </c>
       <c r="AQ152" s="32"/>
       <c r="AR152" s="32"/>
@@ -13942,7 +13954,7 @@
       <c r="BB152" s="32"/>
       <c r="BC152" s="32"/>
       <c r="BD152" s="32" t="s">
-        <v>95</v>
+        <v>91</v>
       </c>
       <c r="BE152" s="32"/>
       <c r="BF152" s="32"/>
@@ -13955,7 +13967,7 @@
     </row>
     <row r="153" spans="1:64" ht="20.5" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A153" s="31" t="s">
-        <v>282</v>
+        <v>277</v>
       </c>
       <c r="B153" s="32"/>
       <c r="C153" s="32"/>
@@ -13985,7 +13997,7 @@
       <c r="AA153" s="32"/>
       <c r="AB153" s="32"/>
       <c r="AC153" s="32" t="s">
-        <v>27</v>
+        <v>23</v>
       </c>
       <c r="AD153" s="32"/>
       <c r="AE153" s="32"/>
@@ -14000,7 +14012,7 @@
       <c r="AN153" s="32"/>
       <c r="AO153" s="32"/>
       <c r="AP153" s="32" t="s">
-        <v>256</v>
+        <v>251</v>
       </c>
       <c r="AQ153" s="32"/>
       <c r="AR153" s="32"/>
@@ -14016,7 +14028,7 @@
       <c r="BB153" s="32"/>
       <c r="BC153" s="32"/>
       <c r="BD153" s="32" t="s">
-        <v>365</v>
+        <v>359</v>
       </c>
       <c r="BE153" s="32"/>
       <c r="BF153" s="32"/>
@@ -14029,7 +14041,7 @@
     </row>
     <row r="154" spans="1:64" ht="10.5" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A154" s="31" t="s">
-        <v>372</v>
+        <v>366</v>
       </c>
       <c r="B154" s="32"/>
       <c r="C154" s="32"/>
@@ -14060,7 +14072,7 @@
       <c r="AB154" s="32"/>
       <c r="AC154" s="32"/>
       <c r="AD154" s="32" t="s">
-        <v>27</v>
+        <v>23</v>
       </c>
       <c r="AE154" s="32"/>
       <c r="AF154" s="32"/>
@@ -14074,7 +14086,7 @@
       <c r="AN154" s="32"/>
       <c r="AO154" s="32"/>
       <c r="AP154" s="32" t="s">
-        <v>256</v>
+        <v>251</v>
       </c>
       <c r="AQ154" s="32"/>
       <c r="AR154" s="32"/>
@@ -14091,7 +14103,7 @@
       <c r="BC154" s="32"/>
       <c r="BD154" s="32"/>
       <c r="BE154" s="32" t="s">
-        <v>95</v>
+        <v>91</v>
       </c>
       <c r="BF154" s="32"/>
       <c r="BG154" s="32"/>
@@ -14103,7 +14115,7 @@
     </row>
     <row r="155" spans="1:64" ht="20.5" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A155" s="31" t="s">
-        <v>373</v>
+        <v>367</v>
       </c>
       <c r="B155" s="32"/>
       <c r="C155" s="32"/>
@@ -14135,7 +14147,7 @@
       <c r="AC155" s="32"/>
       <c r="AD155" s="32"/>
       <c r="AE155" s="32" t="s">
-        <v>27</v>
+        <v>23</v>
       </c>
       <c r="AF155" s="32"/>
       <c r="AG155" s="32"/>
@@ -14148,7 +14160,7 @@
       <c r="AN155" s="32"/>
       <c r="AO155" s="32"/>
       <c r="AP155" s="32" t="s">
-        <v>256</v>
+        <v>251</v>
       </c>
       <c r="AQ155" s="32"/>
       <c r="AR155" s="32"/>
@@ -14165,7 +14177,7 @@
       <c r="BC155" s="32"/>
       <c r="BD155" s="32"/>
       <c r="BE155" s="32" t="s">
-        <v>365</v>
+        <v>359</v>
       </c>
       <c r="BF155" s="32"/>
       <c r="BG155" s="32"/>
@@ -14177,7 +14189,7 @@
     </row>
     <row r="156" spans="1:64" ht="10.5" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A156" s="31" t="s">
-        <v>374</v>
+        <v>368</v>
       </c>
       <c r="B156" s="32"/>
       <c r="C156" s="32"/>
@@ -14211,7 +14223,7 @@
       <c r="AE156" s="32"/>
       <c r="AF156" s="32"/>
       <c r="AG156" s="32" t="s">
-        <v>27</v>
+        <v>23</v>
       </c>
       <c r="AH156" s="32"/>
       <c r="AI156" s="32"/>
@@ -14222,7 +14234,7 @@
       <c r="AN156" s="32"/>
       <c r="AO156" s="32"/>
       <c r="AP156" s="32" t="s">
-        <v>256</v>
+        <v>251</v>
       </c>
       <c r="AQ156" s="32"/>
       <c r="AR156" s="32"/>
@@ -14240,7 +14252,7 @@
       <c r="BD156" s="32"/>
       <c r="BE156" s="32"/>
       <c r="BF156" s="32" t="s">
-        <v>95</v>
+        <v>91</v>
       </c>
       <c r="BG156" s="32"/>
       <c r="BH156" s="32"/>
@@ -14251,7 +14263,7 @@
     </row>
     <row r="157" spans="1:64" ht="20.5" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A157" s="31" t="s">
-        <v>375</v>
+        <v>369</v>
       </c>
       <c r="B157" s="32"/>
       <c r="C157" s="32"/>
@@ -14286,7 +14298,7 @@
       <c r="AF157" s="32"/>
       <c r="AG157" s="32"/>
       <c r="AH157" s="32" t="s">
-        <v>27</v>
+        <v>23</v>
       </c>
       <c r="AI157" s="32"/>
       <c r="AJ157" s="32"/>
@@ -14296,7 +14308,7 @@
       <c r="AN157" s="32"/>
       <c r="AO157" s="32"/>
       <c r="AP157" s="32" t="s">
-        <v>256</v>
+        <v>251</v>
       </c>
       <c r="AQ157" s="32"/>
       <c r="AR157" s="32"/>
@@ -14314,7 +14326,7 @@
       <c r="BD157" s="32"/>
       <c r="BE157" s="32"/>
       <c r="BF157" s="32" t="s">
-        <v>365</v>
+        <v>359</v>
       </c>
       <c r="BG157" s="32"/>
       <c r="BH157" s="32"/>
@@ -14325,7 +14337,7 @@
     </row>
     <row r="158" spans="1:64" ht="20.5" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A158" s="31" t="s">
-        <v>389</v>
+        <v>383</v>
       </c>
       <c r="B158" s="32"/>
       <c r="C158" s="32"/>
@@ -14361,7 +14373,7 @@
       <c r="AG158" s="32"/>
       <c r="AH158" s="32"/>
       <c r="AI158" s="32" t="s">
-        <v>386</v>
+        <v>380</v>
       </c>
       <c r="AJ158" s="32"/>
       <c r="AK158" s="32"/>
@@ -14370,7 +14382,7 @@
       <c r="AN158" s="32"/>
       <c r="AO158" s="32"/>
       <c r="AP158" s="32" t="s">
-        <v>256</v>
+        <v>251</v>
       </c>
       <c r="AQ158" s="32"/>
       <c r="AR158" s="32"/>
@@ -14389,7 +14401,7 @@
       <c r="BE158" s="32"/>
       <c r="BF158" s="32"/>
       <c r="BG158" s="32" t="s">
-        <v>390</v>
+        <v>384</v>
       </c>
       <c r="BH158" s="32"/>
       <c r="BI158" s="32"/>
@@ -14399,7 +14411,7 @@
     </row>
     <row r="159" spans="1:64" ht="20.5" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A159" s="31" t="s">
-        <v>376</v>
+        <v>370</v>
       </c>
       <c r="B159" s="32"/>
       <c r="C159" s="32"/>
@@ -14436,7 +14448,7 @@
       <c r="AH159" s="32"/>
       <c r="AI159" s="32"/>
       <c r="AJ159" s="32" t="s">
-        <v>27</v>
+        <v>23</v>
       </c>
       <c r="AK159" s="32"/>
       <c r="AL159" s="32"/>
@@ -14444,7 +14456,7 @@
       <c r="AN159" s="32"/>
       <c r="AO159" s="32"/>
       <c r="AP159" s="32" t="s">
-        <v>256</v>
+        <v>251</v>
       </c>
       <c r="AQ159" s="32"/>
       <c r="AR159" s="32"/>
@@ -14463,7 +14475,7 @@
       <c r="BE159" s="32"/>
       <c r="BF159" s="32"/>
       <c r="BG159" s="32" t="s">
-        <v>365</v>
+        <v>359</v>
       </c>
       <c r="BH159" s="32"/>
       <c r="BI159" s="32"/>
@@ -14471,9 +14483,9 @@
       <c r="BK159" s="33"/>
       <c r="BL159" s="33"/>
     </row>
-    <row r="160" spans="1:64" ht="10.5" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="160" spans="1:64" ht="90.5" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A160" s="31" t="s">
-        <v>283</v>
+        <v>278</v>
       </c>
       <c r="B160" s="32"/>
       <c r="C160" s="32"/>
@@ -14511,14 +14523,14 @@
       <c r="AI160" s="32"/>
       <c r="AJ160" s="32"/>
       <c r="AK160" s="32" t="s">
-        <v>27</v>
+        <v>401</v>
       </c>
       <c r="AL160" s="32"/>
       <c r="AM160" s="32"/>
       <c r="AN160" s="32"/>
       <c r="AO160" s="32"/>
       <c r="AP160" s="32" t="s">
-        <v>256</v>
+        <v>251</v>
       </c>
       <c r="AQ160" s="32"/>
       <c r="AR160" s="32"/>
@@ -14538,16 +14550,16 @@
       <c r="BF160" s="32"/>
       <c r="BG160" s="32"/>
       <c r="BH160" s="32" t="s">
-        <v>95</v>
+        <v>91</v>
       </c>
       <c r="BI160" s="32"/>
       <c r="BJ160" s="33"/>
       <c r="BK160" s="33"/>
       <c r="BL160" s="33"/>
     </row>
-    <row r="161" spans="1:64" ht="20.5" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="161" spans="1:64" ht="90.5" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A161" s="31" t="s">
-        <v>284</v>
+        <v>279</v>
       </c>
       <c r="B161" s="32"/>
       <c r="C161" s="32"/>
@@ -14586,13 +14598,13 @@
       <c r="AJ161" s="32"/>
       <c r="AK161" s="32"/>
       <c r="AL161" s="32" t="s">
-        <v>27</v>
+        <v>401</v>
       </c>
       <c r="AM161" s="32"/>
       <c r="AN161" s="32"/>
       <c r="AO161" s="32"/>
       <c r="AP161" s="32" t="s">
-        <v>256</v>
+        <v>251</v>
       </c>
       <c r="AQ161" s="32"/>
       <c r="AR161" s="32"/>
@@ -14612,7 +14624,7 @@
       <c r="BF161" s="32"/>
       <c r="BG161" s="32"/>
       <c r="BH161" s="32" t="s">
-        <v>365</v>
+        <v>359</v>
       </c>
       <c r="BI161" s="32"/>
       <c r="BJ161" s="33"/>
@@ -14621,7 +14633,7 @@
     </row>
     <row r="162" spans="1:64" ht="20.5" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A162" s="31" t="s">
-        <v>285</v>
+        <v>280</v>
       </c>
       <c r="B162" s="32"/>
       <c r="C162" s="32"/>
@@ -14661,12 +14673,12 @@
       <c r="AK162" s="32"/>
       <c r="AL162" s="32"/>
       <c r="AM162" s="32" t="s">
-        <v>27</v>
+        <v>23</v>
       </c>
       <c r="AN162" s="32"/>
       <c r="AO162" s="32"/>
       <c r="AP162" s="32" t="s">
-        <v>256</v>
+        <v>251</v>
       </c>
       <c r="AQ162" s="32"/>
       <c r="AR162" s="32"/>
@@ -14687,7 +14699,7 @@
       <c r="BG162" s="32"/>
       <c r="BH162" s="32"/>
       <c r="BI162" s="32" t="s">
-        <v>95</v>
+        <v>91</v>
       </c>
       <c r="BJ162" s="33"/>
       <c r="BK162" s="33"/>
@@ -14695,7 +14707,7 @@
     </row>
     <row r="163" spans="1:64" ht="20.5" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A163" s="42" t="s">
-        <v>286</v>
+        <v>281</v>
       </c>
       <c r="B163" s="32"/>
       <c r="C163" s="32"/>
@@ -14736,11 +14748,11 @@
       <c r="AL163" s="32"/>
       <c r="AM163" s="32"/>
       <c r="AN163" s="32" t="s">
-        <v>27</v>
+        <v>23</v>
       </c>
       <c r="AO163" s="32"/>
       <c r="AP163" s="32" t="s">
-        <v>256</v>
+        <v>251</v>
       </c>
       <c r="AQ163" s="32"/>
       <c r="AR163" s="32"/>
@@ -14761,7 +14773,7 @@
       <c r="BG163" s="32"/>
       <c r="BH163" s="32"/>
       <c r="BI163" s="32" t="s">
-        <v>365</v>
+        <v>359</v>
       </c>
       <c r="BJ163" s="33"/>
       <c r="BK163" s="33"/>
@@ -14769,7 +14781,7 @@
     </row>
     <row r="164" spans="1:64" ht="20.5" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A164" s="31" t="s">
-        <v>391</v>
+        <v>385</v>
       </c>
       <c r="B164" s="32"/>
       <c r="C164" s="32"/>
@@ -14802,7 +14814,7 @@
       <c r="AD164" s="33"/>
       <c r="AE164" s="33"/>
       <c r="AF164" s="15" t="s">
-        <v>383</v>
+        <v>377</v>
       </c>
       <c r="AG164" s="33"/>
       <c r="AH164" s="33"/>
@@ -14814,7 +14826,7 @@
       <c r="AN164" s="33"/>
       <c r="AO164" s="33"/>
       <c r="AP164" s="32" t="s">
-        <v>256</v>
+        <v>251</v>
       </c>
       <c r="AQ164" s="33"/>
       <c r="AR164" s="33"/>
@@ -14836,14 +14848,14 @@
       <c r="BH164" s="33"/>
       <c r="BI164" s="33"/>
       <c r="BJ164" s="15" t="s">
-        <v>392</v>
+        <v>386</v>
       </c>
       <c r="BK164" s="33"/>
       <c r="BL164" s="33"/>
     </row>
     <row r="165" spans="1:64" ht="10.5" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A165" s="31" t="s">
-        <v>393</v>
+        <v>387</v>
       </c>
       <c r="B165" s="32"/>
       <c r="C165" s="32"/>
@@ -14885,10 +14897,10 @@
       <c r="AM165" s="33"/>
       <c r="AN165" s="33"/>
       <c r="AO165" s="15" t="s">
-        <v>394</v>
+        <v>388</v>
       </c>
       <c r="AP165" s="32" t="s">
-        <v>256</v>
+        <v>251</v>
       </c>
       <c r="AQ165" s="33"/>
       <c r="AR165" s="33"/>
@@ -14911,7 +14923,7 @@
       <c r="BI165" s="33"/>
       <c r="BJ165" s="33"/>
       <c r="BK165" s="33" t="s">
-        <v>395</v>
+        <v>389</v>
       </c>
       <c r="BL165" s="33"/>
     </row>

--- a/src/main/resources/complaince_rules_banner1.xlsx
+++ b/src/main/resources/complaince_rules_banner1.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\WorkSpace\IAB Project\boot-drools-decision\src\main\resources\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9FB7A73E-1BFE-4133-9482-AF8DB2CB55D2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6A512BDD-0DFF-457D-B3FD-E604A4BB28B7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1175" uniqueCount="413">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1172" uniqueCount="412">
   <si>
     <t>RuleSet</t>
   </si>
@@ -147,12 +147,6 @@
   </si>
   <si>
     <t>sessionStartObject: SessionStartObject</t>
-  </si>
-  <si>
-    <t>adSessionIdLength &gt; $param</t>
-  </si>
-  <si>
-    <t>adSessionIdLength==$param</t>
   </si>
   <si>
     <t>adSessionType==$1||adSessionType==$2</t>
@@ -1401,6 +1395,9 @@
   </si>
   <si>
     <t>timestamp</t>
+  </si>
+  <si>
+    <t>adSessionId==$param</t>
   </si>
 </sst>
 </file>
@@ -1752,7 +1749,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="59">
+  <cellXfs count="58">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -1880,6 +1877,12 @@
     <xf numFmtId="0" fontId="6" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -1917,15 +1920,6 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -2211,8 +2205,8 @@
   <sheetPr codeName="Sheet1"/>
   <dimension ref="A1:BW995"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="I12" sqref="I12"/>
+    <sheetView tabSelected="1" topLeftCell="I14" workbookViewId="0">
+      <selection activeCell="R24" sqref="R24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="10" x14ac:dyDescent="0.35"/>
@@ -2243,14 +2237,14 @@
     <col min="75" max="16384" width="8.7265625" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:18" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="1" spans="1:17" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A1" s="18" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="46" t="s">
+      <c r="B1" s="48" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="47"/>
+      <c r="C1" s="49"/>
       <c r="D1" s="4"/>
       <c r="E1" s="4"/>
       <c r="F1" s="4"/>
@@ -2263,14 +2257,14 @@
       <c r="M1" s="3"/>
       <c r="N1" s="3"/>
     </row>
-    <row r="2" spans="1:18" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="2" spans="1:17" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A2" s="19" t="s">
         <v>2</v>
       </c>
-      <c r="B2" s="48" t="s">
-        <v>218</v>
-      </c>
-      <c r="C2" s="49"/>
+      <c r="B2" s="50" t="s">
+        <v>216</v>
+      </c>
+      <c r="C2" s="51"/>
       <c r="D2" s="5"/>
       <c r="E2" s="5"/>
       <c r="F2" s="5"/>
@@ -2283,14 +2277,14 @@
       <c r="M2" s="3"/>
       <c r="N2" s="3"/>
     </row>
-    <row r="3" spans="1:18" ht="22" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="3" spans="1:17" ht="22" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A3" s="19" t="s">
         <v>3</v>
       </c>
-      <c r="B3" s="46" t="s">
+      <c r="B3" s="48" t="s">
         <v>4</v>
       </c>
-      <c r="C3" s="47"/>
+      <c r="C3" s="49"/>
       <c r="D3" s="6"/>
       <c r="E3" s="6"/>
       <c r="F3" s="6"/>
@@ -2303,14 +2297,14 @@
       <c r="M3" s="3"/>
       <c r="N3" s="3"/>
     </row>
-    <row r="4" spans="1:18" ht="82" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="4" spans="1:17" ht="82" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A4" s="20" t="s">
         <v>5</v>
       </c>
-      <c r="B4" s="44" t="s">
-        <v>219</v>
-      </c>
-      <c r="C4" s="45"/>
+      <c r="B4" s="46" t="s">
+        <v>217</v>
+      </c>
+      <c r="C4" s="47"/>
       <c r="D4" s="3"/>
       <c r="E4" s="3"/>
       <c r="F4" s="3"/>
@@ -2323,7 +2317,7 @@
       <c r="M4" s="3"/>
       <c r="N4" s="3"/>
     </row>
-    <row r="5" spans="1:18" ht="10.5" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="5" spans="1:17" ht="10.5" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A5" s="21" t="s">
         <v>6</v>
       </c>
@@ -2341,7 +2335,7 @@
       <c r="M5" s="3"/>
       <c r="N5" s="3"/>
     </row>
-    <row r="6" spans="1:18" ht="21.5" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="6" spans="1:17" ht="21.5" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A6" s="22" t="s">
         <v>7</v>
       </c>
@@ -2393,33 +2387,29 @@
       <c r="Q6" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="R6" s="1" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="7" spans="1:18" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
+    </row>
+    <row r="7" spans="1:17" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A7" s="23"/>
-      <c r="B7" s="50" t="s">
+      <c r="B7" s="52" t="s">
         <v>10</v>
       </c>
-      <c r="C7" s="51"/>
-      <c r="D7" s="51"/>
-      <c r="E7" s="51"/>
-      <c r="F7" s="51"/>
-      <c r="G7" s="51"/>
-      <c r="H7" s="51"/>
-      <c r="I7" s="51"/>
-      <c r="J7" s="51"/>
-      <c r="K7" s="51"/>
-      <c r="L7" s="52"/>
+      <c r="C7" s="53"/>
+      <c r="D7" s="53"/>
+      <c r="E7" s="53"/>
+      <c r="F7" s="53"/>
+      <c r="G7" s="53"/>
+      <c r="H7" s="53"/>
+      <c r="I7" s="53"/>
+      <c r="J7" s="53"/>
+      <c r="K7" s="53"/>
+      <c r="L7" s="54"/>
       <c r="M7" s="3"/>
       <c r="N7" s="3"/>
       <c r="O7" s="3"/>
       <c r="P7" s="3"/>
       <c r="Q7"/>
-      <c r="R7"/>
-    </row>
-    <row r="8" spans="1:18" ht="90.5" thickBot="1" x14ac:dyDescent="0.4">
+    </row>
+    <row r="8" spans="1:17" ht="90.5" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A8" s="23"/>
       <c r="B8" s="3" t="s">
         <v>11</v>
@@ -2428,52 +2418,49 @@
         <v>12</v>
       </c>
       <c r="D8" s="3" t="s">
+        <v>400</v>
+      </c>
+      <c r="E8" s="3" t="s">
+        <v>401</v>
+      </c>
+      <c r="F8" s="3" t="s">
+        <v>395</v>
+      </c>
+      <c r="G8" s="3" t="s">
+        <v>397</v>
+      </c>
+      <c r="H8" s="3" t="s">
         <v>402</v>
       </c>
-      <c r="E8" s="3" t="s">
+      <c r="I8" s="3" t="s">
         <v>403</v>
       </c>
-      <c r="F8" s="3" t="s">
-        <v>397</v>
-      </c>
-      <c r="G8" s="3" t="s">
-        <v>399</v>
-      </c>
-      <c r="H8" s="3" t="s">
-        <v>404</v>
-      </c>
-      <c r="I8" s="3" t="s">
+      <c r="J8" s="3" t="s">
         <v>405</v>
       </c>
-      <c r="J8" s="3" t="s">
-        <v>407</v>
-      </c>
       <c r="K8" s="3" t="s">
-        <v>408</v>
+        <v>406</v>
       </c>
       <c r="L8" s="3" t="s">
         <v>15</v>
       </c>
       <c r="M8" s="3" t="s">
+        <v>281</v>
+      </c>
+      <c r="N8" s="3" t="s">
+        <v>282</v>
+      </c>
+      <c r="O8" s="3" t="s">
+        <v>398</v>
+      </c>
+      <c r="P8" s="3" t="s">
         <v>283</v>
       </c>
-      <c r="N8" s="3" t="s">
-        <v>284</v>
-      </c>
-      <c r="O8" s="3" t="s">
-        <v>400</v>
-      </c>
-      <c r="P8" s="3" t="s">
-        <v>285</v>
-      </c>
-      <c r="Q8" s="56" t="s">
-        <v>409</v>
-      </c>
-      <c r="R8" s="56" t="s">
-        <v>409</v>
-      </c>
-    </row>
-    <row r="9" spans="1:18" ht="20.5" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="Q8" s="43" t="s">
+        <v>407</v>
+      </c>
+    </row>
+    <row r="9" spans="1:17" ht="20.5" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A9" s="21" t="s">
         <v>7</v>
       </c>
@@ -2502,10 +2489,10 @@
         <v>19</v>
       </c>
       <c r="J9" s="7" t="s">
-        <v>412</v>
+        <v>410</v>
       </c>
       <c r="K9" s="7" t="s">
-        <v>412</v>
+        <v>410</v>
       </c>
       <c r="L9" s="7" t="s">
         <v>20</v>
@@ -2525,11 +2512,8 @@
       <c r="Q9" s="7" t="s">
         <v>21</v>
       </c>
-      <c r="R9" s="7" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="10" spans="1:18" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    </row>
+    <row r="10" spans="1:17" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A10" s="23" t="s">
         <v>22</v>
       </c>
@@ -2549,15 +2533,14 @@
         <v>24</v>
       </c>
       <c r="M10" s="3" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="N10" s="3"/>
       <c r="O10" s="3"/>
       <c r="P10" s="3"/>
       <c r="Q10"/>
-      <c r="R10"/>
-    </row>
-    <row r="11" spans="1:18" ht="20.5" thickBot="1" x14ac:dyDescent="0.4">
+    </row>
+    <row r="11" spans="1:17" ht="20.5" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A11" s="23" t="s">
         <v>25</v>
       </c>
@@ -2577,22 +2560,21 @@
         <v>24</v>
       </c>
       <c r="M11" s="3" t="s">
-        <v>359</v>
+        <v>357</v>
       </c>
       <c r="N11" s="3"/>
       <c r="O11" s="3"/>
       <c r="P11" s="3"/>
       <c r="Q11"/>
-      <c r="R11"/>
-    </row>
-    <row r="12" spans="1:18" ht="70.5" thickBot="1" x14ac:dyDescent="0.4">
+    </row>
+    <row r="12" spans="1:17" ht="70.5" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A12" s="23" t="s">
         <v>26</v>
       </c>
       <c r="B12" s="3"/>
       <c r="C12" s="3"/>
       <c r="D12" s="3" t="s">
-        <v>401</v>
+        <v>399</v>
       </c>
       <c r="E12" s="3"/>
       <c r="F12" s="3"/>
@@ -2606,14 +2588,13 @@
       </c>
       <c r="M12" s="3"/>
       <c r="N12" s="3" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="O12" s="3"/>
       <c r="P12" s="3"/>
       <c r="Q12"/>
-      <c r="R12"/>
-    </row>
-    <row r="13" spans="1:18" ht="70.5" thickBot="1" x14ac:dyDescent="0.4">
+    </row>
+    <row r="13" spans="1:17" ht="70.5" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A13" s="23" t="s">
         <v>27</v>
       </c>
@@ -2621,7 +2602,7 @@
       <c r="C13" s="3"/>
       <c r="D13" s="3"/>
       <c r="E13" s="3" t="s">
-        <v>401</v>
+        <v>399</v>
       </c>
       <c r="F13" s="3"/>
       <c r="G13" s="3"/>
@@ -2634,14 +2615,13 @@
       </c>
       <c r="M13" s="3"/>
       <c r="N13" s="3" t="s">
-        <v>359</v>
+        <v>357</v>
       </c>
       <c r="O13" s="3"/>
       <c r="P13" s="3"/>
       <c r="Q13"/>
-      <c r="R13"/>
-    </row>
-    <row r="14" spans="1:18" ht="20.5" thickBot="1" x14ac:dyDescent="0.4">
+    </row>
+    <row r="14" spans="1:17" ht="20.5" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A14" s="23" t="s">
         <v>28</v>
       </c>
@@ -2650,7 +2630,7 @@
       <c r="D14" s="3"/>
       <c r="E14" s="3"/>
       <c r="F14" s="3" t="s">
-        <v>398</v>
+        <v>396</v>
       </c>
       <c r="G14" s="3"/>
       <c r="H14" s="3"/>
@@ -2663,13 +2643,12 @@
       <c r="M14" s="3"/>
       <c r="N14" s="3"/>
       <c r="O14" s="3" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="P14" s="3"/>
       <c r="Q14"/>
-      <c r="R14"/>
-    </row>
-    <row r="15" spans="1:18" ht="20.5" thickBot="1" x14ac:dyDescent="0.4">
+    </row>
+    <row r="15" spans="1:17" ht="20.5" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A15" s="23" t="s">
         <v>29</v>
       </c>
@@ -2679,7 +2658,7 @@
       <c r="E15" s="3"/>
       <c r="F15" s="3"/>
       <c r="G15" s="3" t="s">
-        <v>398</v>
+        <v>396</v>
       </c>
       <c r="H15" s="3"/>
       <c r="I15" s="3"/>
@@ -2691,13 +2670,12 @@
       <c r="M15" s="3"/>
       <c r="N15" s="3"/>
       <c r="O15" s="3" t="s">
-        <v>359</v>
+        <v>357</v>
       </c>
       <c r="P15" s="3"/>
       <c r="Q15"/>
-      <c r="R15"/>
-    </row>
-    <row r="16" spans="1:18" ht="30.5" thickBot="1" x14ac:dyDescent="0.4">
+    </row>
+    <row r="16" spans="1:17" ht="30.5" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A16" s="23" t="s">
         <v>30</v>
       </c>
@@ -2708,7 +2686,7 @@
       <c r="F16" s="3"/>
       <c r="G16" s="3"/>
       <c r="H16" s="3" t="s">
-        <v>406</v>
+        <v>404</v>
       </c>
       <c r="I16" s="3"/>
       <c r="J16" s="3"/>
@@ -2720,10 +2698,9 @@
       <c r="N16" s="3"/>
       <c r="O16" s="3"/>
       <c r="P16" s="3" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="Q16"/>
-      <c r="R16"/>
     </row>
     <row r="17" spans="1:74" ht="30.5" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A17" s="23" t="s">
@@ -2737,7 +2714,7 @@
       <c r="G17" s="3"/>
       <c r="H17" s="3"/>
       <c r="I17" s="3" t="s">
-        <v>406</v>
+        <v>404</v>
       </c>
       <c r="J17" s="3"/>
       <c r="K17" s="3"/>
@@ -2748,14 +2725,13 @@
       <c r="N17" s="3"/>
       <c r="O17" s="3"/>
       <c r="P17" s="3" t="s">
-        <v>359</v>
+        <v>357</v>
       </c>
       <c r="Q17"/>
-      <c r="R17"/>
     </row>
     <row r="18" spans="1:74" ht="10.5" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A18" s="23" t="s">
-        <v>410</v>
+        <v>408</v>
       </c>
       <c r="B18" s="3"/>
       <c r="C18" s="3"/>
@@ -2777,15 +2753,12 @@
       <c r="O18" s="3"/>
       <c r="P18" s="3"/>
       <c r="Q18" s="2" t="s">
-        <v>91</v>
-      </c>
-      <c r="R18" s="2" t="s">
-        <v>91</v>
-      </c>
-    </row>
-    <row r="19" spans="1:74" ht="20.5" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A19" s="57" t="s">
-        <v>411</v>
+        <v>89</v>
+      </c>
+    </row>
+    <row r="19" spans="1:74" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A19" s="44" t="s">
+        <v>409</v>
       </c>
       <c r="B19"/>
       <c r="C19"/>
@@ -2805,12 +2778,9 @@
       <c r="M19"/>
       <c r="N19"/>
       <c r="O19"/>
-      <c r="P19" s="56"/>
+      <c r="P19" s="43"/>
       <c r="Q19" s="2" t="s">
-        <v>359</v>
-      </c>
-      <c r="R19" s="58" t="s">
-        <v>359</v>
+        <v>357</v>
       </c>
     </row>
     <row r="20" spans="1:74" ht="10.5" thickBot="1" x14ac:dyDescent="0.4">
@@ -2831,7 +2801,7 @@
     </row>
     <row r="21" spans="1:74" s="9" customFormat="1" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A21" s="24" t="s">
-        <v>360</v>
+        <v>358</v>
       </c>
       <c r="B21" s="8"/>
       <c r="C21" s="8"/>
@@ -2875,11 +2845,11 @@
     </row>
     <row r="23" spans="1:74" ht="20" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A23" s="23"/>
-      <c r="B23" s="50" t="s">
+      <c r="B23" s="52" t="s">
         <v>32</v>
       </c>
-      <c r="C23" s="51"/>
-      <c r="D23" s="52"/>
+      <c r="C23" s="53"/>
+      <c r="D23" s="54"/>
       <c r="E23" s="3"/>
       <c r="F23" s="3"/>
       <c r="G23" s="3"/>
@@ -2903,7 +2873,7 @@
         <v>15</v>
       </c>
       <c r="E24" s="3" t="s">
-        <v>306</v>
+        <v>304</v>
       </c>
       <c r="F24" s="3"/>
       <c r="G24" s="3"/>
@@ -2953,7 +2923,7 @@
         <v>34</v>
       </c>
       <c r="E26" s="3" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="F26" s="3"/>
       <c r="G26" s="3"/>
@@ -2977,7 +2947,7 @@
         <v>34</v>
       </c>
       <c r="E27" s="3" t="s">
-        <v>359</v>
+        <v>357</v>
       </c>
       <c r="F27" s="3"/>
       <c r="G27" s="3"/>
@@ -3007,7 +2977,7 @@
     </row>
     <row r="29" spans="1:74" s="9" customFormat="1" ht="11" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A29" s="25" t="s">
-        <v>318</v>
+        <v>316</v>
       </c>
       <c r="B29" s="10"/>
       <c r="C29" s="10"/>
@@ -3304,57 +3274,57 @@
     </row>
     <row r="31" spans="1:74" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A31" s="27"/>
-      <c r="B31" s="53" t="s">
+      <c r="B31" s="55" t="s">
         <v>36</v>
       </c>
-      <c r="C31" s="54"/>
-      <c r="D31" s="54"/>
-      <c r="E31" s="54"/>
-      <c r="F31" s="54"/>
-      <c r="G31" s="54"/>
-      <c r="H31" s="54"/>
-      <c r="I31" s="54"/>
-      <c r="J31" s="54"/>
-      <c r="K31" s="54"/>
-      <c r="L31" s="54"/>
-      <c r="M31" s="54"/>
-      <c r="N31" s="54"/>
-      <c r="O31" s="54"/>
-      <c r="P31" s="54"/>
-      <c r="Q31" s="54"/>
-      <c r="R31" s="54"/>
-      <c r="S31" s="54"/>
-      <c r="T31" s="54"/>
-      <c r="U31" s="54"/>
-      <c r="V31" s="54"/>
-      <c r="W31" s="54"/>
-      <c r="X31" s="54"/>
-      <c r="Y31" s="54"/>
-      <c r="Z31" s="54"/>
-      <c r="AA31" s="54"/>
-      <c r="AB31" s="54"/>
-      <c r="AC31" s="54"/>
-      <c r="AD31" s="54"/>
-      <c r="AE31" s="54"/>
-      <c r="AF31" s="54"/>
-      <c r="AG31" s="54"/>
-      <c r="AH31" s="54"/>
-      <c r="AI31" s="54"/>
-      <c r="AJ31" s="54"/>
-      <c r="AK31" s="54"/>
-      <c r="AL31" s="54"/>
-      <c r="AM31" s="54"/>
-      <c r="AN31" s="54"/>
-      <c r="AO31" s="54"/>
-      <c r="AP31" s="54"/>
-      <c r="AQ31" s="54"/>
-      <c r="AR31" s="54"/>
-      <c r="AS31" s="54"/>
-      <c r="AT31" s="54"/>
-      <c r="AU31" s="54"/>
-      <c r="AV31" s="54"/>
-      <c r="AW31" s="54"/>
-      <c r="AX31" s="55"/>
+      <c r="C31" s="56"/>
+      <c r="D31" s="56"/>
+      <c r="E31" s="56"/>
+      <c r="F31" s="56"/>
+      <c r="G31" s="56"/>
+      <c r="H31" s="56"/>
+      <c r="I31" s="56"/>
+      <c r="J31" s="56"/>
+      <c r="K31" s="56"/>
+      <c r="L31" s="56"/>
+      <c r="M31" s="56"/>
+      <c r="N31" s="56"/>
+      <c r="O31" s="56"/>
+      <c r="P31" s="56"/>
+      <c r="Q31" s="56"/>
+      <c r="R31" s="56"/>
+      <c r="S31" s="56"/>
+      <c r="T31" s="56"/>
+      <c r="U31" s="56"/>
+      <c r="V31" s="56"/>
+      <c r="W31" s="56"/>
+      <c r="X31" s="56"/>
+      <c r="Y31" s="56"/>
+      <c r="Z31" s="56"/>
+      <c r="AA31" s="56"/>
+      <c r="AB31" s="56"/>
+      <c r="AC31" s="56"/>
+      <c r="AD31" s="56"/>
+      <c r="AE31" s="56"/>
+      <c r="AF31" s="56"/>
+      <c r="AG31" s="56"/>
+      <c r="AH31" s="56"/>
+      <c r="AI31" s="56"/>
+      <c r="AJ31" s="56"/>
+      <c r="AK31" s="56"/>
+      <c r="AL31" s="56"/>
+      <c r="AM31" s="56"/>
+      <c r="AN31" s="56"/>
+      <c r="AO31" s="56"/>
+      <c r="AP31" s="56"/>
+      <c r="AQ31" s="56"/>
+      <c r="AR31" s="56"/>
+      <c r="AS31" s="56"/>
+      <c r="AT31" s="56"/>
+      <c r="AU31" s="56"/>
+      <c r="AV31" s="56"/>
+      <c r="AW31" s="56"/>
+      <c r="AX31" s="57"/>
       <c r="AY31" s="14"/>
       <c r="AZ31" s="14"/>
       <c r="BA31" s="14"/>
@@ -3383,22 +3353,22 @@
     <row r="32" spans="1:74" ht="110.5" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A32" s="27"/>
       <c r="B32" s="14" t="s">
+        <v>11</v>
+      </c>
+      <c r="C32" s="14" t="s">
+        <v>411</v>
+      </c>
+      <c r="D32" s="14" t="s">
         <v>37</v>
       </c>
-      <c r="C32" s="14" t="s">
+      <c r="E32" s="14" t="s">
+        <v>37</v>
+      </c>
+      <c r="F32" s="14" t="s">
         <v>38</v>
       </c>
-      <c r="D32" s="14" t="s">
+      <c r="G32" s="14" t="s">
         <v>39</v>
-      </c>
-      <c r="E32" s="14" t="s">
-        <v>39</v>
-      </c>
-      <c r="F32" s="14" t="s">
-        <v>40</v>
-      </c>
-      <c r="G32" s="14" t="s">
-        <v>41</v>
       </c>
       <c r="H32" s="14" t="s">
         <v>13</v>
@@ -3407,199 +3377,199 @@
         <v>14</v>
       </c>
       <c r="J32" s="14" t="s">
-        <v>227</v>
+        <v>225</v>
       </c>
       <c r="K32" s="14" t="s">
-        <v>228</v>
+        <v>226</v>
       </c>
       <c r="L32" s="14" t="s">
-        <v>307</v>
+        <v>305</v>
       </c>
       <c r="M32" s="14" t="s">
-        <v>308</v>
+        <v>306</v>
       </c>
       <c r="N32" s="14" t="s">
+        <v>40</v>
+      </c>
+      <c r="O32" s="14" t="s">
+        <v>41</v>
+      </c>
+      <c r="P32" s="14" t="s">
         <v>42</v>
       </c>
-      <c r="O32" s="14" t="s">
+      <c r="Q32" s="14" t="s">
         <v>43</v>
       </c>
-      <c r="P32" s="14" t="s">
+      <c r="R32" s="14" t="s">
         <v>44</v>
       </c>
-      <c r="Q32" s="14" t="s">
+      <c r="S32" s="14" t="s">
         <v>45</v>
       </c>
-      <c r="R32" s="14" t="s">
+      <c r="T32" s="14" t="s">
         <v>46</v>
       </c>
-      <c r="S32" s="14" t="s">
+      <c r="U32" s="14" t="s">
         <v>47</v>
       </c>
-      <c r="T32" s="14" t="s">
+      <c r="V32" s="14" t="s">
         <v>48</v>
       </c>
-      <c r="U32" s="14" t="s">
+      <c r="W32" s="14" t="s">
         <v>49</v>
       </c>
-      <c r="V32" s="14" t="s">
+      <c r="X32" s="14" t="s">
         <v>50</v>
       </c>
-      <c r="W32" s="14" t="s">
+      <c r="Y32" s="14" t="s">
         <v>51</v>
       </c>
-      <c r="X32" s="14" t="s">
+      <c r="Z32" s="14" t="s">
         <v>52</v>
       </c>
-      <c r="Y32" s="14" t="s">
+      <c r="AA32" s="14" t="s">
+        <v>52</v>
+      </c>
+      <c r="AB32" s="14" t="s">
         <v>53</v>
       </c>
-      <c r="Z32" s="14" t="s">
+      <c r="AC32" s="14" t="s">
         <v>54</v>
       </c>
-      <c r="AA32" s="14" t="s">
-        <v>54</v>
-      </c>
-      <c r="AB32" s="14" t="s">
+      <c r="AD32" s="14" t="s">
         <v>55</v>
       </c>
-      <c r="AC32" s="14" t="s">
+      <c r="AE32" s="14" t="s">
         <v>56</v>
       </c>
-      <c r="AD32" s="14" t="s">
+      <c r="AF32" s="14" t="s">
         <v>57</v>
       </c>
-      <c r="AE32" s="14" t="s">
+      <c r="AG32" s="14" t="s">
         <v>58</v>
       </c>
-      <c r="AF32" s="14" t="s">
+      <c r="AH32" s="14" t="s">
         <v>59</v>
       </c>
-      <c r="AG32" s="14" t="s">
+      <c r="AI32" s="14" t="s">
         <v>60</v>
       </c>
-      <c r="AH32" s="14" t="s">
+      <c r="AJ32" s="14" t="s">
         <v>61</v>
       </c>
-      <c r="AI32" s="14" t="s">
-        <v>62</v>
-      </c>
-      <c r="AJ32" s="14" t="s">
-        <v>63</v>
-      </c>
       <c r="AK32" s="14" t="s">
-        <v>282</v>
+        <v>280</v>
       </c>
       <c r="AL32" s="14" t="s">
+        <v>136</v>
+      </c>
+      <c r="AM32" s="14" t="s">
+        <v>137</v>
+      </c>
+      <c r="AN32" s="14" t="s">
         <v>138</v>
       </c>
-      <c r="AM32" s="14" t="s">
+      <c r="AO32" s="14" t="s">
         <v>139</v>
       </c>
-      <c r="AN32" s="14" t="s">
+      <c r="AP32" s="14" t="s">
         <v>140</v>
       </c>
-      <c r="AO32" s="14" t="s">
+      <c r="AQ32" s="14" t="s">
         <v>141</v>
       </c>
-      <c r="AP32" s="14" t="s">
+      <c r="AR32" s="14" t="s">
         <v>142</v>
       </c>
-      <c r="AQ32" s="14" t="s">
+      <c r="AS32" s="14" t="s">
         <v>143</v>
       </c>
-      <c r="AR32" s="14" t="s">
+      <c r="AT32" s="14" t="s">
         <v>144</v>
       </c>
-      <c r="AS32" s="14" t="s">
+      <c r="AU32" s="14" t="s">
         <v>145</v>
       </c>
-      <c r="AT32" s="14" t="s">
-        <v>146</v>
-      </c>
-      <c r="AU32" s="14" t="s">
-        <v>147</v>
-      </c>
       <c r="AV32" s="14" t="s">
-        <v>402</v>
+        <v>400</v>
       </c>
       <c r="AW32" s="14" t="s">
-        <v>403</v>
+        <v>401</v>
       </c>
       <c r="AX32" s="14" t="s">
         <v>15</v>
       </c>
       <c r="AY32" s="14" t="s">
+        <v>318</v>
+      </c>
+      <c r="AZ32" s="14" t="s">
+        <v>319</v>
+      </c>
+      <c r="BA32" s="14" t="s">
         <v>320</v>
       </c>
-      <c r="AZ32" s="14" t="s">
+      <c r="BB32" s="16" t="s">
         <v>321</v>
       </c>
-      <c r="BA32" s="14" t="s">
+      <c r="BC32" s="16" t="s">
         <v>322</v>
       </c>
-      <c r="BB32" s="16" t="s">
+      <c r="BD32" s="16" t="s">
         <v>323</v>
       </c>
-      <c r="BC32" s="16" t="s">
+      <c r="BE32" s="16" t="s">
         <v>324</v>
       </c>
-      <c r="BD32" s="16" t="s">
+      <c r="BF32" s="16" t="s">
         <v>325</v>
       </c>
-      <c r="BE32" s="16" t="s">
+      <c r="BG32" s="16" t="s">
         <v>326</v>
       </c>
-      <c r="BF32" s="16" t="s">
+      <c r="BH32" s="16" t="s">
         <v>327</v>
       </c>
-      <c r="BG32" s="16" t="s">
+      <c r="BI32" s="16" t="s">
         <v>328</v>
       </c>
-      <c r="BH32" s="16" t="s">
+      <c r="BJ32" s="16" t="s">
         <v>329</v>
       </c>
-      <c r="BI32" s="16" t="s">
+      <c r="BK32" s="16" t="s">
         <v>330</v>
       </c>
-      <c r="BJ32" s="16" t="s">
+      <c r="BL32" s="16" t="s">
         <v>331</v>
       </c>
-      <c r="BK32" s="16" t="s">
+      <c r="BM32" s="16" t="s">
         <v>332</v>
       </c>
-      <c r="BL32" s="16" t="s">
+      <c r="BN32" s="16" t="s">
         <v>333</v>
       </c>
-      <c r="BM32" s="16" t="s">
+      <c r="BO32" s="16" t="s">
         <v>334</v>
       </c>
-      <c r="BN32" s="16" t="s">
+      <c r="BP32" s="16" t="s">
         <v>335</v>
       </c>
-      <c r="BO32" s="16" t="s">
+      <c r="BQ32" s="16" t="s">
         <v>336</v>
       </c>
-      <c r="BP32" s="16" t="s">
+      <c r="BR32" s="16" t="s">
         <v>337</v>
       </c>
-      <c r="BQ32" s="16" t="s">
+      <c r="BS32" s="16" t="s">
         <v>338</v>
       </c>
-      <c r="BR32" s="16" t="s">
+      <c r="BT32" s="16" t="s">
         <v>339</v>
       </c>
-      <c r="BS32" s="16" t="s">
+      <c r="BU32" s="16" t="s">
         <v>340</v>
       </c>
-      <c r="BT32" s="16" t="s">
+      <c r="BV32" s="16" t="s">
         <v>341</v>
-      </c>
-      <c r="BU32" s="16" t="s">
-        <v>342</v>
-      </c>
-      <c r="BV32" s="16" t="s">
-        <v>343</v>
       </c>
     </row>
     <row r="33" spans="1:74" ht="20.5" thickBot="1" x14ac:dyDescent="0.4">
@@ -3607,28 +3577,28 @@
         <v>7</v>
       </c>
       <c r="B33" s="17" t="s">
+        <v>62</v>
+      </c>
+      <c r="C33" s="17" t="s">
+        <v>62</v>
+      </c>
+      <c r="D33" s="17" t="s">
+        <v>63</v>
+      </c>
+      <c r="E33" s="17" t="s">
+        <v>63</v>
+      </c>
+      <c r="F33" s="17" t="s">
         <v>64</v>
       </c>
-      <c r="C33" s="17" t="s">
+      <c r="G33" s="17" t="s">
         <v>64</v>
       </c>
-      <c r="D33" s="17" t="s">
+      <c r="H33" s="17" t="s">
         <v>65</v>
       </c>
-      <c r="E33" s="17" t="s">
+      <c r="I33" s="17" t="s">
         <v>65</v>
-      </c>
-      <c r="F33" s="17" t="s">
-        <v>66</v>
-      </c>
-      <c r="G33" s="17" t="s">
-        <v>66</v>
-      </c>
-      <c r="H33" s="17" t="s">
-        <v>67</v>
-      </c>
-      <c r="I33" s="17" t="s">
-        <v>67</v>
       </c>
       <c r="J33" s="17" t="s">
         <v>19</v>
@@ -3637,112 +3607,112 @@
         <v>19</v>
       </c>
       <c r="L33" s="17" t="s">
+        <v>66</v>
+      </c>
+      <c r="M33" s="17" t="s">
+        <v>67</v>
+      </c>
+      <c r="N33" s="17" t="s">
         <v>68</v>
       </c>
-      <c r="M33" s="17" t="s">
+      <c r="O33" s="17" t="s">
+        <v>68</v>
+      </c>
+      <c r="P33" s="17" t="s">
         <v>69</v>
       </c>
-      <c r="N33" s="17" t="s">
+      <c r="Q33" s="17" t="s">
+        <v>69</v>
+      </c>
+      <c r="R33" s="17" t="s">
         <v>70</v>
       </c>
-      <c r="O33" s="17" t="s">
+      <c r="S33" s="17" t="s">
         <v>70</v>
       </c>
-      <c r="P33" s="17" t="s">
+      <c r="T33" s="17" t="s">
         <v>71</v>
       </c>
-      <c r="Q33" s="17" t="s">
+      <c r="U33" s="17" t="s">
         <v>71</v>
       </c>
-      <c r="R33" s="17" t="s">
+      <c r="V33" s="17" t="s">
         <v>72</v>
       </c>
-      <c r="S33" s="17" t="s">
+      <c r="W33" s="17" t="s">
         <v>72</v>
       </c>
-      <c r="T33" s="17" t="s">
+      <c r="X33" s="17" t="s">
         <v>73</v>
       </c>
-      <c r="U33" s="17" t="s">
+      <c r="Y33" s="17" t="s">
         <v>73</v>
       </c>
-      <c r="V33" s="17" t="s">
+      <c r="Z33" s="17" t="s">
         <v>74</v>
       </c>
-      <c r="W33" s="17" t="s">
+      <c r="AA33" s="17" t="s">
         <v>74</v>
       </c>
-      <c r="X33" s="17" t="s">
+      <c r="AB33" s="17" t="s">
         <v>75</v>
       </c>
-      <c r="Y33" s="17" t="s">
+      <c r="AC33" s="17" t="s">
         <v>75</v>
       </c>
-      <c r="Z33" s="17" t="s">
+      <c r="AD33" s="17" t="s">
         <v>76</v>
       </c>
-      <c r="AA33" s="17" t="s">
+      <c r="AE33" s="17" t="s">
         <v>76</v>
       </c>
-      <c r="AB33" s="17" t="s">
+      <c r="AF33" s="17" t="s">
         <v>77</v>
       </c>
-      <c r="AC33" s="17" t="s">
+      <c r="AG33" s="17" t="s">
         <v>77</v>
       </c>
-      <c r="AD33" s="17" t="s">
+      <c r="AH33" s="17" t="s">
         <v>78</v>
       </c>
-      <c r="AE33" s="17" t="s">
+      <c r="AI33" s="17" t="s">
         <v>78</v>
       </c>
-      <c r="AF33" s="17" t="s">
+      <c r="AJ33" s="17" t="s">
         <v>79</v>
       </c>
-      <c r="AG33" s="17" t="s">
+      <c r="AK33" s="17" t="s">
         <v>79</v>
       </c>
-      <c r="AH33" s="17" t="s">
-        <v>80</v>
-      </c>
-      <c r="AI33" s="17" t="s">
-        <v>80</v>
-      </c>
-      <c r="AJ33" s="17" t="s">
-        <v>81</v>
-      </c>
-      <c r="AK33" s="17" t="s">
-        <v>81</v>
-      </c>
       <c r="AL33" s="17" t="s">
+        <v>146</v>
+      </c>
+      <c r="AM33" s="17" t="s">
+        <v>146</v>
+      </c>
+      <c r="AN33" s="17" t="s">
+        <v>147</v>
+      </c>
+      <c r="AO33" s="17" t="s">
+        <v>147</v>
+      </c>
+      <c r="AP33" s="17" t="s">
         <v>148</v>
       </c>
-      <c r="AM33" s="17" t="s">
+      <c r="AQ33" s="17" t="s">
         <v>148</v>
       </c>
-      <c r="AN33" s="17" t="s">
+      <c r="AR33" s="17" t="s">
         <v>149</v>
       </c>
-      <c r="AO33" s="17" t="s">
+      <c r="AS33" s="17" t="s">
         <v>149</v>
       </c>
-      <c r="AP33" s="17" t="s">
+      <c r="AT33" s="17" t="s">
         <v>150</v>
       </c>
-      <c r="AQ33" s="17" t="s">
+      <c r="AU33" s="17" t="s">
         <v>150</v>
-      </c>
-      <c r="AR33" s="17" t="s">
-        <v>151</v>
-      </c>
-      <c r="AS33" s="17" t="s">
-        <v>151</v>
-      </c>
-      <c r="AT33" s="17" t="s">
-        <v>152</v>
-      </c>
-      <c r="AU33" s="17" t="s">
-        <v>152</v>
       </c>
       <c r="AV33" s="17" t="s">
         <v>17</v>
@@ -3751,7 +3721,7 @@
         <v>17</v>
       </c>
       <c r="AX33" s="17" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="AY33" s="17" t="s">
         <v>21</v>
@@ -3828,10 +3798,10 @@
     </row>
     <row r="34" spans="1:74" ht="10.5" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A34" s="27" t="s">
-        <v>83</v>
-      </c>
-      <c r="B34" s="14">
-        <v>10</v>
+        <v>81</v>
+      </c>
+      <c r="B34" s="14" t="s">
+        <v>23</v>
       </c>
       <c r="C34" s="14"/>
       <c r="D34" s="14"/>
@@ -3881,10 +3851,10 @@
       <c r="AV34" s="14"/>
       <c r="AW34" s="14"/>
       <c r="AX34" s="14" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="AY34" s="14" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="AZ34" s="14"/>
       <c r="BA34" s="14"/>
@@ -3907,11 +3877,11 @@
     </row>
     <row r="35" spans="1:74" ht="20.5" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A35" s="27" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="B35" s="14"/>
-      <c r="C35" s="14">
-        <v>0</v>
+      <c r="C35" s="14" t="s">
+        <v>23</v>
       </c>
       <c r="D35" s="14"/>
       <c r="E35" s="14"/>
@@ -3960,10 +3930,10 @@
       <c r="AV35" s="14"/>
       <c r="AW35" s="14"/>
       <c r="AX35" s="14" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="AY35" s="14" t="s">
-        <v>359</v>
+        <v>357</v>
       </c>
       <c r="AZ35" s="14"/>
       <c r="BA35" s="14"/>
@@ -3986,12 +3956,12 @@
     </row>
     <row r="36" spans="1:74" ht="10.5" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A36" s="27" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="B36" s="14"/>
       <c r="C36" s="14"/>
       <c r="D36" s="14" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="E36" s="15"/>
       <c r="F36" s="14"/>
@@ -4039,11 +4009,11 @@
       <c r="AV36" s="14"/>
       <c r="AW36" s="14"/>
       <c r="AX36" s="14" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="AY36" s="14"/>
       <c r="AZ36" s="14" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="BA36" s="14"/>
       <c r="BB36" s="15"/>
@@ -4065,13 +4035,13 @@
     </row>
     <row r="37" spans="1:74" ht="20.5" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A37" s="27" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="B37" s="14"/>
       <c r="C37" s="14"/>
       <c r="D37" s="15"/>
       <c r="E37" s="15" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="F37" s="14"/>
       <c r="G37" s="14"/>
@@ -4118,11 +4088,11 @@
       <c r="AV37" s="14"/>
       <c r="AW37" s="14"/>
       <c r="AX37" s="14" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="AY37" s="14"/>
       <c r="AZ37" s="14" t="s">
-        <v>359</v>
+        <v>357</v>
       </c>
       <c r="BA37" s="14"/>
       <c r="BB37" s="15"/>
@@ -4144,7 +4114,7 @@
     </row>
     <row r="38" spans="1:74" ht="10.5" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A38" s="27" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="B38" s="14"/>
       <c r="C38" s="14"/>
@@ -4197,12 +4167,12 @@
       <c r="AV38" s="14"/>
       <c r="AW38" s="14"/>
       <c r="AX38" s="14" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="AY38" s="14"/>
       <c r="AZ38" s="14"/>
       <c r="BA38" s="14" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="BB38" s="15"/>
       <c r="BC38" s="15"/>
@@ -4223,7 +4193,7 @@
     </row>
     <row r="39" spans="1:74" ht="20.5" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A39" s="27" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="B39" s="14"/>
       <c r="C39" s="14"/>
@@ -4276,12 +4246,12 @@
       <c r="AV39" s="14"/>
       <c r="AW39" s="14"/>
       <c r="AX39" s="14" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="AY39" s="14"/>
       <c r="AZ39" s="14"/>
       <c r="BA39" s="14" t="s">
-        <v>359</v>
+        <v>357</v>
       </c>
       <c r="BB39" s="15"/>
       <c r="BC39" s="15"/>
@@ -4302,7 +4272,7 @@
     </row>
     <row r="40" spans="1:74" ht="10.5" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A40" s="29" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="B40" s="14"/>
       <c r="C40" s="15"/>
@@ -4355,13 +4325,13 @@
       <c r="AV40" s="15"/>
       <c r="AW40" s="15"/>
       <c r="AX40" s="14" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="AY40" s="15"/>
       <c r="AZ40" s="15"/>
       <c r="BA40" s="15"/>
       <c r="BB40" s="15" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="BC40" s="15"/>
       <c r="BD40" s="15"/>
@@ -4381,7 +4351,7 @@
     </row>
     <row r="41" spans="1:74" ht="10.5" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A41" s="29" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="B41" s="15"/>
       <c r="C41" s="15"/>
@@ -4434,13 +4404,13 @@
       <c r="AV41" s="15"/>
       <c r="AW41" s="15"/>
       <c r="AX41" s="14" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="AY41" s="15"/>
       <c r="AZ41" s="15"/>
       <c r="BA41" s="15"/>
       <c r="BB41" s="15" t="s">
-        <v>359</v>
+        <v>357</v>
       </c>
       <c r="BC41" s="15"/>
       <c r="BD41" s="15"/>
@@ -4460,7 +4430,7 @@
     </row>
     <row r="42" spans="1:74" ht="10.5" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A42" s="29" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="B42" s="15"/>
       <c r="C42" s="15"/>
@@ -4513,14 +4483,14 @@
       <c r="AV42" s="15"/>
       <c r="AW42" s="15"/>
       <c r="AX42" s="14" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="AY42" s="15"/>
       <c r="AZ42" s="15"/>
       <c r="BA42" s="15"/>
       <c r="BB42" s="15"/>
       <c r="BC42" s="15" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="BD42" s="15"/>
       <c r="BE42" s="15"/>
@@ -4539,7 +4509,7 @@
     </row>
     <row r="43" spans="1:74" ht="10.5" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A43" s="29" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="B43" s="15"/>
       <c r="C43" s="15"/>
@@ -4592,14 +4562,14 @@
       <c r="AV43" s="15"/>
       <c r="AW43" s="15"/>
       <c r="AX43" s="14" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="AY43" s="15"/>
       <c r="AZ43" s="15"/>
       <c r="BA43" s="15"/>
       <c r="BB43" s="15"/>
       <c r="BC43" s="15" t="s">
-        <v>359</v>
+        <v>357</v>
       </c>
       <c r="BD43" s="15"/>
       <c r="BE43" s="15"/>
@@ -4618,7 +4588,7 @@
     </row>
     <row r="44" spans="1:74" ht="10.5" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A44" s="29" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="B44" s="15"/>
       <c r="C44" s="15"/>
@@ -4671,7 +4641,7 @@
       <c r="AV44" s="15"/>
       <c r="AW44" s="15"/>
       <c r="AX44" s="14" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="AY44" s="15"/>
       <c r="AZ44" s="15"/>
@@ -4679,7 +4649,7 @@
       <c r="BB44" s="15"/>
       <c r="BC44" s="15"/>
       <c r="BD44" s="16" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="BE44" s="15"/>
       <c r="BF44" s="15"/>
@@ -4697,7 +4667,7 @@
     </row>
     <row r="45" spans="1:74" ht="20.5" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A45" s="29" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="B45" s="15"/>
       <c r="C45" s="15"/>
@@ -4750,7 +4720,7 @@
       <c r="AV45" s="15"/>
       <c r="AW45" s="15"/>
       <c r="AX45" s="14" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="AY45" s="15"/>
       <c r="AZ45" s="15"/>
@@ -4758,7 +4728,7 @@
       <c r="BB45" s="15"/>
       <c r="BC45" s="15"/>
       <c r="BD45" s="16" t="s">
-        <v>359</v>
+        <v>357</v>
       </c>
       <c r="BE45" s="15"/>
       <c r="BF45" s="15"/>
@@ -4776,7 +4746,7 @@
     </row>
     <row r="46" spans="1:74" ht="10.5" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A46" s="29" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="B46" s="15"/>
       <c r="C46" s="15"/>
@@ -4829,7 +4799,7 @@
       <c r="AV46" s="15"/>
       <c r="AW46" s="15"/>
       <c r="AX46" s="14" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="AY46" s="15"/>
       <c r="AZ46" s="15"/>
@@ -4838,7 +4808,7 @@
       <c r="BC46" s="15"/>
       <c r="BD46" s="15"/>
       <c r="BE46" s="15" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="BF46" s="15"/>
       <c r="BG46" s="15"/>
@@ -4855,7 +4825,7 @@
     </row>
     <row r="47" spans="1:74" ht="10.5" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A47" s="29" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="B47" s="15"/>
       <c r="C47" s="15"/>
@@ -4908,7 +4878,7 @@
       <c r="AV47" s="15"/>
       <c r="AW47" s="15"/>
       <c r="AX47" s="14" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="AY47" s="15"/>
       <c r="AZ47" s="15"/>
@@ -4917,7 +4887,7 @@
       <c r="BC47" s="15"/>
       <c r="BD47" s="15"/>
       <c r="BE47" s="15" t="s">
-        <v>359</v>
+        <v>357</v>
       </c>
       <c r="BF47" s="15"/>
       <c r="BG47" s="15"/>
@@ -4934,7 +4904,7 @@
     </row>
     <row r="48" spans="1:74" ht="10.5" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A48" s="29" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="B48" s="15"/>
       <c r="C48" s="15"/>
@@ -4951,7 +4921,7 @@
       <c r="N48" s="15"/>
       <c r="O48" s="15"/>
       <c r="P48" s="15" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="Q48" s="15"/>
       <c r="R48" s="15"/>
@@ -4987,7 +4957,7 @@
       <c r="AV48" s="15"/>
       <c r="AW48" s="15"/>
       <c r="AX48" s="14" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="AY48" s="15"/>
       <c r="AZ48" s="15"/>
@@ -4997,7 +4967,7 @@
       <c r="BD48" s="15"/>
       <c r="BE48" s="15"/>
       <c r="BF48" s="15" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="BG48" s="15"/>
       <c r="BH48" s="15"/>
@@ -5013,7 +4983,7 @@
     </row>
     <row r="49" spans="1:69" ht="10.5" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A49" s="29" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="B49" s="15"/>
       <c r="C49" s="15"/>
@@ -5031,7 +5001,7 @@
       <c r="O49" s="15"/>
       <c r="P49" s="15"/>
       <c r="Q49" s="15" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="R49" s="15"/>
       <c r="S49" s="15"/>
@@ -5066,7 +5036,7 @@
       <c r="AV49" s="15"/>
       <c r="AW49" s="15"/>
       <c r="AX49" s="14" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="AY49" s="15"/>
       <c r="AZ49" s="15"/>
@@ -5076,7 +5046,7 @@
       <c r="BD49" s="15"/>
       <c r="BE49" s="15"/>
       <c r="BF49" s="15" t="s">
-        <v>359</v>
+        <v>357</v>
       </c>
       <c r="BG49" s="15"/>
       <c r="BH49" s="15"/>
@@ -5092,7 +5062,7 @@
     </row>
     <row r="50" spans="1:69" ht="10.5" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A50" s="29" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="B50" s="15"/>
       <c r="C50" s="15"/>
@@ -5111,7 +5081,7 @@
       <c r="P50" s="15"/>
       <c r="Q50" s="15"/>
       <c r="R50" s="15" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
       <c r="S50" s="15"/>
       <c r="T50" s="15"/>
@@ -5145,7 +5115,7 @@
       <c r="AV50" s="15"/>
       <c r="AW50" s="15"/>
       <c r="AX50" s="14" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="AY50" s="15"/>
       <c r="AZ50" s="15"/>
@@ -5156,7 +5126,7 @@
       <c r="BE50" s="15"/>
       <c r="BF50" s="15"/>
       <c r="BG50" s="15" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="BH50" s="15"/>
       <c r="BI50" s="15"/>
@@ -5171,7 +5141,7 @@
     </row>
     <row r="51" spans="1:69" ht="10.5" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A51" s="29" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="B51" s="15"/>
       <c r="C51" s="15"/>
@@ -5191,7 +5161,7 @@
       <c r="Q51" s="15"/>
       <c r="R51" s="15"/>
       <c r="S51" s="15" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
       <c r="T51" s="15"/>
       <c r="U51" s="15"/>
@@ -5224,7 +5194,7 @@
       <c r="AV51" s="15"/>
       <c r="AW51" s="15"/>
       <c r="AX51" s="14" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="AY51" s="15"/>
       <c r="AZ51" s="15"/>
@@ -5235,7 +5205,7 @@
       <c r="BE51" s="15"/>
       <c r="BF51" s="15"/>
       <c r="BG51" s="15" t="s">
-        <v>359</v>
+        <v>357</v>
       </c>
       <c r="BH51" s="15"/>
       <c r="BI51" s="15"/>
@@ -5250,7 +5220,7 @@
     </row>
     <row r="52" spans="1:69" ht="10.5" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A52" s="29" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c r="B52" s="15"/>
       <c r="C52" s="15"/>
@@ -5271,7 +5241,7 @@
       <c r="R52" s="15"/>
       <c r="S52" s="15"/>
       <c r="T52" s="15" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="U52" s="15"/>
       <c r="V52" s="15"/>
@@ -5303,7 +5273,7 @@
       <c r="AV52" s="15"/>
       <c r="AW52" s="15"/>
       <c r="AX52" s="14" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="AY52" s="15"/>
       <c r="AZ52" s="15"/>
@@ -5315,7 +5285,7 @@
       <c r="BF52" s="15"/>
       <c r="BG52" s="15"/>
       <c r="BH52" s="15" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="BI52" s="15"/>
       <c r="BJ52" s="15"/>
@@ -5329,7 +5299,7 @@
     </row>
     <row r="53" spans="1:69" ht="10.5" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A53" s="29" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
       <c r="B53" s="15"/>
       <c r="C53" s="15"/>
@@ -5351,7 +5321,7 @@
       <c r="S53" s="15"/>
       <c r="T53" s="15"/>
       <c r="U53" s="15" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="V53" s="15"/>
       <c r="W53" s="15"/>
@@ -5382,7 +5352,7 @@
       <c r="AV53" s="15"/>
       <c r="AW53" s="15"/>
       <c r="AX53" s="14" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="AY53" s="15"/>
       <c r="AZ53" s="15"/>
@@ -5394,7 +5364,7 @@
       <c r="BF53" s="15"/>
       <c r="BG53" s="15"/>
       <c r="BH53" s="15" t="s">
-        <v>359</v>
+        <v>357</v>
       </c>
       <c r="BI53" s="15"/>
       <c r="BJ53" s="15"/>
@@ -5408,7 +5378,7 @@
     </row>
     <row r="54" spans="1:69" ht="10.5" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A54" s="29" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="B54" s="15"/>
       <c r="C54" s="15"/>
@@ -5431,7 +5401,7 @@
       <c r="T54" s="15"/>
       <c r="U54" s="15"/>
       <c r="V54" s="15" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="W54" s="15"/>
       <c r="X54" s="15"/>
@@ -5461,7 +5431,7 @@
       <c r="AV54" s="15"/>
       <c r="AW54" s="15"/>
       <c r="AX54" s="14" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="AY54" s="15"/>
       <c r="AZ54" s="15"/>
@@ -5474,7 +5444,7 @@
       <c r="BG54" s="15"/>
       <c r="BH54" s="15"/>
       <c r="BI54" s="15" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="BJ54" s="15"/>
       <c r="BK54" s="15"/>
@@ -5487,7 +5457,7 @@
     </row>
     <row r="55" spans="1:69" ht="20.5" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A55" s="29" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="B55" s="15"/>
       <c r="C55" s="15"/>
@@ -5511,7 +5481,7 @@
       <c r="U55" s="15"/>
       <c r="V55" s="15"/>
       <c r="W55" s="15" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="X55" s="15"/>
       <c r="Y55" s="15"/>
@@ -5540,7 +5510,7 @@
       <c r="AV55" s="15"/>
       <c r="AW55" s="15"/>
       <c r="AX55" s="14" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="AY55" s="15"/>
       <c r="AZ55" s="15"/>
@@ -5553,7 +5523,7 @@
       <c r="BG55" s="15"/>
       <c r="BH55" s="15"/>
       <c r="BI55" s="16" t="s">
-        <v>359</v>
+        <v>357</v>
       </c>
       <c r="BJ55" s="15"/>
       <c r="BK55" s="15"/>
@@ -5566,7 +5536,7 @@
     </row>
     <row r="56" spans="1:69" ht="10.5" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A56" s="29" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="B56" s="15"/>
       <c r="C56" s="15"/>
@@ -5591,7 +5561,7 @@
       <c r="V56" s="15"/>
       <c r="W56" s="15"/>
       <c r="X56" s="15" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="Y56" s="15"/>
       <c r="Z56" s="15"/>
@@ -5619,7 +5589,7 @@
       <c r="AV56" s="15"/>
       <c r="AW56" s="15"/>
       <c r="AX56" s="14" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="AY56" s="15"/>
       <c r="AZ56" s="15"/>
@@ -5633,7 +5603,7 @@
       <c r="BH56" s="15"/>
       <c r="BI56" s="15"/>
       <c r="BJ56" s="15" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="BK56" s="15"/>
       <c r="BL56" s="15"/>
@@ -5645,7 +5615,7 @@
     </row>
     <row r="57" spans="1:69" ht="10.5" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A57" s="29" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
       <c r="B57" s="15"/>
       <c r="C57" s="15"/>
@@ -5671,7 +5641,7 @@
       <c r="W57" s="15"/>
       <c r="X57" s="15"/>
       <c r="Y57" s="15" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="Z57" s="15"/>
       <c r="AA57" s="15"/>
@@ -5698,7 +5668,7 @@
       <c r="AV57" s="15"/>
       <c r="AW57" s="15"/>
       <c r="AX57" s="14" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="AY57" s="15"/>
       <c r="AZ57" s="15"/>
@@ -5712,7 +5682,7 @@
       <c r="BH57" s="15"/>
       <c r="BI57" s="15"/>
       <c r="BJ57" s="15" t="s">
-        <v>359</v>
+        <v>357</v>
       </c>
       <c r="BK57" s="15"/>
       <c r="BL57" s="15"/>
@@ -5724,7 +5694,7 @@
     </row>
     <row r="58" spans="1:69" ht="10.5" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A58" s="29" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
       <c r="B58" s="15"/>
       <c r="C58" s="15"/>
@@ -5778,7 +5748,7 @@
       <c r="AV58" s="15"/>
       <c r="AW58" s="15"/>
       <c r="AX58" s="14" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="AY58" s="15"/>
       <c r="AZ58" s="15"/>
@@ -5793,7 +5763,7 @@
       <c r="BI58" s="15"/>
       <c r="BJ58" s="15"/>
       <c r="BK58" s="16" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="BL58" s="15"/>
       <c r="BM58" s="15"/>
@@ -5804,7 +5774,7 @@
     </row>
     <row r="59" spans="1:69" ht="20.5" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A59" s="29" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="B59" s="15"/>
       <c r="C59" s="15"/>
@@ -5858,7 +5828,7 @@
       <c r="AV59" s="15"/>
       <c r="AW59" s="15"/>
       <c r="AX59" s="14" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="AY59" s="15"/>
       <c r="AZ59" s="15"/>
@@ -5873,7 +5843,7 @@
       <c r="BI59" s="15"/>
       <c r="BJ59" s="15"/>
       <c r="BK59" s="16" t="s">
-        <v>359</v>
+        <v>357</v>
       </c>
       <c r="BL59" s="15"/>
       <c r="BM59" s="15"/>
@@ -5884,7 +5854,7 @@
     </row>
     <row r="60" spans="1:69" ht="10.5" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A60" s="29" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
       <c r="B60" s="15"/>
       <c r="C60" s="15"/>
@@ -5913,7 +5883,7 @@
       <c r="Z60" s="15"/>
       <c r="AA60" s="15"/>
       <c r="AB60" s="15" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="AC60" s="15"/>
       <c r="AD60" s="15"/>
@@ -5937,7 +5907,7 @@
       <c r="AV60" s="15"/>
       <c r="AW60" s="15"/>
       <c r="AX60" s="14" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="AY60" s="15"/>
       <c r="AZ60" s="15"/>
@@ -5953,7 +5923,7 @@
       <c r="BJ60" s="15"/>
       <c r="BK60" s="15"/>
       <c r="BL60" s="16" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="BM60" s="15"/>
       <c r="BN60" s="15"/>
@@ -5963,7 +5933,7 @@
     </row>
     <row r="61" spans="1:69" ht="20.5" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A61" s="29" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
       <c r="B61" s="15"/>
       <c r="C61" s="15"/>
@@ -5993,7 +5963,7 @@
       <c r="AA61" s="15"/>
       <c r="AB61" s="15"/>
       <c r="AC61" s="15" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="AD61" s="15"/>
       <c r="AE61" s="15"/>
@@ -6016,7 +5986,7 @@
       <c r="AV61" s="15"/>
       <c r="AW61" s="15"/>
       <c r="AX61" s="14" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="AY61" s="15"/>
       <c r="AZ61" s="15"/>
@@ -6032,7 +6002,7 @@
       <c r="BJ61" s="15"/>
       <c r="BK61" s="15"/>
       <c r="BL61" s="16" t="s">
-        <v>359</v>
+        <v>357</v>
       </c>
       <c r="BM61" s="15"/>
       <c r="BN61" s="15"/>
@@ -6042,7 +6012,7 @@
     </row>
     <row r="62" spans="1:69" ht="10.5" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A62" s="29" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
       <c r="B62" s="15"/>
       <c r="C62" s="15"/>
@@ -6073,7 +6043,7 @@
       <c r="AB62" s="15"/>
       <c r="AC62" s="15"/>
       <c r="AD62" s="15" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="AE62" s="15"/>
       <c r="AF62" s="15"/>
@@ -6095,7 +6065,7 @@
       <c r="AV62" s="15"/>
       <c r="AW62" s="15"/>
       <c r="AX62" s="14" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="AY62" s="15"/>
       <c r="AZ62" s="15"/>
@@ -6112,7 +6082,7 @@
       <c r="BK62" s="15"/>
       <c r="BL62" s="15"/>
       <c r="BM62" s="15" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="BN62" s="15"/>
       <c r="BO62" s="15"/>
@@ -6121,7 +6091,7 @@
     </row>
     <row r="63" spans="1:69" ht="20.5" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A63" s="29" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
       <c r="B63" s="15"/>
       <c r="C63" s="15"/>
@@ -6153,7 +6123,7 @@
       <c r="AC63" s="15"/>
       <c r="AD63" s="15"/>
       <c r="AE63" s="15" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="AF63" s="15"/>
       <c r="AG63" s="15"/>
@@ -6174,7 +6144,7 @@
       <c r="AV63" s="15"/>
       <c r="AW63" s="15"/>
       <c r="AX63" s="14" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="AY63" s="15"/>
       <c r="AZ63" s="15"/>
@@ -6191,7 +6161,7 @@
       <c r="BK63" s="15"/>
       <c r="BL63" s="15"/>
       <c r="BM63" s="16" t="s">
-        <v>359</v>
+        <v>357</v>
       </c>
       <c r="BN63" s="15"/>
       <c r="BO63" s="15"/>
@@ -6200,7 +6170,7 @@
     </row>
     <row r="64" spans="1:69" ht="10.5" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A64" s="29" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
       <c r="B64" s="15"/>
       <c r="C64" s="15"/>
@@ -6253,7 +6223,7 @@
       <c r="AV64" s="15"/>
       <c r="AW64" s="15"/>
       <c r="AX64" s="14" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="AY64" s="15"/>
       <c r="AZ64" s="15"/>
@@ -6271,7 +6241,7 @@
       <c r="BL64" s="15"/>
       <c r="BM64" s="15"/>
       <c r="BN64" s="16" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="BO64" s="15"/>
       <c r="BP64" s="15"/>
@@ -6279,7 +6249,7 @@
     </row>
     <row r="65" spans="1:75" ht="20.5" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A65" s="29" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
       <c r="B65" s="15"/>
       <c r="C65" s="15"/>
@@ -6332,7 +6302,7 @@
       <c r="AV65" s="15"/>
       <c r="AW65" s="15"/>
       <c r="AX65" s="14" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="AY65" s="15"/>
       <c r="AZ65" s="15"/>
@@ -6350,7 +6320,7 @@
       <c r="BL65" s="15"/>
       <c r="BM65" s="15"/>
       <c r="BN65" s="16" t="s">
-        <v>359</v>
+        <v>357</v>
       </c>
       <c r="BO65" s="15"/>
       <c r="BP65" s="15"/>
@@ -6358,7 +6328,7 @@
     </row>
     <row r="66" spans="1:75" ht="10.5" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A66" s="29" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
       <c r="B66" s="15"/>
       <c r="C66" s="15"/>
@@ -6411,7 +6381,7 @@
       <c r="AV66" s="15"/>
       <c r="AW66" s="15"/>
       <c r="AX66" s="14" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="AY66" s="15"/>
       <c r="AZ66" s="15"/>
@@ -6430,14 +6400,14 @@
       <c r="BM66" s="15"/>
       <c r="BN66" s="15"/>
       <c r="BO66" s="15" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="BP66" s="15"/>
       <c r="BQ66" s="15"/>
     </row>
     <row r="67" spans="1:75" ht="10.5" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A67" s="29" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
       <c r="B67" s="15"/>
       <c r="C67" s="15"/>
@@ -6490,7 +6460,7 @@
       <c r="AV67" s="15"/>
       <c r="AW67" s="15"/>
       <c r="AX67" s="14" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="AY67" s="15"/>
       <c r="AZ67" s="15"/>
@@ -6509,14 +6479,14 @@
       <c r="BM67" s="15"/>
       <c r="BN67" s="15"/>
       <c r="BO67" s="15" t="s">
-        <v>359</v>
+        <v>357</v>
       </c>
       <c r="BP67" s="15"/>
       <c r="BQ67" s="15"/>
     </row>
     <row r="68" spans="1:75" ht="10.5" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A68" s="29" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="B68" s="15"/>
       <c r="C68" s="15"/>
@@ -6569,7 +6539,7 @@
       <c r="AV68" s="15"/>
       <c r="AW68" s="15"/>
       <c r="AX68" s="14" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="AY68" s="15"/>
       <c r="AZ68" s="15"/>
@@ -6589,13 +6559,13 @@
       <c r="BN68" s="15"/>
       <c r="BO68" s="15"/>
       <c r="BP68" s="15" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="BQ68" s="15"/>
     </row>
     <row r="69" spans="1:75" ht="10.5" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A69" s="29" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
       <c r="B69" s="15"/>
       <c r="C69" s="15"/>
@@ -6648,7 +6618,7 @@
       <c r="AV69" s="15"/>
       <c r="AW69" s="15"/>
       <c r="AX69" s="14" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="AY69" s="15"/>
       <c r="AZ69" s="15"/>
@@ -6668,13 +6638,13 @@
       <c r="BN69" s="15"/>
       <c r="BO69" s="15"/>
       <c r="BP69" s="15" t="s">
-        <v>359</v>
+        <v>357</v>
       </c>
       <c r="BQ69" s="15"/>
     </row>
     <row r="70" spans="1:75" ht="10.5" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A70" s="29" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
       <c r="B70" s="15"/>
       <c r="C70" s="15"/>
@@ -6727,7 +6697,7 @@
       <c r="AV70" s="15"/>
       <c r="AW70" s="15"/>
       <c r="AX70" s="14" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="AY70" s="15"/>
       <c r="AZ70" s="15"/>
@@ -6748,7 +6718,7 @@
       <c r="BO70" s="15"/>
       <c r="BP70" s="15"/>
       <c r="BQ70" s="15" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="BR70" s="15"/>
       <c r="BS70" s="15"/>
@@ -6759,7 +6729,7 @@
     </row>
     <row r="71" spans="1:75" ht="10.5" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A71" s="29" t="s">
-        <v>127</v>
+        <v>125</v>
       </c>
       <c r="B71" s="15"/>
       <c r="C71" s="15"/>
@@ -6812,7 +6782,7 @@
       <c r="AV71" s="15"/>
       <c r="AW71" s="15"/>
       <c r="AX71" s="14" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="AY71" s="15"/>
       <c r="AZ71" s="15"/>
@@ -6833,7 +6803,7 @@
       <c r="BO71" s="15"/>
       <c r="BP71" s="15"/>
       <c r="BQ71" s="15" t="s">
-        <v>359</v>
+        <v>357</v>
       </c>
       <c r="BR71" s="15"/>
       <c r="BS71" s="15"/>
@@ -6844,7 +6814,7 @@
     </row>
     <row r="72" spans="1:75" ht="10.5" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A72" s="29" t="s">
-        <v>128</v>
+        <v>126</v>
       </c>
       <c r="B72" s="15"/>
       <c r="C72" s="15"/>
@@ -6897,7 +6867,7 @@
       <c r="AV72" s="15"/>
       <c r="AW72" s="15"/>
       <c r="AX72" s="14" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="AY72" s="15"/>
       <c r="AZ72" s="15"/>
@@ -6919,7 +6889,7 @@
       <c r="BP72" s="15"/>
       <c r="BQ72" s="15"/>
       <c r="BR72" s="15" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="BS72" s="15"/>
       <c r="BT72" s="15"/>
@@ -6929,7 +6899,7 @@
     </row>
     <row r="73" spans="1:75" ht="10.5" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A73" s="29" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
       <c r="B73" s="15"/>
       <c r="C73" s="15"/>
@@ -6982,7 +6952,7 @@
       <c r="AV73" s="15"/>
       <c r="AW73" s="15"/>
       <c r="AX73" s="14" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="AY73" s="15"/>
       <c r="AZ73" s="15"/>
@@ -7004,7 +6974,7 @@
       <c r="BP73" s="15"/>
       <c r="BQ73" s="15"/>
       <c r="BR73" s="15" t="s">
-        <v>359</v>
+        <v>357</v>
       </c>
       <c r="BS73" s="15"/>
       <c r="BT73" s="15"/>
@@ -7014,7 +6984,7 @@
     </row>
     <row r="74" spans="1:75" ht="10.5" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A74" s="29" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="B74" s="15"/>
       <c r="C74" s="15"/>
@@ -7067,7 +7037,7 @@
       <c r="AV74" s="15"/>
       <c r="AW74" s="15"/>
       <c r="AX74" s="14" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="AY74" s="15"/>
       <c r="AZ74" s="15"/>
@@ -7090,7 +7060,7 @@
       <c r="BQ74" s="15"/>
       <c r="BR74" s="15"/>
       <c r="BS74" s="15" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="BT74" s="15"/>
       <c r="BU74" s="15"/>
@@ -7099,7 +7069,7 @@
     </row>
     <row r="75" spans="1:75" ht="10.5" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A75" s="29" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="B75" s="15"/>
       <c r="C75" s="15"/>
@@ -7152,7 +7122,7 @@
       <c r="AV75" s="15"/>
       <c r="AW75" s="15"/>
       <c r="AX75" s="14" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="AY75" s="15"/>
       <c r="AZ75" s="15"/>
@@ -7175,7 +7145,7 @@
       <c r="BQ75" s="15"/>
       <c r="BR75" s="15"/>
       <c r="BS75" s="15" t="s">
-        <v>359</v>
+        <v>357</v>
       </c>
       <c r="BT75" s="15"/>
       <c r="BU75" s="15"/>
@@ -7184,7 +7154,7 @@
     </row>
     <row r="76" spans="1:75" ht="10.5" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A76" s="29" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
       <c r="B76" s="15"/>
       <c r="C76" s="15"/>
@@ -7237,7 +7207,7 @@
       <c r="AV76" s="15"/>
       <c r="AW76" s="15"/>
       <c r="AX76" s="14" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="AY76" s="15"/>
       <c r="AZ76" s="15"/>
@@ -7261,7 +7231,7 @@
       <c r="BR76" s="15"/>
       <c r="BS76" s="15"/>
       <c r="BT76" s="15" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="BU76" s="15"/>
       <c r="BV76" s="15"/>
@@ -7269,7 +7239,7 @@
     </row>
     <row r="77" spans="1:75" ht="10.5" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A77" s="29" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="B77" s="15"/>
       <c r="C77" s="15"/>
@@ -7322,7 +7292,7 @@
       <c r="AV77" s="15"/>
       <c r="AW77" s="15"/>
       <c r="AX77" s="14" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="AY77" s="15"/>
       <c r="AZ77" s="15"/>
@@ -7346,7 +7316,7 @@
       <c r="BR77" s="15"/>
       <c r="BS77" s="15"/>
       <c r="BT77" s="15" t="s">
-        <v>359</v>
+        <v>357</v>
       </c>
       <c r="BU77" s="15"/>
       <c r="BV77" s="15"/>
@@ -7354,7 +7324,7 @@
     </row>
     <row r="78" spans="1:75" ht="10.5" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A78" s="29" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
       <c r="B78" s="15"/>
       <c r="C78" s="15"/>
@@ -7407,7 +7377,7 @@
       <c r="AV78" s="15"/>
       <c r="AW78" s="15"/>
       <c r="AX78" s="14" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="AY78" s="15"/>
       <c r="AZ78" s="15"/>
@@ -7432,14 +7402,14 @@
       <c r="BS78" s="15"/>
       <c r="BT78" s="15"/>
       <c r="BU78" s="15" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="BV78" s="15"/>
       <c r="BW78" s="15"/>
     </row>
     <row r="79" spans="1:75" ht="10.5" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A79" s="29" t="s">
-        <v>135</v>
+        <v>133</v>
       </c>
       <c r="B79" s="15"/>
       <c r="C79" s="15"/>
@@ -7492,7 +7462,7 @@
       <c r="AV79" s="15"/>
       <c r="AW79" s="15"/>
       <c r="AX79" s="14" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="AY79" s="15"/>
       <c r="AZ79" s="15"/>
@@ -7517,14 +7487,14 @@
       <c r="BS79" s="15"/>
       <c r="BT79" s="15"/>
       <c r="BU79" s="15" t="s">
-        <v>359</v>
+        <v>357</v>
       </c>
       <c r="BV79" s="15"/>
       <c r="BW79" s="15"/>
     </row>
     <row r="80" spans="1:75" ht="90.5" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A80" s="29" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
       <c r="B80" s="15"/>
       <c r="C80" s="15"/>
@@ -7573,11 +7543,11 @@
       <c r="AT80" s="15"/>
       <c r="AU80" s="15"/>
       <c r="AV80" s="16" t="s">
-        <v>401</v>
+        <v>399</v>
       </c>
       <c r="AW80" s="15"/>
       <c r="AX80" s="14" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="AY80" s="15"/>
       <c r="AZ80" s="15"/>
@@ -7603,13 +7573,13 @@
       <c r="BT80" s="15"/>
       <c r="BU80" s="15"/>
       <c r="BV80" s="15" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="BW80" s="15"/>
     </row>
     <row r="81" spans="1:75" ht="90.5" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A81" s="29" t="s">
-        <v>137</v>
+        <v>135</v>
       </c>
       <c r="B81" s="15"/>
       <c r="C81" s="15"/>
@@ -7659,10 +7629,10 @@
       <c r="AU81" s="15"/>
       <c r="AV81" s="15"/>
       <c r="AW81" s="16" t="s">
-        <v>401</v>
+        <v>399</v>
       </c>
       <c r="AX81" s="14" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="AY81" s="15"/>
       <c r="AZ81" s="15"/>
@@ -7688,7 +7658,7 @@
       <c r="BT81" s="15"/>
       <c r="BU81" s="15"/>
       <c r="BV81" s="15" t="s">
-        <v>359</v>
+        <v>357</v>
       </c>
       <c r="BW81" s="15"/>
     </row>
@@ -7771,7 +7741,7 @@
     </row>
     <row r="83" spans="1:75" s="9" customFormat="1" ht="11" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A83" s="34" t="s">
-        <v>317</v>
+        <v>315</v>
       </c>
       <c r="B83" s="35"/>
       <c r="C83" s="35"/>
@@ -8029,41 +7999,41 @@
     </row>
     <row r="85" spans="1:75" ht="10.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A85" s="31"/>
-      <c r="B85" s="43" t="s">
-        <v>153</v>
-      </c>
-      <c r="C85" s="43"/>
-      <c r="D85" s="43"/>
-      <c r="E85" s="43"/>
-      <c r="F85" s="43"/>
-      <c r="G85" s="43"/>
-      <c r="H85" s="43"/>
-      <c r="I85" s="43"/>
-      <c r="J85" s="43"/>
-      <c r="K85" s="43"/>
-      <c r="L85" s="43"/>
-      <c r="M85" s="43"/>
-      <c r="N85" s="43"/>
-      <c r="O85" s="43"/>
-      <c r="P85" s="43"/>
-      <c r="Q85" s="43"/>
-      <c r="R85" s="43"/>
-      <c r="S85" s="43"/>
-      <c r="T85" s="43"/>
-      <c r="U85" s="43"/>
-      <c r="V85" s="43"/>
-      <c r="W85" s="43"/>
-      <c r="X85" s="43"/>
-      <c r="Y85" s="43"/>
-      <c r="Z85" s="43"/>
-      <c r="AA85" s="43"/>
-      <c r="AB85" s="43"/>
-      <c r="AC85" s="43"/>
-      <c r="AD85" s="43"/>
-      <c r="AE85" s="43"/>
-      <c r="AF85" s="43"/>
-      <c r="AG85" s="43"/>
-      <c r="AH85" s="43"/>
+      <c r="B85" s="45" t="s">
+        <v>151</v>
+      </c>
+      <c r="C85" s="45"/>
+      <c r="D85" s="45"/>
+      <c r="E85" s="45"/>
+      <c r="F85" s="45"/>
+      <c r="G85" s="45"/>
+      <c r="H85" s="45"/>
+      <c r="I85" s="45"/>
+      <c r="J85" s="45"/>
+      <c r="K85" s="45"/>
+      <c r="L85" s="45"/>
+      <c r="M85" s="45"/>
+      <c r="N85" s="45"/>
+      <c r="O85" s="45"/>
+      <c r="P85" s="45"/>
+      <c r="Q85" s="45"/>
+      <c r="R85" s="45"/>
+      <c r="S85" s="45"/>
+      <c r="T85" s="45"/>
+      <c r="U85" s="45"/>
+      <c r="V85" s="45"/>
+      <c r="W85" s="45"/>
+      <c r="X85" s="45"/>
+      <c r="Y85" s="45"/>
+      <c r="Z85" s="45"/>
+      <c r="AA85" s="45"/>
+      <c r="AB85" s="45"/>
+      <c r="AC85" s="45"/>
+      <c r="AD85" s="45"/>
+      <c r="AE85" s="45"/>
+      <c r="AF85" s="45"/>
+      <c r="AG85" s="45"/>
+      <c r="AH85" s="45"/>
       <c r="AI85" s="32"/>
       <c r="AJ85" s="32"/>
       <c r="AK85" s="32"/>
@@ -8109,154 +8079,154 @@
     <row r="86" spans="1:75" ht="130.5" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A86" s="31"/>
       <c r="B86" s="32" t="s">
+        <v>152</v>
+      </c>
+      <c r="C86" s="32" t="s">
+        <v>153</v>
+      </c>
+      <c r="D86" s="32" t="s">
+        <v>391</v>
+      </c>
+      <c r="E86" s="32" t="s">
         <v>154</v>
       </c>
-      <c r="C86" s="32" t="s">
+      <c r="F86" s="32" t="s">
+        <v>302</v>
+      </c>
+      <c r="G86" s="32" t="s">
+        <v>303</v>
+      </c>
+      <c r="H86" s="32" t="s">
         <v>155</v>
       </c>
-      <c r="D86" s="32" t="s">
-        <v>393</v>
-      </c>
-      <c r="E86" s="32" t="s">
+      <c r="I86" s="32" t="s">
         <v>156</v>
       </c>
-      <c r="F86" s="32" t="s">
-        <v>304</v>
-      </c>
-      <c r="G86" s="32" t="s">
-        <v>305</v>
-      </c>
-      <c r="H86" s="32" t="s">
+      <c r="J86" s="32" t="s">
         <v>157</v>
       </c>
-      <c r="I86" s="32" t="s">
+      <c r="K86" s="32" t="s">
         <v>158</v>
       </c>
-      <c r="J86" s="32" t="s">
+      <c r="L86" s="32" t="s">
         <v>159</v>
       </c>
-      <c r="K86" s="32" t="s">
+      <c r="M86" s="32" t="s">
         <v>160</v>
       </c>
-      <c r="L86" s="32" t="s">
+      <c r="N86" s="32" t="s">
         <v>161</v>
       </c>
-      <c r="M86" s="32" t="s">
+      <c r="O86" s="32" t="s">
         <v>162</v>
       </c>
-      <c r="N86" s="32" t="s">
+      <c r="P86" s="32" t="s">
         <v>163</v>
       </c>
-      <c r="O86" s="32" t="s">
+      <c r="Q86" s="32" t="s">
         <v>164</v>
       </c>
-      <c r="P86" s="32" t="s">
+      <c r="R86" s="32" t="s">
         <v>165</v>
       </c>
-      <c r="Q86" s="32" t="s">
+      <c r="S86" s="32" t="s">
         <v>166</v>
       </c>
-      <c r="R86" s="32" t="s">
+      <c r="T86" s="32" t="s">
         <v>167</v>
       </c>
-      <c r="S86" s="32" t="s">
+      <c r="U86" s="32" t="s">
         <v>168</v>
       </c>
-      <c r="T86" s="32" t="s">
+      <c r="V86" s="32" t="s">
+        <v>307</v>
+      </c>
+      <c r="W86" s="32" t="s">
+        <v>308</v>
+      </c>
+      <c r="X86" s="32" t="s">
         <v>169</v>
       </c>
-      <c r="U86" s="32" t="s">
+      <c r="Y86" s="32" t="s">
         <v>170</v>
       </c>
-      <c r="V86" s="32" t="s">
-        <v>309</v>
-      </c>
-      <c r="W86" s="32" t="s">
-        <v>310</v>
-      </c>
-      <c r="X86" s="32" t="s">
+      <c r="Z86" s="38" t="s">
         <v>171</v>
       </c>
-      <c r="Y86" s="32" t="s">
+      <c r="AA86" s="38" t="s">
         <v>172</v>
       </c>
-      <c r="Z86" s="38" t="s">
+      <c r="AB86" s="32" t="s">
         <v>173</v>
       </c>
-      <c r="AA86" s="38" t="s">
+      <c r="AC86" s="32" t="s">
         <v>174</v>
       </c>
-      <c r="AB86" s="32" t="s">
+      <c r="AD86" s="32" t="s">
         <v>175</v>
       </c>
-      <c r="AC86" s="32" t="s">
+      <c r="AE86" s="32" t="s">
         <v>176</v>
       </c>
-      <c r="AD86" s="32" t="s">
-        <v>177</v>
-      </c>
-      <c r="AE86" s="32" t="s">
-        <v>178</v>
-      </c>
       <c r="AF86" s="14" t="s">
-        <v>396</v>
+        <v>394</v>
       </c>
       <c r="AG86" s="14" t="s">
-        <v>365</v>
+        <v>363</v>
       </c>
       <c r="AH86" s="32" t="s">
         <v>15</v>
       </c>
       <c r="AI86" s="32" t="s">
+        <v>342</v>
+      </c>
+      <c r="AJ86" s="32" t="s">
+        <v>343</v>
+      </c>
+      <c r="AK86" s="32" t="s">
         <v>344</v>
       </c>
-      <c r="AJ86" s="32" t="s">
+      <c r="AL86" s="32" t="s">
         <v>345</v>
       </c>
-      <c r="AK86" s="32" t="s">
+      <c r="AM86" s="32" t="s">
         <v>346</v>
       </c>
-      <c r="AL86" s="32" t="s">
+      <c r="AN86" s="32" t="s">
         <v>347</v>
       </c>
-      <c r="AM86" s="32" t="s">
+      <c r="AO86" s="32" t="s">
         <v>348</v>
       </c>
-      <c r="AN86" s="32" t="s">
+      <c r="AP86" s="32" t="s">
         <v>349</v>
       </c>
-      <c r="AO86" s="32" t="s">
+      <c r="AQ86" s="32" t="s">
         <v>350</v>
       </c>
-      <c r="AP86" s="32" t="s">
+      <c r="AR86" s="32" t="s">
         <v>351</v>
       </c>
-      <c r="AQ86" s="32" t="s">
+      <c r="AS86" s="32" t="s">
         <v>352</v>
       </c>
-      <c r="AR86" s="32" t="s">
+      <c r="AT86" s="32" t="s">
         <v>353</v>
       </c>
-      <c r="AS86" s="32" t="s">
+      <c r="AU86" s="32" t="s">
         <v>354</v>
       </c>
-      <c r="AT86" s="32" t="s">
+      <c r="AV86" s="32" t="s">
         <v>355</v>
       </c>
-      <c r="AU86" s="32" t="s">
+      <c r="AW86" s="32" t="s">
         <v>356</v>
       </c>
-      <c r="AV86" s="32" t="s">
-        <v>357</v>
-      </c>
-      <c r="AW86" s="32" t="s">
-        <v>358</v>
-      </c>
       <c r="AX86" s="14" t="s">
-        <v>345</v>
+        <v>343</v>
       </c>
       <c r="AY86" s="14" t="s">
-        <v>345</v>
+        <v>343</v>
       </c>
       <c r="AZ86" s="33"/>
       <c r="BA86" s="33"/>
@@ -8294,94 +8264,94 @@
         <v>16</v>
       </c>
       <c r="D87" s="40" t="s">
-        <v>376</v>
+        <v>374</v>
       </c>
       <c r="E87" s="40" t="s">
+        <v>177</v>
+      </c>
+      <c r="F87" s="40" t="s">
+        <v>178</v>
+      </c>
+      <c r="G87" s="40" t="s">
+        <v>178</v>
+      </c>
+      <c r="H87" s="40" t="s">
         <v>179</v>
       </c>
-      <c r="F87" s="40" t="s">
+      <c r="I87" s="40" t="s">
+        <v>179</v>
+      </c>
+      <c r="J87" s="40" t="s">
         <v>180</v>
       </c>
-      <c r="G87" s="40" t="s">
+      <c r="K87" s="40" t="s">
         <v>180</v>
       </c>
-      <c r="H87" s="40" t="s">
+      <c r="L87" s="40" t="s">
         <v>181</v>
       </c>
-      <c r="I87" s="40" t="s">
+      <c r="M87" s="40" t="s">
         <v>181</v>
       </c>
-      <c r="J87" s="40" t="s">
+      <c r="N87" s="40" t="s">
         <v>182</v>
       </c>
-      <c r="K87" s="40" t="s">
+      <c r="O87" s="40" t="s">
         <v>182</v>
       </c>
-      <c r="L87" s="40" t="s">
+      <c r="P87" s="40" t="s">
         <v>183</v>
       </c>
-      <c r="M87" s="40" t="s">
+      <c r="Q87" s="40" t="s">
         <v>183</v>
       </c>
-      <c r="N87" s="40" t="s">
+      <c r="R87" s="40" t="s">
         <v>184</v>
       </c>
-      <c r="O87" s="40" t="s">
+      <c r="S87" s="40" t="s">
         <v>184</v>
       </c>
-      <c r="P87" s="40" t="s">
+      <c r="T87" s="40" t="s">
         <v>185</v>
       </c>
-      <c r="Q87" s="40" t="s">
+      <c r="U87" s="40" t="s">
         <v>185</v>
       </c>
-      <c r="R87" s="40" t="s">
+      <c r="V87" s="40" t="s">
         <v>186</v>
       </c>
-      <c r="S87" s="40" t="s">
+      <c r="W87" s="40" t="s">
         <v>186</v>
       </c>
-      <c r="T87" s="40" t="s">
+      <c r="X87" s="40" t="s">
         <v>187</v>
       </c>
-      <c r="U87" s="40" t="s">
+      <c r="Y87" s="40" t="s">
         <v>187</v>
       </c>
-      <c r="V87" s="40" t="s">
+      <c r="Z87" s="41" t="s">
         <v>188</v>
       </c>
-      <c r="W87" s="40" t="s">
+      <c r="AA87" s="41" t="s">
         <v>188</v>
       </c>
-      <c r="X87" s="40" t="s">
+      <c r="AB87" s="40" t="s">
         <v>189</v>
       </c>
-      <c r="Y87" s="40" t="s">
+      <c r="AC87" s="40" t="s">
         <v>189</v>
       </c>
-      <c r="Z87" s="41" t="s">
+      <c r="AD87" s="40" t="s">
         <v>190</v>
       </c>
-      <c r="AA87" s="41" t="s">
+      <c r="AE87" s="40" t="s">
         <v>190</v>
       </c>
-      <c r="AB87" s="40" t="s">
-        <v>191</v>
-      </c>
-      <c r="AC87" s="40" t="s">
-        <v>191</v>
-      </c>
-      <c r="AD87" s="40" t="s">
-        <v>192</v>
-      </c>
-      <c r="AE87" s="40" t="s">
-        <v>192</v>
-      </c>
       <c r="AF87" s="17" t="s">
-        <v>376</v>
+        <v>374</v>
       </c>
       <c r="AG87" s="17" t="s">
-        <v>376</v>
+        <v>374</v>
       </c>
       <c r="AH87" s="40" t="s">
         <v>20</v>
@@ -8464,7 +8434,7 @@
     </row>
     <row r="88" spans="1:75" ht="20.5" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A88" s="31" t="s">
-        <v>193</v>
+        <v>191</v>
       </c>
       <c r="B88" s="32" t="s">
         <v>23</v>
@@ -8501,10 +8471,10 @@
       <c r="AF88" s="32"/>
       <c r="AG88" s="32"/>
       <c r="AH88" s="32" t="s">
-        <v>194</v>
+        <v>192</v>
       </c>
       <c r="AI88" s="32" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="AJ88" s="32"/>
       <c r="AK88" s="32"/>
@@ -8549,7 +8519,7 @@
     </row>
     <row r="89" spans="1:75" ht="20.5" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A89" s="31" t="s">
-        <v>195</v>
+        <v>193</v>
       </c>
       <c r="B89" s="32"/>
       <c r="C89" s="32" t="s">
@@ -8586,10 +8556,10 @@
       <c r="AF89" s="32"/>
       <c r="AG89" s="32"/>
       <c r="AH89" s="32" t="s">
-        <v>194</v>
+        <v>192</v>
       </c>
       <c r="AI89" s="32" t="s">
-        <v>359</v>
+        <v>357</v>
       </c>
       <c r="AJ89" s="32"/>
       <c r="AK89" s="32"/>
@@ -8634,12 +8604,12 @@
     </row>
     <row r="90" spans="1:75" ht="30.5" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A90" s="31" t="s">
-        <v>196</v>
+        <v>194</v>
       </c>
       <c r="B90" s="32"/>
       <c r="C90" s="32"/>
       <c r="D90" s="14" t="s">
-        <v>394</v>
+        <v>392</v>
       </c>
       <c r="E90" s="32"/>
       <c r="F90" s="32"/>
@@ -8671,11 +8641,11 @@
       <c r="AF90" s="32"/>
       <c r="AG90" s="32"/>
       <c r="AH90" s="32" t="s">
-        <v>194</v>
+        <v>192</v>
       </c>
       <c r="AI90" s="32"/>
       <c r="AJ90" s="32" t="s">
-        <v>378</v>
+        <v>376</v>
       </c>
       <c r="AK90" s="32"/>
       <c r="AL90" s="32"/>
@@ -8719,7 +8689,7 @@
     </row>
     <row r="91" spans="1:75" ht="20.5" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A91" s="42" t="s">
-        <v>197</v>
+        <v>195</v>
       </c>
       <c r="B91" s="32"/>
       <c r="C91" s="32"/>
@@ -8756,11 +8726,11 @@
       <c r="AF91" s="32"/>
       <c r="AG91" s="32"/>
       <c r="AH91" s="32" t="s">
-        <v>194</v>
+        <v>192</v>
       </c>
       <c r="AI91" s="32"/>
       <c r="AJ91" s="32" t="s">
-        <v>359</v>
+        <v>357</v>
       </c>
       <c r="AK91" s="32"/>
       <c r="AL91" s="32"/>
@@ -8804,7 +8774,7 @@
     </row>
     <row r="92" spans="1:75" ht="20.5" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A92" s="31" t="s">
-        <v>198</v>
+        <v>196</v>
       </c>
       <c r="B92" s="32"/>
       <c r="C92" s="32"/>
@@ -8841,12 +8811,12 @@
       <c r="AF92" s="32"/>
       <c r="AG92" s="32"/>
       <c r="AH92" s="32" t="s">
-        <v>194</v>
+        <v>192</v>
       </c>
       <c r="AI92" s="32"/>
       <c r="AJ92" s="32"/>
       <c r="AK92" s="32" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="AL92" s="32"/>
       <c r="AM92" s="32"/>
@@ -8889,7 +8859,7 @@
     </row>
     <row r="93" spans="1:75" ht="20.5" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A93" s="31" t="s">
-        <v>199</v>
+        <v>197</v>
       </c>
       <c r="B93" s="32"/>
       <c r="C93" s="32"/>
@@ -8926,12 +8896,12 @@
       <c r="AF93" s="32"/>
       <c r="AG93" s="32"/>
       <c r="AH93" s="32" t="s">
-        <v>194</v>
+        <v>192</v>
       </c>
       <c r="AI93" s="32"/>
       <c r="AJ93" s="32"/>
       <c r="AK93" s="32" t="s">
-        <v>359</v>
+        <v>357</v>
       </c>
       <c r="AL93" s="32"/>
       <c r="AM93" s="32"/>
@@ -8974,7 +8944,7 @@
     </row>
     <row r="94" spans="1:75" ht="20.5" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A94" s="31" t="s">
-        <v>200</v>
+        <v>198</v>
       </c>
       <c r="B94" s="32"/>
       <c r="C94" s="32"/>
@@ -9011,13 +8981,13 @@
       <c r="AF94" s="32"/>
       <c r="AG94" s="32"/>
       <c r="AH94" s="32" t="s">
-        <v>194</v>
+        <v>192</v>
       </c>
       <c r="AI94" s="32"/>
       <c r="AJ94" s="32"/>
       <c r="AK94" s="32"/>
       <c r="AL94" s="32" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="AM94" s="32"/>
       <c r="AN94" s="32"/>
@@ -9059,7 +9029,7 @@
     </row>
     <row r="95" spans="1:75" ht="20.5" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A95" s="31" t="s">
-        <v>201</v>
+        <v>199</v>
       </c>
       <c r="B95" s="32"/>
       <c r="C95" s="32"/>
@@ -9096,13 +9066,13 @@
       <c r="AF95" s="32"/>
       <c r="AG95" s="32"/>
       <c r="AH95" s="32" t="s">
-        <v>194</v>
+        <v>192</v>
       </c>
       <c r="AI95" s="32"/>
       <c r="AJ95" s="32"/>
       <c r="AK95" s="32"/>
       <c r="AL95" s="32" t="s">
-        <v>359</v>
+        <v>357</v>
       </c>
       <c r="AM95" s="32"/>
       <c r="AN95" s="32"/>
@@ -9144,7 +9114,7 @@
     </row>
     <row r="96" spans="1:75" ht="20.5" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A96" s="42" t="s">
-        <v>311</v>
+        <v>309</v>
       </c>
       <c r="B96" s="32"/>
       <c r="C96" s="32"/>
@@ -9181,14 +9151,14 @@
       <c r="AF96" s="32"/>
       <c r="AG96" s="32"/>
       <c r="AH96" s="32" t="s">
-        <v>194</v>
+        <v>192</v>
       </c>
       <c r="AI96" s="32"/>
       <c r="AJ96" s="32"/>
       <c r="AK96" s="32"/>
       <c r="AL96" s="32"/>
       <c r="AM96" s="32" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="AN96" s="32"/>
       <c r="AO96" s="32"/>
@@ -9229,7 +9199,7 @@
     </row>
     <row r="97" spans="1:75" ht="20.5" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A97" s="42" t="s">
-        <v>312</v>
+        <v>310</v>
       </c>
       <c r="B97" s="32"/>
       <c r="C97" s="32"/>
@@ -9266,14 +9236,14 @@
       <c r="AF97" s="32"/>
       <c r="AG97" s="32"/>
       <c r="AH97" s="32" t="s">
-        <v>194</v>
+        <v>192</v>
       </c>
       <c r="AI97" s="32"/>
       <c r="AJ97" s="32"/>
       <c r="AK97" s="32"/>
       <c r="AL97" s="32"/>
       <c r="AM97" s="32" t="s">
-        <v>359</v>
+        <v>357</v>
       </c>
       <c r="AN97" s="32"/>
       <c r="AO97" s="32"/>
@@ -9314,7 +9284,7 @@
     </row>
     <row r="98" spans="1:75" ht="20.5" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A98" s="42" t="s">
-        <v>202</v>
+        <v>200</v>
       </c>
       <c r="B98" s="32"/>
       <c r="C98" s="32"/>
@@ -9351,7 +9321,7 @@
       <c r="AF98" s="32"/>
       <c r="AG98" s="32"/>
       <c r="AH98" s="32" t="s">
-        <v>194</v>
+        <v>192</v>
       </c>
       <c r="AI98" s="32"/>
       <c r="AJ98" s="32"/>
@@ -9359,7 +9329,7 @@
       <c r="AL98" s="32"/>
       <c r="AM98" s="32"/>
       <c r="AN98" s="32" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="AO98" s="32"/>
       <c r="AP98" s="32"/>
@@ -9399,7 +9369,7 @@
     </row>
     <row r="99" spans="1:75" ht="20.5" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A99" s="42" t="s">
-        <v>203</v>
+        <v>201</v>
       </c>
       <c r="B99" s="32"/>
       <c r="C99" s="32"/>
@@ -9436,7 +9406,7 @@
       <c r="AF99" s="32"/>
       <c r="AG99" s="32"/>
       <c r="AH99" s="32" t="s">
-        <v>194</v>
+        <v>192</v>
       </c>
       <c r="AI99" s="32"/>
       <c r="AJ99" s="32"/>
@@ -9444,7 +9414,7 @@
       <c r="AL99" s="32"/>
       <c r="AM99" s="32"/>
       <c r="AN99" s="32" t="s">
-        <v>359</v>
+        <v>357</v>
       </c>
       <c r="AO99" s="32"/>
       <c r="AP99" s="32"/>
@@ -9484,7 +9454,7 @@
     </row>
     <row r="100" spans="1:75" ht="20.5" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A100" s="31" t="s">
-        <v>313</v>
+        <v>311</v>
       </c>
       <c r="B100" s="32"/>
       <c r="C100" s="32"/>
@@ -9521,7 +9491,7 @@
       <c r="AF100" s="32"/>
       <c r="AG100" s="32"/>
       <c r="AH100" s="32" t="s">
-        <v>194</v>
+        <v>192</v>
       </c>
       <c r="AI100" s="32"/>
       <c r="AJ100" s="32"/>
@@ -9530,7 +9500,7 @@
       <c r="AM100" s="32"/>
       <c r="AN100" s="32"/>
       <c r="AO100" s="32" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="AP100" s="32"/>
       <c r="AQ100" s="32"/>
@@ -9569,7 +9539,7 @@
     </row>
     <row r="101" spans="1:75" ht="20.5" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A101" s="42" t="s">
-        <v>314</v>
+        <v>312</v>
       </c>
       <c r="B101" s="32"/>
       <c r="C101" s="32"/>
@@ -9606,7 +9576,7 @@
       <c r="AF101" s="32"/>
       <c r="AG101" s="32"/>
       <c r="AH101" s="32" t="s">
-        <v>194</v>
+        <v>192</v>
       </c>
       <c r="AI101" s="32"/>
       <c r="AJ101" s="32"/>
@@ -9615,7 +9585,7 @@
       <c r="AM101" s="32"/>
       <c r="AN101" s="32"/>
       <c r="AO101" s="32" t="s">
-        <v>359</v>
+        <v>357</v>
       </c>
       <c r="AP101" s="32"/>
       <c r="AQ101" s="32"/>
@@ -9654,7 +9624,7 @@
     </row>
     <row r="102" spans="1:75" ht="20.5" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A102" s="31" t="s">
-        <v>315</v>
+        <v>313</v>
       </c>
       <c r="B102" s="32"/>
       <c r="C102" s="32"/>
@@ -9691,7 +9661,7 @@
       <c r="AF102" s="32"/>
       <c r="AG102" s="32"/>
       <c r="AH102" s="32" t="s">
-        <v>194</v>
+        <v>192</v>
       </c>
       <c r="AI102" s="32"/>
       <c r="AJ102" s="32"/>
@@ -9701,7 +9671,7 @@
       <c r="AN102" s="32"/>
       <c r="AO102" s="32"/>
       <c r="AP102" s="32" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="AQ102" s="32"/>
       <c r="AR102" s="32"/>
@@ -9739,7 +9709,7 @@
     </row>
     <row r="103" spans="1:75" ht="20.5" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A103" s="31" t="s">
-        <v>316</v>
+        <v>314</v>
       </c>
       <c r="B103" s="32"/>
       <c r="C103" s="32"/>
@@ -9776,7 +9746,7 @@
       <c r="AF103" s="32"/>
       <c r="AG103" s="32"/>
       <c r="AH103" s="32" t="s">
-        <v>194</v>
+        <v>192</v>
       </c>
       <c r="AI103" s="32"/>
       <c r="AJ103" s="32"/>
@@ -9786,7 +9756,7 @@
       <c r="AN103" s="32"/>
       <c r="AO103" s="32"/>
       <c r="AP103" s="32" t="s">
-        <v>359</v>
+        <v>357</v>
       </c>
       <c r="AQ103" s="32"/>
       <c r="AR103" s="32"/>
@@ -9824,7 +9794,7 @@
     </row>
     <row r="104" spans="1:75" ht="20.5" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A104" s="31" t="s">
-        <v>204</v>
+        <v>202</v>
       </c>
       <c r="B104" s="32"/>
       <c r="C104" s="32"/>
@@ -9861,7 +9831,7 @@
       <c r="AF104" s="32"/>
       <c r="AG104" s="32"/>
       <c r="AH104" s="32" t="s">
-        <v>194</v>
+        <v>192</v>
       </c>
       <c r="AI104" s="32"/>
       <c r="AJ104" s="32"/>
@@ -9872,7 +9842,7 @@
       <c r="AO104" s="32"/>
       <c r="AP104" s="32"/>
       <c r="AQ104" s="32" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="AR104" s="32"/>
       <c r="AS104" s="32"/>
@@ -9909,7 +9879,7 @@
     </row>
     <row r="105" spans="1:75" ht="20.5" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A105" s="31" t="s">
-        <v>205</v>
+        <v>203</v>
       </c>
       <c r="B105" s="32"/>
       <c r="C105" s="32"/>
@@ -9946,7 +9916,7 @@
       <c r="AF105" s="32"/>
       <c r="AG105" s="32"/>
       <c r="AH105" s="32" t="s">
-        <v>194</v>
+        <v>192</v>
       </c>
       <c r="AI105" s="32"/>
       <c r="AJ105" s="32"/>
@@ -9957,7 +9927,7 @@
       <c r="AO105" s="32"/>
       <c r="AP105" s="32"/>
       <c r="AQ105" s="32" t="s">
-        <v>359</v>
+        <v>357</v>
       </c>
       <c r="AR105" s="32"/>
       <c r="AS105" s="32"/>
@@ -9994,7 +9964,7 @@
     </row>
     <row r="106" spans="1:75" ht="20.5" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A106" s="31" t="s">
-        <v>206</v>
+        <v>204</v>
       </c>
       <c r="B106" s="32"/>
       <c r="C106" s="32"/>
@@ -10031,7 +10001,7 @@
       <c r="AF106" s="32"/>
       <c r="AG106" s="32"/>
       <c r="AH106" s="32" t="s">
-        <v>194</v>
+        <v>192</v>
       </c>
       <c r="AI106" s="32"/>
       <c r="AJ106" s="32"/>
@@ -10043,7 +10013,7 @@
       <c r="AP106" s="32"/>
       <c r="AQ106" s="32"/>
       <c r="AR106" s="32" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="AS106" s="32"/>
       <c r="AT106" s="32"/>
@@ -10079,7 +10049,7 @@
     </row>
     <row r="107" spans="1:75" ht="20.5" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A107" s="31" t="s">
-        <v>207</v>
+        <v>205</v>
       </c>
       <c r="B107" s="32"/>
       <c r="C107" s="32"/>
@@ -10116,7 +10086,7 @@
       <c r="AF107" s="32"/>
       <c r="AG107" s="32"/>
       <c r="AH107" s="32" t="s">
-        <v>194</v>
+        <v>192</v>
       </c>
       <c r="AI107" s="32"/>
       <c r="AJ107" s="32"/>
@@ -10128,7 +10098,7 @@
       <c r="AP107" s="32"/>
       <c r="AQ107" s="32"/>
       <c r="AR107" s="32" t="s">
-        <v>359</v>
+        <v>357</v>
       </c>
       <c r="AS107" s="32"/>
       <c r="AT107" s="32"/>
@@ -10164,7 +10134,7 @@
     </row>
     <row r="108" spans="1:75" ht="20.5" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A108" s="31" t="s">
-        <v>208</v>
+        <v>206</v>
       </c>
       <c r="B108" s="32"/>
       <c r="C108" s="32"/>
@@ -10201,7 +10171,7 @@
       <c r="AF108" s="32"/>
       <c r="AG108" s="32"/>
       <c r="AH108" s="32" t="s">
-        <v>194</v>
+        <v>192</v>
       </c>
       <c r="AI108" s="32"/>
       <c r="AJ108" s="32"/>
@@ -10214,7 +10184,7 @@
       <c r="AQ108" s="32"/>
       <c r="AR108" s="32"/>
       <c r="AS108" s="32" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="AT108" s="32"/>
       <c r="AU108" s="32"/>
@@ -10249,7 +10219,7 @@
     </row>
     <row r="109" spans="1:75" ht="20.5" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A109" s="31" t="s">
-        <v>209</v>
+        <v>207</v>
       </c>
       <c r="B109" s="32"/>
       <c r="C109" s="32"/>
@@ -10286,7 +10256,7 @@
       <c r="AF109" s="32"/>
       <c r="AG109" s="32"/>
       <c r="AH109" s="32" t="s">
-        <v>194</v>
+        <v>192</v>
       </c>
       <c r="AI109" s="32"/>
       <c r="AJ109" s="32"/>
@@ -10299,7 +10269,7 @@
       <c r="AQ109" s="32"/>
       <c r="AR109" s="32"/>
       <c r="AS109" s="32" t="s">
-        <v>359</v>
+        <v>357</v>
       </c>
       <c r="AT109" s="32"/>
       <c r="AU109" s="32"/>
@@ -10334,7 +10304,7 @@
     </row>
     <row r="110" spans="1:75" ht="20.5" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A110" s="31" t="s">
-        <v>210</v>
+        <v>208</v>
       </c>
       <c r="B110" s="32"/>
       <c r="C110" s="32"/>
@@ -10371,7 +10341,7 @@
       <c r="AF110" s="32"/>
       <c r="AG110" s="32"/>
       <c r="AH110" s="32" t="s">
-        <v>194</v>
+        <v>192</v>
       </c>
       <c r="AI110" s="32"/>
       <c r="AJ110" s="32"/>
@@ -10385,7 +10355,7 @@
       <c r="AR110" s="32"/>
       <c r="AS110" s="32"/>
       <c r="AT110" s="32" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="AU110" s="32"/>
       <c r="AV110" s="32"/>
@@ -10419,7 +10389,7 @@
     </row>
     <row r="111" spans="1:75" ht="20.5" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A111" s="42" t="s">
-        <v>211</v>
+        <v>209</v>
       </c>
       <c r="B111" s="32"/>
       <c r="C111" s="32"/>
@@ -10456,7 +10426,7 @@
       <c r="AF111" s="32"/>
       <c r="AG111" s="32"/>
       <c r="AH111" s="32" t="s">
-        <v>194</v>
+        <v>192</v>
       </c>
       <c r="AI111" s="32"/>
       <c r="AJ111" s="32"/>
@@ -10470,7 +10440,7 @@
       <c r="AR111" s="32"/>
       <c r="AS111" s="32"/>
       <c r="AT111" s="32" t="s">
-        <v>359</v>
+        <v>357</v>
       </c>
       <c r="AU111" s="32"/>
       <c r="AV111" s="32"/>
@@ -10504,7 +10474,7 @@
     </row>
     <row r="112" spans="1:75" ht="20.5" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A112" s="31" t="s">
-        <v>212</v>
+        <v>210</v>
       </c>
       <c r="B112" s="32"/>
       <c r="C112" s="32"/>
@@ -10541,7 +10511,7 @@
       <c r="AF112" s="32"/>
       <c r="AG112" s="32"/>
       <c r="AH112" s="32" t="s">
-        <v>194</v>
+        <v>192</v>
       </c>
       <c r="AI112" s="32"/>
       <c r="AJ112" s="32"/>
@@ -10556,7 +10526,7 @@
       <c r="AS112" s="32"/>
       <c r="AT112" s="32"/>
       <c r="AU112" s="32" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="AV112" s="32"/>
       <c r="AW112" s="32"/>
@@ -10589,7 +10559,7 @@
     </row>
     <row r="113" spans="1:75" ht="20.5" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A113" s="42" t="s">
-        <v>213</v>
+        <v>211</v>
       </c>
       <c r="B113" s="32"/>
       <c r="C113" s="32"/>
@@ -10626,7 +10596,7 @@
       <c r="AF113" s="32"/>
       <c r="AG113" s="32"/>
       <c r="AH113" s="32" t="s">
-        <v>194</v>
+        <v>192</v>
       </c>
       <c r="AI113" s="32"/>
       <c r="AJ113" s="32"/>
@@ -10641,7 +10611,7 @@
       <c r="AS113" s="32"/>
       <c r="AT113" s="32"/>
       <c r="AU113" s="32" t="s">
-        <v>359</v>
+        <v>357</v>
       </c>
       <c r="AV113" s="32"/>
       <c r="AW113" s="32"/>
@@ -10674,7 +10644,7 @@
     </row>
     <row r="114" spans="1:75" ht="20.5" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A114" s="31" t="s">
-        <v>214</v>
+        <v>212</v>
       </c>
       <c r="B114" s="32"/>
       <c r="C114" s="32"/>
@@ -10711,7 +10681,7 @@
       <c r="AF114" s="32"/>
       <c r="AG114" s="32"/>
       <c r="AH114" s="32" t="s">
-        <v>194</v>
+        <v>192</v>
       </c>
       <c r="AI114" s="32"/>
       <c r="AJ114" s="32"/>
@@ -10727,7 +10697,7 @@
       <c r="AT114" s="32"/>
       <c r="AU114" s="32"/>
       <c r="AV114" s="32" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="AW114" s="32"/>
       <c r="AX114" s="33"/>
@@ -10759,7 +10729,7 @@
     </row>
     <row r="115" spans="1:75" ht="20.5" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A115" s="31" t="s">
-        <v>215</v>
+        <v>213</v>
       </c>
       <c r="B115" s="32"/>
       <c r="C115" s="32"/>
@@ -10796,7 +10766,7 @@
       <c r="AF115" s="32"/>
       <c r="AG115" s="32"/>
       <c r="AH115" s="32" t="s">
-        <v>194</v>
+        <v>192</v>
       </c>
       <c r="AI115" s="32"/>
       <c r="AJ115" s="32"/>
@@ -10812,7 +10782,7 @@
       <c r="AT115" s="32"/>
       <c r="AU115" s="32"/>
       <c r="AV115" s="32" t="s">
-        <v>359</v>
+        <v>357</v>
       </c>
       <c r="AW115" s="32"/>
       <c r="AX115" s="33"/>
@@ -10844,7 +10814,7 @@
     </row>
     <row r="116" spans="1:75" ht="20.5" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A116" s="31" t="s">
-        <v>216</v>
+        <v>214</v>
       </c>
       <c r="B116" s="32"/>
       <c r="C116" s="32"/>
@@ -10881,7 +10851,7 @@
       <c r="AF116" s="32"/>
       <c r="AG116" s="32"/>
       <c r="AH116" s="32" t="s">
-        <v>194</v>
+        <v>192</v>
       </c>
       <c r="AI116" s="32"/>
       <c r="AJ116" s="32"/>
@@ -10898,7 +10868,7 @@
       <c r="AU116" s="32"/>
       <c r="AV116" s="32"/>
       <c r="AW116" s="32" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="AX116" s="33"/>
       <c r="AY116" s="33"/>
@@ -10929,7 +10899,7 @@
     </row>
     <row r="117" spans="1:75" ht="20.5" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A117" s="31" t="s">
-        <v>217</v>
+        <v>215</v>
       </c>
       <c r="B117" s="32"/>
       <c r="C117" s="32"/>
@@ -10966,7 +10936,7 @@
       <c r="AF117" s="32"/>
       <c r="AG117" s="32"/>
       <c r="AH117" s="32" t="s">
-        <v>194</v>
+        <v>192</v>
       </c>
       <c r="AI117" s="32"/>
       <c r="AJ117" s="32"/>
@@ -10983,7 +10953,7 @@
       <c r="AU117" s="32"/>
       <c r="AV117" s="32"/>
       <c r="AW117" s="32" t="s">
-        <v>359</v>
+        <v>357</v>
       </c>
       <c r="AX117" s="33"/>
       <c r="AY117" s="33"/>
@@ -11014,7 +10984,7 @@
     </row>
     <row r="118" spans="1:75" ht="20.5" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A118" s="31" t="s">
-        <v>379</v>
+        <v>377</v>
       </c>
       <c r="B118" s="32"/>
       <c r="C118" s="32"/>
@@ -11047,11 +11017,11 @@
       <c r="AD118" s="33"/>
       <c r="AE118" s="33"/>
       <c r="AF118" s="15" t="s">
-        <v>395</v>
+        <v>393</v>
       </c>
       <c r="AG118" s="15"/>
       <c r="AH118" s="32" t="s">
-        <v>194</v>
+        <v>192</v>
       </c>
       <c r="AI118" s="33"/>
       <c r="AJ118" s="33"/>
@@ -11069,7 +11039,7 @@
       <c r="AV118" s="33"/>
       <c r="AW118" s="33"/>
       <c r="AX118" s="15" t="s">
-        <v>381</v>
+        <v>379</v>
       </c>
       <c r="AY118" s="33"/>
       <c r="AZ118" s="33"/>
@@ -11099,7 +11069,7 @@
     </row>
     <row r="119" spans="1:75" ht="20.5" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A119" s="31" t="s">
-        <v>390</v>
+        <v>388</v>
       </c>
       <c r="B119" s="32"/>
       <c r="C119" s="32"/>
@@ -11133,10 +11103,10 @@
       <c r="AE119" s="33"/>
       <c r="AF119" s="15"/>
       <c r="AG119" s="15" t="s">
-        <v>388</v>
+        <v>386</v>
       </c>
       <c r="AH119" s="32" t="s">
-        <v>194</v>
+        <v>192</v>
       </c>
       <c r="AI119" s="33"/>
       <c r="AJ119" s="33"/>
@@ -11155,7 +11125,7 @@
       <c r="AW119" s="33"/>
       <c r="AX119" s="15"/>
       <c r="AY119" s="15" t="s">
-        <v>391</v>
+        <v>389</v>
       </c>
       <c r="AZ119" s="33"/>
       <c r="BA119" s="33"/>
@@ -11415,7 +11385,7 @@
     </row>
     <row r="123" spans="1:75" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A123" s="34" t="s">
-        <v>319</v>
+        <v>317</v>
       </c>
       <c r="B123" s="35"/>
       <c r="C123" s="35"/>
@@ -11681,49 +11651,49 @@
     </row>
     <row r="125" spans="1:75" ht="10.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A125" s="31"/>
-      <c r="B125" s="43" t="s">
-        <v>220</v>
-      </c>
-      <c r="C125" s="43"/>
-      <c r="D125" s="43"/>
-      <c r="E125" s="43"/>
-      <c r="F125" s="43"/>
-      <c r="G125" s="43"/>
-      <c r="H125" s="43"/>
-      <c r="I125" s="43"/>
-      <c r="J125" s="43"/>
-      <c r="K125" s="43"/>
-      <c r="L125" s="43"/>
-      <c r="M125" s="43"/>
-      <c r="N125" s="43"/>
-      <c r="O125" s="43"/>
-      <c r="P125" s="43"/>
-      <c r="Q125" s="43"/>
-      <c r="R125" s="43"/>
-      <c r="S125" s="43"/>
-      <c r="T125" s="43"/>
-      <c r="U125" s="43"/>
-      <c r="V125" s="43"/>
-      <c r="W125" s="43"/>
-      <c r="X125" s="43"/>
-      <c r="Y125" s="43"/>
-      <c r="Z125" s="43"/>
-      <c r="AA125" s="43"/>
-      <c r="AB125" s="43"/>
-      <c r="AC125" s="43"/>
-      <c r="AD125" s="43"/>
-      <c r="AE125" s="43"/>
-      <c r="AF125" s="43"/>
-      <c r="AG125" s="43"/>
-      <c r="AH125" s="43"/>
-      <c r="AI125" s="43"/>
-      <c r="AJ125" s="43"/>
-      <c r="AK125" s="43"/>
-      <c r="AL125" s="43"/>
-      <c r="AM125" s="43"/>
-      <c r="AN125" s="43"/>
-      <c r="AO125" s="43"/>
-      <c r="AP125" s="43"/>
+      <c r="B125" s="45" t="s">
+        <v>218</v>
+      </c>
+      <c r="C125" s="45"/>
+      <c r="D125" s="45"/>
+      <c r="E125" s="45"/>
+      <c r="F125" s="45"/>
+      <c r="G125" s="45"/>
+      <c r="H125" s="45"/>
+      <c r="I125" s="45"/>
+      <c r="J125" s="45"/>
+      <c r="K125" s="45"/>
+      <c r="L125" s="45"/>
+      <c r="M125" s="45"/>
+      <c r="N125" s="45"/>
+      <c r="O125" s="45"/>
+      <c r="P125" s="45"/>
+      <c r="Q125" s="45"/>
+      <c r="R125" s="45"/>
+      <c r="S125" s="45"/>
+      <c r="T125" s="45"/>
+      <c r="U125" s="45"/>
+      <c r="V125" s="45"/>
+      <c r="W125" s="45"/>
+      <c r="X125" s="45"/>
+      <c r="Y125" s="45"/>
+      <c r="Z125" s="45"/>
+      <c r="AA125" s="45"/>
+      <c r="AB125" s="45"/>
+      <c r="AC125" s="45"/>
+      <c r="AD125" s="45"/>
+      <c r="AE125" s="45"/>
+      <c r="AF125" s="45"/>
+      <c r="AG125" s="45"/>
+      <c r="AH125" s="45"/>
+      <c r="AI125" s="45"/>
+      <c r="AJ125" s="45"/>
+      <c r="AK125" s="45"/>
+      <c r="AL125" s="45"/>
+      <c r="AM125" s="45"/>
+      <c r="AN125" s="45"/>
+      <c r="AO125" s="45"/>
+      <c r="AP125" s="45"/>
       <c r="AQ125" s="32"/>
       <c r="AR125" s="32"/>
       <c r="AS125" s="32"/>
@@ -11766,181 +11736,181 @@
         <v>14</v>
       </c>
       <c r="F126" s="32" t="s">
+        <v>219</v>
+      </c>
+      <c r="G126" s="32" t="s">
+        <v>220</v>
+      </c>
+      <c r="H126" s="32" t="s">
         <v>221</v>
       </c>
-      <c r="G126" s="32" t="s">
+      <c r="I126" s="32" t="s">
         <v>222</v>
       </c>
-      <c r="H126" s="32" t="s">
+      <c r="J126" s="32" t="s">
         <v>223</v>
       </c>
-      <c r="I126" s="32" t="s">
+      <c r="K126" s="32" t="s">
         <v>224</v>
       </c>
-      <c r="J126" s="32" t="s">
+      <c r="L126" s="32" t="s">
+        <v>163</v>
+      </c>
+      <c r="M126" s="32" t="s">
+        <v>164</v>
+      </c>
+      <c r="N126" s="32" t="s">
         <v>225</v>
       </c>
-      <c r="K126" s="32" t="s">
+      <c r="O126" s="32" t="s">
         <v>226</v>
       </c>
-      <c r="L126" s="32" t="s">
-        <v>165</v>
-      </c>
-      <c r="M126" s="32" t="s">
-        <v>166</v>
-      </c>
-      <c r="N126" s="32" t="s">
+      <c r="P126" s="32" t="s">
         <v>227</v>
       </c>
-      <c r="O126" s="32" t="s">
+      <c r="Q126" s="32" t="s">
         <v>228</v>
       </c>
-      <c r="P126" s="32" t="s">
+      <c r="R126" s="32" t="s">
         <v>229</v>
       </c>
-      <c r="Q126" s="32" t="s">
+      <c r="S126" s="32" t="s">
         <v>230</v>
       </c>
-      <c r="R126" s="32" t="s">
+      <c r="T126" s="32" t="s">
         <v>231</v>
       </c>
-      <c r="S126" s="32" t="s">
+      <c r="U126" s="32" t="s">
         <v>232</v>
       </c>
-      <c r="T126" s="32" t="s">
+      <c r="V126" s="32" t="s">
         <v>233</v>
       </c>
-      <c r="U126" s="32" t="s">
+      <c r="W126" s="32" t="s">
         <v>234</v>
       </c>
-      <c r="V126" s="32" t="s">
+      <c r="X126" s="32" t="s">
         <v>235</v>
       </c>
-      <c r="W126" s="32" t="s">
+      <c r="Y126" s="32" t="s">
         <v>236</v>
       </c>
-      <c r="X126" s="32" t="s">
+      <c r="Z126" s="32" t="s">
+        <v>169</v>
+      </c>
+      <c r="AA126" s="32" t="s">
+        <v>170</v>
+      </c>
+      <c r="AB126" s="32" t="s">
+        <v>171</v>
+      </c>
+      <c r="AC126" s="32" t="s">
+        <v>172</v>
+      </c>
+      <c r="AD126" s="32" t="s">
+        <v>369</v>
+      </c>
+      <c r="AE126" s="32" t="s">
+        <v>370</v>
+      </c>
+      <c r="AF126" s="14" t="s">
+        <v>390</v>
+      </c>
+      <c r="AG126" s="32" t="s">
+        <v>371</v>
+      </c>
+      <c r="AH126" s="32" t="s">
+        <v>372</v>
+      </c>
+      <c r="AI126" s="32" t="s">
+        <v>380</v>
+      </c>
+      <c r="AJ126" s="32" t="s">
+        <v>363</v>
+      </c>
+      <c r="AK126" s="32" t="s">
+        <v>400</v>
+      </c>
+      <c r="AL126" s="32" t="s">
+        <v>401</v>
+      </c>
+      <c r="AM126" s="32" t="s">
         <v>237</v>
       </c>
-      <c r="Y126" s="32" t="s">
+      <c r="AN126" s="32" t="s">
         <v>238</v>
       </c>
-      <c r="Z126" s="32" t="s">
-        <v>171</v>
-      </c>
-      <c r="AA126" s="32" t="s">
-        <v>172</v>
-      </c>
-      <c r="AB126" s="32" t="s">
-        <v>173</v>
-      </c>
-      <c r="AC126" s="32" t="s">
-        <v>174</v>
-      </c>
-      <c r="AD126" s="32" t="s">
-        <v>371</v>
-      </c>
-      <c r="AE126" s="32" t="s">
-        <v>372</v>
-      </c>
-      <c r="AF126" s="14" t="s">
-        <v>392</v>
-      </c>
-      <c r="AG126" s="32" t="s">
-        <v>373</v>
-      </c>
-      <c r="AH126" s="32" t="s">
-        <v>374</v>
-      </c>
-      <c r="AI126" s="32" t="s">
-        <v>382</v>
-      </c>
-      <c r="AJ126" s="32" t="s">
-        <v>365</v>
-      </c>
-      <c r="AK126" s="32" t="s">
-        <v>402</v>
-      </c>
-      <c r="AL126" s="32" t="s">
-        <v>403</v>
-      </c>
-      <c r="AM126" s="32" t="s">
-        <v>239</v>
-      </c>
-      <c r="AN126" s="32" t="s">
-        <v>240</v>
-      </c>
       <c r="AO126" s="14" t="s">
-        <v>365</v>
+        <v>363</v>
       </c>
       <c r="AP126" s="32" t="s">
         <v>15</v>
       </c>
       <c r="AQ126" s="32" t="s">
-        <v>362</v>
+        <v>360</v>
       </c>
       <c r="AR126" s="32" t="s">
+        <v>284</v>
+      </c>
+      <c r="AS126" s="32" t="s">
+        <v>285</v>
+      </c>
+      <c r="AT126" s="32" t="s">
         <v>286</v>
       </c>
-      <c r="AS126" s="32" t="s">
+      <c r="AU126" s="32" t="s">
         <v>287</v>
       </c>
-      <c r="AT126" s="32" t="s">
+      <c r="AV126" s="32" t="s">
         <v>288</v>
       </c>
-      <c r="AU126" s="32" t="s">
+      <c r="AW126" s="32" t="s">
         <v>289</v>
       </c>
-      <c r="AV126" s="32" t="s">
+      <c r="AX126" s="32" t="s">
         <v>290</v>
       </c>
-      <c r="AW126" s="32" t="s">
+      <c r="AY126" s="32" t="s">
         <v>291</v>
       </c>
-      <c r="AX126" s="32" t="s">
+      <c r="AZ126" s="32" t="s">
         <v>292</v>
       </c>
-      <c r="AY126" s="32" t="s">
+      <c r="BA126" s="32" t="s">
         <v>293</v>
       </c>
-      <c r="AZ126" s="32" t="s">
+      <c r="BB126" s="32" t="s">
         <v>294</v>
       </c>
-      <c r="BA126" s="32" t="s">
+      <c r="BC126" s="32" t="s">
         <v>295</v>
       </c>
-      <c r="BB126" s="32" t="s">
+      <c r="BD126" s="32" t="s">
         <v>296</v>
       </c>
-      <c r="BC126" s="32" t="s">
+      <c r="BE126" s="32" t="s">
         <v>297</v>
       </c>
-      <c r="BD126" s="32" t="s">
+      <c r="BF126" s="32" t="s">
         <v>298</v>
       </c>
-      <c r="BE126" s="32" t="s">
+      <c r="BG126" s="32" t="s">
         <v>299</v>
       </c>
-      <c r="BF126" s="32" t="s">
+      <c r="BH126" s="32" t="s">
         <v>300</v>
       </c>
-      <c r="BG126" s="32" t="s">
+      <c r="BI126" s="32" t="s">
         <v>301</v>
       </c>
-      <c r="BH126" s="32" t="s">
-        <v>302</v>
-      </c>
-      <c r="BI126" s="32" t="s">
-        <v>303</v>
-      </c>
       <c r="BJ126" s="14" t="s">
-        <v>301</v>
+        <v>299</v>
       </c>
       <c r="BK126" s="14" t="s">
-        <v>301</v>
+        <v>299</v>
       </c>
       <c r="BL126" s="14" t="s">
-        <v>301</v>
+        <v>299</v>
       </c>
     </row>
     <row r="127" spans="1:75" ht="30.5" thickBot="1" x14ac:dyDescent="0.4">
@@ -11960,97 +11930,97 @@
         <v>18</v>
       </c>
       <c r="F127" s="40" t="s">
+        <v>239</v>
+      </c>
+      <c r="G127" s="40" t="s">
+        <v>239</v>
+      </c>
+      <c r="H127" s="40" t="s">
+        <v>240</v>
+      </c>
+      <c r="I127" s="40" t="s">
+        <v>181</v>
+      </c>
+      <c r="J127" s="40" t="s">
+        <v>182</v>
+      </c>
+      <c r="K127" s="40" t="s">
         <v>241</v>
       </c>
-      <c r="G127" s="40" t="s">
-        <v>241</v>
-      </c>
-      <c r="H127" s="40" t="s">
+      <c r="L127" s="40" t="s">
+        <v>183</v>
+      </c>
+      <c r="M127" s="40" t="s">
+        <v>183</v>
+      </c>
+      <c r="N127" s="40" t="s">
         <v>242</v>
       </c>
-      <c r="I127" s="40" t="s">
-        <v>183</v>
-      </c>
-      <c r="J127" s="40" t="s">
+      <c r="O127" s="40" t="s">
+        <v>242</v>
+      </c>
+      <c r="P127" s="40" t="s">
         <v>184</v>
       </c>
-      <c r="K127" s="40" t="s">
+      <c r="Q127" s="40" t="s">
+        <v>184</v>
+      </c>
+      <c r="R127" s="40" t="s">
+        <v>185</v>
+      </c>
+      <c r="S127" s="40" t="s">
+        <v>185</v>
+      </c>
+      <c r="T127" s="40" t="s">
         <v>243</v>
       </c>
-      <c r="L127" s="40" t="s">
-        <v>185</v>
-      </c>
-      <c r="M127" s="40" t="s">
-        <v>185</v>
-      </c>
-      <c r="N127" s="40" t="s">
+      <c r="U127" s="40" t="s">
+        <v>243</v>
+      </c>
+      <c r="V127" s="40" t="s">
         <v>244</v>
       </c>
-      <c r="O127" s="40" t="s">
+      <c r="W127" s="40" t="s">
         <v>244</v>
       </c>
-      <c r="P127" s="40" t="s">
-        <v>186</v>
-      </c>
-      <c r="Q127" s="40" t="s">
-        <v>186</v>
-      </c>
-      <c r="R127" s="40" t="s">
-        <v>187</v>
-      </c>
-      <c r="S127" s="40" t="s">
-        <v>187</v>
-      </c>
-      <c r="T127" s="40" t="s">
+      <c r="X127" s="40" t="s">
         <v>245</v>
       </c>
-      <c r="U127" s="40" t="s">
+      <c r="Y127" s="40" t="s">
         <v>245</v>
       </c>
-      <c r="V127" s="40" t="s">
+      <c r="Z127" s="40" t="s">
         <v>246</v>
       </c>
-      <c r="W127" s="40" t="s">
+      <c r="AA127" s="40" t="s">
         <v>246</v>
       </c>
-      <c r="X127" s="40" t="s">
+      <c r="AB127" s="40" t="s">
         <v>247</v>
       </c>
-      <c r="Y127" s="40" t="s">
+      <c r="AC127" s="40" t="s">
         <v>247</v>
       </c>
-      <c r="Z127" s="40" t="s">
-        <v>248</v>
-      </c>
-      <c r="AA127" s="40" t="s">
-        <v>248</v>
-      </c>
-      <c r="AB127" s="40" t="s">
-        <v>249</v>
-      </c>
-      <c r="AC127" s="40" t="s">
-        <v>249</v>
-      </c>
       <c r="AD127" s="40" t="s">
-        <v>192</v>
+        <v>190</v>
       </c>
       <c r="AE127" s="40" t="s">
-        <v>192</v>
+        <v>190</v>
       </c>
       <c r="AF127" s="17" t="s">
-        <v>376</v>
+        <v>374</v>
       </c>
       <c r="AG127" s="40" t="s">
-        <v>191</v>
+        <v>189</v>
       </c>
       <c r="AH127" s="40" t="s">
-        <v>375</v>
+        <v>373</v>
       </c>
       <c r="AI127" s="40" t="s">
-        <v>179</v>
+        <v>177</v>
       </c>
       <c r="AJ127" s="40" t="s">
-        <v>179</v>
+        <v>177</v>
       </c>
       <c r="AK127" s="40" t="s">
         <v>17</v>
@@ -12059,13 +12029,13 @@
         <v>17</v>
       </c>
       <c r="AM127" s="40" t="s">
-        <v>250</v>
+        <v>248</v>
       </c>
       <c r="AN127" s="40" t="s">
-        <v>250</v>
+        <v>248</v>
       </c>
       <c r="AO127" s="17" t="s">
-        <v>376</v>
+        <v>374</v>
       </c>
       <c r="AP127" s="40" t="s">
         <v>20</v>
@@ -12139,7 +12109,7 @@
     </row>
     <row r="128" spans="1:75" ht="10.5" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A128" s="31" t="s">
-        <v>363</v>
+        <v>361</v>
       </c>
       <c r="B128" s="32" t="s">
         <v>23</v>
@@ -12184,10 +12154,10 @@
       <c r="AN128" s="32"/>
       <c r="AO128" s="32"/>
       <c r="AP128" s="32" t="s">
-        <v>251</v>
+        <v>249</v>
       </c>
       <c r="AQ128" s="32" t="s">
-        <v>361</v>
+        <v>359</v>
       </c>
       <c r="AR128" s="32"/>
       <c r="AS128" s="32"/>
@@ -12213,7 +12183,7 @@
     </row>
     <row r="129" spans="1:64" ht="20.5" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A129" s="31" t="s">
-        <v>364</v>
+        <v>362</v>
       </c>
       <c r="B129" s="32"/>
       <c r="C129" s="32" t="s">
@@ -12258,10 +12228,10 @@
       <c r="AN129" s="32"/>
       <c r="AO129" s="32"/>
       <c r="AP129" s="32" t="s">
-        <v>251</v>
+        <v>249</v>
       </c>
       <c r="AQ129" s="32" t="s">
-        <v>359</v>
+        <v>357</v>
       </c>
       <c r="AR129" s="32"/>
       <c r="AS129" s="32"/>
@@ -12287,7 +12257,7 @@
     </row>
     <row r="130" spans="1:64" ht="10.5" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A130" s="31" t="s">
-        <v>252</v>
+        <v>250</v>
       </c>
       <c r="B130" s="32"/>
       <c r="C130" s="32"/>
@@ -12332,11 +12302,11 @@
       <c r="AN130" s="32"/>
       <c r="AO130" s="32"/>
       <c r="AP130" s="32" t="s">
-        <v>251</v>
+        <v>249</v>
       </c>
       <c r="AQ130" s="32"/>
       <c r="AR130" s="32" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="AS130" s="32"/>
       <c r="AT130" s="32"/>
@@ -12361,7 +12331,7 @@
     </row>
     <row r="131" spans="1:64" ht="20.5" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A131" s="31" t="s">
-        <v>253</v>
+        <v>251</v>
       </c>
       <c r="B131" s="32"/>
       <c r="C131" s="32"/>
@@ -12406,11 +12376,11 @@
       <c r="AN131" s="32"/>
       <c r="AO131" s="32"/>
       <c r="AP131" s="32" t="s">
-        <v>251</v>
+        <v>249</v>
       </c>
       <c r="AQ131" s="32"/>
       <c r="AR131" s="32" t="s">
-        <v>359</v>
+        <v>357</v>
       </c>
       <c r="AS131" s="32"/>
       <c r="AT131" s="32"/>
@@ -12435,7 +12405,7 @@
     </row>
     <row r="132" spans="1:64" ht="20.5" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A132" s="31" t="s">
-        <v>254</v>
+        <v>252</v>
       </c>
       <c r="B132" s="32"/>
       <c r="C132" s="32"/>
@@ -12480,12 +12450,12 @@
       <c r="AN132" s="32"/>
       <c r="AO132" s="32"/>
       <c r="AP132" s="32" t="s">
-        <v>251</v>
+        <v>249</v>
       </c>
       <c r="AQ132" s="32"/>
       <c r="AR132" s="32"/>
       <c r="AS132" s="32" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="AT132" s="32"/>
       <c r="AU132" s="32"/>
@@ -12509,7 +12479,7 @@
     </row>
     <row r="133" spans="1:64" ht="20.5" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A133" s="31" t="s">
-        <v>255</v>
+        <v>253</v>
       </c>
       <c r="B133" s="32"/>
       <c r="C133" s="32"/>
@@ -12554,12 +12524,12 @@
       <c r="AN133" s="32"/>
       <c r="AO133" s="32"/>
       <c r="AP133" s="32" t="s">
-        <v>251</v>
+        <v>249</v>
       </c>
       <c r="AQ133" s="32"/>
       <c r="AR133" s="32"/>
       <c r="AS133" s="32" t="s">
-        <v>359</v>
+        <v>357</v>
       </c>
       <c r="AT133" s="32"/>
       <c r="AU133" s="32"/>
@@ -12583,7 +12553,7 @@
     </row>
     <row r="134" spans="1:64" ht="20.5" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A134" s="31" t="s">
-        <v>256</v>
+        <v>254</v>
       </c>
       <c r="B134" s="32"/>
       <c r="C134" s="32"/>
@@ -12628,13 +12598,13 @@
       <c r="AN134" s="32"/>
       <c r="AO134" s="32"/>
       <c r="AP134" s="32" t="s">
-        <v>251</v>
+        <v>249</v>
       </c>
       <c r="AQ134" s="32"/>
       <c r="AR134" s="32"/>
       <c r="AS134" s="32"/>
       <c r="AT134" s="32" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="AU134" s="32"/>
       <c r="AV134" s="32"/>
@@ -12657,7 +12627,7 @@
     </row>
     <row r="135" spans="1:64" ht="20.5" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A135" s="31" t="s">
-        <v>257</v>
+        <v>255</v>
       </c>
       <c r="B135" s="32"/>
       <c r="C135" s="32"/>
@@ -12702,13 +12672,13 @@
       <c r="AN135" s="32"/>
       <c r="AO135" s="32"/>
       <c r="AP135" s="32" t="s">
-        <v>251</v>
+        <v>249</v>
       </c>
       <c r="AQ135" s="32"/>
       <c r="AR135" s="32"/>
       <c r="AS135" s="32"/>
       <c r="AT135" s="32" t="s">
-        <v>359</v>
+        <v>357</v>
       </c>
       <c r="AU135" s="32"/>
       <c r="AV135" s="32"/>
@@ -12731,7 +12701,7 @@
     </row>
     <row r="136" spans="1:64" ht="20.5" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A136" s="31" t="s">
-        <v>258</v>
+        <v>256</v>
       </c>
       <c r="B136" s="32"/>
       <c r="C136" s="32"/>
@@ -12776,14 +12746,14 @@
       <c r="AN136" s="32"/>
       <c r="AO136" s="32"/>
       <c r="AP136" s="32" t="s">
-        <v>251</v>
+        <v>249</v>
       </c>
       <c r="AQ136" s="32"/>
       <c r="AR136" s="32"/>
       <c r="AS136" s="32"/>
       <c r="AT136" s="32"/>
       <c r="AU136" s="32" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="AV136" s="32"/>
       <c r="AW136" s="32"/>
@@ -12805,7 +12775,7 @@
     </row>
     <row r="137" spans="1:64" ht="20.5" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A137" s="31" t="s">
-        <v>259</v>
+        <v>257</v>
       </c>
       <c r="B137" s="32"/>
       <c r="C137" s="32"/>
@@ -12850,14 +12820,14 @@
       <c r="AN137" s="32"/>
       <c r="AO137" s="32"/>
       <c r="AP137" s="32" t="s">
-        <v>251</v>
+        <v>249</v>
       </c>
       <c r="AQ137" s="32"/>
       <c r="AR137" s="32"/>
       <c r="AS137" s="32"/>
       <c r="AT137" s="32"/>
       <c r="AU137" s="32" t="s">
-        <v>359</v>
+        <v>357</v>
       </c>
       <c r="AV137" s="32"/>
       <c r="AW137" s="32"/>
@@ -12879,7 +12849,7 @@
     </row>
     <row r="138" spans="1:64" ht="10.5" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A138" s="31" t="s">
-        <v>260</v>
+        <v>258</v>
       </c>
       <c r="B138" s="32"/>
       <c r="C138" s="32"/>
@@ -12924,7 +12894,7 @@
       <c r="AN138" s="32"/>
       <c r="AO138" s="32"/>
       <c r="AP138" s="32" t="s">
-        <v>251</v>
+        <v>249</v>
       </c>
       <c r="AQ138" s="32"/>
       <c r="AR138" s="32"/>
@@ -12932,7 +12902,7 @@
       <c r="AT138" s="32"/>
       <c r="AU138" s="32"/>
       <c r="AV138" s="32" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="AW138" s="32"/>
       <c r="AX138" s="32"/>
@@ -12953,7 +12923,7 @@
     </row>
     <row r="139" spans="1:64" ht="20.5" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A139" s="31" t="s">
-        <v>261</v>
+        <v>259</v>
       </c>
       <c r="B139" s="32"/>
       <c r="C139" s="32"/>
@@ -12998,7 +12968,7 @@
       <c r="AN139" s="32"/>
       <c r="AO139" s="32"/>
       <c r="AP139" s="32" t="s">
-        <v>251</v>
+        <v>249</v>
       </c>
       <c r="AQ139" s="32"/>
       <c r="AR139" s="32"/>
@@ -13006,7 +12976,7 @@
       <c r="AT139" s="32"/>
       <c r="AU139" s="32"/>
       <c r="AV139" s="32" t="s">
-        <v>359</v>
+        <v>357</v>
       </c>
       <c r="AW139" s="32"/>
       <c r="AX139" s="32"/>
@@ -13027,7 +12997,7 @@
     </row>
     <row r="140" spans="1:64" ht="10.5" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A140" s="31" t="s">
-        <v>262</v>
+        <v>260</v>
       </c>
       <c r="B140" s="32"/>
       <c r="C140" s="32"/>
@@ -13072,7 +13042,7 @@
       <c r="AN140" s="32"/>
       <c r="AO140" s="32"/>
       <c r="AP140" s="32" t="s">
-        <v>251</v>
+        <v>249</v>
       </c>
       <c r="AQ140" s="32"/>
       <c r="AR140" s="32"/>
@@ -13081,7 +13051,7 @@
       <c r="AU140" s="32"/>
       <c r="AV140" s="32"/>
       <c r="AW140" s="32" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="AX140" s="32"/>
       <c r="AY140" s="32"/>
@@ -13101,7 +13071,7 @@
     </row>
     <row r="141" spans="1:64" ht="20.5" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A141" s="31" t="s">
-        <v>263</v>
+        <v>261</v>
       </c>
       <c r="B141" s="32"/>
       <c r="C141" s="32"/>
@@ -13146,7 +13116,7 @@
       <c r="AN141" s="32"/>
       <c r="AO141" s="32"/>
       <c r="AP141" s="32" t="s">
-        <v>251</v>
+        <v>249</v>
       </c>
       <c r="AQ141" s="32"/>
       <c r="AR141" s="32"/>
@@ -13155,7 +13125,7 @@
       <c r="AU141" s="32"/>
       <c r="AV141" s="32"/>
       <c r="AW141" s="32" t="s">
-        <v>359</v>
+        <v>357</v>
       </c>
       <c r="AX141" s="32"/>
       <c r="AY141" s="32"/>
@@ -13175,7 +13145,7 @@
     </row>
     <row r="142" spans="1:64" ht="10.5" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A142" s="31" t="s">
-        <v>264</v>
+        <v>262</v>
       </c>
       <c r="B142" s="32"/>
       <c r="C142" s="32"/>
@@ -13220,7 +13190,7 @@
       <c r="AN142" s="32"/>
       <c r="AO142" s="32"/>
       <c r="AP142" s="32" t="s">
-        <v>251</v>
+        <v>249</v>
       </c>
       <c r="AQ142" s="32"/>
       <c r="AR142" s="32"/>
@@ -13230,7 +13200,7 @@
       <c r="AV142" s="32"/>
       <c r="AW142" s="32"/>
       <c r="AX142" s="32" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="AY142" s="32"/>
       <c r="AZ142" s="32"/>
@@ -13249,7 +13219,7 @@
     </row>
     <row r="143" spans="1:64" ht="20.5" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A143" s="31" t="s">
-        <v>265</v>
+        <v>263</v>
       </c>
       <c r="B143" s="32"/>
       <c r="C143" s="32"/>
@@ -13294,7 +13264,7 @@
       <c r="AN143" s="32"/>
       <c r="AO143" s="32"/>
       <c r="AP143" s="32" t="s">
-        <v>251</v>
+        <v>249</v>
       </c>
       <c r="AQ143" s="32"/>
       <c r="AR143" s="32"/>
@@ -13304,7 +13274,7 @@
       <c r="AV143" s="32"/>
       <c r="AW143" s="32"/>
       <c r="AX143" s="32" t="s">
-        <v>359</v>
+        <v>357</v>
       </c>
       <c r="AY143" s="32"/>
       <c r="AZ143" s="32"/>
@@ -13323,7 +13293,7 @@
     </row>
     <row r="144" spans="1:64" ht="10.5" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A144" s="31" t="s">
-        <v>266</v>
+        <v>264</v>
       </c>
       <c r="B144" s="32"/>
       <c r="C144" s="32"/>
@@ -13368,7 +13338,7 @@
       <c r="AN144" s="32"/>
       <c r="AO144" s="32"/>
       <c r="AP144" s="32" t="s">
-        <v>251</v>
+        <v>249</v>
       </c>
       <c r="AQ144" s="32"/>
       <c r="AR144" s="32"/>
@@ -13379,7 +13349,7 @@
       <c r="AW144" s="32"/>
       <c r="AX144" s="32"/>
       <c r="AY144" s="32" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="AZ144" s="32"/>
       <c r="BA144" s="32"/>
@@ -13397,7 +13367,7 @@
     </row>
     <row r="145" spans="1:64" ht="20.5" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A145" s="31" t="s">
-        <v>267</v>
+        <v>265</v>
       </c>
       <c r="B145" s="32"/>
       <c r="C145" s="32"/>
@@ -13442,7 +13412,7 @@
       <c r="AN145" s="32"/>
       <c r="AO145" s="32"/>
       <c r="AP145" s="32" t="s">
-        <v>251</v>
+        <v>249</v>
       </c>
       <c r="AQ145" s="32"/>
       <c r="AR145" s="32"/>
@@ -13453,7 +13423,7 @@
       <c r="AW145" s="32"/>
       <c r="AX145" s="32"/>
       <c r="AY145" s="32" t="s">
-        <v>359</v>
+        <v>357</v>
       </c>
       <c r="AZ145" s="32"/>
       <c r="BA145" s="32"/>
@@ -13471,7 +13441,7 @@
     </row>
     <row r="146" spans="1:64" ht="10.5" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A146" s="31" t="s">
-        <v>268</v>
+        <v>266</v>
       </c>
       <c r="B146" s="32"/>
       <c r="C146" s="32"/>
@@ -13516,7 +13486,7 @@
       <c r="AN146" s="32"/>
       <c r="AO146" s="32"/>
       <c r="AP146" s="32" t="s">
-        <v>251</v>
+        <v>249</v>
       </c>
       <c r="AQ146" s="32"/>
       <c r="AR146" s="32"/>
@@ -13528,7 +13498,7 @@
       <c r="AX146" s="32"/>
       <c r="AY146" s="32"/>
       <c r="AZ146" s="32" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="BA146" s="32"/>
       <c r="BB146" s="32"/>
@@ -13545,7 +13515,7 @@
     </row>
     <row r="147" spans="1:64" ht="20.5" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A147" s="31" t="s">
-        <v>269</v>
+        <v>267</v>
       </c>
       <c r="B147" s="32"/>
       <c r="C147" s="32"/>
@@ -13590,7 +13560,7 @@
       <c r="AN147" s="32"/>
       <c r="AO147" s="32"/>
       <c r="AP147" s="32" t="s">
-        <v>251</v>
+        <v>249</v>
       </c>
       <c r="AQ147" s="32"/>
       <c r="AR147" s="32"/>
@@ -13602,7 +13572,7 @@
       <c r="AX147" s="32"/>
       <c r="AY147" s="32"/>
       <c r="AZ147" s="32" t="s">
-        <v>359</v>
+        <v>357</v>
       </c>
       <c r="BA147" s="32"/>
       <c r="BB147" s="32"/>
@@ -13619,7 +13589,7 @@
     </row>
     <row r="148" spans="1:64" ht="10.5" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A148" s="31" t="s">
-        <v>270</v>
+        <v>268</v>
       </c>
       <c r="B148" s="32"/>
       <c r="C148" s="32"/>
@@ -13664,7 +13634,7 @@
       <c r="AN148" s="32"/>
       <c r="AO148" s="32"/>
       <c r="AP148" s="32" t="s">
-        <v>251</v>
+        <v>249</v>
       </c>
       <c r="AQ148" s="32"/>
       <c r="AR148" s="32"/>
@@ -13677,7 +13647,7 @@
       <c r="AY148" s="32"/>
       <c r="AZ148" s="32"/>
       <c r="BA148" s="32" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="BB148" s="32"/>
       <c r="BC148" s="32"/>
@@ -13693,7 +13663,7 @@
     </row>
     <row r="149" spans="1:64" ht="20.5" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A149" s="31" t="s">
-        <v>271</v>
+        <v>269</v>
       </c>
       <c r="B149" s="32"/>
       <c r="C149" s="32"/>
@@ -13738,7 +13708,7 @@
       <c r="AN149" s="32"/>
       <c r="AO149" s="32"/>
       <c r="AP149" s="32" t="s">
-        <v>251</v>
+        <v>249</v>
       </c>
       <c r="AQ149" s="32"/>
       <c r="AR149" s="32"/>
@@ -13751,7 +13721,7 @@
       <c r="AY149" s="32"/>
       <c r="AZ149" s="32"/>
       <c r="BA149" s="32" t="s">
-        <v>359</v>
+        <v>357</v>
       </c>
       <c r="BB149" s="32"/>
       <c r="BC149" s="32"/>
@@ -13767,7 +13737,7 @@
     </row>
     <row r="150" spans="1:64" ht="10.5" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A150" s="31" t="s">
-        <v>272</v>
+        <v>270</v>
       </c>
       <c r="B150" s="32"/>
       <c r="C150" s="32"/>
@@ -13812,7 +13782,7 @@
       <c r="AN150" s="32"/>
       <c r="AO150" s="32"/>
       <c r="AP150" s="32" t="s">
-        <v>251</v>
+        <v>249</v>
       </c>
       <c r="AQ150" s="32"/>
       <c r="AR150" s="32"/>
@@ -13826,7 +13796,7 @@
       <c r="AZ150" s="32"/>
       <c r="BA150" s="32"/>
       <c r="BB150" s="32" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="BC150" s="32"/>
       <c r="BD150" s="32"/>
@@ -13841,7 +13811,7 @@
     </row>
     <row r="151" spans="1:64" ht="10.5" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A151" s="31" t="s">
-        <v>273</v>
+        <v>271</v>
       </c>
       <c r="B151" s="32"/>
       <c r="C151" s="32"/>
@@ -13886,7 +13856,7 @@
       <c r="AN151" s="32"/>
       <c r="AO151" s="32"/>
       <c r="AP151" s="32" t="s">
-        <v>251</v>
+        <v>249</v>
       </c>
       <c r="AQ151" s="32"/>
       <c r="AR151" s="32"/>
@@ -13900,7 +13870,7 @@
       <c r="AZ151" s="32"/>
       <c r="BA151" s="32"/>
       <c r="BB151" s="32" t="s">
-        <v>359</v>
+        <v>357</v>
       </c>
       <c r="BC151" s="32"/>
       <c r="BD151" s="32"/>
@@ -13915,7 +13885,7 @@
     </row>
     <row r="152" spans="1:64" ht="10.5" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A152" s="31" t="s">
-        <v>274</v>
+        <v>272</v>
       </c>
       <c r="B152" s="32"/>
       <c r="C152" s="32"/>
@@ -13960,7 +13930,7 @@
       <c r="AN152" s="32"/>
       <c r="AO152" s="32"/>
       <c r="AP152" s="32" t="s">
-        <v>251</v>
+        <v>249</v>
       </c>
       <c r="AQ152" s="32"/>
       <c r="AR152" s="32"/>
@@ -13975,7 +13945,7 @@
       <c r="BA152" s="32"/>
       <c r="BB152" s="32"/>
       <c r="BC152" s="32" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="BD152" s="32"/>
       <c r="BE152" s="32"/>
@@ -13989,7 +13959,7 @@
     </row>
     <row r="153" spans="1:64" ht="20.5" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A153" s="31" t="s">
-        <v>275</v>
+        <v>273</v>
       </c>
       <c r="B153" s="32"/>
       <c r="C153" s="32"/>
@@ -14034,7 +14004,7 @@
       <c r="AN153" s="32"/>
       <c r="AO153" s="32"/>
       <c r="AP153" s="32" t="s">
-        <v>251</v>
+        <v>249</v>
       </c>
       <c r="AQ153" s="32"/>
       <c r="AR153" s="32"/>
@@ -14049,7 +14019,7 @@
       <c r="BA153" s="32"/>
       <c r="BB153" s="32"/>
       <c r="BC153" s="32" t="s">
-        <v>359</v>
+        <v>357</v>
       </c>
       <c r="BD153" s="32"/>
       <c r="BE153" s="32"/>
@@ -14063,7 +14033,7 @@
     </row>
     <row r="154" spans="1:64" ht="10.5" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A154" s="31" t="s">
-        <v>276</v>
+        <v>274</v>
       </c>
       <c r="B154" s="32"/>
       <c r="C154" s="32"/>
@@ -14108,7 +14078,7 @@
       <c r="AN154" s="32"/>
       <c r="AO154" s="32"/>
       <c r="AP154" s="32" t="s">
-        <v>251</v>
+        <v>249</v>
       </c>
       <c r="AQ154" s="32"/>
       <c r="AR154" s="32"/>
@@ -14124,7 +14094,7 @@
       <c r="BB154" s="32"/>
       <c r="BC154" s="32"/>
       <c r="BD154" s="32" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="BE154" s="32"/>
       <c r="BF154" s="32"/>
@@ -14137,7 +14107,7 @@
     </row>
     <row r="155" spans="1:64" ht="20.5" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A155" s="31" t="s">
-        <v>277</v>
+        <v>275</v>
       </c>
       <c r="B155" s="32"/>
       <c r="C155" s="32"/>
@@ -14182,7 +14152,7 @@
       <c r="AN155" s="32"/>
       <c r="AO155" s="32"/>
       <c r="AP155" s="32" t="s">
-        <v>251</v>
+        <v>249</v>
       </c>
       <c r="AQ155" s="32"/>
       <c r="AR155" s="32"/>
@@ -14198,7 +14168,7 @@
       <c r="BB155" s="32"/>
       <c r="BC155" s="32"/>
       <c r="BD155" s="32" t="s">
-        <v>359</v>
+        <v>357</v>
       </c>
       <c r="BE155" s="32"/>
       <c r="BF155" s="32"/>
@@ -14211,7 +14181,7 @@
     </row>
     <row r="156" spans="1:64" ht="10.5" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A156" s="31" t="s">
-        <v>366</v>
+        <v>364</v>
       </c>
       <c r="B156" s="32"/>
       <c r="C156" s="32"/>
@@ -14256,7 +14226,7 @@
       <c r="AN156" s="32"/>
       <c r="AO156" s="32"/>
       <c r="AP156" s="32" t="s">
-        <v>251</v>
+        <v>249</v>
       </c>
       <c r="AQ156" s="32"/>
       <c r="AR156" s="32"/>
@@ -14273,7 +14243,7 @@
       <c r="BC156" s="32"/>
       <c r="BD156" s="32"/>
       <c r="BE156" s="32" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="BF156" s="32"/>
       <c r="BG156" s="32"/>
@@ -14285,7 +14255,7 @@
     </row>
     <row r="157" spans="1:64" ht="20.5" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A157" s="31" t="s">
-        <v>367</v>
+        <v>365</v>
       </c>
       <c r="B157" s="32"/>
       <c r="C157" s="32"/>
@@ -14330,7 +14300,7 @@
       <c r="AN157" s="32"/>
       <c r="AO157" s="32"/>
       <c r="AP157" s="32" t="s">
-        <v>251</v>
+        <v>249</v>
       </c>
       <c r="AQ157" s="32"/>
       <c r="AR157" s="32"/>
@@ -14347,7 +14317,7 @@
       <c r="BC157" s="32"/>
       <c r="BD157" s="32"/>
       <c r="BE157" s="32" t="s">
-        <v>359</v>
+        <v>357</v>
       </c>
       <c r="BF157" s="32"/>
       <c r="BG157" s="32"/>
@@ -14359,7 +14329,7 @@
     </row>
     <row r="158" spans="1:64" ht="10.5" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A158" s="31" t="s">
-        <v>368</v>
+        <v>366</v>
       </c>
       <c r="B158" s="32"/>
       <c r="C158" s="32"/>
@@ -14404,7 +14374,7 @@
       <c r="AN158" s="32"/>
       <c r="AO158" s="32"/>
       <c r="AP158" s="32" t="s">
-        <v>251</v>
+        <v>249</v>
       </c>
       <c r="AQ158" s="32"/>
       <c r="AR158" s="32"/>
@@ -14422,7 +14392,7 @@
       <c r="BD158" s="32"/>
       <c r="BE158" s="32"/>
       <c r="BF158" s="32" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="BG158" s="32"/>
       <c r="BH158" s="32"/>
@@ -14433,7 +14403,7 @@
     </row>
     <row r="159" spans="1:64" ht="20.5" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A159" s="31" t="s">
-        <v>369</v>
+        <v>367</v>
       </c>
       <c r="B159" s="32"/>
       <c r="C159" s="32"/>
@@ -14478,7 +14448,7 @@
       <c r="AN159" s="32"/>
       <c r="AO159" s="32"/>
       <c r="AP159" s="32" t="s">
-        <v>251</v>
+        <v>249</v>
       </c>
       <c r="AQ159" s="32"/>
       <c r="AR159" s="32"/>
@@ -14496,7 +14466,7 @@
       <c r="BD159" s="32"/>
       <c r="BE159" s="32"/>
       <c r="BF159" s="32" t="s">
-        <v>359</v>
+        <v>357</v>
       </c>
       <c r="BG159" s="32"/>
       <c r="BH159" s="32"/>
@@ -14507,7 +14477,7 @@
     </row>
     <row r="160" spans="1:64" ht="20.5" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A160" s="31" t="s">
-        <v>383</v>
+        <v>381</v>
       </c>
       <c r="B160" s="32"/>
       <c r="C160" s="32"/>
@@ -14543,7 +14513,7 @@
       <c r="AG160" s="32"/>
       <c r="AH160" s="32"/>
       <c r="AI160" s="32" t="s">
-        <v>380</v>
+        <v>378</v>
       </c>
       <c r="AJ160" s="32"/>
       <c r="AK160" s="32"/>
@@ -14552,7 +14522,7 @@
       <c r="AN160" s="32"/>
       <c r="AO160" s="32"/>
       <c r="AP160" s="32" t="s">
-        <v>251</v>
+        <v>249</v>
       </c>
       <c r="AQ160" s="32"/>
       <c r="AR160" s="32"/>
@@ -14571,7 +14541,7 @@
       <c r="BE160" s="32"/>
       <c r="BF160" s="32"/>
       <c r="BG160" s="32" t="s">
-        <v>384</v>
+        <v>382</v>
       </c>
       <c r="BH160" s="32"/>
       <c r="BI160" s="32"/>
@@ -14581,7 +14551,7 @@
     </row>
     <row r="161" spans="1:64" ht="20.5" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A161" s="31" t="s">
-        <v>370</v>
+        <v>368</v>
       </c>
       <c r="B161" s="32"/>
       <c r="C161" s="32"/>
@@ -14626,7 +14596,7 @@
       <c r="AN161" s="32"/>
       <c r="AO161" s="32"/>
       <c r="AP161" s="32" t="s">
-        <v>251</v>
+        <v>249</v>
       </c>
       <c r="AQ161" s="32"/>
       <c r="AR161" s="32"/>
@@ -14645,7 +14615,7 @@
       <c r="BE161" s="32"/>
       <c r="BF161" s="32"/>
       <c r="BG161" s="32" t="s">
-        <v>359</v>
+        <v>357</v>
       </c>
       <c r="BH161" s="32"/>
       <c r="BI161" s="32"/>
@@ -14655,7 +14625,7 @@
     </row>
     <row r="162" spans="1:64" ht="90.5" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A162" s="31" t="s">
-        <v>278</v>
+        <v>276</v>
       </c>
       <c r="B162" s="32"/>
       <c r="C162" s="32"/>
@@ -14693,14 +14663,14 @@
       <c r="AI162" s="32"/>
       <c r="AJ162" s="32"/>
       <c r="AK162" s="32" t="s">
-        <v>401</v>
+        <v>399</v>
       </c>
       <c r="AL162" s="32"/>
       <c r="AM162" s="32"/>
       <c r="AN162" s="32"/>
       <c r="AO162" s="32"/>
       <c r="AP162" s="32" t="s">
-        <v>251</v>
+        <v>249</v>
       </c>
       <c r="AQ162" s="32"/>
       <c r="AR162" s="32"/>
@@ -14720,7 +14690,7 @@
       <c r="BF162" s="32"/>
       <c r="BG162" s="32"/>
       <c r="BH162" s="32" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="BI162" s="32"/>
       <c r="BJ162" s="33"/>
@@ -14729,7 +14699,7 @@
     </row>
     <row r="163" spans="1:64" ht="90.5" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A163" s="31" t="s">
-        <v>279</v>
+        <v>277</v>
       </c>
       <c r="B163" s="32"/>
       <c r="C163" s="32"/>
@@ -14768,13 +14738,13 @@
       <c r="AJ163" s="32"/>
       <c r="AK163" s="32"/>
       <c r="AL163" s="32" t="s">
-        <v>401</v>
+        <v>399</v>
       </c>
       <c r="AM163" s="32"/>
       <c r="AN163" s="32"/>
       <c r="AO163" s="32"/>
       <c r="AP163" s="32" t="s">
-        <v>251</v>
+        <v>249</v>
       </c>
       <c r="AQ163" s="32"/>
       <c r="AR163" s="32"/>
@@ -14794,7 +14764,7 @@
       <c r="BF163" s="32"/>
       <c r="BG163" s="32"/>
       <c r="BH163" s="32" t="s">
-        <v>359</v>
+        <v>357</v>
       </c>
       <c r="BI163" s="32"/>
       <c r="BJ163" s="33"/>
@@ -14803,7 +14773,7 @@
     </row>
     <row r="164" spans="1:64" ht="20.5" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A164" s="31" t="s">
-        <v>280</v>
+        <v>278</v>
       </c>
       <c r="B164" s="32"/>
       <c r="C164" s="32"/>
@@ -14848,7 +14818,7 @@
       <c r="AN164" s="32"/>
       <c r="AO164" s="32"/>
       <c r="AP164" s="32" t="s">
-        <v>251</v>
+        <v>249</v>
       </c>
       <c r="AQ164" s="32"/>
       <c r="AR164" s="32"/>
@@ -14869,7 +14839,7 @@
       <c r="BG164" s="32"/>
       <c r="BH164" s="32"/>
       <c r="BI164" s="32" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="BJ164" s="33"/>
       <c r="BK164" s="33"/>
@@ -14877,7 +14847,7 @@
     </row>
     <row r="165" spans="1:64" ht="20.5" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A165" s="42" t="s">
-        <v>281</v>
+        <v>279</v>
       </c>
       <c r="B165" s="32"/>
       <c r="C165" s="32"/>
@@ -14922,7 +14892,7 @@
       </c>
       <c r="AO165" s="32"/>
       <c r="AP165" s="32" t="s">
-        <v>251</v>
+        <v>249</v>
       </c>
       <c r="AQ165" s="32"/>
       <c r="AR165" s="32"/>
@@ -14943,7 +14913,7 @@
       <c r="BG165" s="32"/>
       <c r="BH165" s="32"/>
       <c r="BI165" s="32" t="s">
-        <v>359</v>
+        <v>357</v>
       </c>
       <c r="BJ165" s="33"/>
       <c r="BK165" s="33"/>
@@ -14951,7 +14921,7 @@
     </row>
     <row r="166" spans="1:64" ht="20.5" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A166" s="31" t="s">
-        <v>385</v>
+        <v>383</v>
       </c>
       <c r="B166" s="32"/>
       <c r="C166" s="32"/>
@@ -14984,7 +14954,7 @@
       <c r="AD166" s="33"/>
       <c r="AE166" s="33"/>
       <c r="AF166" s="15" t="s">
-        <v>377</v>
+        <v>375</v>
       </c>
       <c r="AG166" s="33"/>
       <c r="AH166" s="33"/>
@@ -14996,7 +14966,7 @@
       <c r="AN166" s="33"/>
       <c r="AO166" s="33"/>
       <c r="AP166" s="32" t="s">
-        <v>251</v>
+        <v>249</v>
       </c>
       <c r="AQ166" s="33"/>
       <c r="AR166" s="33"/>
@@ -15018,14 +14988,14 @@
       <c r="BH166" s="33"/>
       <c r="BI166" s="33"/>
       <c r="BJ166" s="15" t="s">
-        <v>386</v>
+        <v>384</v>
       </c>
       <c r="BK166" s="33"/>
       <c r="BL166" s="33"/>
     </row>
     <row r="167" spans="1:64" ht="10.5" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A167" s="31" t="s">
-        <v>387</v>
+        <v>385</v>
       </c>
       <c r="B167" s="32"/>
       <c r="C167" s="32"/>
@@ -15067,10 +15037,10 @@
       <c r="AM167" s="33"/>
       <c r="AN167" s="33"/>
       <c r="AO167" s="15" t="s">
-        <v>388</v>
+        <v>386</v>
       </c>
       <c r="AP167" s="32" t="s">
-        <v>251</v>
+        <v>249</v>
       </c>
       <c r="AQ167" s="33"/>
       <c r="AR167" s="33"/>
@@ -15093,7 +15063,7 @@
       <c r="BI167" s="33"/>
       <c r="BJ167" s="33"/>
       <c r="BK167" s="33" t="s">
-        <v>389</v>
+        <v>387</v>
       </c>
       <c r="BL167" s="33"/>
     </row>

--- a/src/main/resources/complaince_rules_banner1.xlsx
+++ b/src/main/resources/complaince_rules_banner1.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\WorkSpace\IAB Project\boot-drools-decision\src\main\resources\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6A512BDD-0DFF-457D-B3FD-E604A4BB28B7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2C23022E-AFFB-4990-8FE8-BBE09454F439}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1172" uniqueCount="412">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1172" uniqueCount="408">
   <si>
     <t>RuleSet</t>
   </si>
@@ -77,12 +77,6 @@
     <t>adSessionId==$1</t>
   </si>
   <si>
-    <t>mediaType!=$1</t>
-  </si>
-  <si>
-    <t>mediaType==$1</t>
-  </si>
-  <si>
     <t>type=="$param"</t>
   </si>
   <si>
@@ -711,12 +705,6 @@
   </si>
   <si>
     <t>OnScreenGeometrywidth==$1</t>
-  </si>
-  <si>
-    <t>CreativeType!=$1</t>
-  </si>
-  <si>
-    <t>CreativeType==$1</t>
   </si>
   <si>
     <t>Geometrywidth!=$1</t>
@@ -2205,8 +2193,8 @@
   <sheetPr codeName="Sheet1"/>
   <dimension ref="A1:BW995"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="I14" workbookViewId="0">
-      <selection activeCell="R24" sqref="R24"/>
+    <sheetView tabSelected="1" topLeftCell="A30" workbookViewId="0">
+      <selection activeCell="P140" sqref="P140"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="10" x14ac:dyDescent="0.35"/>
@@ -2262,7 +2250,7 @@
         <v>2</v>
       </c>
       <c r="B2" s="50" t="s">
-        <v>216</v>
+        <v>214</v>
       </c>
       <c r="C2" s="51"/>
       <c r="D2" s="5"/>
@@ -2302,7 +2290,7 @@
         <v>5</v>
       </c>
       <c r="B4" s="46" t="s">
-        <v>217</v>
+        <v>215</v>
       </c>
       <c r="C4" s="47"/>
       <c r="D4" s="3"/>
@@ -2418,46 +2406,46 @@
         <v>12</v>
       </c>
       <c r="D8" s="3" t="s">
-        <v>400</v>
+        <v>396</v>
       </c>
       <c r="E8" s="3" t="s">
+        <v>397</v>
+      </c>
+      <c r="F8" s="3" t="s">
+        <v>391</v>
+      </c>
+      <c r="G8" s="3" t="s">
+        <v>393</v>
+      </c>
+      <c r="H8" s="3" t="s">
+        <v>398</v>
+      </c>
+      <c r="I8" s="3" t="s">
+        <v>399</v>
+      </c>
+      <c r="J8" s="3" t="s">
         <v>401</v>
       </c>
-      <c r="F8" s="3" t="s">
-        <v>395</v>
-      </c>
-      <c r="G8" s="3" t="s">
-        <v>397</v>
-      </c>
-      <c r="H8" s="3" t="s">
+      <c r="K8" s="3" t="s">
         <v>402</v>
       </c>
-      <c r="I8" s="3" t="s">
+      <c r="L8" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="M8" s="3" t="s">
+        <v>277</v>
+      </c>
+      <c r="N8" s="3" t="s">
+        <v>278</v>
+      </c>
+      <c r="O8" s="3" t="s">
+        <v>394</v>
+      </c>
+      <c r="P8" s="3" t="s">
+        <v>279</v>
+      </c>
+      <c r="Q8" s="43" t="s">
         <v>403</v>
-      </c>
-      <c r="J8" s="3" t="s">
-        <v>405</v>
-      </c>
-      <c r="K8" s="3" t="s">
-        <v>406</v>
-      </c>
-      <c r="L8" s="3" t="s">
-        <v>15</v>
-      </c>
-      <c r="M8" s="3" t="s">
-        <v>281</v>
-      </c>
-      <c r="N8" s="3" t="s">
-        <v>282</v>
-      </c>
-      <c r="O8" s="3" t="s">
-        <v>398</v>
-      </c>
-      <c r="P8" s="3" t="s">
-        <v>283</v>
-      </c>
-      <c r="Q8" s="43" t="s">
-        <v>407</v>
       </c>
     </row>
     <row r="9" spans="1:17" ht="20.5" thickBot="1" x14ac:dyDescent="0.4">
@@ -2465,60 +2453,60 @@
         <v>7</v>
       </c>
       <c r="B9" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="C9" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="D9" s="7" t="s">
+        <v>15</v>
+      </c>
+      <c r="E9" s="7" t="s">
+        <v>15</v>
+      </c>
+      <c r="F9" s="7" t="s">
         <v>16</v>
       </c>
-      <c r="C9" s="7" t="s">
+      <c r="G9" s="7" t="s">
         <v>16</v>
       </c>
-      <c r="D9" s="7" t="s">
+      <c r="H9" s="7" t="s">
         <v>17</v>
       </c>
-      <c r="E9" s="7" t="s">
+      <c r="I9" s="7" t="s">
         <v>17</v>
       </c>
-      <c r="F9" s="7" t="s">
+      <c r="J9" s="7" t="s">
+        <v>406</v>
+      </c>
+      <c r="K9" s="7" t="s">
+        <v>406</v>
+      </c>
+      <c r="L9" s="7" t="s">
         <v>18</v>
       </c>
-      <c r="G9" s="7" t="s">
-        <v>18</v>
-      </c>
-      <c r="H9" s="7" t="s">
+      <c r="M9" s="7" t="s">
         <v>19</v>
       </c>
-      <c r="I9" s="7" t="s">
+      <c r="N9" s="7" t="s">
         <v>19</v>
       </c>
-      <c r="J9" s="7" t="s">
-        <v>410</v>
-      </c>
-      <c r="K9" s="7" t="s">
-        <v>410</v>
-      </c>
-      <c r="L9" s="7" t="s">
-        <v>20</v>
-      </c>
-      <c r="M9" s="7" t="s">
-        <v>21</v>
-      </c>
-      <c r="N9" s="7" t="s">
-        <v>21</v>
-      </c>
       <c r="O9" s="7" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="P9" s="7" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="Q9" s="7" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
     </row>
     <row r="10" spans="1:17" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A10" s="23" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="B10" s="3" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="C10" s="3"/>
       <c r="D10" s="3"/>
@@ -2530,10 +2518,10 @@
       <c r="J10" s="3"/>
       <c r="K10" s="3"/>
       <c r="L10" s="3" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="M10" s="3" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="N10" s="3"/>
       <c r="O10" s="3"/>
@@ -2542,11 +2530,11 @@
     </row>
     <row r="11" spans="1:17" ht="20.5" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A11" s="23" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="B11" s="3"/>
       <c r="C11" s="3" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="D11" s="3"/>
       <c r="E11" s="3"/>
@@ -2557,10 +2545,10 @@
       <c r="J11" s="3"/>
       <c r="K11" s="3"/>
       <c r="L11" s="3" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="M11" s="3" t="s">
-        <v>357</v>
+        <v>353</v>
       </c>
       <c r="N11" s="3"/>
       <c r="O11" s="3"/>
@@ -2569,12 +2557,12 @@
     </row>
     <row r="12" spans="1:17" ht="70.5" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A12" s="23" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="B12" s="3"/>
       <c r="C12" s="3"/>
       <c r="D12" s="3" t="s">
-        <v>399</v>
+        <v>395</v>
       </c>
       <c r="E12" s="3"/>
       <c r="F12" s="3"/>
@@ -2584,11 +2572,11 @@
       <c r="J12" s="3"/>
       <c r="K12" s="3"/>
       <c r="L12" s="3" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="M12" s="3"/>
       <c r="N12" s="3" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="O12" s="3"/>
       <c r="P12" s="3"/>
@@ -2596,13 +2584,13 @@
     </row>
     <row r="13" spans="1:17" ht="70.5" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A13" s="23" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="B13" s="3"/>
       <c r="C13" s="3"/>
       <c r="D13" s="3"/>
       <c r="E13" s="3" t="s">
-        <v>399</v>
+        <v>395</v>
       </c>
       <c r="F13" s="3"/>
       <c r="G13" s="3"/>
@@ -2611,11 +2599,11 @@
       <c r="J13" s="3"/>
       <c r="K13" s="3"/>
       <c r="L13" s="3" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="M13" s="3"/>
       <c r="N13" s="3" t="s">
-        <v>357</v>
+        <v>353</v>
       </c>
       <c r="O13" s="3"/>
       <c r="P13" s="3"/>
@@ -2623,14 +2611,14 @@
     </row>
     <row r="14" spans="1:17" ht="20.5" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A14" s="23" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="B14" s="3"/>
       <c r="C14" s="3"/>
       <c r="D14" s="3"/>
       <c r="E14" s="3"/>
       <c r="F14" s="3" t="s">
-        <v>396</v>
+        <v>392</v>
       </c>
       <c r="G14" s="3"/>
       <c r="H14" s="3"/>
@@ -2638,19 +2626,19 @@
       <c r="J14" s="3"/>
       <c r="K14" s="3"/>
       <c r="L14" s="3" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="M14" s="3"/>
       <c r="N14" s="3"/>
       <c r="O14" s="3" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="P14" s="3"/>
       <c r="Q14"/>
     </row>
     <row r="15" spans="1:17" ht="20.5" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A15" s="23" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="B15" s="3"/>
       <c r="C15" s="3"/>
@@ -2658,26 +2646,26 @@
       <c r="E15" s="3"/>
       <c r="F15" s="3"/>
       <c r="G15" s="3" t="s">
-        <v>396</v>
+        <v>392</v>
       </c>
       <c r="H15" s="3"/>
       <c r="I15" s="3"/>
       <c r="J15" s="3"/>
       <c r="K15" s="3"/>
       <c r="L15" s="3" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="M15" s="3"/>
       <c r="N15" s="3"/>
       <c r="O15" s="3" t="s">
-        <v>357</v>
+        <v>353</v>
       </c>
       <c r="P15" s="3"/>
       <c r="Q15"/>
     </row>
     <row r="16" spans="1:17" ht="30.5" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A16" s="23" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="B16" s="3"/>
       <c r="C16" s="3"/>
@@ -2686,25 +2674,25 @@
       <c r="F16" s="3"/>
       <c r="G16" s="3"/>
       <c r="H16" s="3" t="s">
-        <v>404</v>
+        <v>400</v>
       </c>
       <c r="I16" s="3"/>
       <c r="J16" s="3"/>
       <c r="K16" s="3"/>
       <c r="L16" s="3" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="M16" s="3"/>
       <c r="N16" s="3"/>
       <c r="O16" s="3"/>
       <c r="P16" s="3" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="Q16"/>
     </row>
     <row r="17" spans="1:74" ht="30.5" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A17" s="23" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="B17" s="3"/>
       <c r="C17" s="3"/>
@@ -2714,24 +2702,24 @@
       <c r="G17" s="3"/>
       <c r="H17" s="3"/>
       <c r="I17" s="3" t="s">
-        <v>404</v>
+        <v>400</v>
       </c>
       <c r="J17" s="3"/>
       <c r="K17" s="3"/>
       <c r="L17" s="3" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="M17" s="3"/>
       <c r="N17" s="3"/>
       <c r="O17" s="3"/>
       <c r="P17" s="3" t="s">
-        <v>357</v>
+        <v>353</v>
       </c>
       <c r="Q17"/>
     </row>
     <row r="18" spans="1:74" ht="10.5" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A18" s="23" t="s">
-        <v>408</v>
+        <v>404</v>
       </c>
       <c r="B18" s="3"/>
       <c r="C18" s="3"/>
@@ -2742,23 +2730,23 @@
       <c r="H18" s="3"/>
       <c r="I18" s="3"/>
       <c r="J18" s="3" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="K18" s="3"/>
       <c r="L18" s="3" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="M18" s="3"/>
       <c r="N18" s="3"/>
       <c r="O18" s="3"/>
       <c r="P18" s="3"/>
       <c r="Q18" s="2" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
     </row>
     <row r="19" spans="1:74" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A19" s="44" t="s">
-        <v>409</v>
+        <v>405</v>
       </c>
       <c r="B19"/>
       <c r="C19"/>
@@ -2770,17 +2758,17 @@
       <c r="I19"/>
       <c r="J19"/>
       <c r="K19" s="2" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="L19" s="3" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="M19"/>
       <c r="N19"/>
       <c r="O19"/>
       <c r="P19" s="43"/>
       <c r="Q19" s="2" t="s">
-        <v>357</v>
+        <v>353</v>
       </c>
     </row>
     <row r="20" spans="1:74" ht="10.5" thickBot="1" x14ac:dyDescent="0.4">
@@ -2801,7 +2789,7 @@
     </row>
     <row r="21" spans="1:74" s="9" customFormat="1" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A21" s="24" t="s">
-        <v>358</v>
+        <v>354</v>
       </c>
       <c r="B21" s="8"/>
       <c r="C21" s="8"/>
@@ -2846,7 +2834,7 @@
     <row r="23" spans="1:74" ht="20" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A23" s="23"/>
       <c r="B23" s="52" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="C23" s="53"/>
       <c r="D23" s="54"/>
@@ -2870,10 +2858,10 @@
         <v>12</v>
       </c>
       <c r="D24" s="3" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="E24" s="3" t="s">
-        <v>304</v>
+        <v>300</v>
       </c>
       <c r="F24" s="3"/>
       <c r="G24" s="3"/>
@@ -2890,16 +2878,16 @@
         <v>7</v>
       </c>
       <c r="B25" s="7" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="C25" s="7" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="D25" s="7" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="E25" s="7" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="F25" s="3"/>
       <c r="G25" s="3"/>
@@ -2913,17 +2901,17 @@
     </row>
     <row r="26" spans="1:74" ht="10.5" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A26" s="23" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="B26" s="3" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="C26" s="3"/>
       <c r="D26" s="3" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="E26" s="3" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="F26" s="3"/>
       <c r="G26" s="3"/>
@@ -2937,17 +2925,17 @@
     </row>
     <row r="27" spans="1:74" ht="10.5" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A27" s="23" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="B27" s="3"/>
       <c r="C27" s="3" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="D27" s="3" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="E27" s="3" t="s">
-        <v>357</v>
+        <v>353</v>
       </c>
       <c r="F27" s="3"/>
       <c r="G27" s="3"/>
@@ -2977,7 +2965,7 @@
     </row>
     <row r="29" spans="1:74" s="9" customFormat="1" ht="11" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A29" s="25" t="s">
-        <v>316</v>
+        <v>312</v>
       </c>
       <c r="B29" s="10"/>
       <c r="C29" s="10"/>
@@ -3275,7 +3263,7 @@
     <row r="31" spans="1:74" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A31" s="27"/>
       <c r="B31" s="55" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="C31" s="56"/>
       <c r="D31" s="56"/>
@@ -3356,220 +3344,220 @@
         <v>11</v>
       </c>
       <c r="C32" s="14" t="s">
-        <v>411</v>
+        <v>407</v>
       </c>
       <c r="D32" s="14" t="s">
+        <v>35</v>
+      </c>
+      <c r="E32" s="14" t="s">
+        <v>35</v>
+      </c>
+      <c r="F32" s="14" t="s">
+        <v>36</v>
+      </c>
+      <c r="G32" s="14" t="s">
         <v>37</v>
       </c>
-      <c r="E32" s="14" t="s">
-        <v>37</v>
-      </c>
-      <c r="F32" s="14" t="s">
+      <c r="H32" s="14" t="s">
+        <v>391</v>
+      </c>
+      <c r="I32" s="14" t="s">
+        <v>393</v>
+      </c>
+      <c r="J32" s="14" t="s">
+        <v>398</v>
+      </c>
+      <c r="K32" s="14" t="s">
+        <v>399</v>
+      </c>
+      <c r="L32" s="14" t="s">
+        <v>301</v>
+      </c>
+      <c r="M32" s="14" t="s">
+        <v>302</v>
+      </c>
+      <c r="N32" s="14" t="s">
         <v>38</v>
       </c>
-      <c r="G32" s="14" t="s">
+      <c r="O32" s="14" t="s">
         <v>39</v>
       </c>
-      <c r="H32" s="14" t="s">
+      <c r="P32" s="14" t="s">
+        <v>40</v>
+      </c>
+      <c r="Q32" s="14" t="s">
+        <v>41</v>
+      </c>
+      <c r="R32" s="14" t="s">
+        <v>42</v>
+      </c>
+      <c r="S32" s="14" t="s">
+        <v>43</v>
+      </c>
+      <c r="T32" s="14" t="s">
+        <v>44</v>
+      </c>
+      <c r="U32" s="14" t="s">
+        <v>45</v>
+      </c>
+      <c r="V32" s="14" t="s">
+        <v>46</v>
+      </c>
+      <c r="W32" s="14" t="s">
+        <v>47</v>
+      </c>
+      <c r="X32" s="14" t="s">
+        <v>48</v>
+      </c>
+      <c r="Y32" s="14" t="s">
+        <v>49</v>
+      </c>
+      <c r="Z32" s="14" t="s">
+        <v>50</v>
+      </c>
+      <c r="AA32" s="14" t="s">
+        <v>50</v>
+      </c>
+      <c r="AB32" s="14" t="s">
+        <v>51</v>
+      </c>
+      <c r="AC32" s="14" t="s">
+        <v>52</v>
+      </c>
+      <c r="AD32" s="14" t="s">
+        <v>53</v>
+      </c>
+      <c r="AE32" s="14" t="s">
+        <v>54</v>
+      </c>
+      <c r="AF32" s="14" t="s">
+        <v>55</v>
+      </c>
+      <c r="AG32" s="14" t="s">
+        <v>56</v>
+      </c>
+      <c r="AH32" s="14" t="s">
+        <v>57</v>
+      </c>
+      <c r="AI32" s="14" t="s">
+        <v>58</v>
+      </c>
+      <c r="AJ32" s="14" t="s">
+        <v>59</v>
+      </c>
+      <c r="AK32" s="14" t="s">
+        <v>276</v>
+      </c>
+      <c r="AL32" s="14" t="s">
+        <v>134</v>
+      </c>
+      <c r="AM32" s="14" t="s">
+        <v>135</v>
+      </c>
+      <c r="AN32" s="14" t="s">
+        <v>136</v>
+      </c>
+      <c r="AO32" s="14" t="s">
+        <v>137</v>
+      </c>
+      <c r="AP32" s="14" t="s">
+        <v>138</v>
+      </c>
+      <c r="AQ32" s="14" t="s">
+        <v>139</v>
+      </c>
+      <c r="AR32" s="14" t="s">
+        <v>140</v>
+      </c>
+      <c r="AS32" s="14" t="s">
+        <v>141</v>
+      </c>
+      <c r="AT32" s="14" t="s">
+        <v>142</v>
+      </c>
+      <c r="AU32" s="14" t="s">
+        <v>143</v>
+      </c>
+      <c r="AV32" s="14" t="s">
+        <v>396</v>
+      </c>
+      <c r="AW32" s="14" t="s">
+        <v>397</v>
+      </c>
+      <c r="AX32" s="14" t="s">
         <v>13</v>
       </c>
-      <c r="I32" s="14" t="s">
-        <v>14</v>
-      </c>
-      <c r="J32" s="14" t="s">
-        <v>225</v>
-      </c>
-      <c r="K32" s="14" t="s">
-        <v>226</v>
-      </c>
-      <c r="L32" s="14" t="s">
-        <v>305</v>
-      </c>
-      <c r="M32" s="14" t="s">
-        <v>306</v>
-      </c>
-      <c r="N32" s="14" t="s">
-        <v>40</v>
-      </c>
-      <c r="O32" s="14" t="s">
-        <v>41</v>
-      </c>
-      <c r="P32" s="14" t="s">
-        <v>42</v>
-      </c>
-      <c r="Q32" s="14" t="s">
-        <v>43</v>
-      </c>
-      <c r="R32" s="14" t="s">
-        <v>44</v>
-      </c>
-      <c r="S32" s="14" t="s">
-        <v>45</v>
-      </c>
-      <c r="T32" s="14" t="s">
-        <v>46</v>
-      </c>
-      <c r="U32" s="14" t="s">
-        <v>47</v>
-      </c>
-      <c r="V32" s="14" t="s">
-        <v>48</v>
-      </c>
-      <c r="W32" s="14" t="s">
-        <v>49</v>
-      </c>
-      <c r="X32" s="14" t="s">
-        <v>50</v>
-      </c>
-      <c r="Y32" s="14" t="s">
-        <v>51</v>
-      </c>
-      <c r="Z32" s="14" t="s">
-        <v>52</v>
-      </c>
-      <c r="AA32" s="14" t="s">
-        <v>52</v>
-      </c>
-      <c r="AB32" s="14" t="s">
-        <v>53</v>
-      </c>
-      <c r="AC32" s="14" t="s">
-        <v>54</v>
-      </c>
-      <c r="AD32" s="14" t="s">
-        <v>55</v>
-      </c>
-      <c r="AE32" s="14" t="s">
-        <v>56</v>
-      </c>
-      <c r="AF32" s="14" t="s">
-        <v>57</v>
-      </c>
-      <c r="AG32" s="14" t="s">
-        <v>58</v>
-      </c>
-      <c r="AH32" s="14" t="s">
-        <v>59</v>
-      </c>
-      <c r="AI32" s="14" t="s">
-        <v>60</v>
-      </c>
-      <c r="AJ32" s="14" t="s">
-        <v>61</v>
-      </c>
-      <c r="AK32" s="14" t="s">
-        <v>280</v>
-      </c>
-      <c r="AL32" s="14" t="s">
-        <v>136</v>
-      </c>
-      <c r="AM32" s="14" t="s">
-        <v>137</v>
-      </c>
-      <c r="AN32" s="14" t="s">
-        <v>138</v>
-      </c>
-      <c r="AO32" s="14" t="s">
-        <v>139</v>
-      </c>
-      <c r="AP32" s="14" t="s">
-        <v>140</v>
-      </c>
-      <c r="AQ32" s="14" t="s">
-        <v>141</v>
-      </c>
-      <c r="AR32" s="14" t="s">
-        <v>142</v>
-      </c>
-      <c r="AS32" s="14" t="s">
-        <v>143</v>
-      </c>
-      <c r="AT32" s="14" t="s">
-        <v>144</v>
-      </c>
-      <c r="AU32" s="14" t="s">
-        <v>145</v>
-      </c>
-      <c r="AV32" s="14" t="s">
-        <v>400</v>
-      </c>
-      <c r="AW32" s="14" t="s">
-        <v>401</v>
-      </c>
-      <c r="AX32" s="14" t="s">
-        <v>15</v>
-      </c>
       <c r="AY32" s="14" t="s">
+        <v>314</v>
+      </c>
+      <c r="AZ32" s="14" t="s">
+        <v>315</v>
+      </c>
+      <c r="BA32" s="14" t="s">
+        <v>316</v>
+      </c>
+      <c r="BB32" s="16" t="s">
+        <v>317</v>
+      </c>
+      <c r="BC32" s="16" t="s">
         <v>318</v>
       </c>
-      <c r="AZ32" s="14" t="s">
+      <c r="BD32" s="16" t="s">
         <v>319</v>
       </c>
-      <c r="BA32" s="14" t="s">
+      <c r="BE32" s="16" t="s">
         <v>320</v>
       </c>
-      <c r="BB32" s="16" t="s">
+      <c r="BF32" s="16" t="s">
         <v>321</v>
       </c>
-      <c r="BC32" s="16" t="s">
+      <c r="BG32" s="16" t="s">
         <v>322</v>
       </c>
-      <c r="BD32" s="16" t="s">
+      <c r="BH32" s="16" t="s">
         <v>323</v>
       </c>
-      <c r="BE32" s="16" t="s">
+      <c r="BI32" s="16" t="s">
         <v>324</v>
       </c>
-      <c r="BF32" s="16" t="s">
+      <c r="BJ32" s="16" t="s">
         <v>325</v>
       </c>
-      <c r="BG32" s="16" t="s">
+      <c r="BK32" s="16" t="s">
         <v>326</v>
       </c>
-      <c r="BH32" s="16" t="s">
+      <c r="BL32" s="16" t="s">
         <v>327</v>
       </c>
-      <c r="BI32" s="16" t="s">
+      <c r="BM32" s="16" t="s">
         <v>328</v>
       </c>
-      <c r="BJ32" s="16" t="s">
+      <c r="BN32" s="16" t="s">
         <v>329</v>
       </c>
-      <c r="BK32" s="16" t="s">
+      <c r="BO32" s="16" t="s">
         <v>330</v>
       </c>
-      <c r="BL32" s="16" t="s">
+      <c r="BP32" s="16" t="s">
         <v>331</v>
       </c>
-      <c r="BM32" s="16" t="s">
+      <c r="BQ32" s="16" t="s">
         <v>332</v>
       </c>
-      <c r="BN32" s="16" t="s">
+      <c r="BR32" s="16" t="s">
         <v>333</v>
       </c>
-      <c r="BO32" s="16" t="s">
+      <c r="BS32" s="16" t="s">
         <v>334</v>
       </c>
-      <c r="BP32" s="16" t="s">
+      <c r="BT32" s="16" t="s">
         <v>335</v>
       </c>
-      <c r="BQ32" s="16" t="s">
+      <c r="BU32" s="16" t="s">
         <v>336</v>
       </c>
-      <c r="BR32" s="16" t="s">
+      <c r="BV32" s="16" t="s">
         <v>337</v>
-      </c>
-      <c r="BS32" s="16" t="s">
-        <v>338</v>
-      </c>
-      <c r="BT32" s="16" t="s">
-        <v>339</v>
-      </c>
-      <c r="BU32" s="16" t="s">
-        <v>340</v>
-      </c>
-      <c r="BV32" s="16" t="s">
-        <v>341</v>
       </c>
     </row>
     <row r="33" spans="1:74" ht="20.5" thickBot="1" x14ac:dyDescent="0.4">
@@ -3577,231 +3565,231 @@
         <v>7</v>
       </c>
       <c r="B33" s="17" t="s">
+        <v>60</v>
+      </c>
+      <c r="C33" s="17" t="s">
+        <v>60</v>
+      </c>
+      <c r="D33" s="17" t="s">
+        <v>61</v>
+      </c>
+      <c r="E33" s="17" t="s">
+        <v>61</v>
+      </c>
+      <c r="F33" s="17" t="s">
         <v>62</v>
       </c>
-      <c r="C33" s="17" t="s">
+      <c r="G33" s="17" t="s">
         <v>62</v>
       </c>
-      <c r="D33" s="17" t="s">
+      <c r="H33" s="17" t="s">
         <v>63</v>
       </c>
-      <c r="E33" s="17" t="s">
+      <c r="I33" s="17" t="s">
         <v>63</v>
       </c>
-      <c r="F33" s="17" t="s">
+      <c r="J33" s="17" t="s">
+        <v>17</v>
+      </c>
+      <c r="K33" s="17" t="s">
+        <v>17</v>
+      </c>
+      <c r="L33" s="17" t="s">
         <v>64</v>
       </c>
-      <c r="G33" s="17" t="s">
-        <v>64</v>
-      </c>
-      <c r="H33" s="17" t="s">
+      <c r="M33" s="17" t="s">
         <v>65</v>
       </c>
-      <c r="I33" s="17" t="s">
-        <v>65</v>
-      </c>
-      <c r="J33" s="17" t="s">
+      <c r="N33" s="17" t="s">
+        <v>66</v>
+      </c>
+      <c r="O33" s="17" t="s">
+        <v>66</v>
+      </c>
+      <c r="P33" s="17" t="s">
+        <v>67</v>
+      </c>
+      <c r="Q33" s="17" t="s">
+        <v>67</v>
+      </c>
+      <c r="R33" s="17" t="s">
+        <v>68</v>
+      </c>
+      <c r="S33" s="17" t="s">
+        <v>68</v>
+      </c>
+      <c r="T33" s="17" t="s">
+        <v>69</v>
+      </c>
+      <c r="U33" s="17" t="s">
+        <v>69</v>
+      </c>
+      <c r="V33" s="17" t="s">
+        <v>70</v>
+      </c>
+      <c r="W33" s="17" t="s">
+        <v>70</v>
+      </c>
+      <c r="X33" s="17" t="s">
+        <v>71</v>
+      </c>
+      <c r="Y33" s="17" t="s">
+        <v>71</v>
+      </c>
+      <c r="Z33" s="17" t="s">
+        <v>72</v>
+      </c>
+      <c r="AA33" s="17" t="s">
+        <v>72</v>
+      </c>
+      <c r="AB33" s="17" t="s">
+        <v>73</v>
+      </c>
+      <c r="AC33" s="17" t="s">
+        <v>73</v>
+      </c>
+      <c r="AD33" s="17" t="s">
+        <v>74</v>
+      </c>
+      <c r="AE33" s="17" t="s">
+        <v>74</v>
+      </c>
+      <c r="AF33" s="17" t="s">
+        <v>75</v>
+      </c>
+      <c r="AG33" s="17" t="s">
+        <v>75</v>
+      </c>
+      <c r="AH33" s="17" t="s">
+        <v>76</v>
+      </c>
+      <c r="AI33" s="17" t="s">
+        <v>76</v>
+      </c>
+      <c r="AJ33" s="17" t="s">
+        <v>77</v>
+      </c>
+      <c r="AK33" s="17" t="s">
+        <v>77</v>
+      </c>
+      <c r="AL33" s="17" t="s">
+        <v>144</v>
+      </c>
+      <c r="AM33" s="17" t="s">
+        <v>144</v>
+      </c>
+      <c r="AN33" s="17" t="s">
+        <v>145</v>
+      </c>
+      <c r="AO33" s="17" t="s">
+        <v>145</v>
+      </c>
+      <c r="AP33" s="17" t="s">
+        <v>146</v>
+      </c>
+      <c r="AQ33" s="17" t="s">
+        <v>146</v>
+      </c>
+      <c r="AR33" s="17" t="s">
+        <v>147</v>
+      </c>
+      <c r="AS33" s="17" t="s">
+        <v>147</v>
+      </c>
+      <c r="AT33" s="17" t="s">
+        <v>148</v>
+      </c>
+      <c r="AU33" s="17" t="s">
+        <v>148</v>
+      </c>
+      <c r="AV33" s="17" t="s">
+        <v>15</v>
+      </c>
+      <c r="AW33" s="17" t="s">
+        <v>15</v>
+      </c>
+      <c r="AX33" s="17" t="s">
+        <v>78</v>
+      </c>
+      <c r="AY33" s="17" t="s">
         <v>19</v>
       </c>
-      <c r="K33" s="17" t="s">
+      <c r="AZ33" s="17" t="s">
         <v>19</v>
       </c>
-      <c r="L33" s="17" t="s">
-        <v>66</v>
-      </c>
-      <c r="M33" s="17" t="s">
-        <v>67</v>
-      </c>
-      <c r="N33" s="17" t="s">
-        <v>68</v>
-      </c>
-      <c r="O33" s="17" t="s">
-        <v>68</v>
-      </c>
-      <c r="P33" s="17" t="s">
-        <v>69</v>
-      </c>
-      <c r="Q33" s="17" t="s">
-        <v>69</v>
-      </c>
-      <c r="R33" s="17" t="s">
-        <v>70</v>
-      </c>
-      <c r="S33" s="17" t="s">
-        <v>70</v>
-      </c>
-      <c r="T33" s="17" t="s">
-        <v>71</v>
-      </c>
-      <c r="U33" s="17" t="s">
-        <v>71</v>
-      </c>
-      <c r="V33" s="17" t="s">
-        <v>72</v>
-      </c>
-      <c r="W33" s="17" t="s">
-        <v>72</v>
-      </c>
-      <c r="X33" s="17" t="s">
-        <v>73</v>
-      </c>
-      <c r="Y33" s="17" t="s">
-        <v>73</v>
-      </c>
-      <c r="Z33" s="17" t="s">
-        <v>74</v>
-      </c>
-      <c r="AA33" s="17" t="s">
-        <v>74</v>
-      </c>
-      <c r="AB33" s="17" t="s">
-        <v>75</v>
-      </c>
-      <c r="AC33" s="17" t="s">
-        <v>75</v>
-      </c>
-      <c r="AD33" s="17" t="s">
-        <v>76</v>
-      </c>
-      <c r="AE33" s="17" t="s">
-        <v>76</v>
-      </c>
-      <c r="AF33" s="17" t="s">
-        <v>77</v>
-      </c>
-      <c r="AG33" s="17" t="s">
-        <v>77</v>
-      </c>
-      <c r="AH33" s="17" t="s">
-        <v>78</v>
-      </c>
-      <c r="AI33" s="17" t="s">
-        <v>78</v>
-      </c>
-      <c r="AJ33" s="17" t="s">
-        <v>79</v>
-      </c>
-      <c r="AK33" s="17" t="s">
-        <v>79</v>
-      </c>
-      <c r="AL33" s="17" t="s">
-        <v>146</v>
-      </c>
-      <c r="AM33" s="17" t="s">
-        <v>146</v>
-      </c>
-      <c r="AN33" s="17" t="s">
-        <v>147</v>
-      </c>
-      <c r="AO33" s="17" t="s">
-        <v>147</v>
-      </c>
-      <c r="AP33" s="17" t="s">
-        <v>148</v>
-      </c>
-      <c r="AQ33" s="17" t="s">
-        <v>148</v>
-      </c>
-      <c r="AR33" s="17" t="s">
-        <v>149</v>
-      </c>
-      <c r="AS33" s="17" t="s">
-        <v>149</v>
-      </c>
-      <c r="AT33" s="17" t="s">
-        <v>150</v>
-      </c>
-      <c r="AU33" s="17" t="s">
-        <v>150</v>
-      </c>
-      <c r="AV33" s="17" t="s">
-        <v>17</v>
-      </c>
-      <c r="AW33" s="17" t="s">
-        <v>17</v>
-      </c>
-      <c r="AX33" s="17" t="s">
-        <v>80</v>
-      </c>
-      <c r="AY33" s="17" t="s">
-        <v>21</v>
-      </c>
-      <c r="AZ33" s="17" t="s">
-        <v>21</v>
-      </c>
       <c r="BA33" s="17" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="BB33" s="17" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="BC33" s="17" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="BD33" s="17" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="BE33" s="17" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="BF33" s="17" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="BG33" s="17" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="BH33" s="17" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="BI33" s="17" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="BJ33" s="17" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="BK33" s="17" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="BL33" s="17" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="BM33" s="17" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="BN33" s="17" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="BO33" s="17" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="BP33" s="17" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="BQ33" s="17" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="BR33" s="17" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="BS33" s="17" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="BT33" s="17" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="BU33" s="17" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="BV33" s="17" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
     </row>
     <row r="34" spans="1:74" ht="10.5" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A34" s="27" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="B34" s="14" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="C34" s="14"/>
       <c r="D34" s="14"/>
@@ -3851,10 +3839,10 @@
       <c r="AV34" s="14"/>
       <c r="AW34" s="14"/>
       <c r="AX34" s="14" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="AY34" s="14" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="AZ34" s="14"/>
       <c r="BA34" s="14"/>
@@ -3877,11 +3865,11 @@
     </row>
     <row r="35" spans="1:74" ht="20.5" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A35" s="27" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="B35" s="14"/>
       <c r="C35" s="14" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="D35" s="14"/>
       <c r="E35" s="14"/>
@@ -3930,10 +3918,10 @@
       <c r="AV35" s="14"/>
       <c r="AW35" s="14"/>
       <c r="AX35" s="14" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="AY35" s="14" t="s">
-        <v>357</v>
+        <v>353</v>
       </c>
       <c r="AZ35" s="14"/>
       <c r="BA35" s="14"/>
@@ -3956,12 +3944,12 @@
     </row>
     <row r="36" spans="1:74" ht="10.5" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A36" s="27" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="B36" s="14"/>
       <c r="C36" s="14"/>
       <c r="D36" s="14" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="E36" s="15"/>
       <c r="F36" s="14"/>
@@ -4009,11 +3997,11 @@
       <c r="AV36" s="14"/>
       <c r="AW36" s="14"/>
       <c r="AX36" s="14" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="AY36" s="14"/>
       <c r="AZ36" s="14" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="BA36" s="14"/>
       <c r="BB36" s="15"/>
@@ -4035,13 +4023,13 @@
     </row>
     <row r="37" spans="1:74" ht="20.5" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A37" s="27" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="B37" s="14"/>
       <c r="C37" s="14"/>
       <c r="D37" s="15"/>
       <c r="E37" s="15" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="F37" s="14"/>
       <c r="G37" s="14"/>
@@ -4088,11 +4076,11 @@
       <c r="AV37" s="14"/>
       <c r="AW37" s="14"/>
       <c r="AX37" s="14" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="AY37" s="14"/>
       <c r="AZ37" s="14" t="s">
-        <v>357</v>
+        <v>353</v>
       </c>
       <c r="BA37" s="14"/>
       <c r="BB37" s="15"/>
@@ -4114,14 +4102,14 @@
     </row>
     <row r="38" spans="1:74" ht="10.5" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A38" s="27" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="B38" s="14"/>
       <c r="C38" s="14"/>
       <c r="D38" s="15"/>
       <c r="E38" s="15"/>
       <c r="F38" s="14" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="G38" s="14"/>
       <c r="H38" s="14"/>
@@ -4167,12 +4155,12 @@
       <c r="AV38" s="14"/>
       <c r="AW38" s="14"/>
       <c r="AX38" s="14" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="AY38" s="14"/>
       <c r="AZ38" s="14"/>
       <c r="BA38" s="14" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="BB38" s="15"/>
       <c r="BC38" s="15"/>
@@ -4193,7 +4181,7 @@
     </row>
     <row r="39" spans="1:74" ht="20.5" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A39" s="27" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="B39" s="14"/>
       <c r="C39" s="14"/>
@@ -4201,7 +4189,7 @@
       <c r="E39" s="14"/>
       <c r="F39" s="14"/>
       <c r="G39" s="14" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="H39" s="14"/>
       <c r="I39" s="14"/>
@@ -4246,12 +4234,12 @@
       <c r="AV39" s="14"/>
       <c r="AW39" s="14"/>
       <c r="AX39" s="14" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="AY39" s="14"/>
       <c r="AZ39" s="14"/>
       <c r="BA39" s="14" t="s">
-        <v>357</v>
+        <v>353</v>
       </c>
       <c r="BB39" s="15"/>
       <c r="BC39" s="15"/>
@@ -4270,9 +4258,9 @@
       <c r="BP39" s="15"/>
       <c r="BQ39" s="15"/>
     </row>
-    <row r="40" spans="1:74" ht="10.5" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="40" spans="1:74" ht="20.5" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A40" s="29" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="B40" s="14"/>
       <c r="C40" s="15"/>
@@ -4280,8 +4268,8 @@
       <c r="E40" s="15"/>
       <c r="F40" s="15"/>
       <c r="G40" s="15"/>
-      <c r="H40" s="15" t="s">
-        <v>23</v>
+      <c r="H40" s="16" t="s">
+        <v>392</v>
       </c>
       <c r="I40" s="15"/>
       <c r="J40" s="15"/>
@@ -4325,13 +4313,13 @@
       <c r="AV40" s="15"/>
       <c r="AW40" s="15"/>
       <c r="AX40" s="14" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="AY40" s="15"/>
       <c r="AZ40" s="15"/>
       <c r="BA40" s="15"/>
       <c r="BB40" s="15" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="BC40" s="15"/>
       <c r="BD40" s="15"/>
@@ -4349,9 +4337,9 @@
       <c r="BP40" s="15"/>
       <c r="BQ40" s="15"/>
     </row>
-    <row r="41" spans="1:74" ht="10.5" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="41" spans="1:74" ht="20.5" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A41" s="29" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="B41" s="15"/>
       <c r="C41" s="15"/>
@@ -4360,8 +4348,8 @@
       <c r="F41" s="15"/>
       <c r="G41" s="15"/>
       <c r="H41" s="15"/>
-      <c r="I41" s="15" t="s">
-        <v>23</v>
+      <c r="I41" s="16" t="s">
+        <v>392</v>
       </c>
       <c r="J41" s="15"/>
       <c r="K41" s="15"/>
@@ -4404,13 +4392,13 @@
       <c r="AV41" s="15"/>
       <c r="AW41" s="15"/>
       <c r="AX41" s="14" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="AY41" s="15"/>
       <c r="AZ41" s="15"/>
       <c r="BA41" s="15"/>
       <c r="BB41" s="15" t="s">
-        <v>357</v>
+        <v>353</v>
       </c>
       <c r="BC41" s="15"/>
       <c r="BD41" s="15"/>
@@ -4428,9 +4416,9 @@
       <c r="BP41" s="15"/>
       <c r="BQ41" s="15"/>
     </row>
-    <row r="42" spans="1:74" ht="10.5" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="42" spans="1:74" ht="30.5" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A42" s="29" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="B42" s="15"/>
       <c r="C42" s="15"/>
@@ -4440,8 +4428,8 @@
       <c r="G42" s="15"/>
       <c r="H42" s="15"/>
       <c r="I42" s="15"/>
-      <c r="J42" s="15" t="s">
-        <v>23</v>
+      <c r="J42" s="16" t="s">
+        <v>400</v>
       </c>
       <c r="K42" s="15"/>
       <c r="L42" s="15"/>
@@ -4483,14 +4471,14 @@
       <c r="AV42" s="15"/>
       <c r="AW42" s="15"/>
       <c r="AX42" s="14" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="AY42" s="15"/>
       <c r="AZ42" s="15"/>
       <c r="BA42" s="15"/>
       <c r="BB42" s="15"/>
       <c r="BC42" s="15" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="BD42" s="15"/>
       <c r="BE42" s="15"/>
@@ -4507,9 +4495,9 @@
       <c r="BP42" s="15"/>
       <c r="BQ42" s="15"/>
     </row>
-    <row r="43" spans="1:74" ht="10.5" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="43" spans="1:74" ht="30.5" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A43" s="29" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="B43" s="15"/>
       <c r="C43" s="15"/>
@@ -4520,8 +4508,8 @@
       <c r="H43" s="15"/>
       <c r="I43" s="15"/>
       <c r="J43" s="15"/>
-      <c r="K43" s="15" t="s">
-        <v>23</v>
+      <c r="K43" s="16" t="s">
+        <v>400</v>
       </c>
       <c r="L43" s="15"/>
       <c r="M43" s="15"/>
@@ -4562,14 +4550,14 @@
       <c r="AV43" s="15"/>
       <c r="AW43" s="15"/>
       <c r="AX43" s="14" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="AY43" s="15"/>
       <c r="AZ43" s="15"/>
       <c r="BA43" s="15"/>
       <c r="BB43" s="15"/>
       <c r="BC43" s="15" t="s">
-        <v>357</v>
+        <v>353</v>
       </c>
       <c r="BD43" s="15"/>
       <c r="BE43" s="15"/>
@@ -4588,7 +4576,7 @@
     </row>
     <row r="44" spans="1:74" ht="10.5" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A44" s="29" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="B44" s="15"/>
       <c r="C44" s="15"/>
@@ -4601,7 +4589,7 @@
       <c r="J44" s="15"/>
       <c r="K44" s="15"/>
       <c r="L44" s="15" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="M44" s="15"/>
       <c r="N44" s="15"/>
@@ -4641,7 +4629,7 @@
       <c r="AV44" s="15"/>
       <c r="AW44" s="15"/>
       <c r="AX44" s="14" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="AY44" s="15"/>
       <c r="AZ44" s="15"/>
@@ -4649,7 +4637,7 @@
       <c r="BB44" s="15"/>
       <c r="BC44" s="15"/>
       <c r="BD44" s="16" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="BE44" s="15"/>
       <c r="BF44" s="15"/>
@@ -4667,7 +4655,7 @@
     </row>
     <row r="45" spans="1:74" ht="20.5" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A45" s="29" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="B45" s="15"/>
       <c r="C45" s="15"/>
@@ -4681,7 +4669,7 @@
       <c r="K45" s="15"/>
       <c r="L45" s="15"/>
       <c r="M45" s="15" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="N45" s="15"/>
       <c r="O45" s="15"/>
@@ -4720,7 +4708,7 @@
       <c r="AV45" s="15"/>
       <c r="AW45" s="15"/>
       <c r="AX45" s="14" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="AY45" s="15"/>
       <c r="AZ45" s="15"/>
@@ -4728,7 +4716,7 @@
       <c r="BB45" s="15"/>
       <c r="BC45" s="15"/>
       <c r="BD45" s="16" t="s">
-        <v>357</v>
+        <v>353</v>
       </c>
       <c r="BE45" s="15"/>
       <c r="BF45" s="15"/>
@@ -4746,7 +4734,7 @@
     </row>
     <row r="46" spans="1:74" ht="10.5" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A46" s="29" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="B46" s="15"/>
       <c r="C46" s="15"/>
@@ -4761,7 +4749,7 @@
       <c r="L46" s="15"/>
       <c r="M46" s="15"/>
       <c r="N46" s="15" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="O46" s="15"/>
       <c r="P46" s="15"/>
@@ -4799,7 +4787,7 @@
       <c r="AV46" s="15"/>
       <c r="AW46" s="15"/>
       <c r="AX46" s="14" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="AY46" s="15"/>
       <c r="AZ46" s="15"/>
@@ -4808,7 +4796,7 @@
       <c r="BC46" s="15"/>
       <c r="BD46" s="15"/>
       <c r="BE46" s="15" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="BF46" s="15"/>
       <c r="BG46" s="15"/>
@@ -4825,7 +4813,7 @@
     </row>
     <row r="47" spans="1:74" ht="10.5" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A47" s="29" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="B47" s="15"/>
       <c r="C47" s="15"/>
@@ -4841,7 +4829,7 @@
       <c r="M47" s="15"/>
       <c r="N47" s="15"/>
       <c r="O47" s="15" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="P47" s="15"/>
       <c r="Q47" s="15"/>
@@ -4878,7 +4866,7 @@
       <c r="AV47" s="15"/>
       <c r="AW47" s="15"/>
       <c r="AX47" s="14" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="AY47" s="15"/>
       <c r="AZ47" s="15"/>
@@ -4887,7 +4875,7 @@
       <c r="BC47" s="15"/>
       <c r="BD47" s="15"/>
       <c r="BE47" s="15" t="s">
-        <v>357</v>
+        <v>353</v>
       </c>
       <c r="BF47" s="15"/>
       <c r="BG47" s="15"/>
@@ -4904,7 +4892,7 @@
     </row>
     <row r="48" spans="1:74" ht="10.5" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A48" s="29" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="B48" s="15"/>
       <c r="C48" s="15"/>
@@ -4921,7 +4909,7 @@
       <c r="N48" s="15"/>
       <c r="O48" s="15"/>
       <c r="P48" s="15" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="Q48" s="15"/>
       <c r="R48" s="15"/>
@@ -4957,7 +4945,7 @@
       <c r="AV48" s="15"/>
       <c r="AW48" s="15"/>
       <c r="AX48" s="14" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="AY48" s="15"/>
       <c r="AZ48" s="15"/>
@@ -4967,7 +4955,7 @@
       <c r="BD48" s="15"/>
       <c r="BE48" s="15"/>
       <c r="BF48" s="15" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="BG48" s="15"/>
       <c r="BH48" s="15"/>
@@ -4983,7 +4971,7 @@
     </row>
     <row r="49" spans="1:69" ht="10.5" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A49" s="29" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="B49" s="15"/>
       <c r="C49" s="15"/>
@@ -5001,7 +4989,7 @@
       <c r="O49" s="15"/>
       <c r="P49" s="15"/>
       <c r="Q49" s="15" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="R49" s="15"/>
       <c r="S49" s="15"/>
@@ -5036,7 +5024,7 @@
       <c r="AV49" s="15"/>
       <c r="AW49" s="15"/>
       <c r="AX49" s="14" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="AY49" s="15"/>
       <c r="AZ49" s="15"/>
@@ -5046,7 +5034,7 @@
       <c r="BD49" s="15"/>
       <c r="BE49" s="15"/>
       <c r="BF49" s="15" t="s">
-        <v>357</v>
+        <v>353</v>
       </c>
       <c r="BG49" s="15"/>
       <c r="BH49" s="15"/>
@@ -5062,7 +5050,7 @@
     </row>
     <row r="50" spans="1:69" ht="10.5" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A50" s="29" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="B50" s="15"/>
       <c r="C50" s="15"/>
@@ -5081,7 +5069,7 @@
       <c r="P50" s="15"/>
       <c r="Q50" s="15"/>
       <c r="R50" s="15" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="S50" s="15"/>
       <c r="T50" s="15"/>
@@ -5115,7 +5103,7 @@
       <c r="AV50" s="15"/>
       <c r="AW50" s="15"/>
       <c r="AX50" s="14" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="AY50" s="15"/>
       <c r="AZ50" s="15"/>
@@ -5126,7 +5114,7 @@
       <c r="BE50" s="15"/>
       <c r="BF50" s="15"/>
       <c r="BG50" s="15" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="BH50" s="15"/>
       <c r="BI50" s="15"/>
@@ -5141,7 +5129,7 @@
     </row>
     <row r="51" spans="1:69" ht="10.5" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A51" s="29" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="B51" s="15"/>
       <c r="C51" s="15"/>
@@ -5161,7 +5149,7 @@
       <c r="Q51" s="15"/>
       <c r="R51" s="15"/>
       <c r="S51" s="15" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="T51" s="15"/>
       <c r="U51" s="15"/>
@@ -5194,7 +5182,7 @@
       <c r="AV51" s="15"/>
       <c r="AW51" s="15"/>
       <c r="AX51" s="14" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="AY51" s="15"/>
       <c r="AZ51" s="15"/>
@@ -5205,7 +5193,7 @@
       <c r="BE51" s="15"/>
       <c r="BF51" s="15"/>
       <c r="BG51" s="15" t="s">
-        <v>357</v>
+        <v>353</v>
       </c>
       <c r="BH51" s="15"/>
       <c r="BI51" s="15"/>
@@ -5220,7 +5208,7 @@
     </row>
     <row r="52" spans="1:69" ht="10.5" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A52" s="29" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
       <c r="B52" s="15"/>
       <c r="C52" s="15"/>
@@ -5241,7 +5229,7 @@
       <c r="R52" s="15"/>
       <c r="S52" s="15"/>
       <c r="T52" s="15" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="U52" s="15"/>
       <c r="V52" s="15"/>
@@ -5273,7 +5261,7 @@
       <c r="AV52" s="15"/>
       <c r="AW52" s="15"/>
       <c r="AX52" s="14" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="AY52" s="15"/>
       <c r="AZ52" s="15"/>
@@ -5285,7 +5273,7 @@
       <c r="BF52" s="15"/>
       <c r="BG52" s="15"/>
       <c r="BH52" s="15" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="BI52" s="15"/>
       <c r="BJ52" s="15"/>
@@ -5299,7 +5287,7 @@
     </row>
     <row r="53" spans="1:69" ht="10.5" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A53" s="29" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="B53" s="15"/>
       <c r="C53" s="15"/>
@@ -5321,7 +5309,7 @@
       <c r="S53" s="15"/>
       <c r="T53" s="15"/>
       <c r="U53" s="15" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="V53" s="15"/>
       <c r="W53" s="15"/>
@@ -5352,7 +5340,7 @@
       <c r="AV53" s="15"/>
       <c r="AW53" s="15"/>
       <c r="AX53" s="14" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="AY53" s="15"/>
       <c r="AZ53" s="15"/>
@@ -5364,7 +5352,7 @@
       <c r="BF53" s="15"/>
       <c r="BG53" s="15"/>
       <c r="BH53" s="15" t="s">
-        <v>357</v>
+        <v>353</v>
       </c>
       <c r="BI53" s="15"/>
       <c r="BJ53" s="15"/>
@@ -5378,7 +5366,7 @@
     </row>
     <row r="54" spans="1:69" ht="10.5" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A54" s="29" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c r="B54" s="15"/>
       <c r="C54" s="15"/>
@@ -5401,7 +5389,7 @@
       <c r="T54" s="15"/>
       <c r="U54" s="15"/>
       <c r="V54" s="15" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
       <c r="W54" s="15"/>
       <c r="X54" s="15"/>
@@ -5431,7 +5419,7 @@
       <c r="AV54" s="15"/>
       <c r="AW54" s="15"/>
       <c r="AX54" s="14" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="AY54" s="15"/>
       <c r="AZ54" s="15"/>
@@ -5444,7 +5432,7 @@
       <c r="BG54" s="15"/>
       <c r="BH54" s="15"/>
       <c r="BI54" s="15" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="BJ54" s="15"/>
       <c r="BK54" s="15"/>
@@ -5457,7 +5445,7 @@
     </row>
     <row r="55" spans="1:69" ht="20.5" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A55" s="29" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="B55" s="15"/>
       <c r="C55" s="15"/>
@@ -5481,7 +5469,7 @@
       <c r="U55" s="15"/>
       <c r="V55" s="15"/>
       <c r="W55" s="15" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
       <c r="X55" s="15"/>
       <c r="Y55" s="15"/>
@@ -5510,7 +5498,7 @@
       <c r="AV55" s="15"/>
       <c r="AW55" s="15"/>
       <c r="AX55" s="14" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="AY55" s="15"/>
       <c r="AZ55" s="15"/>
@@ -5523,7 +5511,7 @@
       <c r="BG55" s="15"/>
       <c r="BH55" s="15"/>
       <c r="BI55" s="16" t="s">
-        <v>357</v>
+        <v>353</v>
       </c>
       <c r="BJ55" s="15"/>
       <c r="BK55" s="15"/>
@@ -5536,7 +5524,7 @@
     </row>
     <row r="56" spans="1:69" ht="10.5" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A56" s="29" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="B56" s="15"/>
       <c r="C56" s="15"/>
@@ -5561,7 +5549,7 @@
       <c r="V56" s="15"/>
       <c r="W56" s="15"/>
       <c r="X56" s="15" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
       <c r="Y56" s="15"/>
       <c r="Z56" s="15"/>
@@ -5589,7 +5577,7 @@
       <c r="AV56" s="15"/>
       <c r="AW56" s="15"/>
       <c r="AX56" s="14" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="AY56" s="15"/>
       <c r="AZ56" s="15"/>
@@ -5603,7 +5591,7 @@
       <c r="BH56" s="15"/>
       <c r="BI56" s="15"/>
       <c r="BJ56" s="15" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="BK56" s="15"/>
       <c r="BL56" s="15"/>
@@ -5615,7 +5603,7 @@
     </row>
     <row r="57" spans="1:69" ht="10.5" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A57" s="29" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="B57" s="15"/>
       <c r="C57" s="15"/>
@@ -5641,7 +5629,7 @@
       <c r="W57" s="15"/>
       <c r="X57" s="15"/>
       <c r="Y57" s="15" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
       <c r="Z57" s="15"/>
       <c r="AA57" s="15"/>
@@ -5668,7 +5656,7 @@
       <c r="AV57" s="15"/>
       <c r="AW57" s="15"/>
       <c r="AX57" s="14" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="AY57" s="15"/>
       <c r="AZ57" s="15"/>
@@ -5682,7 +5670,7 @@
       <c r="BH57" s="15"/>
       <c r="BI57" s="15"/>
       <c r="BJ57" s="15" t="s">
-        <v>357</v>
+        <v>353</v>
       </c>
       <c r="BK57" s="15"/>
       <c r="BL57" s="15"/>
@@ -5694,7 +5682,7 @@
     </row>
     <row r="58" spans="1:69" ht="10.5" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A58" s="29" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="B58" s="15"/>
       <c r="C58" s="15"/>
@@ -5748,7 +5736,7 @@
       <c r="AV58" s="15"/>
       <c r="AW58" s="15"/>
       <c r="AX58" s="14" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="AY58" s="15"/>
       <c r="AZ58" s="15"/>
@@ -5763,7 +5751,7 @@
       <c r="BI58" s="15"/>
       <c r="BJ58" s="15"/>
       <c r="BK58" s="16" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="BL58" s="15"/>
       <c r="BM58" s="15"/>
@@ -5774,7 +5762,7 @@
     </row>
     <row r="59" spans="1:69" ht="20.5" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A59" s="29" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
       <c r="B59" s="15"/>
       <c r="C59" s="15"/>
@@ -5828,7 +5816,7 @@
       <c r="AV59" s="15"/>
       <c r="AW59" s="15"/>
       <c r="AX59" s="14" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="AY59" s="15"/>
       <c r="AZ59" s="15"/>
@@ -5843,7 +5831,7 @@
       <c r="BI59" s="15"/>
       <c r="BJ59" s="15"/>
       <c r="BK59" s="16" t="s">
-        <v>357</v>
+        <v>353</v>
       </c>
       <c r="BL59" s="15"/>
       <c r="BM59" s="15"/>
@@ -5854,7 +5842,7 @@
     </row>
     <row r="60" spans="1:69" ht="10.5" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A60" s="29" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
       <c r="B60" s="15"/>
       <c r="C60" s="15"/>
@@ -5883,7 +5871,7 @@
       <c r="Z60" s="15"/>
       <c r="AA60" s="15"/>
       <c r="AB60" s="15" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="AC60" s="15"/>
       <c r="AD60" s="15"/>
@@ -5907,7 +5895,7 @@
       <c r="AV60" s="15"/>
       <c r="AW60" s="15"/>
       <c r="AX60" s="14" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="AY60" s="15"/>
       <c r="AZ60" s="15"/>
@@ -5923,7 +5911,7 @@
       <c r="BJ60" s="15"/>
       <c r="BK60" s="15"/>
       <c r="BL60" s="16" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="BM60" s="15"/>
       <c r="BN60" s="15"/>
@@ -5933,7 +5921,7 @@
     </row>
     <row r="61" spans="1:69" ht="20.5" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A61" s="29" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
       <c r="B61" s="15"/>
       <c r="C61" s="15"/>
@@ -5963,7 +5951,7 @@
       <c r="AA61" s="15"/>
       <c r="AB61" s="15"/>
       <c r="AC61" s="15" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="AD61" s="15"/>
       <c r="AE61" s="15"/>
@@ -5986,7 +5974,7 @@
       <c r="AV61" s="15"/>
       <c r="AW61" s="15"/>
       <c r="AX61" s="14" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="AY61" s="15"/>
       <c r="AZ61" s="15"/>
@@ -6002,7 +5990,7 @@
       <c r="BJ61" s="15"/>
       <c r="BK61" s="15"/>
       <c r="BL61" s="16" t="s">
-        <v>357</v>
+        <v>353</v>
       </c>
       <c r="BM61" s="15"/>
       <c r="BN61" s="15"/>
@@ -6012,7 +6000,7 @@
     </row>
     <row r="62" spans="1:69" ht="10.5" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A62" s="29" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="B62" s="15"/>
       <c r="C62" s="15"/>
@@ -6043,7 +6031,7 @@
       <c r="AB62" s="15"/>
       <c r="AC62" s="15"/>
       <c r="AD62" s="15" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="AE62" s="15"/>
       <c r="AF62" s="15"/>
@@ -6065,7 +6053,7 @@
       <c r="AV62" s="15"/>
       <c r="AW62" s="15"/>
       <c r="AX62" s="14" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="AY62" s="15"/>
       <c r="AZ62" s="15"/>
@@ -6082,7 +6070,7 @@
       <c r="BK62" s="15"/>
       <c r="BL62" s="15"/>
       <c r="BM62" s="15" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="BN62" s="15"/>
       <c r="BO62" s="15"/>
@@ -6091,7 +6079,7 @@
     </row>
     <row r="63" spans="1:69" ht="20.5" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A63" s="29" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
       <c r="B63" s="15"/>
       <c r="C63" s="15"/>
@@ -6123,7 +6111,7 @@
       <c r="AC63" s="15"/>
       <c r="AD63" s="15"/>
       <c r="AE63" s="15" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="AF63" s="15"/>
       <c r="AG63" s="15"/>
@@ -6144,7 +6132,7 @@
       <c r="AV63" s="15"/>
       <c r="AW63" s="15"/>
       <c r="AX63" s="14" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="AY63" s="15"/>
       <c r="AZ63" s="15"/>
@@ -6161,7 +6149,7 @@
       <c r="BK63" s="15"/>
       <c r="BL63" s="15"/>
       <c r="BM63" s="16" t="s">
-        <v>357</v>
+        <v>353</v>
       </c>
       <c r="BN63" s="15"/>
       <c r="BO63" s="15"/>
@@ -6170,7 +6158,7 @@
     </row>
     <row r="64" spans="1:69" ht="10.5" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A64" s="29" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
       <c r="B64" s="15"/>
       <c r="C64" s="15"/>
@@ -6203,7 +6191,7 @@
       <c r="AD64" s="15"/>
       <c r="AE64" s="15"/>
       <c r="AF64" s="15" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="AG64" s="15"/>
       <c r="AH64" s="15"/>
@@ -6223,7 +6211,7 @@
       <c r="AV64" s="15"/>
       <c r="AW64" s="15"/>
       <c r="AX64" s="14" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="AY64" s="15"/>
       <c r="AZ64" s="15"/>
@@ -6241,7 +6229,7 @@
       <c r="BL64" s="15"/>
       <c r="BM64" s="15"/>
       <c r="BN64" s="16" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="BO64" s="15"/>
       <c r="BP64" s="15"/>
@@ -6249,7 +6237,7 @@
     </row>
     <row r="65" spans="1:75" ht="20.5" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A65" s="29" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
       <c r="B65" s="15"/>
       <c r="C65" s="15"/>
@@ -6283,7 +6271,7 @@
       <c r="AE65" s="15"/>
       <c r="AF65" s="15"/>
       <c r="AG65" s="15" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="AH65" s="15"/>
       <c r="AI65" s="15"/>
@@ -6302,7 +6290,7 @@
       <c r="AV65" s="15"/>
       <c r="AW65" s="15"/>
       <c r="AX65" s="14" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="AY65" s="15"/>
       <c r="AZ65" s="15"/>
@@ -6320,7 +6308,7 @@
       <c r="BL65" s="15"/>
       <c r="BM65" s="15"/>
       <c r="BN65" s="16" t="s">
-        <v>357</v>
+        <v>353</v>
       </c>
       <c r="BO65" s="15"/>
       <c r="BP65" s="15"/>
@@ -6328,7 +6316,7 @@
     </row>
     <row r="66" spans="1:75" ht="10.5" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A66" s="29" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
       <c r="B66" s="15"/>
       <c r="C66" s="15"/>
@@ -6363,7 +6351,7 @@
       <c r="AF66" s="15"/>
       <c r="AG66" s="15"/>
       <c r="AH66" s="15" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="AI66" s="15"/>
       <c r="AJ66" s="15"/>
@@ -6381,7 +6369,7 @@
       <c r="AV66" s="15"/>
       <c r="AW66" s="15"/>
       <c r="AX66" s="14" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="AY66" s="15"/>
       <c r="AZ66" s="15"/>
@@ -6400,14 +6388,14 @@
       <c r="BM66" s="15"/>
       <c r="BN66" s="15"/>
       <c r="BO66" s="15" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="BP66" s="15"/>
       <c r="BQ66" s="15"/>
     </row>
     <row r="67" spans="1:75" ht="10.5" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A67" s="29" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
       <c r="B67" s="15"/>
       <c r="C67" s="15"/>
@@ -6443,7 +6431,7 @@
       <c r="AG67" s="15"/>
       <c r="AH67" s="15"/>
       <c r="AI67" s="15" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="AJ67" s="15"/>
       <c r="AK67" s="15"/>
@@ -6460,7 +6448,7 @@
       <c r="AV67" s="15"/>
       <c r="AW67" s="15"/>
       <c r="AX67" s="14" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="AY67" s="15"/>
       <c r="AZ67" s="15"/>
@@ -6479,14 +6467,14 @@
       <c r="BM67" s="15"/>
       <c r="BN67" s="15"/>
       <c r="BO67" s="15" t="s">
-        <v>357</v>
+        <v>353</v>
       </c>
       <c r="BP67" s="15"/>
       <c r="BQ67" s="15"/>
     </row>
     <row r="68" spans="1:75" ht="10.5" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A68" s="29" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
       <c r="B68" s="15"/>
       <c r="C68" s="15"/>
@@ -6523,7 +6511,7 @@
       <c r="AH68" s="15"/>
       <c r="AI68" s="15"/>
       <c r="AJ68" s="15" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="AK68" s="15"/>
       <c r="AL68" s="15"/>
@@ -6539,7 +6527,7 @@
       <c r="AV68" s="15"/>
       <c r="AW68" s="15"/>
       <c r="AX68" s="14" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="AY68" s="15"/>
       <c r="AZ68" s="15"/>
@@ -6559,13 +6547,13 @@
       <c r="BN68" s="15"/>
       <c r="BO68" s="15"/>
       <c r="BP68" s="15" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="BQ68" s="15"/>
     </row>
     <row r="69" spans="1:75" ht="10.5" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A69" s="29" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
       <c r="B69" s="15"/>
       <c r="C69" s="15"/>
@@ -6603,7 +6591,7 @@
       <c r="AI69" s="15"/>
       <c r="AJ69" s="15"/>
       <c r="AK69" s="15" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="AL69" s="15"/>
       <c r="AM69" s="15"/>
@@ -6618,7 +6606,7 @@
       <c r="AV69" s="15"/>
       <c r="AW69" s="15"/>
       <c r="AX69" s="14" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="AY69" s="15"/>
       <c r="AZ69" s="15"/>
@@ -6638,13 +6626,13 @@
       <c r="BN69" s="15"/>
       <c r="BO69" s="15"/>
       <c r="BP69" s="15" t="s">
-        <v>357</v>
+        <v>353</v>
       </c>
       <c r="BQ69" s="15"/>
     </row>
     <row r="70" spans="1:75" ht="10.5" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A70" s="29" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="B70" s="15"/>
       <c r="C70" s="15"/>
@@ -6683,7 +6671,7 @@
       <c r="AJ70" s="15"/>
       <c r="AK70" s="15"/>
       <c r="AL70" s="15" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="AM70" s="15"/>
       <c r="AN70" s="15"/>
@@ -6697,7 +6685,7 @@
       <c r="AV70" s="15"/>
       <c r="AW70" s="15"/>
       <c r="AX70" s="14" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="AY70" s="15"/>
       <c r="AZ70" s="15"/>
@@ -6718,7 +6706,7 @@
       <c r="BO70" s="15"/>
       <c r="BP70" s="15"/>
       <c r="BQ70" s="15" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="BR70" s="15"/>
       <c r="BS70" s="15"/>
@@ -6729,7 +6717,7 @@
     </row>
     <row r="71" spans="1:75" ht="10.5" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A71" s="29" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
       <c r="B71" s="15"/>
       <c r="C71" s="15"/>
@@ -6769,7 +6757,7 @@
       <c r="AK71" s="15"/>
       <c r="AL71" s="15"/>
       <c r="AM71" s="15" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="AN71" s="15"/>
       <c r="AO71" s="15"/>
@@ -6782,7 +6770,7 @@
       <c r="AV71" s="15"/>
       <c r="AW71" s="15"/>
       <c r="AX71" s="14" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="AY71" s="15"/>
       <c r="AZ71" s="15"/>
@@ -6803,7 +6791,7 @@
       <c r="BO71" s="15"/>
       <c r="BP71" s="15"/>
       <c r="BQ71" s="15" t="s">
-        <v>357</v>
+        <v>353</v>
       </c>
       <c r="BR71" s="15"/>
       <c r="BS71" s="15"/>
@@ -6814,7 +6802,7 @@
     </row>
     <row r="72" spans="1:75" ht="10.5" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A72" s="29" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
       <c r="B72" s="15"/>
       <c r="C72" s="15"/>
@@ -6855,7 +6843,7 @@
       <c r="AL72" s="15"/>
       <c r="AM72" s="15"/>
       <c r="AN72" s="15" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="AO72" s="15"/>
       <c r="AP72" s="15"/>
@@ -6867,7 +6855,7 @@
       <c r="AV72" s="15"/>
       <c r="AW72" s="15"/>
       <c r="AX72" s="14" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="AY72" s="15"/>
       <c r="AZ72" s="15"/>
@@ -6889,7 +6877,7 @@
       <c r="BP72" s="15"/>
       <c r="BQ72" s="15"/>
       <c r="BR72" s="15" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="BS72" s="15"/>
       <c r="BT72" s="15"/>
@@ -6899,7 +6887,7 @@
     </row>
     <row r="73" spans="1:75" ht="10.5" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A73" s="29" t="s">
-        <v>127</v>
+        <v>125</v>
       </c>
       <c r="B73" s="15"/>
       <c r="C73" s="15"/>
@@ -6941,7 +6929,7 @@
       <c r="AM73" s="15"/>
       <c r="AN73" s="15"/>
       <c r="AO73" s="15" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="AP73" s="15"/>
       <c r="AQ73" s="15"/>
@@ -6952,7 +6940,7 @@
       <c r="AV73" s="15"/>
       <c r="AW73" s="15"/>
       <c r="AX73" s="14" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="AY73" s="15"/>
       <c r="AZ73" s="15"/>
@@ -6974,7 +6962,7 @@
       <c r="BP73" s="15"/>
       <c r="BQ73" s="15"/>
       <c r="BR73" s="15" t="s">
-        <v>357</v>
+        <v>353</v>
       </c>
       <c r="BS73" s="15"/>
       <c r="BT73" s="15"/>
@@ -6984,7 +6972,7 @@
     </row>
     <row r="74" spans="1:75" ht="10.5" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A74" s="29" t="s">
-        <v>128</v>
+        <v>126</v>
       </c>
       <c r="B74" s="15"/>
       <c r="C74" s="15"/>
@@ -7027,7 +7015,7 @@
       <c r="AN74" s="15"/>
       <c r="AO74" s="15"/>
       <c r="AP74" s="15" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="AQ74" s="15"/>
       <c r="AR74" s="15"/>
@@ -7037,7 +7025,7 @@
       <c r="AV74" s="15"/>
       <c r="AW74" s="15"/>
       <c r="AX74" s="14" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="AY74" s="15"/>
       <c r="AZ74" s="15"/>
@@ -7060,7 +7048,7 @@
       <c r="BQ74" s="15"/>
       <c r="BR74" s="15"/>
       <c r="BS74" s="15" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="BT74" s="15"/>
       <c r="BU74" s="15"/>
@@ -7069,7 +7057,7 @@
     </row>
     <row r="75" spans="1:75" ht="10.5" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A75" s="29" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
       <c r="B75" s="15"/>
       <c r="C75" s="15"/>
@@ -7113,7 +7101,7 @@
       <c r="AO75" s="15"/>
       <c r="AP75" s="15"/>
       <c r="AQ75" s="15" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="AR75" s="15"/>
       <c r="AS75" s="15"/>
@@ -7122,7 +7110,7 @@
       <c r="AV75" s="15"/>
       <c r="AW75" s="15"/>
       <c r="AX75" s="14" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="AY75" s="15"/>
       <c r="AZ75" s="15"/>
@@ -7145,7 +7133,7 @@
       <c r="BQ75" s="15"/>
       <c r="BR75" s="15"/>
       <c r="BS75" s="15" t="s">
-        <v>357</v>
+        <v>353</v>
       </c>
       <c r="BT75" s="15"/>
       <c r="BU75" s="15"/>
@@ -7154,7 +7142,7 @@
     </row>
     <row r="76" spans="1:75" ht="10.5" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A76" s="29" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="B76" s="15"/>
       <c r="C76" s="15"/>
@@ -7199,7 +7187,7 @@
       <c r="AP76" s="15"/>
       <c r="AQ76" s="15"/>
       <c r="AR76" s="15" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="AS76" s="15"/>
       <c r="AT76" s="15"/>
@@ -7207,7 +7195,7 @@
       <c r="AV76" s="15"/>
       <c r="AW76" s="15"/>
       <c r="AX76" s="14" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="AY76" s="15"/>
       <c r="AZ76" s="15"/>
@@ -7231,7 +7219,7 @@
       <c r="BR76" s="15"/>
       <c r="BS76" s="15"/>
       <c r="BT76" s="15" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="BU76" s="15"/>
       <c r="BV76" s="15"/>
@@ -7239,7 +7227,7 @@
     </row>
     <row r="77" spans="1:75" ht="10.5" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A77" s="29" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="B77" s="15"/>
       <c r="C77" s="15"/>
@@ -7285,14 +7273,14 @@
       <c r="AQ77" s="15"/>
       <c r="AR77" s="15"/>
       <c r="AS77" s="15" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="AT77" s="15"/>
       <c r="AU77" s="15"/>
       <c r="AV77" s="15"/>
       <c r="AW77" s="15"/>
       <c r="AX77" s="14" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="AY77" s="15"/>
       <c r="AZ77" s="15"/>
@@ -7316,7 +7304,7 @@
       <c r="BR77" s="15"/>
       <c r="BS77" s="15"/>
       <c r="BT77" s="15" t="s">
-        <v>357</v>
+        <v>353</v>
       </c>
       <c r="BU77" s="15"/>
       <c r="BV77" s="15"/>
@@ -7324,7 +7312,7 @@
     </row>
     <row r="78" spans="1:75" ht="10.5" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A78" s="29" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
       <c r="B78" s="15"/>
       <c r="C78" s="15"/>
@@ -7371,13 +7359,13 @@
       <c r="AR78" s="15"/>
       <c r="AS78" s="15"/>
       <c r="AT78" s="15" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="AU78" s="15"/>
       <c r="AV78" s="15"/>
       <c r="AW78" s="15"/>
       <c r="AX78" s="14" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="AY78" s="15"/>
       <c r="AZ78" s="15"/>
@@ -7402,14 +7390,14 @@
       <c r="BS78" s="15"/>
       <c r="BT78" s="15"/>
       <c r="BU78" s="15" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="BV78" s="15"/>
       <c r="BW78" s="15"/>
     </row>
     <row r="79" spans="1:75" ht="10.5" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A79" s="29" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="B79" s="15"/>
       <c r="C79" s="15"/>
@@ -7457,12 +7445,12 @@
       <c r="AS79" s="15"/>
       <c r="AT79" s="15"/>
       <c r="AU79" s="15" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="AV79" s="15"/>
       <c r="AW79" s="15"/>
       <c r="AX79" s="14" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="AY79" s="15"/>
       <c r="AZ79" s="15"/>
@@ -7487,14 +7475,14 @@
       <c r="BS79" s="15"/>
       <c r="BT79" s="15"/>
       <c r="BU79" s="15" t="s">
-        <v>357</v>
+        <v>353</v>
       </c>
       <c r="BV79" s="15"/>
       <c r="BW79" s="15"/>
     </row>
     <row r="80" spans="1:75" ht="90.5" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A80" s="29" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
       <c r="B80" s="15"/>
       <c r="C80" s="15"/>
@@ -7543,11 +7531,11 @@
       <c r="AT80" s="15"/>
       <c r="AU80" s="15"/>
       <c r="AV80" s="16" t="s">
-        <v>399</v>
+        <v>395</v>
       </c>
       <c r="AW80" s="15"/>
       <c r="AX80" s="14" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="AY80" s="15"/>
       <c r="AZ80" s="15"/>
@@ -7573,13 +7561,13 @@
       <c r="BT80" s="15"/>
       <c r="BU80" s="15"/>
       <c r="BV80" s="15" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="BW80" s="15"/>
     </row>
     <row r="81" spans="1:75" ht="90.5" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A81" s="29" t="s">
-        <v>135</v>
+        <v>133</v>
       </c>
       <c r="B81" s="15"/>
       <c r="C81" s="15"/>
@@ -7629,10 +7617,10 @@
       <c r="AU81" s="15"/>
       <c r="AV81" s="15"/>
       <c r="AW81" s="16" t="s">
-        <v>399</v>
+        <v>395</v>
       </c>
       <c r="AX81" s="14" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="AY81" s="15"/>
       <c r="AZ81" s="15"/>
@@ -7658,7 +7646,7 @@
       <c r="BT81" s="15"/>
       <c r="BU81" s="15"/>
       <c r="BV81" s="15" t="s">
-        <v>357</v>
+        <v>353</v>
       </c>
       <c r="BW81" s="15"/>
     </row>
@@ -7741,7 +7729,7 @@
     </row>
     <row r="83" spans="1:75" s="9" customFormat="1" ht="11" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A83" s="34" t="s">
-        <v>315</v>
+        <v>311</v>
       </c>
       <c r="B83" s="35"/>
       <c r="C83" s="35"/>
@@ -8000,7 +7988,7 @@
     <row r="85" spans="1:75" ht="10.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A85" s="31"/>
       <c r="B85" s="45" t="s">
-        <v>151</v>
+        <v>149</v>
       </c>
       <c r="C85" s="45"/>
       <c r="D85" s="45"/>
@@ -8079,154 +8067,154 @@
     <row r="86" spans="1:75" ht="130.5" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A86" s="31"/>
       <c r="B86" s="32" t="s">
+        <v>150</v>
+      </c>
+      <c r="C86" s="32" t="s">
+        <v>151</v>
+      </c>
+      <c r="D86" s="32" t="s">
+        <v>387</v>
+      </c>
+      <c r="E86" s="32" t="s">
         <v>152</v>
       </c>
-      <c r="C86" s="32" t="s">
+      <c r="F86" s="32" t="s">
+        <v>298</v>
+      </c>
+      <c r="G86" s="32" t="s">
+        <v>299</v>
+      </c>
+      <c r="H86" s="32" t="s">
         <v>153</v>
       </c>
-      <c r="D86" s="32" t="s">
-        <v>391</v>
-      </c>
-      <c r="E86" s="32" t="s">
+      <c r="I86" s="32" t="s">
         <v>154</v>
       </c>
-      <c r="F86" s="32" t="s">
-        <v>302</v>
-      </c>
-      <c r="G86" s="32" t="s">
+      <c r="J86" s="32" t="s">
+        <v>155</v>
+      </c>
+      <c r="K86" s="32" t="s">
+        <v>156</v>
+      </c>
+      <c r="L86" s="32" t="s">
+        <v>157</v>
+      </c>
+      <c r="M86" s="32" t="s">
+        <v>158</v>
+      </c>
+      <c r="N86" s="32" t="s">
+        <v>159</v>
+      </c>
+      <c r="O86" s="32" t="s">
+        <v>160</v>
+      </c>
+      <c r="P86" s="32" t="s">
+        <v>161</v>
+      </c>
+      <c r="Q86" s="32" t="s">
+        <v>162</v>
+      </c>
+      <c r="R86" s="32" t="s">
+        <v>163</v>
+      </c>
+      <c r="S86" s="32" t="s">
+        <v>164</v>
+      </c>
+      <c r="T86" s="32" t="s">
+        <v>165</v>
+      </c>
+      <c r="U86" s="32" t="s">
+        <v>166</v>
+      </c>
+      <c r="V86" s="32" t="s">
         <v>303</v>
       </c>
-      <c r="H86" s="32" t="s">
-        <v>155</v>
-      </c>
-      <c r="I86" s="32" t="s">
-        <v>156</v>
-      </c>
-      <c r="J86" s="32" t="s">
-        <v>157</v>
-      </c>
-      <c r="K86" s="32" t="s">
-        <v>158</v>
-      </c>
-      <c r="L86" s="32" t="s">
-        <v>159</v>
-      </c>
-      <c r="M86" s="32" t="s">
-        <v>160</v>
-      </c>
-      <c r="N86" s="32" t="s">
-        <v>161</v>
-      </c>
-      <c r="O86" s="32" t="s">
-        <v>162</v>
-      </c>
-      <c r="P86" s="32" t="s">
-        <v>163</v>
-      </c>
-      <c r="Q86" s="32" t="s">
-        <v>164</v>
-      </c>
-      <c r="R86" s="32" t="s">
-        <v>165</v>
-      </c>
-      <c r="S86" s="32" t="s">
-        <v>166</v>
-      </c>
-      <c r="T86" s="32" t="s">
+      <c r="W86" s="32" t="s">
+        <v>304</v>
+      </c>
+      <c r="X86" s="32" t="s">
         <v>167</v>
       </c>
-      <c r="U86" s="32" t="s">
+      <c r="Y86" s="32" t="s">
         <v>168</v>
       </c>
-      <c r="V86" s="32" t="s">
-        <v>307</v>
-      </c>
-      <c r="W86" s="32" t="s">
-        <v>308</v>
-      </c>
-      <c r="X86" s="32" t="s">
+      <c r="Z86" s="38" t="s">
         <v>169</v>
       </c>
-      <c r="Y86" s="32" t="s">
+      <c r="AA86" s="38" t="s">
         <v>170</v>
       </c>
-      <c r="Z86" s="38" t="s">
+      <c r="AB86" s="32" t="s">
         <v>171</v>
       </c>
-      <c r="AA86" s="38" t="s">
+      <c r="AC86" s="32" t="s">
         <v>172</v>
       </c>
-      <c r="AB86" s="32" t="s">
+      <c r="AD86" s="32" t="s">
         <v>173</v>
       </c>
-      <c r="AC86" s="32" t="s">
+      <c r="AE86" s="32" t="s">
         <v>174</v>
       </c>
-      <c r="AD86" s="32" t="s">
-        <v>175</v>
-      </c>
-      <c r="AE86" s="32" t="s">
-        <v>176</v>
-      </c>
       <c r="AF86" s="14" t="s">
-        <v>394</v>
+        <v>390</v>
       </c>
       <c r="AG86" s="14" t="s">
-        <v>363</v>
+        <v>359</v>
       </c>
       <c r="AH86" s="32" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="AI86" s="32" t="s">
+        <v>338</v>
+      </c>
+      <c r="AJ86" s="32" t="s">
+        <v>339</v>
+      </c>
+      <c r="AK86" s="32" t="s">
+        <v>340</v>
+      </c>
+      <c r="AL86" s="32" t="s">
+        <v>341</v>
+      </c>
+      <c r="AM86" s="32" t="s">
         <v>342</v>
       </c>
-      <c r="AJ86" s="32" t="s">
+      <c r="AN86" s="32" t="s">
         <v>343</v>
       </c>
-      <c r="AK86" s="32" t="s">
+      <c r="AO86" s="32" t="s">
         <v>344</v>
       </c>
-      <c r="AL86" s="32" t="s">
+      <c r="AP86" s="32" t="s">
         <v>345</v>
       </c>
-      <c r="AM86" s="32" t="s">
+      <c r="AQ86" s="32" t="s">
         <v>346</v>
       </c>
-      <c r="AN86" s="32" t="s">
+      <c r="AR86" s="32" t="s">
         <v>347</v>
       </c>
-      <c r="AO86" s="32" t="s">
+      <c r="AS86" s="32" t="s">
         <v>348</v>
       </c>
-      <c r="AP86" s="32" t="s">
+      <c r="AT86" s="32" t="s">
         <v>349</v>
       </c>
-      <c r="AQ86" s="32" t="s">
+      <c r="AU86" s="32" t="s">
         <v>350</v>
       </c>
-      <c r="AR86" s="32" t="s">
+      <c r="AV86" s="32" t="s">
         <v>351</v>
       </c>
-      <c r="AS86" s="32" t="s">
+      <c r="AW86" s="32" t="s">
         <v>352</v>
       </c>
-      <c r="AT86" s="32" t="s">
-        <v>353</v>
-      </c>
-      <c r="AU86" s="32" t="s">
-        <v>354</v>
-      </c>
-      <c r="AV86" s="32" t="s">
-        <v>355</v>
-      </c>
-      <c r="AW86" s="32" t="s">
-        <v>356</v>
-      </c>
       <c r="AX86" s="14" t="s">
-        <v>343</v>
+        <v>339</v>
       </c>
       <c r="AY86" s="14" t="s">
-        <v>343</v>
+        <v>339</v>
       </c>
       <c r="AZ86" s="33"/>
       <c r="BA86" s="33"/>
@@ -8258,154 +8246,154 @@
         <v>7</v>
       </c>
       <c r="B87" s="40" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="C87" s="40" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="D87" s="40" t="s">
-        <v>374</v>
+        <v>370</v>
       </c>
       <c r="E87" s="40" t="s">
+        <v>175</v>
+      </c>
+      <c r="F87" s="40" t="s">
+        <v>176</v>
+      </c>
+      <c r="G87" s="40" t="s">
+        <v>176</v>
+      </c>
+      <c r="H87" s="40" t="s">
         <v>177</v>
       </c>
-      <c r="F87" s="40" t="s">
+      <c r="I87" s="40" t="s">
+        <v>177</v>
+      </c>
+      <c r="J87" s="40" t="s">
         <v>178</v>
       </c>
-      <c r="G87" s="40" t="s">
+      <c r="K87" s="40" t="s">
         <v>178</v>
       </c>
-      <c r="H87" s="40" t="s">
+      <c r="L87" s="40" t="s">
         <v>179</v>
       </c>
-      <c r="I87" s="40" t="s">
+      <c r="M87" s="40" t="s">
         <v>179</v>
       </c>
-      <c r="J87" s="40" t="s">
+      <c r="N87" s="40" t="s">
         <v>180</v>
       </c>
-      <c r="K87" s="40" t="s">
+      <c r="O87" s="40" t="s">
         <v>180</v>
       </c>
-      <c r="L87" s="40" t="s">
+      <c r="P87" s="40" t="s">
         <v>181</v>
       </c>
-      <c r="M87" s="40" t="s">
+      <c r="Q87" s="40" t="s">
         <v>181</v>
       </c>
-      <c r="N87" s="40" t="s">
+      <c r="R87" s="40" t="s">
         <v>182</v>
       </c>
-      <c r="O87" s="40" t="s">
+      <c r="S87" s="40" t="s">
         <v>182</v>
       </c>
-      <c r="P87" s="40" t="s">
+      <c r="T87" s="40" t="s">
         <v>183</v>
       </c>
-      <c r="Q87" s="40" t="s">
+      <c r="U87" s="40" t="s">
         <v>183</v>
       </c>
-      <c r="R87" s="40" t="s">
+      <c r="V87" s="40" t="s">
         <v>184</v>
       </c>
-      <c r="S87" s="40" t="s">
+      <c r="W87" s="40" t="s">
         <v>184</v>
       </c>
-      <c r="T87" s="40" t="s">
+      <c r="X87" s="40" t="s">
         <v>185</v>
       </c>
-      <c r="U87" s="40" t="s">
+      <c r="Y87" s="40" t="s">
         <v>185</v>
       </c>
-      <c r="V87" s="40" t="s">
+      <c r="Z87" s="41" t="s">
         <v>186</v>
       </c>
-      <c r="W87" s="40" t="s">
+      <c r="AA87" s="41" t="s">
         <v>186</v>
       </c>
-      <c r="X87" s="40" t="s">
+      <c r="AB87" s="40" t="s">
         <v>187</v>
       </c>
-      <c r="Y87" s="40" t="s">
+      <c r="AC87" s="40" t="s">
         <v>187</v>
       </c>
-      <c r="Z87" s="41" t="s">
+      <c r="AD87" s="40" t="s">
         <v>188</v>
       </c>
-      <c r="AA87" s="41" t="s">
+      <c r="AE87" s="40" t="s">
         <v>188</v>
       </c>
-      <c r="AB87" s="40" t="s">
-        <v>189</v>
-      </c>
-      <c r="AC87" s="40" t="s">
-        <v>189</v>
-      </c>
-      <c r="AD87" s="40" t="s">
-        <v>190</v>
-      </c>
-      <c r="AE87" s="40" t="s">
-        <v>190</v>
-      </c>
       <c r="AF87" s="17" t="s">
-        <v>374</v>
+        <v>370</v>
       </c>
       <c r="AG87" s="17" t="s">
-        <v>374</v>
+        <v>370</v>
       </c>
       <c r="AH87" s="40" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="AI87" s="40" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="AJ87" s="40" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="AK87" s="40" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="AL87" s="40" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="AM87" s="40" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="AN87" s="40" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="AO87" s="40" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="AP87" s="40" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="AQ87" s="40" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="AR87" s="40" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="AS87" s="40" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="AT87" s="40" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="AU87" s="40" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="AV87" s="40" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="AW87" s="40" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="AX87" s="40" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="AY87" s="40" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="AZ87" s="33"/>
       <c r="BA87" s="33"/>
@@ -8434,10 +8422,10 @@
     </row>
     <row r="88" spans="1:75" ht="20.5" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A88" s="31" t="s">
-        <v>191</v>
+        <v>189</v>
       </c>
       <c r="B88" s="32" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="C88" s="32"/>
       <c r="D88" s="32"/>
@@ -8471,10 +8459,10 @@
       <c r="AF88" s="32"/>
       <c r="AG88" s="32"/>
       <c r="AH88" s="32" t="s">
-        <v>192</v>
+        <v>190</v>
       </c>
       <c r="AI88" s="32" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="AJ88" s="32"/>
       <c r="AK88" s="32"/>
@@ -8519,11 +8507,11 @@
     </row>
     <row r="89" spans="1:75" ht="20.5" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A89" s="31" t="s">
-        <v>193</v>
+        <v>191</v>
       </c>
       <c r="B89" s="32"/>
       <c r="C89" s="32" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="D89" s="32"/>
       <c r="E89" s="32"/>
@@ -8556,10 +8544,10 @@
       <c r="AF89" s="32"/>
       <c r="AG89" s="32"/>
       <c r="AH89" s="32" t="s">
-        <v>192</v>
+        <v>190</v>
       </c>
       <c r="AI89" s="32" t="s">
-        <v>357</v>
+        <v>353</v>
       </c>
       <c r="AJ89" s="32"/>
       <c r="AK89" s="32"/>
@@ -8604,12 +8592,12 @@
     </row>
     <row r="90" spans="1:75" ht="30.5" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A90" s="31" t="s">
-        <v>194</v>
+        <v>192</v>
       </c>
       <c r="B90" s="32"/>
       <c r="C90" s="32"/>
       <c r="D90" s="14" t="s">
-        <v>392</v>
+        <v>388</v>
       </c>
       <c r="E90" s="32"/>
       <c r="F90" s="32"/>
@@ -8641,11 +8629,11 @@
       <c r="AF90" s="32"/>
       <c r="AG90" s="32"/>
       <c r="AH90" s="32" t="s">
-        <v>192</v>
+        <v>190</v>
       </c>
       <c r="AI90" s="32"/>
       <c r="AJ90" s="32" t="s">
-        <v>376</v>
+        <v>372</v>
       </c>
       <c r="AK90" s="32"/>
       <c r="AL90" s="32"/>
@@ -8689,13 +8677,13 @@
     </row>
     <row r="91" spans="1:75" ht="20.5" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A91" s="42" t="s">
-        <v>195</v>
+        <v>193</v>
       </c>
       <c r="B91" s="32"/>
       <c r="C91" s="32"/>
       <c r="D91" s="32"/>
       <c r="E91" s="32" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="F91" s="32"/>
       <c r="G91" s="32"/>
@@ -8726,11 +8714,11 @@
       <c r="AF91" s="32"/>
       <c r="AG91" s="32"/>
       <c r="AH91" s="32" t="s">
-        <v>192</v>
+        <v>190</v>
       </c>
       <c r="AI91" s="32"/>
       <c r="AJ91" s="32" t="s">
-        <v>357</v>
+        <v>353</v>
       </c>
       <c r="AK91" s="32"/>
       <c r="AL91" s="32"/>
@@ -8774,14 +8762,14 @@
     </row>
     <row r="92" spans="1:75" ht="20.5" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A92" s="31" t="s">
-        <v>196</v>
+        <v>194</v>
       </c>
       <c r="B92" s="32"/>
       <c r="C92" s="32"/>
       <c r="D92" s="32"/>
       <c r="E92" s="32"/>
       <c r="F92" s="32" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="G92" s="32"/>
       <c r="H92" s="32"/>
@@ -8811,12 +8799,12 @@
       <c r="AF92" s="32"/>
       <c r="AG92" s="32"/>
       <c r="AH92" s="32" t="s">
-        <v>192</v>
+        <v>190</v>
       </c>
       <c r="AI92" s="32"/>
       <c r="AJ92" s="32"/>
       <c r="AK92" s="32" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="AL92" s="32"/>
       <c r="AM92" s="32"/>
@@ -8859,7 +8847,7 @@
     </row>
     <row r="93" spans="1:75" ht="20.5" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A93" s="31" t="s">
-        <v>197</v>
+        <v>195</v>
       </c>
       <c r="B93" s="32"/>
       <c r="C93" s="32"/>
@@ -8867,7 +8855,7 @@
       <c r="E93" s="32"/>
       <c r="F93" s="32"/>
       <c r="G93" s="32" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="H93" s="32"/>
       <c r="I93" s="32"/>
@@ -8896,12 +8884,12 @@
       <c r="AF93" s="32"/>
       <c r="AG93" s="32"/>
       <c r="AH93" s="32" t="s">
-        <v>192</v>
+        <v>190</v>
       </c>
       <c r="AI93" s="32"/>
       <c r="AJ93" s="32"/>
       <c r="AK93" s="32" t="s">
-        <v>357</v>
+        <v>353</v>
       </c>
       <c r="AL93" s="32"/>
       <c r="AM93" s="32"/>
@@ -8944,7 +8932,7 @@
     </row>
     <row r="94" spans="1:75" ht="20.5" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A94" s="31" t="s">
-        <v>198</v>
+        <v>196</v>
       </c>
       <c r="B94" s="32"/>
       <c r="C94" s="32"/>
@@ -8953,7 +8941,7 @@
       <c r="F94" s="32"/>
       <c r="G94" s="32"/>
       <c r="H94" s="32" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="I94" s="32"/>
       <c r="J94" s="32"/>
@@ -8981,13 +8969,13 @@
       <c r="AF94" s="32"/>
       <c r="AG94" s="32"/>
       <c r="AH94" s="32" t="s">
-        <v>192</v>
+        <v>190</v>
       </c>
       <c r="AI94" s="32"/>
       <c r="AJ94" s="32"/>
       <c r="AK94" s="32"/>
       <c r="AL94" s="32" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="AM94" s="32"/>
       <c r="AN94" s="32"/>
@@ -9029,7 +9017,7 @@
     </row>
     <row r="95" spans="1:75" ht="20.5" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A95" s="31" t="s">
-        <v>199</v>
+        <v>197</v>
       </c>
       <c r="B95" s="32"/>
       <c r="C95" s="32"/>
@@ -9039,7 +9027,7 @@
       <c r="G95" s="32"/>
       <c r="H95" s="32"/>
       <c r="I95" s="32" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="J95" s="32"/>
       <c r="K95" s="32"/>
@@ -9066,13 +9054,13 @@
       <c r="AF95" s="32"/>
       <c r="AG95" s="32"/>
       <c r="AH95" s="32" t="s">
-        <v>192</v>
+        <v>190</v>
       </c>
       <c r="AI95" s="32"/>
       <c r="AJ95" s="32"/>
       <c r="AK95" s="32"/>
       <c r="AL95" s="32" t="s">
-        <v>357</v>
+        <v>353</v>
       </c>
       <c r="AM95" s="32"/>
       <c r="AN95" s="32"/>
@@ -9114,7 +9102,7 @@
     </row>
     <row r="96" spans="1:75" ht="20.5" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A96" s="42" t="s">
-        <v>309</v>
+        <v>305</v>
       </c>
       <c r="B96" s="32"/>
       <c r="C96" s="32"/>
@@ -9125,7 +9113,7 @@
       <c r="H96" s="32"/>
       <c r="I96" s="32"/>
       <c r="J96" s="32" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="K96" s="32"/>
       <c r="L96" s="32"/>
@@ -9151,14 +9139,14 @@
       <c r="AF96" s="32"/>
       <c r="AG96" s="32"/>
       <c r="AH96" s="32" t="s">
-        <v>192</v>
+        <v>190</v>
       </c>
       <c r="AI96" s="32"/>
       <c r="AJ96" s="32"/>
       <c r="AK96" s="32"/>
       <c r="AL96" s="32"/>
       <c r="AM96" s="32" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="AN96" s="32"/>
       <c r="AO96" s="32"/>
@@ -9199,7 +9187,7 @@
     </row>
     <row r="97" spans="1:75" ht="20.5" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A97" s="42" t="s">
-        <v>310</v>
+        <v>306</v>
       </c>
       <c r="B97" s="32"/>
       <c r="C97" s="32"/>
@@ -9211,7 +9199,7 @@
       <c r="I97" s="32"/>
       <c r="J97" s="32"/>
       <c r="K97" s="32" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="L97" s="32"/>
       <c r="M97" s="32"/>
@@ -9236,14 +9224,14 @@
       <c r="AF97" s="32"/>
       <c r="AG97" s="32"/>
       <c r="AH97" s="32" t="s">
-        <v>192</v>
+        <v>190</v>
       </c>
       <c r="AI97" s="32"/>
       <c r="AJ97" s="32"/>
       <c r="AK97" s="32"/>
       <c r="AL97" s="32"/>
       <c r="AM97" s="32" t="s">
-        <v>357</v>
+        <v>353</v>
       </c>
       <c r="AN97" s="32"/>
       <c r="AO97" s="32"/>
@@ -9284,7 +9272,7 @@
     </row>
     <row r="98" spans="1:75" ht="20.5" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A98" s="42" t="s">
-        <v>200</v>
+        <v>198</v>
       </c>
       <c r="B98" s="32"/>
       <c r="C98" s="32"/>
@@ -9297,7 +9285,7 @@
       <c r="J98" s="32"/>
       <c r="K98" s="32"/>
       <c r="L98" s="32" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="M98" s="32"/>
       <c r="N98" s="32"/>
@@ -9321,7 +9309,7 @@
       <c r="AF98" s="32"/>
       <c r="AG98" s="32"/>
       <c r="AH98" s="32" t="s">
-        <v>192</v>
+        <v>190</v>
       </c>
       <c r="AI98" s="32"/>
       <c r="AJ98" s="32"/>
@@ -9329,7 +9317,7 @@
       <c r="AL98" s="32"/>
       <c r="AM98" s="32"/>
       <c r="AN98" s="32" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="AO98" s="32"/>
       <c r="AP98" s="32"/>
@@ -9369,7 +9357,7 @@
     </row>
     <row r="99" spans="1:75" ht="20.5" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A99" s="42" t="s">
-        <v>201</v>
+        <v>199</v>
       </c>
       <c r="B99" s="32"/>
       <c r="C99" s="32"/>
@@ -9383,7 +9371,7 @@
       <c r="K99" s="32"/>
       <c r="L99" s="32"/>
       <c r="M99" s="32" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="N99" s="32"/>
       <c r="O99" s="32"/>
@@ -9406,7 +9394,7 @@
       <c r="AF99" s="32"/>
       <c r="AG99" s="32"/>
       <c r="AH99" s="32" t="s">
-        <v>192</v>
+        <v>190</v>
       </c>
       <c r="AI99" s="32"/>
       <c r="AJ99" s="32"/>
@@ -9414,7 +9402,7 @@
       <c r="AL99" s="32"/>
       <c r="AM99" s="32"/>
       <c r="AN99" s="32" t="s">
-        <v>357</v>
+        <v>353</v>
       </c>
       <c r="AO99" s="32"/>
       <c r="AP99" s="32"/>
@@ -9454,7 +9442,7 @@
     </row>
     <row r="100" spans="1:75" ht="20.5" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A100" s="31" t="s">
-        <v>311</v>
+        <v>307</v>
       </c>
       <c r="B100" s="32"/>
       <c r="C100" s="32"/>
@@ -9469,7 +9457,7 @@
       <c r="L100" s="32"/>
       <c r="M100" s="32"/>
       <c r="N100" s="32" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="O100" s="32"/>
       <c r="P100" s="32"/>
@@ -9491,7 +9479,7 @@
       <c r="AF100" s="32"/>
       <c r="AG100" s="32"/>
       <c r="AH100" s="32" t="s">
-        <v>192</v>
+        <v>190</v>
       </c>
       <c r="AI100" s="32"/>
       <c r="AJ100" s="32"/>
@@ -9500,7 +9488,7 @@
       <c r="AM100" s="32"/>
       <c r="AN100" s="32"/>
       <c r="AO100" s="32" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="AP100" s="32"/>
       <c r="AQ100" s="32"/>
@@ -9539,7 +9527,7 @@
     </row>
     <row r="101" spans="1:75" ht="20.5" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A101" s="42" t="s">
-        <v>312</v>
+        <v>308</v>
       </c>
       <c r="B101" s="32"/>
       <c r="C101" s="32"/>
@@ -9555,7 +9543,7 @@
       <c r="M101" s="32"/>
       <c r="N101" s="32"/>
       <c r="O101" s="32" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="P101" s="32"/>
       <c r="Q101" s="32"/>
@@ -9576,7 +9564,7 @@
       <c r="AF101" s="32"/>
       <c r="AG101" s="32"/>
       <c r="AH101" s="32" t="s">
-        <v>192</v>
+        <v>190</v>
       </c>
       <c r="AI101" s="32"/>
       <c r="AJ101" s="32"/>
@@ -9585,7 +9573,7 @@
       <c r="AM101" s="32"/>
       <c r="AN101" s="32"/>
       <c r="AO101" s="32" t="s">
-        <v>357</v>
+        <v>353</v>
       </c>
       <c r="AP101" s="32"/>
       <c r="AQ101" s="32"/>
@@ -9624,7 +9612,7 @@
     </row>
     <row r="102" spans="1:75" ht="20.5" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A102" s="31" t="s">
-        <v>313</v>
+        <v>309</v>
       </c>
       <c r="B102" s="32"/>
       <c r="C102" s="32"/>
@@ -9641,7 +9629,7 @@
       <c r="N102" s="32"/>
       <c r="O102" s="32"/>
       <c r="P102" s="32" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="Q102" s="32"/>
       <c r="R102" s="32"/>
@@ -9661,7 +9649,7 @@
       <c r="AF102" s="32"/>
       <c r="AG102" s="32"/>
       <c r="AH102" s="32" t="s">
-        <v>192</v>
+        <v>190</v>
       </c>
       <c r="AI102" s="32"/>
       <c r="AJ102" s="32"/>
@@ -9671,7 +9659,7 @@
       <c r="AN102" s="32"/>
       <c r="AO102" s="32"/>
       <c r="AP102" s="32" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="AQ102" s="32"/>
       <c r="AR102" s="32"/>
@@ -9709,7 +9697,7 @@
     </row>
     <row r="103" spans="1:75" ht="20.5" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A103" s="31" t="s">
-        <v>314</v>
+        <v>310</v>
       </c>
       <c r="B103" s="32"/>
       <c r="C103" s="32"/>
@@ -9727,7 +9715,7 @@
       <c r="O103" s="32"/>
       <c r="P103" s="32"/>
       <c r="Q103" s="32" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="R103" s="32"/>
       <c r="S103" s="32"/>
@@ -9746,7 +9734,7 @@
       <c r="AF103" s="32"/>
       <c r="AG103" s="32"/>
       <c r="AH103" s="32" t="s">
-        <v>192</v>
+        <v>190</v>
       </c>
       <c r="AI103" s="32"/>
       <c r="AJ103" s="32"/>
@@ -9756,7 +9744,7 @@
       <c r="AN103" s="32"/>
       <c r="AO103" s="32"/>
       <c r="AP103" s="32" t="s">
-        <v>357</v>
+        <v>353</v>
       </c>
       <c r="AQ103" s="32"/>
       <c r="AR103" s="32"/>
@@ -9794,7 +9782,7 @@
     </row>
     <row r="104" spans="1:75" ht="20.5" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A104" s="31" t="s">
-        <v>202</v>
+        <v>200</v>
       </c>
       <c r="B104" s="32"/>
       <c r="C104" s="32"/>
@@ -9813,7 +9801,7 @@
       <c r="P104" s="32"/>
       <c r="Q104" s="32"/>
       <c r="R104" s="32" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="S104" s="32"/>
       <c r="T104" s="32"/>
@@ -9831,7 +9819,7 @@
       <c r="AF104" s="32"/>
       <c r="AG104" s="32"/>
       <c r="AH104" s="32" t="s">
-        <v>192</v>
+        <v>190</v>
       </c>
       <c r="AI104" s="32"/>
       <c r="AJ104" s="32"/>
@@ -9842,7 +9830,7 @@
       <c r="AO104" s="32"/>
       <c r="AP104" s="32"/>
       <c r="AQ104" s="32" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="AR104" s="32"/>
       <c r="AS104" s="32"/>
@@ -9879,7 +9867,7 @@
     </row>
     <row r="105" spans="1:75" ht="20.5" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A105" s="31" t="s">
-        <v>203</v>
+        <v>201</v>
       </c>
       <c r="B105" s="32"/>
       <c r="C105" s="32"/>
@@ -9899,7 +9887,7 @@
       <c r="Q105" s="32"/>
       <c r="R105" s="32"/>
       <c r="S105" s="32" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="T105" s="32"/>
       <c r="U105" s="32"/>
@@ -9916,7 +9904,7 @@
       <c r="AF105" s="32"/>
       <c r="AG105" s="32"/>
       <c r="AH105" s="32" t="s">
-        <v>192</v>
+        <v>190</v>
       </c>
       <c r="AI105" s="32"/>
       <c r="AJ105" s="32"/>
@@ -9927,7 +9915,7 @@
       <c r="AO105" s="32"/>
       <c r="AP105" s="32"/>
       <c r="AQ105" s="32" t="s">
-        <v>357</v>
+        <v>353</v>
       </c>
       <c r="AR105" s="32"/>
       <c r="AS105" s="32"/>
@@ -9964,7 +9952,7 @@
     </row>
     <row r="106" spans="1:75" ht="20.5" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A106" s="31" t="s">
-        <v>204</v>
+        <v>202</v>
       </c>
       <c r="B106" s="32"/>
       <c r="C106" s="32"/>
@@ -9985,7 +9973,7 @@
       <c r="R106" s="32"/>
       <c r="S106" s="32"/>
       <c r="T106" s="32" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="U106" s="32"/>
       <c r="V106" s="32"/>
@@ -10001,7 +9989,7 @@
       <c r="AF106" s="32"/>
       <c r="AG106" s="32"/>
       <c r="AH106" s="32" t="s">
-        <v>192</v>
+        <v>190</v>
       </c>
       <c r="AI106" s="32"/>
       <c r="AJ106" s="32"/>
@@ -10013,7 +10001,7 @@
       <c r="AP106" s="32"/>
       <c r="AQ106" s="32"/>
       <c r="AR106" s="32" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="AS106" s="32"/>
       <c r="AT106" s="32"/>
@@ -10049,7 +10037,7 @@
     </row>
     <row r="107" spans="1:75" ht="20.5" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A107" s="31" t="s">
-        <v>205</v>
+        <v>203</v>
       </c>
       <c r="B107" s="32"/>
       <c r="C107" s="32"/>
@@ -10071,7 +10059,7 @@
       <c r="S107" s="32"/>
       <c r="T107" s="32"/>
       <c r="U107" s="32" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="V107" s="32"/>
       <c r="W107" s="32"/>
@@ -10086,7 +10074,7 @@
       <c r="AF107" s="32"/>
       <c r="AG107" s="32"/>
       <c r="AH107" s="32" t="s">
-        <v>192</v>
+        <v>190</v>
       </c>
       <c r="AI107" s="32"/>
       <c r="AJ107" s="32"/>
@@ -10098,7 +10086,7 @@
       <c r="AP107" s="32"/>
       <c r="AQ107" s="32"/>
       <c r="AR107" s="32" t="s">
-        <v>357</v>
+        <v>353</v>
       </c>
       <c r="AS107" s="32"/>
       <c r="AT107" s="32"/>
@@ -10134,7 +10122,7 @@
     </row>
     <row r="108" spans="1:75" ht="20.5" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A108" s="31" t="s">
-        <v>206</v>
+        <v>204</v>
       </c>
       <c r="B108" s="32"/>
       <c r="C108" s="32"/>
@@ -10157,7 +10145,7 @@
       <c r="T108" s="32"/>
       <c r="U108" s="32"/>
       <c r="V108" s="32" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="W108" s="32"/>
       <c r="X108" s="32"/>
@@ -10171,7 +10159,7 @@
       <c r="AF108" s="32"/>
       <c r="AG108" s="32"/>
       <c r="AH108" s="32" t="s">
-        <v>192</v>
+        <v>190</v>
       </c>
       <c r="AI108" s="32"/>
       <c r="AJ108" s="32"/>
@@ -10184,7 +10172,7 @@
       <c r="AQ108" s="32"/>
       <c r="AR108" s="32"/>
       <c r="AS108" s="32" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="AT108" s="32"/>
       <c r="AU108" s="32"/>
@@ -10219,7 +10207,7 @@
     </row>
     <row r="109" spans="1:75" ht="20.5" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A109" s="31" t="s">
-        <v>207</v>
+        <v>205</v>
       </c>
       <c r="B109" s="32"/>
       <c r="C109" s="32"/>
@@ -10243,7 +10231,7 @@
       <c r="U109" s="32"/>
       <c r="V109" s="32"/>
       <c r="W109" s="32" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="X109" s="32"/>
       <c r="Y109" s="32"/>
@@ -10256,7 +10244,7 @@
       <c r="AF109" s="32"/>
       <c r="AG109" s="32"/>
       <c r="AH109" s="32" t="s">
-        <v>192</v>
+        <v>190</v>
       </c>
       <c r="AI109" s="32"/>
       <c r="AJ109" s="32"/>
@@ -10269,7 +10257,7 @@
       <c r="AQ109" s="32"/>
       <c r="AR109" s="32"/>
       <c r="AS109" s="32" t="s">
-        <v>357</v>
+        <v>353</v>
       </c>
       <c r="AT109" s="32"/>
       <c r="AU109" s="32"/>
@@ -10304,7 +10292,7 @@
     </row>
     <row r="110" spans="1:75" ht="20.5" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A110" s="31" t="s">
-        <v>208</v>
+        <v>206</v>
       </c>
       <c r="B110" s="32"/>
       <c r="C110" s="32"/>
@@ -10329,7 +10317,7 @@
       <c r="V110" s="32"/>
       <c r="W110" s="32"/>
       <c r="X110" s="32" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="Y110" s="32"/>
       <c r="Z110" s="32"/>
@@ -10341,7 +10329,7 @@
       <c r="AF110" s="32"/>
       <c r="AG110" s="32"/>
       <c r="AH110" s="32" t="s">
-        <v>192</v>
+        <v>190</v>
       </c>
       <c r="AI110" s="32"/>
       <c r="AJ110" s="32"/>
@@ -10355,7 +10343,7 @@
       <c r="AR110" s="32"/>
       <c r="AS110" s="32"/>
       <c r="AT110" s="32" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="AU110" s="32"/>
       <c r="AV110" s="32"/>
@@ -10389,7 +10377,7 @@
     </row>
     <row r="111" spans="1:75" ht="20.5" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A111" s="42" t="s">
-        <v>209</v>
+        <v>207</v>
       </c>
       <c r="B111" s="32"/>
       <c r="C111" s="32"/>
@@ -10415,7 +10403,7 @@
       <c r="W111" s="32"/>
       <c r="X111" s="32"/>
       <c r="Y111" s="32" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="Z111" s="32"/>
       <c r="AA111" s="32"/>
@@ -10426,7 +10414,7 @@
       <c r="AF111" s="32"/>
       <c r="AG111" s="32"/>
       <c r="AH111" s="32" t="s">
-        <v>192</v>
+        <v>190</v>
       </c>
       <c r="AI111" s="32"/>
       <c r="AJ111" s="32"/>
@@ -10440,7 +10428,7 @@
       <c r="AR111" s="32"/>
       <c r="AS111" s="32"/>
       <c r="AT111" s="32" t="s">
-        <v>357</v>
+        <v>353</v>
       </c>
       <c r="AU111" s="32"/>
       <c r="AV111" s="32"/>
@@ -10474,7 +10462,7 @@
     </row>
     <row r="112" spans="1:75" ht="20.5" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A112" s="31" t="s">
-        <v>210</v>
+        <v>208</v>
       </c>
       <c r="B112" s="32"/>
       <c r="C112" s="32"/>
@@ -10501,7 +10489,7 @@
       <c r="X112" s="32"/>
       <c r="Y112" s="32"/>
       <c r="Z112" s="32" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="AA112" s="32"/>
       <c r="AB112" s="32"/>
@@ -10511,7 +10499,7 @@
       <c r="AF112" s="32"/>
       <c r="AG112" s="32"/>
       <c r="AH112" s="32" t="s">
-        <v>192</v>
+        <v>190</v>
       </c>
       <c r="AI112" s="32"/>
       <c r="AJ112" s="32"/>
@@ -10526,7 +10514,7 @@
       <c r="AS112" s="32"/>
       <c r="AT112" s="32"/>
       <c r="AU112" s="32" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="AV112" s="32"/>
       <c r="AW112" s="32"/>
@@ -10559,7 +10547,7 @@
     </row>
     <row r="113" spans="1:75" ht="20.5" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A113" s="42" t="s">
-        <v>211</v>
+        <v>209</v>
       </c>
       <c r="B113" s="32"/>
       <c r="C113" s="32"/>
@@ -10587,7 +10575,7 @@
       <c r="Y113" s="32"/>
       <c r="Z113" s="32"/>
       <c r="AA113" s="32" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="AB113" s="32"/>
       <c r="AC113" s="32"/>
@@ -10596,7 +10584,7 @@
       <c r="AF113" s="32"/>
       <c r="AG113" s="32"/>
       <c r="AH113" s="32" t="s">
-        <v>192</v>
+        <v>190</v>
       </c>
       <c r="AI113" s="32"/>
       <c r="AJ113" s="32"/>
@@ -10611,7 +10599,7 @@
       <c r="AS113" s="32"/>
       <c r="AT113" s="32"/>
       <c r="AU113" s="32" t="s">
-        <v>357</v>
+        <v>353</v>
       </c>
       <c r="AV113" s="32"/>
       <c r="AW113" s="32"/>
@@ -10644,7 +10632,7 @@
     </row>
     <row r="114" spans="1:75" ht="20.5" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A114" s="31" t="s">
-        <v>212</v>
+        <v>210</v>
       </c>
       <c r="B114" s="32"/>
       <c r="C114" s="32"/>
@@ -10673,7 +10661,7 @@
       <c r="Z114" s="32"/>
       <c r="AA114" s="32"/>
       <c r="AB114" s="32" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="AC114" s="32"/>
       <c r="AD114" s="32"/>
@@ -10681,7 +10669,7 @@
       <c r="AF114" s="32"/>
       <c r="AG114" s="32"/>
       <c r="AH114" s="32" t="s">
-        <v>192</v>
+        <v>190</v>
       </c>
       <c r="AI114" s="32"/>
       <c r="AJ114" s="32"/>
@@ -10697,7 +10685,7 @@
       <c r="AT114" s="32"/>
       <c r="AU114" s="32"/>
       <c r="AV114" s="32" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="AW114" s="32"/>
       <c r="AX114" s="33"/>
@@ -10729,7 +10717,7 @@
     </row>
     <row r="115" spans="1:75" ht="20.5" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A115" s="31" t="s">
-        <v>213</v>
+        <v>211</v>
       </c>
       <c r="B115" s="32"/>
       <c r="C115" s="32"/>
@@ -10759,14 +10747,14 @@
       <c r="AA115" s="32"/>
       <c r="AB115" s="32"/>
       <c r="AC115" s="32" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="AD115" s="32"/>
       <c r="AE115" s="32"/>
       <c r="AF115" s="32"/>
       <c r="AG115" s="32"/>
       <c r="AH115" s="32" t="s">
-        <v>192</v>
+        <v>190</v>
       </c>
       <c r="AI115" s="32"/>
       <c r="AJ115" s="32"/>
@@ -10782,7 +10770,7 @@
       <c r="AT115" s="32"/>
       <c r="AU115" s="32"/>
       <c r="AV115" s="32" t="s">
-        <v>357</v>
+        <v>353</v>
       </c>
       <c r="AW115" s="32"/>
       <c r="AX115" s="33"/>
@@ -10814,7 +10802,7 @@
     </row>
     <row r="116" spans="1:75" ht="20.5" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A116" s="31" t="s">
-        <v>214</v>
+        <v>212</v>
       </c>
       <c r="B116" s="32"/>
       <c r="C116" s="32"/>
@@ -10845,13 +10833,13 @@
       <c r="AB116" s="32"/>
       <c r="AC116" s="32"/>
       <c r="AD116" s="32" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="AE116" s="32"/>
       <c r="AF116" s="32"/>
       <c r="AG116" s="32"/>
       <c r="AH116" s="32" t="s">
-        <v>192</v>
+        <v>190</v>
       </c>
       <c r="AI116" s="32"/>
       <c r="AJ116" s="32"/>
@@ -10868,7 +10856,7 @@
       <c r="AU116" s="32"/>
       <c r="AV116" s="32"/>
       <c r="AW116" s="32" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="AX116" s="33"/>
       <c r="AY116" s="33"/>
@@ -10899,7 +10887,7 @@
     </row>
     <row r="117" spans="1:75" ht="20.5" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A117" s="31" t="s">
-        <v>215</v>
+        <v>213</v>
       </c>
       <c r="B117" s="32"/>
       <c r="C117" s="32"/>
@@ -10931,12 +10919,12 @@
       <c r="AC117" s="32"/>
       <c r="AD117" s="32"/>
       <c r="AE117" s="32" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="AF117" s="32"/>
       <c r="AG117" s="32"/>
       <c r="AH117" s="32" t="s">
-        <v>192</v>
+        <v>190</v>
       </c>
       <c r="AI117" s="32"/>
       <c r="AJ117" s="32"/>
@@ -10953,7 +10941,7 @@
       <c r="AU117" s="32"/>
       <c r="AV117" s="32"/>
       <c r="AW117" s="32" t="s">
-        <v>357</v>
+        <v>353</v>
       </c>
       <c r="AX117" s="33"/>
       <c r="AY117" s="33"/>
@@ -10984,7 +10972,7 @@
     </row>
     <row r="118" spans="1:75" ht="20.5" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A118" s="31" t="s">
-        <v>377</v>
+        <v>373</v>
       </c>
       <c r="B118" s="32"/>
       <c r="C118" s="32"/>
@@ -11017,11 +11005,11 @@
       <c r="AD118" s="33"/>
       <c r="AE118" s="33"/>
       <c r="AF118" s="15" t="s">
-        <v>393</v>
+        <v>389</v>
       </c>
       <c r="AG118" s="15"/>
       <c r="AH118" s="32" t="s">
-        <v>192</v>
+        <v>190</v>
       </c>
       <c r="AI118" s="33"/>
       <c r="AJ118" s="33"/>
@@ -11039,7 +11027,7 @@
       <c r="AV118" s="33"/>
       <c r="AW118" s="33"/>
       <c r="AX118" s="15" t="s">
-        <v>379</v>
+        <v>375</v>
       </c>
       <c r="AY118" s="33"/>
       <c r="AZ118" s="33"/>
@@ -11069,7 +11057,7 @@
     </row>
     <row r="119" spans="1:75" ht="20.5" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A119" s="31" t="s">
-        <v>388</v>
+        <v>384</v>
       </c>
       <c r="B119" s="32"/>
       <c r="C119" s="32"/>
@@ -11103,10 +11091,10 @@
       <c r="AE119" s="33"/>
       <c r="AF119" s="15"/>
       <c r="AG119" s="15" t="s">
-        <v>386</v>
+        <v>382</v>
       </c>
       <c r="AH119" s="32" t="s">
-        <v>192</v>
+        <v>190</v>
       </c>
       <c r="AI119" s="33"/>
       <c r="AJ119" s="33"/>
@@ -11125,7 +11113,7 @@
       <c r="AW119" s="33"/>
       <c r="AX119" s="15"/>
       <c r="AY119" s="15" t="s">
-        <v>389</v>
+        <v>385</v>
       </c>
       <c r="AZ119" s="33"/>
       <c r="BA119" s="33"/>
@@ -11385,7 +11373,7 @@
     </row>
     <row r="123" spans="1:75" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A123" s="34" t="s">
-        <v>317</v>
+        <v>313</v>
       </c>
       <c r="B123" s="35"/>
       <c r="C123" s="35"/>
@@ -11652,7 +11640,7 @@
     <row r="125" spans="1:75" ht="10.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A125" s="31"/>
       <c r="B125" s="45" t="s">
-        <v>218</v>
+        <v>216</v>
       </c>
       <c r="C125" s="45"/>
       <c r="D125" s="45"/>
@@ -11730,187 +11718,187 @@
         <v>12</v>
       </c>
       <c r="D126" s="32" t="s">
+        <v>391</v>
+      </c>
+      <c r="E126" s="32" t="s">
+        <v>393</v>
+      </c>
+      <c r="F126" s="32" t="s">
+        <v>217</v>
+      </c>
+      <c r="G126" s="32" t="s">
+        <v>218</v>
+      </c>
+      <c r="H126" s="32" t="s">
+        <v>219</v>
+      </c>
+      <c r="I126" s="32" t="s">
+        <v>220</v>
+      </c>
+      <c r="J126" s="32" t="s">
+        <v>221</v>
+      </c>
+      <c r="K126" s="32" t="s">
+        <v>222</v>
+      </c>
+      <c r="L126" s="32" t="s">
+        <v>161</v>
+      </c>
+      <c r="M126" s="32" t="s">
+        <v>162</v>
+      </c>
+      <c r="N126" s="32" t="s">
+        <v>398</v>
+      </c>
+      <c r="O126" s="32" t="s">
+        <v>399</v>
+      </c>
+      <c r="P126" s="32" t="s">
+        <v>223</v>
+      </c>
+      <c r="Q126" s="32" t="s">
+        <v>224</v>
+      </c>
+      <c r="R126" s="32" t="s">
+        <v>225</v>
+      </c>
+      <c r="S126" s="32" t="s">
+        <v>226</v>
+      </c>
+      <c r="T126" s="32" t="s">
+        <v>227</v>
+      </c>
+      <c r="U126" s="32" t="s">
+        <v>228</v>
+      </c>
+      <c r="V126" s="32" t="s">
+        <v>229</v>
+      </c>
+      <c r="W126" s="32" t="s">
+        <v>230</v>
+      </c>
+      <c r="X126" s="32" t="s">
+        <v>231</v>
+      </c>
+      <c r="Y126" s="32" t="s">
+        <v>232</v>
+      </c>
+      <c r="Z126" s="32" t="s">
+        <v>167</v>
+      </c>
+      <c r="AA126" s="32" t="s">
+        <v>168</v>
+      </c>
+      <c r="AB126" s="32" t="s">
+        <v>169</v>
+      </c>
+      <c r="AC126" s="32" t="s">
+        <v>170</v>
+      </c>
+      <c r="AD126" s="32" t="s">
+        <v>365</v>
+      </c>
+      <c r="AE126" s="32" t="s">
+        <v>366</v>
+      </c>
+      <c r="AF126" s="14" t="s">
+        <v>386</v>
+      </c>
+      <c r="AG126" s="32" t="s">
+        <v>367</v>
+      </c>
+      <c r="AH126" s="32" t="s">
+        <v>368</v>
+      </c>
+      <c r="AI126" s="32" t="s">
+        <v>376</v>
+      </c>
+      <c r="AJ126" s="32" t="s">
+        <v>359</v>
+      </c>
+      <c r="AK126" s="32" t="s">
+        <v>396</v>
+      </c>
+      <c r="AL126" s="32" t="s">
+        <v>397</v>
+      </c>
+      <c r="AM126" s="32" t="s">
+        <v>233</v>
+      </c>
+      <c r="AN126" s="32" t="s">
+        <v>234</v>
+      </c>
+      <c r="AO126" s="14" t="s">
+        <v>359</v>
+      </c>
+      <c r="AP126" s="32" t="s">
         <v>13</v>
       </c>
-      <c r="E126" s="32" t="s">
-        <v>14</v>
-      </c>
-      <c r="F126" s="32" t="s">
-        <v>219</v>
-      </c>
-      <c r="G126" s="32" t="s">
-        <v>220</v>
-      </c>
-      <c r="H126" s="32" t="s">
-        <v>221</v>
-      </c>
-      <c r="I126" s="32" t="s">
-        <v>222</v>
-      </c>
-      <c r="J126" s="32" t="s">
-        <v>223</v>
-      </c>
-      <c r="K126" s="32" t="s">
-        <v>224</v>
-      </c>
-      <c r="L126" s="32" t="s">
-        <v>163</v>
-      </c>
-      <c r="M126" s="32" t="s">
-        <v>164</v>
-      </c>
-      <c r="N126" s="32" t="s">
-        <v>225</v>
-      </c>
-      <c r="O126" s="32" t="s">
-        <v>226</v>
-      </c>
-      <c r="P126" s="32" t="s">
-        <v>227</v>
-      </c>
-      <c r="Q126" s="32" t="s">
-        <v>228</v>
-      </c>
-      <c r="R126" s="32" t="s">
-        <v>229</v>
-      </c>
-      <c r="S126" s="32" t="s">
-        <v>230</v>
-      </c>
-      <c r="T126" s="32" t="s">
-        <v>231</v>
-      </c>
-      <c r="U126" s="32" t="s">
-        <v>232</v>
-      </c>
-      <c r="V126" s="32" t="s">
-        <v>233</v>
-      </c>
-      <c r="W126" s="32" t="s">
-        <v>234</v>
-      </c>
-      <c r="X126" s="32" t="s">
-        <v>235</v>
-      </c>
-      <c r="Y126" s="32" t="s">
-        <v>236</v>
-      </c>
-      <c r="Z126" s="32" t="s">
-        <v>169</v>
-      </c>
-      <c r="AA126" s="32" t="s">
-        <v>170</v>
-      </c>
-      <c r="AB126" s="32" t="s">
-        <v>171</v>
-      </c>
-      <c r="AC126" s="32" t="s">
-        <v>172</v>
-      </c>
-      <c r="AD126" s="32" t="s">
-        <v>369</v>
-      </c>
-      <c r="AE126" s="32" t="s">
-        <v>370</v>
-      </c>
-      <c r="AF126" s="14" t="s">
-        <v>390</v>
-      </c>
-      <c r="AG126" s="32" t="s">
-        <v>371</v>
-      </c>
-      <c r="AH126" s="32" t="s">
-        <v>372</v>
-      </c>
-      <c r="AI126" s="32" t="s">
-        <v>380</v>
-      </c>
-      <c r="AJ126" s="32" t="s">
-        <v>363</v>
-      </c>
-      <c r="AK126" s="32" t="s">
-        <v>400</v>
-      </c>
-      <c r="AL126" s="32" t="s">
-        <v>401</v>
-      </c>
-      <c r="AM126" s="32" t="s">
-        <v>237</v>
-      </c>
-      <c r="AN126" s="32" t="s">
-        <v>238</v>
-      </c>
-      <c r="AO126" s="14" t="s">
-        <v>363</v>
-      </c>
-      <c r="AP126" s="32" t="s">
-        <v>15</v>
-      </c>
       <c r="AQ126" s="32" t="s">
-        <v>360</v>
+        <v>356</v>
       </c>
       <c r="AR126" s="32" t="s">
+        <v>280</v>
+      </c>
+      <c r="AS126" s="32" t="s">
+        <v>281</v>
+      </c>
+      <c r="AT126" s="32" t="s">
+        <v>282</v>
+      </c>
+      <c r="AU126" s="32" t="s">
+        <v>283</v>
+      </c>
+      <c r="AV126" s="32" t="s">
         <v>284</v>
       </c>
-      <c r="AS126" s="32" t="s">
+      <c r="AW126" s="32" t="s">
         <v>285</v>
       </c>
-      <c r="AT126" s="32" t="s">
+      <c r="AX126" s="32" t="s">
         <v>286</v>
       </c>
-      <c r="AU126" s="32" t="s">
+      <c r="AY126" s="32" t="s">
         <v>287</v>
       </c>
-      <c r="AV126" s="32" t="s">
+      <c r="AZ126" s="32" t="s">
         <v>288</v>
       </c>
-      <c r="AW126" s="32" t="s">
+      <c r="BA126" s="32" t="s">
         <v>289</v>
       </c>
-      <c r="AX126" s="32" t="s">
+      <c r="BB126" s="32" t="s">
         <v>290</v>
       </c>
-      <c r="AY126" s="32" t="s">
+      <c r="BC126" s="32" t="s">
         <v>291</v>
       </c>
-      <c r="AZ126" s="32" t="s">
+      <c r="BD126" s="32" t="s">
         <v>292</v>
       </c>
-      <c r="BA126" s="32" t="s">
+      <c r="BE126" s="32" t="s">
         <v>293</v>
       </c>
-      <c r="BB126" s="32" t="s">
+      <c r="BF126" s="32" t="s">
         <v>294</v>
       </c>
-      <c r="BC126" s="32" t="s">
+      <c r="BG126" s="32" t="s">
         <v>295</v>
       </c>
-      <c r="BD126" s="32" t="s">
+      <c r="BH126" s="32" t="s">
         <v>296</v>
       </c>
-      <c r="BE126" s="32" t="s">
+      <c r="BI126" s="32" t="s">
         <v>297</v>
       </c>
-      <c r="BF126" s="32" t="s">
-        <v>298</v>
-      </c>
-      <c r="BG126" s="32" t="s">
-        <v>299</v>
-      </c>
-      <c r="BH126" s="32" t="s">
-        <v>300</v>
-      </c>
-      <c r="BI126" s="32" t="s">
-        <v>301</v>
-      </c>
       <c r="BJ126" s="14" t="s">
-        <v>299</v>
+        <v>295</v>
       </c>
       <c r="BK126" s="14" t="s">
-        <v>299</v>
+        <v>295</v>
       </c>
       <c r="BL126" s="14" t="s">
-        <v>299</v>
+        <v>295</v>
       </c>
     </row>
     <row r="127" spans="1:75" ht="30.5" thickBot="1" x14ac:dyDescent="0.4">
@@ -11918,201 +11906,201 @@
         <v>7</v>
       </c>
       <c r="B127" s="40" t="s">
+        <v>14</v>
+      </c>
+      <c r="C127" s="40" t="s">
+        <v>14</v>
+      </c>
+      <c r="D127" s="40" t="s">
         <v>16</v>
       </c>
-      <c r="C127" s="40" t="s">
+      <c r="E127" s="40" t="s">
         <v>16</v>
       </c>
-      <c r="D127" s="40" t="s">
+      <c r="F127" s="40" t="s">
+        <v>235</v>
+      </c>
+      <c r="G127" s="40" t="s">
+        <v>235</v>
+      </c>
+      <c r="H127" s="40" t="s">
+        <v>236</v>
+      </c>
+      <c r="I127" s="40" t="s">
+        <v>179</v>
+      </c>
+      <c r="J127" s="40" t="s">
+        <v>180</v>
+      </c>
+      <c r="K127" s="40" t="s">
+        <v>237</v>
+      </c>
+      <c r="L127" s="40" t="s">
+        <v>181</v>
+      </c>
+      <c r="M127" s="40" t="s">
+        <v>181</v>
+      </c>
+      <c r="N127" s="40" t="s">
+        <v>238</v>
+      </c>
+      <c r="O127" s="40" t="s">
+        <v>238</v>
+      </c>
+      <c r="P127" s="40" t="s">
+        <v>182</v>
+      </c>
+      <c r="Q127" s="40" t="s">
+        <v>182</v>
+      </c>
+      <c r="R127" s="40" t="s">
+        <v>183</v>
+      </c>
+      <c r="S127" s="40" t="s">
+        <v>183</v>
+      </c>
+      <c r="T127" s="40" t="s">
+        <v>239</v>
+      </c>
+      <c r="U127" s="40" t="s">
+        <v>239</v>
+      </c>
+      <c r="V127" s="40" t="s">
+        <v>240</v>
+      </c>
+      <c r="W127" s="40" t="s">
+        <v>240</v>
+      </c>
+      <c r="X127" s="40" t="s">
+        <v>241</v>
+      </c>
+      <c r="Y127" s="40" t="s">
+        <v>241</v>
+      </c>
+      <c r="Z127" s="40" t="s">
+        <v>242</v>
+      </c>
+      <c r="AA127" s="40" t="s">
+        <v>242</v>
+      </c>
+      <c r="AB127" s="40" t="s">
+        <v>243</v>
+      </c>
+      <c r="AC127" s="40" t="s">
+        <v>243</v>
+      </c>
+      <c r="AD127" s="40" t="s">
+        <v>188</v>
+      </c>
+      <c r="AE127" s="40" t="s">
+        <v>188</v>
+      </c>
+      <c r="AF127" s="17" t="s">
+        <v>370</v>
+      </c>
+      <c r="AG127" s="40" t="s">
+        <v>187</v>
+      </c>
+      <c r="AH127" s="40" t="s">
+        <v>369</v>
+      </c>
+      <c r="AI127" s="40" t="s">
+        <v>175</v>
+      </c>
+      <c r="AJ127" s="40" t="s">
+        <v>175</v>
+      </c>
+      <c r="AK127" s="40" t="s">
+        <v>15</v>
+      </c>
+      <c r="AL127" s="40" t="s">
+        <v>15</v>
+      </c>
+      <c r="AM127" s="40" t="s">
+        <v>244</v>
+      </c>
+      <c r="AN127" s="40" t="s">
+        <v>244</v>
+      </c>
+      <c r="AO127" s="17" t="s">
+        <v>370</v>
+      </c>
+      <c r="AP127" s="40" t="s">
         <v>18</v>
       </c>
-      <c r="E127" s="40" t="s">
-        <v>18</v>
-      </c>
-      <c r="F127" s="40" t="s">
-        <v>239</v>
-      </c>
-      <c r="G127" s="40" t="s">
-        <v>239</v>
-      </c>
-      <c r="H127" s="40" t="s">
-        <v>240</v>
-      </c>
-      <c r="I127" s="40" t="s">
-        <v>181</v>
-      </c>
-      <c r="J127" s="40" t="s">
-        <v>182</v>
-      </c>
-      <c r="K127" s="40" t="s">
-        <v>241</v>
-      </c>
-      <c r="L127" s="40" t="s">
-        <v>183</v>
-      </c>
-      <c r="M127" s="40" t="s">
-        <v>183</v>
-      </c>
-      <c r="N127" s="40" t="s">
-        <v>242</v>
-      </c>
-      <c r="O127" s="40" t="s">
-        <v>242</v>
-      </c>
-      <c r="P127" s="40" t="s">
-        <v>184</v>
-      </c>
-      <c r="Q127" s="40" t="s">
-        <v>184</v>
-      </c>
-      <c r="R127" s="40" t="s">
-        <v>185</v>
-      </c>
-      <c r="S127" s="40" t="s">
-        <v>185</v>
-      </c>
-      <c r="T127" s="40" t="s">
-        <v>243</v>
-      </c>
-      <c r="U127" s="40" t="s">
-        <v>243</v>
-      </c>
-      <c r="V127" s="40" t="s">
-        <v>244</v>
-      </c>
-      <c r="W127" s="40" t="s">
-        <v>244</v>
-      </c>
-      <c r="X127" s="40" t="s">
-        <v>245</v>
-      </c>
-      <c r="Y127" s="40" t="s">
-        <v>245</v>
-      </c>
-      <c r="Z127" s="40" t="s">
-        <v>246</v>
-      </c>
-      <c r="AA127" s="40" t="s">
-        <v>246</v>
-      </c>
-      <c r="AB127" s="40" t="s">
-        <v>247</v>
-      </c>
-      <c r="AC127" s="40" t="s">
-        <v>247</v>
-      </c>
-      <c r="AD127" s="40" t="s">
-        <v>190</v>
-      </c>
-      <c r="AE127" s="40" t="s">
-        <v>190</v>
-      </c>
-      <c r="AF127" s="17" t="s">
-        <v>374</v>
-      </c>
-      <c r="AG127" s="40" t="s">
-        <v>189</v>
-      </c>
-      <c r="AH127" s="40" t="s">
-        <v>373</v>
-      </c>
-      <c r="AI127" s="40" t="s">
-        <v>177</v>
-      </c>
-      <c r="AJ127" s="40" t="s">
-        <v>177</v>
-      </c>
-      <c r="AK127" s="40" t="s">
-        <v>17</v>
-      </c>
-      <c r="AL127" s="40" t="s">
-        <v>17</v>
-      </c>
-      <c r="AM127" s="40" t="s">
-        <v>248</v>
-      </c>
-      <c r="AN127" s="40" t="s">
-        <v>248</v>
-      </c>
-      <c r="AO127" s="17" t="s">
-        <v>374</v>
-      </c>
-      <c r="AP127" s="40" t="s">
-        <v>20</v>
-      </c>
       <c r="AQ127" s="40" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="AR127" s="40" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="AS127" s="40" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="AT127" s="40" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="AU127" s="40" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="AV127" s="40" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="AW127" s="40" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="AX127" s="40" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="AY127" s="40" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="AZ127" s="40" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="BA127" s="40" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="BB127" s="40" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="BC127" s="40" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="BD127" s="40" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="BE127" s="40" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="BF127" s="40" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="BG127" s="40" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="BH127" s="40" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="BI127" s="40" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="BJ127" s="40" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="BK127" s="40" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="BL127" s="40" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
     </row>
     <row r="128" spans="1:75" ht="10.5" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A128" s="31" t="s">
-        <v>361</v>
+        <v>357</v>
       </c>
       <c r="B128" s="32" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="C128" s="32"/>
       <c r="D128" s="32"/>
@@ -12154,10 +12142,10 @@
       <c r="AN128" s="32"/>
       <c r="AO128" s="32"/>
       <c r="AP128" s="32" t="s">
-        <v>249</v>
+        <v>245</v>
       </c>
       <c r="AQ128" s="32" t="s">
-        <v>359</v>
+        <v>355</v>
       </c>
       <c r="AR128" s="32"/>
       <c r="AS128" s="32"/>
@@ -12183,11 +12171,11 @@
     </row>
     <row r="129" spans="1:64" ht="20.5" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A129" s="31" t="s">
-        <v>362</v>
+        <v>358</v>
       </c>
       <c r="B129" s="32"/>
       <c r="C129" s="32" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="D129" s="32"/>
       <c r="E129" s="32"/>
@@ -12228,10 +12216,10 @@
       <c r="AN129" s="32"/>
       <c r="AO129" s="32"/>
       <c r="AP129" s="32" t="s">
-        <v>249</v>
+        <v>245</v>
       </c>
       <c r="AQ129" s="32" t="s">
-        <v>357</v>
+        <v>353</v>
       </c>
       <c r="AR129" s="32"/>
       <c r="AS129" s="32"/>
@@ -12257,12 +12245,12 @@
     </row>
     <row r="130" spans="1:64" ht="10.5" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A130" s="31" t="s">
-        <v>250</v>
+        <v>246</v>
       </c>
       <c r="B130" s="32"/>
       <c r="C130" s="32"/>
       <c r="D130" s="32" t="s">
-        <v>23</v>
+        <v>392</v>
       </c>
       <c r="E130" s="32"/>
       <c r="F130" s="32"/>
@@ -12302,11 +12290,11 @@
       <c r="AN130" s="32"/>
       <c r="AO130" s="32"/>
       <c r="AP130" s="32" t="s">
-        <v>249</v>
+        <v>245</v>
       </c>
       <c r="AQ130" s="32"/>
       <c r="AR130" s="32" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="AS130" s="32"/>
       <c r="AT130" s="32"/>
@@ -12331,13 +12319,13 @@
     </row>
     <row r="131" spans="1:64" ht="20.5" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A131" s="31" t="s">
-        <v>251</v>
+        <v>247</v>
       </c>
       <c r="B131" s="32"/>
       <c r="C131" s="32"/>
       <c r="D131" s="32"/>
       <c r="E131" s="32" t="s">
-        <v>23</v>
+        <v>392</v>
       </c>
       <c r="F131" s="32"/>
       <c r="G131" s="32"/>
@@ -12376,11 +12364,11 @@
       <c r="AN131" s="32"/>
       <c r="AO131" s="32"/>
       <c r="AP131" s="32" t="s">
-        <v>249</v>
+        <v>245</v>
       </c>
       <c r="AQ131" s="32"/>
       <c r="AR131" s="32" t="s">
-        <v>357</v>
+        <v>353</v>
       </c>
       <c r="AS131" s="32"/>
       <c r="AT131" s="32"/>
@@ -12405,14 +12393,14 @@
     </row>
     <row r="132" spans="1:64" ht="20.5" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A132" s="31" t="s">
-        <v>252</v>
+        <v>248</v>
       </c>
       <c r="B132" s="32"/>
       <c r="C132" s="32"/>
       <c r="D132" s="32"/>
       <c r="E132" s="32"/>
       <c r="F132" s="32" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="G132" s="32"/>
       <c r="H132" s="32"/>
@@ -12450,12 +12438,12 @@
       <c r="AN132" s="32"/>
       <c r="AO132" s="32"/>
       <c r="AP132" s="32" t="s">
-        <v>249</v>
+        <v>245</v>
       </c>
       <c r="AQ132" s="32"/>
       <c r="AR132" s="32"/>
       <c r="AS132" s="32" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="AT132" s="32"/>
       <c r="AU132" s="32"/>
@@ -12479,7 +12467,7 @@
     </row>
     <row r="133" spans="1:64" ht="20.5" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A133" s="31" t="s">
-        <v>253</v>
+        <v>249</v>
       </c>
       <c r="B133" s="32"/>
       <c r="C133" s="32"/>
@@ -12487,7 +12475,7 @@
       <c r="E133" s="32"/>
       <c r="F133" s="32"/>
       <c r="G133" s="32" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="H133" s="32"/>
       <c r="I133" s="32"/>
@@ -12524,12 +12512,12 @@
       <c r="AN133" s="32"/>
       <c r="AO133" s="32"/>
       <c r="AP133" s="32" t="s">
-        <v>249</v>
+        <v>245</v>
       </c>
       <c r="AQ133" s="32"/>
       <c r="AR133" s="32"/>
       <c r="AS133" s="32" t="s">
-        <v>357</v>
+        <v>353</v>
       </c>
       <c r="AT133" s="32"/>
       <c r="AU133" s="32"/>
@@ -12553,7 +12541,7 @@
     </row>
     <row r="134" spans="1:64" ht="20.5" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A134" s="31" t="s">
-        <v>254</v>
+        <v>250</v>
       </c>
       <c r="B134" s="32"/>
       <c r="C134" s="32"/>
@@ -12562,7 +12550,7 @@
       <c r="F134" s="32"/>
       <c r="G134" s="32"/>
       <c r="H134" s="32" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="I134" s="32"/>
       <c r="J134" s="32"/>
@@ -12598,13 +12586,13 @@
       <c r="AN134" s="32"/>
       <c r="AO134" s="32"/>
       <c r="AP134" s="32" t="s">
-        <v>249</v>
+        <v>245</v>
       </c>
       <c r="AQ134" s="32"/>
       <c r="AR134" s="32"/>
       <c r="AS134" s="32"/>
       <c r="AT134" s="32" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="AU134" s="32"/>
       <c r="AV134" s="32"/>
@@ -12627,7 +12615,7 @@
     </row>
     <row r="135" spans="1:64" ht="20.5" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A135" s="31" t="s">
-        <v>255</v>
+        <v>251</v>
       </c>
       <c r="B135" s="32"/>
       <c r="C135" s="32"/>
@@ -12637,7 +12625,7 @@
       <c r="G135" s="32"/>
       <c r="H135" s="32"/>
       <c r="I135" s="32" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="J135" s="32"/>
       <c r="K135" s="32"/>
@@ -12672,13 +12660,13 @@
       <c r="AN135" s="32"/>
       <c r="AO135" s="32"/>
       <c r="AP135" s="32" t="s">
-        <v>249</v>
+        <v>245</v>
       </c>
       <c r="AQ135" s="32"/>
       <c r="AR135" s="32"/>
       <c r="AS135" s="32"/>
       <c r="AT135" s="32" t="s">
-        <v>357</v>
+        <v>353</v>
       </c>
       <c r="AU135" s="32"/>
       <c r="AV135" s="32"/>
@@ -12701,7 +12689,7 @@
     </row>
     <row r="136" spans="1:64" ht="20.5" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A136" s="31" t="s">
-        <v>256</v>
+        <v>252</v>
       </c>
       <c r="B136" s="32"/>
       <c r="C136" s="32"/>
@@ -12712,7 +12700,7 @@
       <c r="H136" s="32"/>
       <c r="I136" s="32"/>
       <c r="J136" s="32" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="K136" s="32"/>
       <c r="L136" s="32"/>
@@ -12746,14 +12734,14 @@
       <c r="AN136" s="32"/>
       <c r="AO136" s="32"/>
       <c r="AP136" s="32" t="s">
-        <v>249</v>
+        <v>245</v>
       </c>
       <c r="AQ136" s="32"/>
       <c r="AR136" s="32"/>
       <c r="AS136" s="32"/>
       <c r="AT136" s="32"/>
       <c r="AU136" s="32" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="AV136" s="32"/>
       <c r="AW136" s="32"/>
@@ -12775,7 +12763,7 @@
     </row>
     <row r="137" spans="1:64" ht="20.5" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A137" s="31" t="s">
-        <v>257</v>
+        <v>253</v>
       </c>
       <c r="B137" s="32"/>
       <c r="C137" s="32"/>
@@ -12787,7 +12775,7 @@
       <c r="I137" s="32"/>
       <c r="J137" s="32"/>
       <c r="K137" s="32" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="L137" s="32"/>
       <c r="M137" s="32"/>
@@ -12820,14 +12808,14 @@
       <c r="AN137" s="32"/>
       <c r="AO137" s="32"/>
       <c r="AP137" s="32" t="s">
-        <v>249</v>
+        <v>245</v>
       </c>
       <c r="AQ137" s="32"/>
       <c r="AR137" s="32"/>
       <c r="AS137" s="32"/>
       <c r="AT137" s="32"/>
       <c r="AU137" s="32" t="s">
-        <v>357</v>
+        <v>353</v>
       </c>
       <c r="AV137" s="32"/>
       <c r="AW137" s="32"/>
@@ -12849,7 +12837,7 @@
     </row>
     <row r="138" spans="1:64" ht="10.5" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A138" s="31" t="s">
-        <v>258</v>
+        <v>254</v>
       </c>
       <c r="B138" s="32"/>
       <c r="C138" s="32"/>
@@ -12862,7 +12850,7 @@
       <c r="J138" s="32"/>
       <c r="K138" s="32"/>
       <c r="L138" s="32" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="M138" s="32"/>
       <c r="N138" s="32"/>
@@ -12894,7 +12882,7 @@
       <c r="AN138" s="32"/>
       <c r="AO138" s="32"/>
       <c r="AP138" s="32" t="s">
-        <v>249</v>
+        <v>245</v>
       </c>
       <c r="AQ138" s="32"/>
       <c r="AR138" s="32"/>
@@ -12902,7 +12890,7 @@
       <c r="AT138" s="32"/>
       <c r="AU138" s="32"/>
       <c r="AV138" s="32" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="AW138" s="32"/>
       <c r="AX138" s="32"/>
@@ -12923,7 +12911,7 @@
     </row>
     <row r="139" spans="1:64" ht="20.5" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A139" s="31" t="s">
-        <v>259</v>
+        <v>255</v>
       </c>
       <c r="B139" s="32"/>
       <c r="C139" s="32"/>
@@ -12937,7 +12925,7 @@
       <c r="K139" s="32"/>
       <c r="L139" s="32"/>
       <c r="M139" s="32" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="N139" s="32"/>
       <c r="O139" s="32"/>
@@ -12968,7 +12956,7 @@
       <c r="AN139" s="32"/>
       <c r="AO139" s="32"/>
       <c r="AP139" s="32" t="s">
-        <v>249</v>
+        <v>245</v>
       </c>
       <c r="AQ139" s="32"/>
       <c r="AR139" s="32"/>
@@ -12976,7 +12964,7 @@
       <c r="AT139" s="32"/>
       <c r="AU139" s="32"/>
       <c r="AV139" s="32" t="s">
-        <v>357</v>
+        <v>353</v>
       </c>
       <c r="AW139" s="32"/>
       <c r="AX139" s="32"/>
@@ -12995,9 +12983,9 @@
       <c r="BK139" s="33"/>
       <c r="BL139" s="33"/>
     </row>
-    <row r="140" spans="1:64" ht="10.5" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="140" spans="1:64" ht="30.5" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A140" s="31" t="s">
-        <v>260</v>
+        <v>256</v>
       </c>
       <c r="B140" s="32"/>
       <c r="C140" s="32"/>
@@ -13012,7 +13000,7 @@
       <c r="L140" s="32"/>
       <c r="M140" s="32"/>
       <c r="N140" s="32" t="s">
-        <v>23</v>
+        <v>400</v>
       </c>
       <c r="O140" s="32"/>
       <c r="P140" s="32"/>
@@ -13042,7 +13030,7 @@
       <c r="AN140" s="32"/>
       <c r="AO140" s="32"/>
       <c r="AP140" s="32" t="s">
-        <v>249</v>
+        <v>245</v>
       </c>
       <c r="AQ140" s="32"/>
       <c r="AR140" s="32"/>
@@ -13051,7 +13039,7 @@
       <c r="AU140" s="32"/>
       <c r="AV140" s="32"/>
       <c r="AW140" s="32" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="AX140" s="32"/>
       <c r="AY140" s="32"/>
@@ -13069,9 +13057,9 @@
       <c r="BK140" s="33"/>
       <c r="BL140" s="33"/>
     </row>
-    <row r="141" spans="1:64" ht="20.5" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="141" spans="1:64" ht="30.5" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A141" s="31" t="s">
-        <v>261</v>
+        <v>257</v>
       </c>
       <c r="B141" s="32"/>
       <c r="C141" s="32"/>
@@ -13087,7 +13075,7 @@
       <c r="M141" s="32"/>
       <c r="N141" s="32"/>
       <c r="O141" s="32" t="s">
-        <v>23</v>
+        <v>400</v>
       </c>
       <c r="P141" s="32"/>
       <c r="Q141" s="32"/>
@@ -13116,7 +13104,7 @@
       <c r="AN141" s="32"/>
       <c r="AO141" s="32"/>
       <c r="AP141" s="32" t="s">
-        <v>249</v>
+        <v>245</v>
       </c>
       <c r="AQ141" s="32"/>
       <c r="AR141" s="32"/>
@@ -13125,7 +13113,7 @@
       <c r="AU141" s="32"/>
       <c r="AV141" s="32"/>
       <c r="AW141" s="32" t="s">
-        <v>357</v>
+        <v>353</v>
       </c>
       <c r="AX141" s="32"/>
       <c r="AY141" s="32"/>
@@ -13145,7 +13133,7 @@
     </row>
     <row r="142" spans="1:64" ht="10.5" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A142" s="31" t="s">
-        <v>262</v>
+        <v>258</v>
       </c>
       <c r="B142" s="32"/>
       <c r="C142" s="32"/>
@@ -13162,7 +13150,7 @@
       <c r="N142" s="32"/>
       <c r="O142" s="32"/>
       <c r="P142" s="32" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="Q142" s="32"/>
       <c r="R142" s="32"/>
@@ -13190,7 +13178,7 @@
       <c r="AN142" s="32"/>
       <c r="AO142" s="32"/>
       <c r="AP142" s="32" t="s">
-        <v>249</v>
+        <v>245</v>
       </c>
       <c r="AQ142" s="32"/>
       <c r="AR142" s="32"/>
@@ -13200,7 +13188,7 @@
       <c r="AV142" s="32"/>
       <c r="AW142" s="32"/>
       <c r="AX142" s="32" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="AY142" s="32"/>
       <c r="AZ142" s="32"/>
@@ -13219,7 +13207,7 @@
     </row>
     <row r="143" spans="1:64" ht="20.5" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A143" s="31" t="s">
-        <v>263</v>
+        <v>259</v>
       </c>
       <c r="B143" s="32"/>
       <c r="C143" s="32"/>
@@ -13237,7 +13225,7 @@
       <c r="O143" s="32"/>
       <c r="P143" s="32"/>
       <c r="Q143" s="32" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="R143" s="32"/>
       <c r="S143" s="32"/>
@@ -13264,7 +13252,7 @@
       <c r="AN143" s="32"/>
       <c r="AO143" s="32"/>
       <c r="AP143" s="32" t="s">
-        <v>249</v>
+        <v>245</v>
       </c>
       <c r="AQ143" s="32"/>
       <c r="AR143" s="32"/>
@@ -13274,7 +13262,7 @@
       <c r="AV143" s="32"/>
       <c r="AW143" s="32"/>
       <c r="AX143" s="32" t="s">
-        <v>357</v>
+        <v>353</v>
       </c>
       <c r="AY143" s="32"/>
       <c r="AZ143" s="32"/>
@@ -13293,7 +13281,7 @@
     </row>
     <row r="144" spans="1:64" ht="10.5" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A144" s="31" t="s">
-        <v>264</v>
+        <v>260</v>
       </c>
       <c r="B144" s="32"/>
       <c r="C144" s="32"/>
@@ -13312,7 +13300,7 @@
       <c r="P144" s="32"/>
       <c r="Q144" s="32"/>
       <c r="R144" s="32" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="S144" s="32"/>
       <c r="T144" s="32"/>
@@ -13338,7 +13326,7 @@
       <c r="AN144" s="32"/>
       <c r="AO144" s="32"/>
       <c r="AP144" s="32" t="s">
-        <v>249</v>
+        <v>245</v>
       </c>
       <c r="AQ144" s="32"/>
       <c r="AR144" s="32"/>
@@ -13349,7 +13337,7 @@
       <c r="AW144" s="32"/>
       <c r="AX144" s="32"/>
       <c r="AY144" s="32" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="AZ144" s="32"/>
       <c r="BA144" s="32"/>
@@ -13367,7 +13355,7 @@
     </row>
     <row r="145" spans="1:64" ht="20.5" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A145" s="31" t="s">
-        <v>265</v>
+        <v>261</v>
       </c>
       <c r="B145" s="32"/>
       <c r="C145" s="32"/>
@@ -13387,7 +13375,7 @@
       <c r="Q145" s="32"/>
       <c r="R145" s="32"/>
       <c r="S145" s="32" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="T145" s="32"/>
       <c r="U145" s="32"/>
@@ -13412,7 +13400,7 @@
       <c r="AN145" s="32"/>
       <c r="AO145" s="32"/>
       <c r="AP145" s="32" t="s">
-        <v>249</v>
+        <v>245</v>
       </c>
       <c r="AQ145" s="32"/>
       <c r="AR145" s="32"/>
@@ -13423,7 +13411,7 @@
       <c r="AW145" s="32"/>
       <c r="AX145" s="32"/>
       <c r="AY145" s="32" t="s">
-        <v>357</v>
+        <v>353</v>
       </c>
       <c r="AZ145" s="32"/>
       <c r="BA145" s="32"/>
@@ -13441,7 +13429,7 @@
     </row>
     <row r="146" spans="1:64" ht="10.5" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A146" s="31" t="s">
-        <v>266</v>
+        <v>262</v>
       </c>
       <c r="B146" s="32"/>
       <c r="C146" s="32"/>
@@ -13462,7 +13450,7 @@
       <c r="R146" s="32"/>
       <c r="S146" s="32"/>
       <c r="T146" s="32" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="U146" s="32"/>
       <c r="V146" s="32"/>
@@ -13486,7 +13474,7 @@
       <c r="AN146" s="32"/>
       <c r="AO146" s="32"/>
       <c r="AP146" s="32" t="s">
-        <v>249</v>
+        <v>245</v>
       </c>
       <c r="AQ146" s="32"/>
       <c r="AR146" s="32"/>
@@ -13498,7 +13486,7 @@
       <c r="AX146" s="32"/>
       <c r="AY146" s="32"/>
       <c r="AZ146" s="32" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="BA146" s="32"/>
       <c r="BB146" s="32"/>
@@ -13515,7 +13503,7 @@
     </row>
     <row r="147" spans="1:64" ht="20.5" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A147" s="31" t="s">
-        <v>267</v>
+        <v>263</v>
       </c>
       <c r="B147" s="32"/>
       <c r="C147" s="32"/>
@@ -13537,7 +13525,7 @@
       <c r="S147" s="32"/>
       <c r="T147" s="32"/>
       <c r="U147" s="32" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="V147" s="32"/>
       <c r="W147" s="32"/>
@@ -13560,7 +13548,7 @@
       <c r="AN147" s="32"/>
       <c r="AO147" s="32"/>
       <c r="AP147" s="32" t="s">
-        <v>249</v>
+        <v>245</v>
       </c>
       <c r="AQ147" s="32"/>
       <c r="AR147" s="32"/>
@@ -13572,7 +13560,7 @@
       <c r="AX147" s="32"/>
       <c r="AY147" s="32"/>
       <c r="AZ147" s="32" t="s">
-        <v>357</v>
+        <v>353</v>
       </c>
       <c r="BA147" s="32"/>
       <c r="BB147" s="32"/>
@@ -13589,7 +13577,7 @@
     </row>
     <row r="148" spans="1:64" ht="10.5" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A148" s="31" t="s">
-        <v>268</v>
+        <v>264</v>
       </c>
       <c r="B148" s="32"/>
       <c r="C148" s="32"/>
@@ -13612,7 +13600,7 @@
       <c r="T148" s="32"/>
       <c r="U148" s="32"/>
       <c r="V148" s="32" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="W148" s="32"/>
       <c r="X148" s="32"/>
@@ -13634,7 +13622,7 @@
       <c r="AN148" s="32"/>
       <c r="AO148" s="32"/>
       <c r="AP148" s="32" t="s">
-        <v>249</v>
+        <v>245</v>
       </c>
       <c r="AQ148" s="32"/>
       <c r="AR148" s="32"/>
@@ -13647,7 +13635,7 @@
       <c r="AY148" s="32"/>
       <c r="AZ148" s="32"/>
       <c r="BA148" s="32" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="BB148" s="32"/>
       <c r="BC148" s="32"/>
@@ -13663,7 +13651,7 @@
     </row>
     <row r="149" spans="1:64" ht="20.5" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A149" s="31" t="s">
-        <v>269</v>
+        <v>265</v>
       </c>
       <c r="B149" s="32"/>
       <c r="C149" s="32"/>
@@ -13687,7 +13675,7 @@
       <c r="U149" s="32"/>
       <c r="V149" s="32"/>
       <c r="W149" s="32" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="X149" s="32"/>
       <c r="Y149" s="32"/>
@@ -13708,7 +13696,7 @@
       <c r="AN149" s="32"/>
       <c r="AO149" s="32"/>
       <c r="AP149" s="32" t="s">
-        <v>249</v>
+        <v>245</v>
       </c>
       <c r="AQ149" s="32"/>
       <c r="AR149" s="32"/>
@@ -13721,7 +13709,7 @@
       <c r="AY149" s="32"/>
       <c r="AZ149" s="32"/>
       <c r="BA149" s="32" t="s">
-        <v>357</v>
+        <v>353</v>
       </c>
       <c r="BB149" s="32"/>
       <c r="BC149" s="32"/>
@@ -13737,7 +13725,7 @@
     </row>
     <row r="150" spans="1:64" ht="10.5" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A150" s="31" t="s">
-        <v>270</v>
+        <v>266</v>
       </c>
       <c r="B150" s="32"/>
       <c r="C150" s="32"/>
@@ -13762,7 +13750,7 @@
       <c r="V150" s="32"/>
       <c r="W150" s="32"/>
       <c r="X150" s="32" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="Y150" s="32"/>
       <c r="Z150" s="32"/>
@@ -13782,7 +13770,7 @@
       <c r="AN150" s="32"/>
       <c r="AO150" s="32"/>
       <c r="AP150" s="32" t="s">
-        <v>249</v>
+        <v>245</v>
       </c>
       <c r="AQ150" s="32"/>
       <c r="AR150" s="32"/>
@@ -13796,7 +13784,7 @@
       <c r="AZ150" s="32"/>
       <c r="BA150" s="32"/>
       <c r="BB150" s="32" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="BC150" s="32"/>
       <c r="BD150" s="32"/>
@@ -13811,7 +13799,7 @@
     </row>
     <row r="151" spans="1:64" ht="10.5" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A151" s="31" t="s">
-        <v>271</v>
+        <v>267</v>
       </c>
       <c r="B151" s="32"/>
       <c r="C151" s="32"/>
@@ -13837,7 +13825,7 @@
       <c r="W151" s="32"/>
       <c r="X151" s="32"/>
       <c r="Y151" s="32" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="Z151" s="32"/>
       <c r="AA151" s="32"/>
@@ -13856,7 +13844,7 @@
       <c r="AN151" s="32"/>
       <c r="AO151" s="32"/>
       <c r="AP151" s="32" t="s">
-        <v>249</v>
+        <v>245</v>
       </c>
       <c r="AQ151" s="32"/>
       <c r="AR151" s="32"/>
@@ -13870,7 +13858,7 @@
       <c r="AZ151" s="32"/>
       <c r="BA151" s="32"/>
       <c r="BB151" s="32" t="s">
-        <v>357</v>
+        <v>353</v>
       </c>
       <c r="BC151" s="32"/>
       <c r="BD151" s="32"/>
@@ -13885,7 +13873,7 @@
     </row>
     <row r="152" spans="1:64" ht="10.5" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A152" s="31" t="s">
-        <v>272</v>
+        <v>268</v>
       </c>
       <c r="B152" s="32"/>
       <c r="C152" s="32"/>
@@ -13912,7 +13900,7 @@
       <c r="X152" s="32"/>
       <c r="Y152" s="32"/>
       <c r="Z152" s="32" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="AA152" s="32"/>
       <c r="AB152" s="32"/>
@@ -13930,7 +13918,7 @@
       <c r="AN152" s="32"/>
       <c r="AO152" s="32"/>
       <c r="AP152" s="32" t="s">
-        <v>249</v>
+        <v>245</v>
       </c>
       <c r="AQ152" s="32"/>
       <c r="AR152" s="32"/>
@@ -13945,7 +13933,7 @@
       <c r="BA152" s="32"/>
       <c r="BB152" s="32"/>
       <c r="BC152" s="32" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="BD152" s="32"/>
       <c r="BE152" s="32"/>
@@ -13959,7 +13947,7 @@
     </row>
     <row r="153" spans="1:64" ht="20.5" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A153" s="31" t="s">
-        <v>273</v>
+        <v>269</v>
       </c>
       <c r="B153" s="32"/>
       <c r="C153" s="32"/>
@@ -13987,7 +13975,7 @@
       <c r="Y153" s="32"/>
       <c r="Z153" s="32"/>
       <c r="AA153" s="32" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="AB153" s="32"/>
       <c r="AC153" s="32"/>
@@ -14004,7 +13992,7 @@
       <c r="AN153" s="32"/>
       <c r="AO153" s="32"/>
       <c r="AP153" s="32" t="s">
-        <v>249</v>
+        <v>245</v>
       </c>
       <c r="AQ153" s="32"/>
       <c r="AR153" s="32"/>
@@ -14019,7 +14007,7 @@
       <c r="BA153" s="32"/>
       <c r="BB153" s="32"/>
       <c r="BC153" s="32" t="s">
-        <v>357</v>
+        <v>353</v>
       </c>
       <c r="BD153" s="32"/>
       <c r="BE153" s="32"/>
@@ -14033,7 +14021,7 @@
     </row>
     <row r="154" spans="1:64" ht="10.5" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A154" s="31" t="s">
-        <v>274</v>
+        <v>270</v>
       </c>
       <c r="B154" s="32"/>
       <c r="C154" s="32"/>
@@ -14062,7 +14050,7 @@
       <c r="Z154" s="32"/>
       <c r="AA154" s="32"/>
       <c r="AB154" s="32" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="AC154" s="32"/>
       <c r="AD154" s="32"/>
@@ -14078,7 +14066,7 @@
       <c r="AN154" s="32"/>
       <c r="AO154" s="32"/>
       <c r="AP154" s="32" t="s">
-        <v>249</v>
+        <v>245</v>
       </c>
       <c r="AQ154" s="32"/>
       <c r="AR154" s="32"/>
@@ -14094,7 +14082,7 @@
       <c r="BB154" s="32"/>
       <c r="BC154" s="32"/>
       <c r="BD154" s="32" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="BE154" s="32"/>
       <c r="BF154" s="32"/>
@@ -14107,7 +14095,7 @@
     </row>
     <row r="155" spans="1:64" ht="20.5" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A155" s="31" t="s">
-        <v>275</v>
+        <v>271</v>
       </c>
       <c r="B155" s="32"/>
       <c r="C155" s="32"/>
@@ -14137,7 +14125,7 @@
       <c r="AA155" s="32"/>
       <c r="AB155" s="32"/>
       <c r="AC155" s="32" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="AD155" s="32"/>
       <c r="AE155" s="32"/>
@@ -14152,7 +14140,7 @@
       <c r="AN155" s="32"/>
       <c r="AO155" s="32"/>
       <c r="AP155" s="32" t="s">
-        <v>249</v>
+        <v>245</v>
       </c>
       <c r="AQ155" s="32"/>
       <c r="AR155" s="32"/>
@@ -14168,7 +14156,7 @@
       <c r="BB155" s="32"/>
       <c r="BC155" s="32"/>
       <c r="BD155" s="32" t="s">
-        <v>357</v>
+        <v>353</v>
       </c>
       <c r="BE155" s="32"/>
       <c r="BF155" s="32"/>
@@ -14181,7 +14169,7 @@
     </row>
     <row r="156" spans="1:64" ht="10.5" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A156" s="31" t="s">
-        <v>364</v>
+        <v>360</v>
       </c>
       <c r="B156" s="32"/>
       <c r="C156" s="32"/>
@@ -14212,7 +14200,7 @@
       <c r="AB156" s="32"/>
       <c r="AC156" s="32"/>
       <c r="AD156" s="32" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="AE156" s="32"/>
       <c r="AF156" s="32"/>
@@ -14226,7 +14214,7 @@
       <c r="AN156" s="32"/>
       <c r="AO156" s="32"/>
       <c r="AP156" s="32" t="s">
-        <v>249</v>
+        <v>245</v>
       </c>
       <c r="AQ156" s="32"/>
       <c r="AR156" s="32"/>
@@ -14243,7 +14231,7 @@
       <c r="BC156" s="32"/>
       <c r="BD156" s="32"/>
       <c r="BE156" s="32" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="BF156" s="32"/>
       <c r="BG156" s="32"/>
@@ -14255,7 +14243,7 @@
     </row>
     <row r="157" spans="1:64" ht="20.5" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A157" s="31" t="s">
-        <v>365</v>
+        <v>361</v>
       </c>
       <c r="B157" s="32"/>
       <c r="C157" s="32"/>
@@ -14287,7 +14275,7 @@
       <c r="AC157" s="32"/>
       <c r="AD157" s="32"/>
       <c r="AE157" s="32" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="AF157" s="32"/>
       <c r="AG157" s="32"/>
@@ -14300,7 +14288,7 @@
       <c r="AN157" s="32"/>
       <c r="AO157" s="32"/>
       <c r="AP157" s="32" t="s">
-        <v>249</v>
+        <v>245</v>
       </c>
       <c r="AQ157" s="32"/>
       <c r="AR157" s="32"/>
@@ -14317,7 +14305,7 @@
       <c r="BC157" s="32"/>
       <c r="BD157" s="32"/>
       <c r="BE157" s="32" t="s">
-        <v>357</v>
+        <v>353</v>
       </c>
       <c r="BF157" s="32"/>
       <c r="BG157" s="32"/>
@@ -14329,7 +14317,7 @@
     </row>
     <row r="158" spans="1:64" ht="10.5" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A158" s="31" t="s">
-        <v>366</v>
+        <v>362</v>
       </c>
       <c r="B158" s="32"/>
       <c r="C158" s="32"/>
@@ -14363,7 +14351,7 @@
       <c r="AE158" s="32"/>
       <c r="AF158" s="32"/>
       <c r="AG158" s="32" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="AH158" s="32"/>
       <c r="AI158" s="32"/>
@@ -14374,7 +14362,7 @@
       <c r="AN158" s="32"/>
       <c r="AO158" s="32"/>
       <c r="AP158" s="32" t="s">
-        <v>249</v>
+        <v>245</v>
       </c>
       <c r="AQ158" s="32"/>
       <c r="AR158" s="32"/>
@@ -14392,7 +14380,7 @@
       <c r="BD158" s="32"/>
       <c r="BE158" s="32"/>
       <c r="BF158" s="32" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="BG158" s="32"/>
       <c r="BH158" s="32"/>
@@ -14403,7 +14391,7 @@
     </row>
     <row r="159" spans="1:64" ht="20.5" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A159" s="31" t="s">
-        <v>367</v>
+        <v>363</v>
       </c>
       <c r="B159" s="32"/>
       <c r="C159" s="32"/>
@@ -14438,7 +14426,7 @@
       <c r="AF159" s="32"/>
       <c r="AG159" s="32"/>
       <c r="AH159" s="32" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="AI159" s="32"/>
       <c r="AJ159" s="32"/>
@@ -14448,7 +14436,7 @@
       <c r="AN159" s="32"/>
       <c r="AO159" s="32"/>
       <c r="AP159" s="32" t="s">
-        <v>249</v>
+        <v>245</v>
       </c>
       <c r="AQ159" s="32"/>
       <c r="AR159" s="32"/>
@@ -14466,7 +14454,7 @@
       <c r="BD159" s="32"/>
       <c r="BE159" s="32"/>
       <c r="BF159" s="32" t="s">
-        <v>357</v>
+        <v>353</v>
       </c>
       <c r="BG159" s="32"/>
       <c r="BH159" s="32"/>
@@ -14477,7 +14465,7 @@
     </row>
     <row r="160" spans="1:64" ht="20.5" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A160" s="31" t="s">
-        <v>381</v>
+        <v>377</v>
       </c>
       <c r="B160" s="32"/>
       <c r="C160" s="32"/>
@@ -14513,7 +14501,7 @@
       <c r="AG160" s="32"/>
       <c r="AH160" s="32"/>
       <c r="AI160" s="32" t="s">
-        <v>378</v>
+        <v>374</v>
       </c>
       <c r="AJ160" s="32"/>
       <c r="AK160" s="32"/>
@@ -14522,7 +14510,7 @@
       <c r="AN160" s="32"/>
       <c r="AO160" s="32"/>
       <c r="AP160" s="32" t="s">
-        <v>249</v>
+        <v>245</v>
       </c>
       <c r="AQ160" s="32"/>
       <c r="AR160" s="32"/>
@@ -14541,7 +14529,7 @@
       <c r="BE160" s="32"/>
       <c r="BF160" s="32"/>
       <c r="BG160" s="32" t="s">
-        <v>382</v>
+        <v>378</v>
       </c>
       <c r="BH160" s="32"/>
       <c r="BI160" s="32"/>
@@ -14551,7 +14539,7 @@
     </row>
     <row r="161" spans="1:64" ht="20.5" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A161" s="31" t="s">
-        <v>368</v>
+        <v>364</v>
       </c>
       <c r="B161" s="32"/>
       <c r="C161" s="32"/>
@@ -14588,7 +14576,7 @@
       <c r="AH161" s="32"/>
       <c r="AI161" s="32"/>
       <c r="AJ161" s="32" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="AK161" s="32"/>
       <c r="AL161" s="32"/>
@@ -14596,7 +14584,7 @@
       <c r="AN161" s="32"/>
       <c r="AO161" s="32"/>
       <c r="AP161" s="32" t="s">
-        <v>249</v>
+        <v>245</v>
       </c>
       <c r="AQ161" s="32"/>
       <c r="AR161" s="32"/>
@@ -14615,7 +14603,7 @@
       <c r="BE161" s="32"/>
       <c r="BF161" s="32"/>
       <c r="BG161" s="32" t="s">
-        <v>357</v>
+        <v>353</v>
       </c>
       <c r="BH161" s="32"/>
       <c r="BI161" s="32"/>
@@ -14625,7 +14613,7 @@
     </row>
     <row r="162" spans="1:64" ht="90.5" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A162" s="31" t="s">
-        <v>276</v>
+        <v>272</v>
       </c>
       <c r="B162" s="32"/>
       <c r="C162" s="32"/>
@@ -14663,14 +14651,14 @@
       <c r="AI162" s="32"/>
       <c r="AJ162" s="32"/>
       <c r="AK162" s="32" t="s">
-        <v>399</v>
+        <v>395</v>
       </c>
       <c r="AL162" s="32"/>
       <c r="AM162" s="32"/>
       <c r="AN162" s="32"/>
       <c r="AO162" s="32"/>
       <c r="AP162" s="32" t="s">
-        <v>249</v>
+        <v>245</v>
       </c>
       <c r="AQ162" s="32"/>
       <c r="AR162" s="32"/>
@@ -14690,7 +14678,7 @@
       <c r="BF162" s="32"/>
       <c r="BG162" s="32"/>
       <c r="BH162" s="32" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="BI162" s="32"/>
       <c r="BJ162" s="33"/>
@@ -14699,7 +14687,7 @@
     </row>
     <row r="163" spans="1:64" ht="90.5" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A163" s="31" t="s">
-        <v>277</v>
+        <v>273</v>
       </c>
       <c r="B163" s="32"/>
       <c r="C163" s="32"/>
@@ -14738,13 +14726,13 @@
       <c r="AJ163" s="32"/>
       <c r="AK163" s="32"/>
       <c r="AL163" s="32" t="s">
-        <v>399</v>
+        <v>395</v>
       </c>
       <c r="AM163" s="32"/>
       <c r="AN163" s="32"/>
       <c r="AO163" s="32"/>
       <c r="AP163" s="32" t="s">
-        <v>249</v>
+        <v>245</v>
       </c>
       <c r="AQ163" s="32"/>
       <c r="AR163" s="32"/>
@@ -14764,7 +14752,7 @@
       <c r="BF163" s="32"/>
       <c r="BG163" s="32"/>
       <c r="BH163" s="32" t="s">
-        <v>357</v>
+        <v>353</v>
       </c>
       <c r="BI163" s="32"/>
       <c r="BJ163" s="33"/>
@@ -14773,7 +14761,7 @@
     </row>
     <row r="164" spans="1:64" ht="20.5" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A164" s="31" t="s">
-        <v>278</v>
+        <v>274</v>
       </c>
       <c r="B164" s="32"/>
       <c r="C164" s="32"/>
@@ -14813,12 +14801,12 @@
       <c r="AK164" s="32"/>
       <c r="AL164" s="32"/>
       <c r="AM164" s="32" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="AN164" s="32"/>
       <c r="AO164" s="32"/>
       <c r="AP164" s="32" t="s">
-        <v>249</v>
+        <v>245</v>
       </c>
       <c r="AQ164" s="32"/>
       <c r="AR164" s="32"/>
@@ -14839,7 +14827,7 @@
       <c r="BG164" s="32"/>
       <c r="BH164" s="32"/>
       <c r="BI164" s="32" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="BJ164" s="33"/>
       <c r="BK164" s="33"/>
@@ -14847,7 +14835,7 @@
     </row>
     <row r="165" spans="1:64" ht="20.5" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A165" s="42" t="s">
-        <v>279</v>
+        <v>275</v>
       </c>
       <c r="B165" s="32"/>
       <c r="C165" s="32"/>
@@ -14888,11 +14876,11 @@
       <c r="AL165" s="32"/>
       <c r="AM165" s="32"/>
       <c r="AN165" s="32" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="AO165" s="32"/>
       <c r="AP165" s="32" t="s">
-        <v>249</v>
+        <v>245</v>
       </c>
       <c r="AQ165" s="32"/>
       <c r="AR165" s="32"/>
@@ -14913,7 +14901,7 @@
       <c r="BG165" s="32"/>
       <c r="BH165" s="32"/>
       <c r="BI165" s="32" t="s">
-        <v>357</v>
+        <v>353</v>
       </c>
       <c r="BJ165" s="33"/>
       <c r="BK165" s="33"/>
@@ -14921,7 +14909,7 @@
     </row>
     <row r="166" spans="1:64" ht="20.5" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A166" s="31" t="s">
-        <v>383</v>
+        <v>379</v>
       </c>
       <c r="B166" s="32"/>
       <c r="C166" s="32"/>
@@ -14954,7 +14942,7 @@
       <c r="AD166" s="33"/>
       <c r="AE166" s="33"/>
       <c r="AF166" s="15" t="s">
-        <v>375</v>
+        <v>371</v>
       </c>
       <c r="AG166" s="33"/>
       <c r="AH166" s="33"/>
@@ -14966,7 +14954,7 @@
       <c r="AN166" s="33"/>
       <c r="AO166" s="33"/>
       <c r="AP166" s="32" t="s">
-        <v>249</v>
+        <v>245</v>
       </c>
       <c r="AQ166" s="33"/>
       <c r="AR166" s="33"/>
@@ -14988,14 +14976,14 @@
       <c r="BH166" s="33"/>
       <c r="BI166" s="33"/>
       <c r="BJ166" s="15" t="s">
-        <v>384</v>
+        <v>380</v>
       </c>
       <c r="BK166" s="33"/>
       <c r="BL166" s="33"/>
     </row>
     <row r="167" spans="1:64" ht="10.5" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A167" s="31" t="s">
-        <v>385</v>
+        <v>381</v>
       </c>
       <c r="B167" s="32"/>
       <c r="C167" s="32"/>
@@ -15037,10 +15025,10 @@
       <c r="AM167" s="33"/>
       <c r="AN167" s="33"/>
       <c r="AO167" s="15" t="s">
-        <v>386</v>
+        <v>382</v>
       </c>
       <c r="AP167" s="32" t="s">
-        <v>249</v>
+        <v>245</v>
       </c>
       <c r="AQ167" s="33"/>
       <c r="AR167" s="33"/>
@@ -15063,7 +15051,7 @@
       <c r="BI167" s="33"/>
       <c r="BJ167" s="33"/>
       <c r="BK167" s="33" t="s">
-        <v>387</v>
+        <v>383</v>
       </c>
       <c r="BL167" s="33"/>
     </row>
